--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A7F7991-25E7-48B7-8A9E-1A10C5FF4D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17759FC4-793F-4399-AA92-887744DC6DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2790" yWindow="105" windowWidth="18435" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="1190">
   <si>
     <t>NAS</t>
   </si>
@@ -5006,12 +5006,63 @@
   <si>
     <t>energy assisted perpendicular magnetic recording</t>
   </si>
+  <si>
+    <t>SSDP</t>
+  </si>
+  <si>
+    <t>Simple Service Discovery Protocol</t>
+  </si>
+  <si>
+    <t>apipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Private IP Addressing </t>
+  </si>
+  <si>
+    <t>Request for Comments</t>
+  </si>
+  <si>
+    <t>rfc</t>
+  </si>
+  <si>
+    <t>IHL</t>
+  </si>
+  <si>
+    <t>IP header length </t>
+  </si>
+  <si>
+    <t>poof</t>
+  </si>
+  <si>
+    <t>pong</t>
+  </si>
+  <si>
+    <t>ping pong</t>
+  </si>
+  <si>
+    <t>Passive Observation Of Failures</t>
+  </si>
+  <si>
+    <t>When a host sees a
+     multicast query, but does not see the corresponding multicast
+     response, it can use this information to promptly delete stale data
+     from its cache.  To achieve the same level of user-interface
+     quality and responsiveness without multicast responses would
+     require lower cache lifetimes and more frequent network polling,
+     resulting in a higher packet rate.</t>
+  </si>
+  <si>
+    <t>Explicit Congestion Notification ()</t>
+  </si>
+  <si>
+    <t>ECN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="121">
+  <fonts count="122">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5698,6 +5749,12 @@
       <color rgb="FF585961"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5726,7 +5783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6156,6 +6213,12 @@
     <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6311,8 +6374,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F369" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F369" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F376" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F376" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">
     <sortCondition ref="A1:A299"/>
   </sortState>
@@ -6591,10 +6654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD369"/>
+  <dimension ref="A1:XFD376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B369" sqref="B369"/>
+    <sheetView tabSelected="1" topLeftCell="A363" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
@@ -13217,7 +13280,7 @@
       <c r="E364" s="122"/>
       <c r="F364" s="163"/>
     </row>
-    <row r="365" spans="1:6" customFormat="1" ht="27.75">
+    <row r="365" spans="1:6" ht="27.75">
       <c r="A365" s="108" t="s">
         <v>1166</v>
       </c>
@@ -13229,7 +13292,7 @@
       <c r="E365" s="122"/>
       <c r="F365" s="163"/>
     </row>
-    <row r="366" spans="1:6" customFormat="1" ht="75">
+    <row r="366" spans="1:6" ht="75">
       <c r="A366" s="108" t="s">
         <v>1169</v>
       </c>
@@ -13243,7 +13306,7 @@
       <c r="E366" s="122"/>
       <c r="F366" s="163"/>
     </row>
-    <row r="367" spans="1:6" customFormat="1">
+    <row r="367" spans="1:6">
       <c r="A367" s="108" t="s">
         <v>1173</v>
       </c>
@@ -13276,6 +13339,92 @@
       <c r="D369" s="117"/>
       <c r="E369" s="122"/>
       <c r="F369" s="163"/>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="108" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B370" s="109" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C370" s="110"/>
+      <c r="D370" s="117"/>
+      <c r="E370" s="122"/>
+      <c r="F370" s="163"/>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="108" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B371" s="109" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C371" s="110"/>
+      <c r="D371" s="117"/>
+      <c r="E371" s="122"/>
+      <c r="F371" s="163"/>
+    </row>
+    <row r="372" spans="1:6" ht="27.75">
+      <c r="A372" s="108" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B372" s="109" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C372" s="110"/>
+      <c r="D372" s="117"/>
+      <c r="E372" s="122"/>
+      <c r="F372" s="163"/>
+    </row>
+    <row r="373" spans="1:6" ht="29.25">
+      <c r="A373" s="169" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B373" s="173" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C373" s="110"/>
+      <c r="D373" s="117"/>
+      <c r="E373" s="122"/>
+      <c r="F373" s="163"/>
+    </row>
+    <row r="374" spans="1:6" ht="135">
+      <c r="A374" s="108" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B374" s="109" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C374" s="110"/>
+      <c r="D374" s="117" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E374" s="122"/>
+      <c r="F374" s="163"/>
+    </row>
+    <row r="375" spans="1:6" ht="27.75">
+      <c r="A375" s="108" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B375" s="109"/>
+      <c r="C375" s="110"/>
+      <c r="D375" s="117" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E375" s="122"/>
+      <c r="F375" s="163"/>
+    </row>
+    <row r="376" spans="1:6" ht="83.25">
+      <c r="A376" s="108" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B376" s="174" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C376" s="110"/>
+      <c r="D376" s="117"/>
+      <c r="E376" s="122"/>
+      <c r="F376" s="163"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D283">

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorio/Sites/markdown/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAC163A-CA51-7D40-A362-B6D56D31104B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33FD53E-00A4-415B-BD10-7E392512A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="105" windowWidth="23490" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="1285">
   <si>
     <t>NAS</t>
   </si>
@@ -5371,12 +5371,27 @@
   <si>
     <t>Mean Time Between Failure</t>
   </si>
+  <si>
+    <t>The initials of nmbd stand for NetBIOS Message Block Daemon. The nmbd server daemon understands and replies to NetBIOS name service requests such as those produced by SMB/CIFS in Windows-based systems. The smbd server daemon provides file sharing and printing services to Windows clients.</t>
+  </si>
+  <si>
+    <t>nmbd</t>
+  </si>
+  <si>
+    <t>NetBIOS Message Block Daemon</t>
+  </si>
+  <si>
+    <t>nbns</t>
+  </si>
+  <si>
+    <t>NetBIOS Name Service</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="133" x14ac:knownFonts="1">
+  <fonts count="133">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6617,6 +6632,28 @@
   <dxfs count="8">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Futura"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <name val="Futura"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6641,15 +6678,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <name val="Futura"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -6671,19 +6699,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Futura"/>
-        <scheme val="none"/>
-      </font>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6764,18 +6779,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F410" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F410" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F413" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F413" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">
     <sortCondition ref="A1:A299"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{38398A18-3893-4626-BEA7-125709198425}" name="abkürzung" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{E64202E3-5BFC-49DB-8FB8-BA3F19BA422C}" name="means" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{CAD88F97-5D18-42FF-83DE-95F6F4A24513}" name="fach" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3C2C066B-E107-40FE-BEBE-8959BFEC20C8}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CAD88F97-5D18-42FF-83DE-95F6F4A24513}" name="fach" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3C2C066B-E107-40FE-BEBE-8959BFEC20C8}" name="Column1" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{C7A3C583-19A7-4A7C-9842-10D39579E061}" name="img" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{01C19B2C-F0EA-4FDB-975F-A6864A17745E}" name="link" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{01C19B2C-F0EA-4FDB-975F-A6864A17745E}" name="link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7044,22 +7059,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD410"/>
+  <dimension ref="A1:XFD413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D408" sqref="D408"/>
+    <sheetView tabSelected="1" topLeftCell="A408" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="66.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="27.75">
       <c r="A1" s="100" t="s">
         <v>39</v>
       </c>
@@ -7079,7 +7094,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="121" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="117">
       <c r="A2" s="9" t="s">
         <v>594</v>
       </c>
@@ -7099,7 +7114,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="85" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="71.25">
       <c r="A3" s="13" t="s">
         <v>267</v>
       </c>
@@ -7117,7 +7132,7 @@
       </c>
       <c r="F3" s="134"/>
     </row>
-    <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="36">
       <c r="A4" s="13" t="s">
         <v>268</v>
       </c>
@@ -7133,7 +7148,7 @@
       <c r="E4" s="112"/>
       <c r="F4" s="134"/>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="27">
       <c r="A5" s="13" t="s">
         <v>266</v>
       </c>
@@ -7149,7 +7164,7 @@
       <c r="E5" s="41"/>
       <c r="F5" s="68"/>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="27">
       <c r="A6" s="13" t="s">
         <v>277</v>
       </c>
@@ -7161,7 +7176,7 @@
       <c r="E6" s="112"/>
       <c r="F6" s="134"/>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="102">
       <c r="A7" s="9" t="s">
         <v>410</v>
       </c>
@@ -7181,7 +7196,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="45">
       <c r="A8" s="17" t="s">
         <v>80</v>
       </c>
@@ -7199,7 +7214,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="6" customFormat="1" ht="40.5">
       <c r="A9" s="13" t="s">
         <v>275</v>
       </c>
@@ -7213,7 +7228,7 @@
       <c r="E9" s="112"/>
       <c r="F9" s="134"/>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="46.5">
       <c r="A10" s="20" t="s">
         <v>596</v>
       </c>
@@ -7233,7 +7248,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="69.75">
       <c r="A11" s="21" t="s">
         <v>404</v>
       </c>
@@ -7253,7 +7268,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A12" s="17" t="s">
         <v>107</v>
       </c>
@@ -7273,7 +7288,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="45">
       <c r="A13" s="23" t="s">
         <v>599</v>
       </c>
@@ -7293,7 +7308,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="75">
       <c r="A14" s="24" t="s">
         <v>187</v>
       </c>
@@ -7311,7 +7326,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="102">
       <c r="A15" s="9" t="s">
         <v>353</v>
       </c>
@@ -7331,7 +7346,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="32.25">
       <c r="A16" s="17" t="s">
         <v>258</v>
       </c>
@@ -7351,7 +7366,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="6" customFormat="1" ht="103" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="6" customFormat="1" ht="102">
       <c r="A17" s="17" t="s">
         <v>224</v>
       </c>
@@ -7371,7 +7386,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" ht="82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="6" customFormat="1" ht="78.75">
       <c r="A18" s="23" t="s">
         <v>549</v>
       </c>
@@ -7391,7 +7406,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A19" s="9" t="s">
         <v>496</v>
       </c>
@@ -7411,7 +7426,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" s="7" customFormat="1" ht="47.25">
       <c r="A20" s="17" t="s">
         <v>25</v>
       </c>
@@ -7427,7 +7442,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="6" customFormat="1" ht="69" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" s="6" customFormat="1" ht="60.75">
       <c r="A21" s="17" t="s">
         <v>22</v>
       </c>
@@ -7447,7 +7462,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" ht="67" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" s="6" customFormat="1" ht="62.25">
       <c r="A22" s="9" t="s">
         <v>484</v>
       </c>
@@ -7467,7 +7482,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A23" s="17" t="s">
         <v>53</v>
       </c>
@@ -7487,7 +7502,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="6" customFormat="1" ht="31.5">
       <c r="A24" s="32" t="s">
         <v>568</v>
       </c>
@@ -7507,7 +7522,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="6" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="6" customFormat="1" ht="60">
       <c r="A25" s="9" t="s">
         <v>405</v>
       </c>
@@ -7527,7 +7542,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" ht="46" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" s="6" customFormat="1" ht="40.5">
       <c r="A26" s="34" t="s">
         <v>606</v>
       </c>
@@ -7547,7 +7562,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" ht="59" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" s="6" customFormat="1" ht="51.75">
       <c r="A27" s="9" t="s">
         <v>565</v>
       </c>
@@ -7567,7 +7582,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" ht="56" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" s="6" customFormat="1" ht="57">
       <c r="A28" s="39" t="s">
         <v>608</v>
       </c>
@@ -7587,7 +7602,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" s="6" customFormat="1" ht="75.75">
       <c r="A29" s="9" t="s">
         <v>381</v>
       </c>
@@ -7607,7 +7622,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A30" s="9" t="s">
         <v>422</v>
       </c>
@@ -7625,7 +7640,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="6" customFormat="1" ht="31.5">
       <c r="A31" s="41" t="s">
         <v>571</v>
       </c>
@@ -7645,7 +7660,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="6" customFormat="1" ht="85" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="6" customFormat="1" ht="85.5">
       <c r="A32" s="42" t="s">
         <v>371</v>
       </c>
@@ -7665,7 +7680,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" s="6" customFormat="1" ht="57">
       <c r="A33" s="9" t="s">
         <v>555</v>
       </c>
@@ -7685,7 +7700,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" s="8" customFormat="1" ht="57">
       <c r="A34" s="44" t="s">
         <v>249</v>
       </c>
@@ -7705,7 +7720,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" s="6" customFormat="1" ht="75">
       <c r="A35" s="17" t="s">
         <v>109</v>
       </c>
@@ -7725,7 +7740,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="33.75">
       <c r="A36" s="9" t="s">
         <v>581</v>
       </c>
@@ -7745,7 +7760,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:6" s="6" customFormat="1" ht="60.75">
       <c r="A37" s="46" t="s">
         <v>612</v>
       </c>
@@ -7765,7 +7780,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="65" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="60.75">
       <c r="A38" s="47" t="s">
         <v>470</v>
       </c>
@@ -7785,7 +7800,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" s="6" customFormat="1" ht="60">
       <c r="A39" s="9" t="s">
         <v>453</v>
       </c>
@@ -7803,7 +7818,7 @@
       </c>
       <c r="F39" s="68"/>
     </row>
-    <row r="40" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A40" s="9" t="s">
         <v>408</v>
       </c>
@@ -7821,7 +7836,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" s="6" customFormat="1" ht="75">
       <c r="A41" s="17" t="s">
         <v>101</v>
       </c>
@@ -7841,7 +7856,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A42" s="9" t="s">
         <v>369</v>
       </c>
@@ -7859,7 +7874,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="6" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="6" customFormat="1" ht="81" customHeight="1">
       <c r="A43" s="49" t="s">
         <v>393</v>
       </c>
@@ -7879,7 +7894,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="6" customFormat="1" ht="49" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="6" customFormat="1" ht="61.5">
       <c r="A44" s="45" t="s">
         <v>614</v>
       </c>
@@ -7899,7 +7914,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="62.25">
       <c r="A45" s="9" t="s">
         <v>395</v>
       </c>
@@ -7919,7 +7934,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="6" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" s="6" customFormat="1" ht="40.5">
       <c r="A46" s="17" t="s">
         <v>105</v>
       </c>
@@ -7939,7 +7954,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A47" s="17" t="s">
         <v>75</v>
       </c>
@@ -7959,7 +7974,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" s="6" customFormat="1" ht="76.5">
       <c r="A48" s="17" t="s">
         <v>344</v>
       </c>
@@ -7979,7 +7994,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="6" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" s="6" customFormat="1" ht="40.5">
       <c r="A49" s="17" t="s">
         <v>210</v>
       </c>
@@ -7997,7 +8012,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" s="6" customFormat="1" ht="60">
       <c r="A50" s="9" t="s">
         <v>333</v>
       </c>
@@ -8017,7 +8032,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A51" s="17" t="s">
         <v>615</v>
       </c>
@@ -8037,7 +8052,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="6" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A52" s="17" t="s">
         <v>90</v>
       </c>
@@ -8057,7 +8072,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="6" customFormat="1" ht="99" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" s="6" customFormat="1" ht="107.25">
       <c r="A53" s="9" t="s">
         <v>507</v>
       </c>
@@ -8077,7 +8092,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A54" s="62" t="s">
         <v>499</v>
       </c>
@@ -8097,7 +8112,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="6" customFormat="1" ht="136" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" s="6" customFormat="1" ht="131.25">
       <c r="A55" s="39" t="s">
         <v>232</v>
       </c>
@@ -8117,7 +8132,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="6" customFormat="1" ht="77" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" s="6" customFormat="1" ht="91.5">
       <c r="A56" s="17" t="s">
         <v>2</v>
       </c>
@@ -8137,7 +8152,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A57" s="9" t="s">
         <v>490</v>
       </c>
@@ -8157,7 +8172,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="6" customFormat="1" ht="51">
       <c r="A58" s="37" t="s">
         <v>559</v>
       </c>
@@ -8177,7 +8192,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="6" customFormat="1" ht="97" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="6" customFormat="1" ht="93">
       <c r="A59" s="47" t="s">
         <v>617</v>
       </c>
@@ -8197,7 +8212,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" s="6" customFormat="1" ht="46.5">
       <c r="A60" s="24" t="s">
         <v>347</v>
       </c>
@@ -8217,7 +8232,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" s="6" customFormat="1" ht="27">
       <c r="A61" s="13" t="s">
         <v>278</v>
       </c>
@@ -8235,7 +8250,7 @@
       </c>
       <c r="F61" s="134"/>
     </row>
-    <row r="62" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" s="6" customFormat="1" ht="60.75">
       <c r="A62" s="9" t="s">
         <v>385</v>
       </c>
@@ -8255,7 +8270,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A63" s="17" t="s">
         <v>92</v>
       </c>
@@ -8275,7 +8290,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" s="6" customFormat="1" ht="40.5">
       <c r="A64" s="39" t="s">
         <v>173</v>
       </c>
@@ -8295,7 +8310,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="6" customFormat="1" ht="107" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" s="6" customFormat="1" ht="105.75">
       <c r="A65" s="17" t="s">
         <v>21</v>
       </c>
@@ -8315,7 +8330,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" s="6" customFormat="1" ht="69.75">
       <c r="A66" s="9" t="s">
         <v>252</v>
       </c>
@@ -8335,7 +8350,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A67" s="9" t="s">
         <v>489</v>
       </c>
@@ -8355,7 +8370,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="6" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A68" s="17" t="s">
         <v>94</v>
       </c>
@@ -8375,7 +8390,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" s="6" customFormat="1" ht="60">
       <c r="A69" s="9" t="s">
         <v>391</v>
       </c>
@@ -8395,7 +8410,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="6" customFormat="1" ht="93" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" s="6" customFormat="1" ht="81">
       <c r="A70" s="59" t="s">
         <v>324</v>
       </c>
@@ -8415,7 +8430,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="47.25">
       <c r="A71" s="17" t="s">
         <v>54</v>
       </c>
@@ -8435,7 +8450,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" s="6" customFormat="1" ht="45">
       <c r="A72" s="17" t="s">
         <v>78</v>
       </c>
@@ -8455,7 +8470,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="6" customFormat="1" ht="88" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" s="6" customFormat="1" ht="81">
       <c r="A73" s="17" t="s">
         <v>71</v>
       </c>
@@ -8475,7 +8490,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="6" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" s="6" customFormat="1" ht="40.5">
       <c r="A74" s="17" t="s">
         <v>209</v>
       </c>
@@ -8489,7 +8504,7 @@
       <c r="E74" s="112"/>
       <c r="F74" s="134"/>
     </row>
-    <row r="75" spans="1:6" s="6" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" s="6" customFormat="1" ht="72.75">
       <c r="A75" s="17" t="s">
         <v>153</v>
       </c>
@@ -8509,7 +8524,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" s="6" customFormat="1" ht="93">
       <c r="A76" s="9" t="s">
         <v>505</v>
       </c>
@@ -8529,7 +8544,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="6" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A77" s="17" t="s">
         <v>68</v>
       </c>
@@ -8549,7 +8564,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A78" s="17" t="s">
         <v>62</v>
       </c>
@@ -8569,7 +8584,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" s="6" customFormat="1" ht="75">
       <c r="A79" s="9" t="s">
         <v>403</v>
       </c>
@@ -8589,7 +8604,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="6" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" s="6" customFormat="1" ht="90">
       <c r="A80" s="17" t="s">
         <v>667</v>
       </c>
@@ -8609,7 +8624,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="54" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="60">
       <c r="A81" s="62" t="s">
         <v>351</v>
       </c>
@@ -8629,7 +8644,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="6" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A82" s="9" t="s">
         <v>336</v>
       </c>
@@ -8649,7 +8664,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="47.25">
       <c r="A83" s="17" t="s">
         <v>183</v>
       </c>
@@ -8669,7 +8684,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" s="6" customFormat="1" ht="60">
       <c r="A84" s="9" t="s">
         <v>359</v>
       </c>
@@ -8689,7 +8704,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="306" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="270">
       <c r="A85" s="64" t="s">
         <v>430</v>
       </c>
@@ -8709,7 +8724,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" s="6" customFormat="1" ht="45">
       <c r="A86" s="9" t="s">
         <v>481</v>
       </c>
@@ -8729,7 +8744,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="60">
       <c r="A87" s="45" t="s">
         <v>425</v>
       </c>
@@ -8749,7 +8764,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" s="6" customFormat="1" ht="60">
       <c r="A88" s="45" t="s">
         <v>426</v>
       </c>
@@ -8767,7 +8782,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="6" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A89" s="9" t="s">
         <v>337</v>
       </c>
@@ -8787,7 +8802,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" s="6" customFormat="1" ht="60">
       <c r="A90" s="9" t="s">
         <v>438</v>
       </c>
@@ -8807,7 +8822,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" s="6" customFormat="1" ht="42.75">
       <c r="A91" s="9" t="s">
         <v>264</v>
       </c>
@@ -8827,7 +8842,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" s="6" customFormat="1" ht="60.75">
       <c r="A92" s="17" t="s">
         <v>98</v>
       </c>
@@ -8847,7 +8862,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" s="6" customFormat="1" ht="75">
       <c r="A93" s="9" t="s">
         <v>254</v>
       </c>
@@ -8867,7 +8882,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="6" customFormat="1" ht="46" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" s="6" customFormat="1" ht="46.5">
       <c r="A94" s="59" t="s">
         <v>321</v>
       </c>
@@ -8887,7 +8902,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A95" s="17" t="s">
         <v>52</v>
       </c>
@@ -8907,7 +8922,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" s="6" customFormat="1" ht="47.25">
       <c r="A96" s="9" t="s">
         <v>492</v>
       </c>
@@ -8927,7 +8942,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="6" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" s="6" customFormat="1" ht="36">
       <c r="A97" s="9" t="s">
         <v>497</v>
       </c>
@@ -8945,7 +8960,7 @@
       </c>
       <c r="F97" s="134"/>
     </row>
-    <row r="98" spans="1:6" s="6" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" s="6" customFormat="1" ht="36">
       <c r="A98" s="9" t="s">
         <v>494</v>
       </c>
@@ -8963,7 +8978,7 @@
       </c>
       <c r="F98" s="134"/>
     </row>
-    <row r="99" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" s="6" customFormat="1" ht="58.5">
       <c r="A99" s="9" t="s">
         <v>445</v>
       </c>
@@ -8981,7 +8996,7 @@
       </c>
       <c r="F99" s="134"/>
     </row>
-    <row r="100" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="6" customFormat="1" ht="46.5">
       <c r="A100" s="68" t="s">
         <v>464</v>
       </c>
@@ -8999,7 +9014,7 @@
       </c>
       <c r="F100" s="134"/>
     </row>
-    <row r="101" spans="1:6" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" s="6" customFormat="1" ht="75">
       <c r="A101" s="9" t="s">
         <v>447</v>
       </c>
@@ -9017,7 +9032,7 @@
       </c>
       <c r="F101" s="134"/>
     </row>
-    <row r="102" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" s="6" customFormat="1" ht="45">
       <c r="A102" s="17" t="s">
         <v>33</v>
       </c>
@@ -9035,7 +9050,7 @@
       </c>
       <c r="F102" s="134"/>
     </row>
-    <row r="103" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" s="6" customFormat="1" ht="42.75">
       <c r="A103" s="17" t="s">
         <v>145</v>
       </c>
@@ -9053,7 +9068,7 @@
       </c>
       <c r="F103" s="134"/>
     </row>
-    <row r="104" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" s="6" customFormat="1" ht="45">
       <c r="A104" s="17" t="s">
         <v>143</v>
       </c>
@@ -9071,7 +9086,7 @@
       </c>
       <c r="F104" s="134"/>
     </row>
-    <row r="105" spans="1:6" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" s="6" customFormat="1" ht="31.5">
       <c r="A105" s="17" t="s">
         <v>147</v>
       </c>
@@ -9089,7 +9104,7 @@
       </c>
       <c r="F105" s="134"/>
     </row>
-    <row r="106" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" s="6" customFormat="1" ht="45">
       <c r="A106" s="17" t="s">
         <v>84</v>
       </c>
@@ -9107,7 +9122,7 @@
       </c>
       <c r="F106" s="134"/>
     </row>
-    <row r="107" spans="1:6" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A107" s="17" t="s">
         <v>141</v>
       </c>
@@ -9125,7 +9140,7 @@
       </c>
       <c r="F107" s="134"/>
     </row>
-    <row r="108" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" s="6" customFormat="1" ht="45">
       <c r="A108" s="17" t="s">
         <v>8</v>
       </c>
@@ -9143,7 +9158,7 @@
       </c>
       <c r="F108" s="134"/>
     </row>
-    <row r="109" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" s="6" customFormat="1" ht="27">
       <c r="A109" s="13" t="s">
         <v>281</v>
       </c>
@@ -9159,7 +9174,7 @@
       <c r="E109" s="112"/>
       <c r="F109" s="134"/>
     </row>
-    <row r="110" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="30">
       <c r="A110" s="9" t="s">
         <v>511</v>
       </c>
@@ -9177,7 +9192,7 @@
       </c>
       <c r="F110" s="134"/>
     </row>
-    <row r="111" spans="1:6" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" s="6" customFormat="1" ht="75">
       <c r="A111" s="9" t="s">
         <v>364</v>
       </c>
@@ -9195,7 +9210,7 @@
       </c>
       <c r="F111" s="68"/>
     </row>
-    <row r="112" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="40.5">
       <c r="A112" s="17" t="s">
         <v>195</v>
       </c>
@@ -9209,7 +9224,7 @@
       <c r="E112" s="41"/>
       <c r="F112" s="134"/>
     </row>
-    <row r="113" spans="1:6" ht="68" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="57">
       <c r="A113" s="9" t="s">
         <v>167</v>
       </c>
@@ -9227,7 +9242,7 @@
       </c>
       <c r="F113" s="68"/>
     </row>
-    <row r="114" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" ht="60">
       <c r="A114" s="9" t="s">
         <v>486</v>
       </c>
@@ -9245,7 +9260,7 @@
       </c>
       <c r="F114" s="68"/>
     </row>
-    <row r="115" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="40.5">
       <c r="A115" s="17" t="s">
         <v>161</v>
       </c>
@@ -9263,7 +9278,7 @@
       </c>
       <c r="F115" s="68"/>
     </row>
-    <row r="116" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" ht="30">
       <c r="A116" s="9" t="s">
         <v>118</v>
       </c>
@@ -9279,7 +9294,7 @@
       <c r="E116" s="41"/>
       <c r="F116" s="68"/>
     </row>
-    <row r="117" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" ht="60">
       <c r="A117" s="17" t="s">
         <v>163</v>
       </c>
@@ -9297,7 +9312,7 @@
       </c>
       <c r="F117" s="68"/>
     </row>
-    <row r="118" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" ht="45">
       <c r="A118" s="9" t="s">
         <v>177</v>
       </c>
@@ -9315,7 +9330,7 @@
       </c>
       <c r="F118" s="68"/>
     </row>
-    <row r="119" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="75">
       <c r="A119" s="17" t="s">
         <v>20</v>
       </c>
@@ -9331,7 +9346,7 @@
       <c r="E119" s="41"/>
       <c r="F119" s="68"/>
     </row>
-    <row r="120" spans="1:6" ht="31" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" ht="27.75">
       <c r="A120" s="44" t="s">
         <v>620</v>
       </c>
@@ -9349,7 +9364,7 @@
       </c>
       <c r="F120" s="68"/>
     </row>
-    <row r="121" spans="1:6" ht="34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="38" t="s">
         <v>579</v>
       </c>
@@ -9365,7 +9380,7 @@
       <c r="E121" s="41"/>
       <c r="F121" s="68"/>
     </row>
-    <row r="122" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="75">
       <c r="A122" s="17" t="s">
         <v>228</v>
       </c>
@@ -9383,7 +9398,7 @@
       </c>
       <c r="F122" s="68"/>
     </row>
-    <row r="123" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" ht="60.75">
       <c r="A123" s="17" t="s">
         <v>132</v>
       </c>
@@ -9401,7 +9416,7 @@
       </c>
       <c r="F123" s="68"/>
     </row>
-    <row r="124" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="45">
       <c r="A124" s="17" t="s">
         <v>136</v>
       </c>
@@ -9419,7 +9434,7 @@
       </c>
       <c r="F124" s="68"/>
     </row>
-    <row r="125" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="40.5">
       <c r="A125" s="17" t="s">
         <v>134</v>
       </c>
@@ -9437,7 +9452,7 @@
       </c>
       <c r="F125" s="68"/>
     </row>
-    <row r="126" spans="1:6" ht="72" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" ht="60">
       <c r="A126" s="21" t="s">
         <v>452</v>
       </c>
@@ -9455,7 +9470,7 @@
       </c>
       <c r="F126" s="68"/>
     </row>
-    <row r="127" spans="1:6" ht="46" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" ht="40.5">
       <c r="A127" s="71" t="s">
         <v>11</v>
       </c>
@@ -9473,7 +9488,7 @@
       </c>
       <c r="F127" s="68"/>
     </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" ht="27">
       <c r="A128" s="13" t="s">
         <v>284</v>
       </c>
@@ -9489,7 +9504,7 @@
       <c r="E128" s="41"/>
       <c r="F128" s="68"/>
     </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" ht="27">
       <c r="A129" s="24" t="s">
         <v>256</v>
       </c>
@@ -9503,7 +9518,7 @@
       <c r="E129" s="41"/>
       <c r="F129" s="68"/>
     </row>
-    <row r="130" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" ht="30">
       <c r="A130" s="9" t="s">
         <v>556</v>
       </c>
@@ -9521,7 +9536,7 @@
       </c>
       <c r="F130" s="68"/>
     </row>
-    <row r="131" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" ht="75">
       <c r="A131" s="17" t="s">
         <v>17</v>
       </c>
@@ -9539,7 +9554,7 @@
       </c>
       <c r="F131" s="68"/>
     </row>
-    <row r="132" spans="1:6" ht="31" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6">
       <c r="A132" s="74" t="s">
         <v>420</v>
       </c>
@@ -9555,7 +9570,7 @@
       </c>
       <c r="F132" s="68"/>
     </row>
-    <row r="133" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" ht="55.5">
       <c r="A133" s="71" t="s">
         <v>440</v>
       </c>
@@ -9573,7 +9588,7 @@
       </c>
       <c r="F133" s="68"/>
     </row>
-    <row r="134" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" ht="40.5">
       <c r="A134" s="17" t="s">
         <v>26</v>
       </c>
@@ -9591,7 +9606,7 @@
       </c>
       <c r="F134" s="68"/>
     </row>
-    <row r="135" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" ht="60.75">
       <c r="A135" s="17" t="s">
         <v>238</v>
       </c>
@@ -9609,7 +9624,7 @@
       </c>
       <c r="F135" s="68"/>
     </row>
-    <row r="136" spans="1:6" ht="88" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" ht="81">
       <c r="A136" s="17" t="s">
         <v>220</v>
       </c>
@@ -9627,7 +9642,7 @@
       </c>
       <c r="F136" s="68"/>
     </row>
-    <row r="137" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" ht="45">
       <c r="A137" s="17" t="s">
         <v>69</v>
       </c>
@@ -9645,7 +9660,7 @@
       </c>
       <c r="F137" s="68"/>
     </row>
-    <row r="138" spans="1:6" ht="108" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="105">
       <c r="A138" s="49" t="s">
         <v>622</v>
       </c>
@@ -9663,7 +9678,7 @@
       </c>
       <c r="F138" s="68"/>
     </row>
-    <row r="139" spans="1:6" ht="42" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" ht="36">
       <c r="A139" s="9" t="s">
         <v>479</v>
       </c>
@@ -9679,7 +9694,7 @@
       </c>
       <c r="F139" s="68"/>
     </row>
-    <row r="140" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" ht="120">
       <c r="A140" s="9" t="s">
         <v>472</v>
       </c>
@@ -9697,7 +9712,7 @@
       </c>
       <c r="F140" s="68"/>
     </row>
-    <row r="141" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" ht="75">
       <c r="A141" s="9" t="s">
         <v>442</v>
       </c>
@@ -9715,7 +9730,7 @@
       </c>
       <c r="F141" s="68"/>
     </row>
-    <row r="142" spans="1:6" ht="85" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" ht="78.75">
       <c r="A142" s="17" t="s">
         <v>194</v>
       </c>
@@ -9733,7 +9748,7 @@
       </c>
       <c r="F142" s="68"/>
     </row>
-    <row r="143" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" ht="42.75">
       <c r="A143" s="17" t="s">
         <v>188</v>
       </c>
@@ -9751,7 +9766,7 @@
       </c>
       <c r="F143" s="68"/>
     </row>
-    <row r="144" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" ht="45">
       <c r="A144" s="17" t="s">
         <v>12</v>
       </c>
@@ -9767,7 +9782,7 @@
       <c r="E144" s="41"/>
       <c r="F144" s="68"/>
     </row>
-    <row r="145" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" ht="75">
       <c r="A145" s="9" t="s">
         <v>361</v>
       </c>
@@ -9785,7 +9800,7 @@
       </c>
       <c r="F145" s="68"/>
     </row>
-    <row r="146" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" ht="40.5">
       <c r="A146" s="17" t="s">
         <v>99</v>
       </c>
@@ -9803,7 +9818,7 @@
       </c>
       <c r="F146" s="68"/>
     </row>
-    <row r="147" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" ht="75">
       <c r="A147" s="17" t="s">
         <v>151</v>
       </c>
@@ -9821,7 +9836,7 @@
       </c>
       <c r="F147" s="68"/>
     </row>
-    <row r="148" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" ht="60">
       <c r="A148" s="9" t="s">
         <v>485</v>
       </c>
@@ -9839,7 +9854,7 @@
       </c>
       <c r="F148" s="68"/>
     </row>
-    <row r="149" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" ht="60">
       <c r="A149" s="17" t="s">
         <v>55</v>
       </c>
@@ -9857,7 +9872,7 @@
       </c>
       <c r="F149" s="68"/>
     </row>
-    <row r="150" spans="1:6" ht="154" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" ht="141.75">
       <c r="A150" s="17" t="s">
         <v>97</v>
       </c>
@@ -9873,7 +9888,7 @@
       </c>
       <c r="F150" s="68"/>
     </row>
-    <row r="151" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" ht="40.5">
       <c r="A151" s="17" t="s">
         <v>15</v>
       </c>
@@ -9891,7 +9906,7 @@
       </c>
       <c r="F151" s="68"/>
     </row>
-    <row r="152" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="30">
       <c r="A152" s="41" t="s">
         <v>573</v>
       </c>
@@ -9909,7 +9924,7 @@
       </c>
       <c r="F152" s="68"/>
     </row>
-    <row r="153" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" ht="60">
       <c r="A153" s="17" t="s">
         <v>127</v>
       </c>
@@ -9927,7 +9942,7 @@
       </c>
       <c r="F153" s="68"/>
     </row>
-    <row r="154" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" ht="40.5">
       <c r="A154" s="17" t="s">
         <v>125</v>
       </c>
@@ -9945,7 +9960,7 @@
       </c>
       <c r="F154" s="68"/>
     </row>
-    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" ht="27">
       <c r="A155" s="13" t="s">
         <v>287</v>
       </c>
@@ -9963,7 +9978,7 @@
       </c>
       <c r="F155" s="68"/>
     </row>
-    <row r="156" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" ht="30">
       <c r="A156" s="17" t="s">
         <v>3</v>
       </c>
@@ -9981,7 +9996,7 @@
       </c>
       <c r="F156" s="68"/>
     </row>
-    <row r="157" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="46.5">
       <c r="A157" s="9" t="s">
         <v>431</v>
       </c>
@@ -9999,7 +10014,7 @@
       </c>
       <c r="F157" s="68"/>
     </row>
-    <row r="158" spans="1:6" ht="86" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="73.5">
       <c r="A158" s="106" t="s">
         <v>382</v>
       </c>
@@ -10017,7 +10032,7 @@
       </c>
       <c r="F158" s="68"/>
     </row>
-    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" ht="27">
       <c r="A159" s="13" t="s">
         <v>290</v>
       </c>
@@ -10035,7 +10050,7 @@
       </c>
       <c r="F159" s="68"/>
     </row>
-    <row r="160" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" ht="60">
       <c r="A160" s="17" t="s">
         <v>207</v>
       </c>
@@ -10053,7 +10068,7 @@
       </c>
       <c r="F160" s="68"/>
     </row>
-    <row r="161" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" ht="42.75">
       <c r="A161" s="17" t="s">
         <v>73</v>
       </c>
@@ -10071,7 +10086,7 @@
       </c>
       <c r="F161" s="68"/>
     </row>
-    <row r="162" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" ht="60">
       <c r="A162" s="17" t="s">
         <v>122</v>
       </c>
@@ -10089,7 +10104,7 @@
       </c>
       <c r="F162" s="68"/>
     </row>
-    <row r="163" spans="1:6" ht="68" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" ht="57">
       <c r="A163" s="17" t="s">
         <v>199</v>
       </c>
@@ -10107,7 +10122,7 @@
       </c>
       <c r="F163" s="68"/>
     </row>
-    <row r="164" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="40.5">
       <c r="A164" s="17" t="s">
         <v>6</v>
       </c>
@@ -10121,7 +10136,7 @@
       </c>
       <c r="F164" s="68"/>
     </row>
-    <row r="165" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6">
       <c r="A165" s="17" t="s">
         <v>165</v>
       </c>
@@ -10139,7 +10154,7 @@
       </c>
       <c r="F165" s="68"/>
     </row>
-    <row r="166" spans="1:6" ht="144" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" ht="135">
       <c r="A166" s="9" t="s">
         <v>473</v>
       </c>
@@ -10157,7 +10172,7 @@
       </c>
       <c r="F166" s="68"/>
     </row>
-    <row r="167" spans="1:6" ht="144" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="135">
       <c r="A167" s="9" t="s">
         <v>475</v>
       </c>
@@ -10175,7 +10190,7 @@
       </c>
       <c r="F167" s="68"/>
     </row>
-    <row r="168" spans="1:6" ht="46" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="40.5">
       <c r="A168" s="9" t="s">
         <v>477</v>
       </c>
@@ -10193,7 +10208,7 @@
       </c>
       <c r="F168" s="68"/>
     </row>
-    <row r="169" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="45">
       <c r="A169" s="82" t="s">
         <v>423</v>
       </c>
@@ -10211,7 +10226,7 @@
       </c>
       <c r="F169" s="68"/>
     </row>
-    <row r="170" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" ht="45">
       <c r="A170" s="9" t="s">
         <v>244</v>
       </c>
@@ -10229,7 +10244,7 @@
       </c>
       <c r="F170" s="68"/>
     </row>
-    <row r="171" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" ht="45">
       <c r="A171" s="9" t="s">
         <v>488</v>
       </c>
@@ -10247,7 +10262,7 @@
       </c>
       <c r="F171" s="68"/>
     </row>
-    <row r="172" spans="1:6" ht="54" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:6" ht="45">
       <c r="A172" s="83" t="s">
         <v>418</v>
       </c>
@@ -10265,7 +10280,7 @@
       </c>
       <c r="F172" s="68"/>
     </row>
-    <row r="173" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" ht="60">
       <c r="A173" s="9" t="s">
         <v>478</v>
       </c>
@@ -10283,7 +10298,7 @@
       </c>
       <c r="F173" s="68"/>
     </row>
-    <row r="174" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" ht="30">
       <c r="A174" s="84" t="s">
         <v>461</v>
       </c>
@@ -10301,7 +10316,7 @@
       </c>
       <c r="F174" s="68"/>
     </row>
-    <row r="175" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="45">
       <c r="A175" s="9" t="s">
         <v>457</v>
       </c>
@@ -10317,7 +10332,7 @@
       <c r="E175" s="41"/>
       <c r="F175" s="68"/>
     </row>
-    <row r="176" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" ht="40.5">
       <c r="A176" s="17" t="s">
         <v>115</v>
       </c>
@@ -10335,7 +10350,7 @@
       </c>
       <c r="F176" s="68"/>
     </row>
-    <row r="177" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" ht="42.75">
       <c r="A177" s="9" t="s">
         <v>400</v>
       </c>
@@ -10353,7 +10368,7 @@
       </c>
       <c r="F177" s="68"/>
     </row>
-    <row r="178" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" ht="60">
       <c r="A178" s="9" t="s">
         <v>246</v>
       </c>
@@ -10371,7 +10386,7 @@
       </c>
       <c r="F178" s="68"/>
     </row>
-    <row r="179" spans="1:6" ht="68" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" ht="57">
       <c r="A179" s="17" t="s">
         <v>0</v>
       </c>
@@ -10389,7 +10404,7 @@
       </c>
       <c r="F179" s="68"/>
     </row>
-    <row r="180" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" ht="45">
       <c r="A180" s="17" t="s">
         <v>197</v>
       </c>
@@ -10405,7 +10420,7 @@
       </c>
       <c r="F180" s="68"/>
     </row>
-    <row r="181" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" ht="60.75">
       <c r="A181" s="17" t="s">
         <v>235</v>
       </c>
@@ -10423,7 +10438,7 @@
       </c>
       <c r="F181" s="68"/>
     </row>
-    <row r="182" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" ht="75">
       <c r="A182" s="17" t="s">
         <v>149</v>
       </c>
@@ -10441,7 +10456,7 @@
       </c>
       <c r="F182" s="68"/>
     </row>
-    <row r="183" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" ht="42.75">
       <c r="A183" s="17" t="s">
         <v>222</v>
       </c>
@@ -10459,7 +10474,7 @@
       </c>
       <c r="F183" s="68"/>
     </row>
-    <row r="184" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" ht="40.5">
       <c r="A184" s="17" t="s">
         <v>234</v>
       </c>
@@ -10475,7 +10490,7 @@
       </c>
       <c r="F184" s="68"/>
     </row>
-    <row r="185" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" ht="60.75">
       <c r="A185" s="17" t="s">
         <v>211</v>
       </c>
@@ -10493,7 +10508,7 @@
       </c>
       <c r="F185" s="68"/>
     </row>
-    <row r="186" spans="1:6" ht="69" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="60.75">
       <c r="A186" s="39" t="s">
         <v>231</v>
       </c>
@@ -10511,7 +10526,7 @@
       </c>
       <c r="F186" s="68"/>
     </row>
-    <row r="187" spans="1:6" ht="36" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" ht="30">
       <c r="A187" s="13" t="s">
         <v>294</v>
       </c>
@@ -10529,7 +10544,7 @@
       </c>
       <c r="F187" s="68"/>
     </row>
-    <row r="188" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" ht="45">
       <c r="A188" s="17" t="s">
         <v>158</v>
       </c>
@@ -10547,7 +10562,7 @@
       </c>
       <c r="F188" s="68"/>
     </row>
-    <row r="189" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" ht="40.5">
       <c r="A189" s="17" t="s">
         <v>45</v>
       </c>
@@ -10565,7 +10580,7 @@
       </c>
       <c r="F189" s="68"/>
     </row>
-    <row r="190" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" ht="30">
       <c r="A190" s="9" t="s">
         <v>504</v>
       </c>
@@ -10583,7 +10598,7 @@
       </c>
       <c r="F190" s="68"/>
     </row>
-    <row r="191" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="30.75">
       <c r="A191" s="86" t="s">
         <v>625</v>
       </c>
@@ -10601,7 +10616,7 @@
       </c>
       <c r="F191" s="68"/>
     </row>
-    <row r="192" spans="1:6" ht="68" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" ht="67.5">
       <c r="A192" s="9" t="s">
         <v>626</v>
       </c>
@@ -10619,7 +10634,7 @@
       </c>
       <c r="F192" s="68"/>
     </row>
-    <row r="193" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="78.75">
       <c r="A193" s="107" t="s">
         <v>241</v>
       </c>
@@ -10637,7 +10652,7 @@
       </c>
       <c r="F193" s="68"/>
     </row>
-    <row r="194" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" ht="60">
       <c r="A194" s="9" t="s">
         <v>480</v>
       </c>
@@ -10655,7 +10670,7 @@
       </c>
       <c r="F194" s="68"/>
     </row>
-    <row r="195" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" ht="45">
       <c r="A195" s="17" t="s">
         <v>171</v>
       </c>
@@ -10673,7 +10688,7 @@
       </c>
       <c r="F195" s="68"/>
     </row>
-    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" ht="27">
       <c r="A196" s="13" t="s">
         <v>296</v>
       </c>
@@ -10685,7 +10700,7 @@
       <c r="E196" s="41"/>
       <c r="F196" s="68"/>
     </row>
-    <row r="197" spans="1:6" ht="54" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" ht="45.75">
       <c r="A197" s="89" t="s">
         <v>397</v>
       </c>
@@ -10705,7 +10720,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" ht="27.75">
       <c r="A198" s="9" t="s">
         <v>503</v>
       </c>
@@ -10723,7 +10738,7 @@
       </c>
       <c r="F198" s="68"/>
     </row>
-    <row r="199" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" ht="30">
       <c r="A199" s="9" t="s">
         <v>406</v>
       </c>
@@ -10741,7 +10756,7 @@
       </c>
       <c r="F199" s="68"/>
     </row>
-    <row r="200" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" ht="45">
       <c r="A200" s="9" t="s">
         <v>501</v>
       </c>
@@ -10759,7 +10774,7 @@
       </c>
       <c r="F200" s="68"/>
     </row>
-    <row r="201" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" ht="54">
       <c r="A201" s="9" t="s">
         <v>502</v>
       </c>
@@ -10777,7 +10792,7 @@
       </c>
       <c r="F201" s="68"/>
     </row>
-    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" ht="27">
       <c r="A202" s="13" t="s">
         <v>297</v>
       </c>
@@ -10795,7 +10810,7 @@
       </c>
       <c r="F202" s="68"/>
     </row>
-    <row r="203" spans="1:6" ht="56" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" ht="51">
       <c r="A203" s="9" t="s">
         <v>493</v>
       </c>
@@ -10813,7 +10828,7 @@
       </c>
       <c r="F203" s="68"/>
     </row>
-    <row r="204" spans="1:6" ht="270" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" ht="255">
       <c r="A204" s="9" t="s">
         <v>429</v>
       </c>
@@ -10831,7 +10846,7 @@
       </c>
       <c r="F204" s="68"/>
     </row>
-    <row r="205" spans="1:6" ht="41" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" ht="40.5">
       <c r="A205" s="17" t="s">
         <v>31</v>
       </c>
@@ -10849,7 +10864,7 @@
       </c>
       <c r="F205" s="68"/>
     </row>
-    <row r="206" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" ht="45">
       <c r="A206" s="9" t="s">
         <v>388</v>
       </c>
@@ -10867,7 +10882,7 @@
       </c>
       <c r="F206" s="68"/>
     </row>
-    <row r="207" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" ht="45">
       <c r="A207" s="17" t="s">
         <v>213</v>
       </c>
@@ -10885,7 +10900,7 @@
       </c>
       <c r="F207" s="68"/>
     </row>
-    <row r="208" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" ht="40.5">
       <c r="A208" s="71" t="s">
         <v>51</v>
       </c>
@@ -10903,7 +10918,7 @@
       </c>
       <c r="F208" s="68"/>
     </row>
-    <row r="209" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" ht="60">
       <c r="A209" s="9" t="s">
         <v>458</v>
       </c>
@@ -10921,7 +10936,7 @@
       </c>
       <c r="F209" s="68"/>
     </row>
-    <row r="210" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" ht="40.5">
       <c r="A210" s="17" t="s">
         <v>190</v>
       </c>
@@ -10939,7 +10954,7 @@
       </c>
       <c r="F210" s="68"/>
     </row>
-    <row r="211" spans="1:6" ht="34" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:6">
       <c r="A211" s="13" t="s">
         <v>298</v>
       </c>
@@ -10957,7 +10972,7 @@
       </c>
       <c r="F211" s="68"/>
     </row>
-    <row r="212" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="60">
       <c r="A212" s="79" t="s">
         <v>628</v>
       </c>
@@ -10975,7 +10990,7 @@
       </c>
       <c r="F212" s="68"/>
     </row>
-    <row r="213" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="60">
       <c r="A213" s="90" t="s">
         <v>411</v>
       </c>
@@ -10993,7 +11008,7 @@
       </c>
       <c r="F213" s="68"/>
     </row>
-    <row r="214" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" ht="45">
       <c r="A214" s="17" t="s">
         <v>64</v>
       </c>
@@ -11011,7 +11026,7 @@
       </c>
       <c r="F214" s="68"/>
     </row>
-    <row r="215" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" ht="31.5">
       <c r="A215" s="9" t="s">
         <v>506</v>
       </c>
@@ -11029,7 +11044,7 @@
       </c>
       <c r="F215" s="68"/>
     </row>
-    <row r="216" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" ht="45">
       <c r="A216" s="9" t="s">
         <v>508</v>
       </c>
@@ -11047,7 +11062,7 @@
       </c>
       <c r="F216" s="68"/>
     </row>
-    <row r="217" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" ht="45">
       <c r="A217" s="17" t="s">
         <v>185</v>
       </c>
@@ -11065,7 +11080,7 @@
       </c>
       <c r="F217" s="68"/>
     </row>
-    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6">
       <c r="A218" s="9" t="s">
         <v>509</v>
       </c>
@@ -11083,7 +11098,7 @@
       </c>
       <c r="F218" s="68"/>
     </row>
-    <row r="219" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" ht="60.75">
       <c r="A219" s="17" t="s">
         <v>111</v>
       </c>
@@ -11101,7 +11116,7 @@
       </c>
       <c r="F219" s="68"/>
     </row>
-    <row r="220" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" ht="45">
       <c r="A220" s="9" t="s">
         <v>349</v>
       </c>
@@ -11119,7 +11134,7 @@
       </c>
       <c r="F220" s="68"/>
     </row>
-    <row r="221" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" ht="30">
       <c r="A221" s="17" t="s">
         <v>66</v>
       </c>
@@ -11137,7 +11152,7 @@
       </c>
       <c r="F221" s="68"/>
     </row>
-    <row r="222" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" ht="40.5">
       <c r="A222" s="17" t="s">
         <v>56</v>
       </c>
@@ -11155,7 +11170,7 @@
       </c>
       <c r="F222" s="68"/>
     </row>
-    <row r="223" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" ht="75">
       <c r="A223" s="9" t="s">
         <v>576</v>
       </c>
@@ -11173,7 +11188,7 @@
       </c>
       <c r="F223" s="68"/>
     </row>
-    <row r="224" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" ht="40.5">
       <c r="A224" s="17" t="s">
         <v>913</v>
       </c>
@@ -11191,7 +11206,7 @@
       </c>
       <c r="F224" s="68"/>
     </row>
-    <row r="225" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" ht="45">
       <c r="A225" s="17" t="s">
         <v>343</v>
       </c>
@@ -11209,7 +11224,7 @@
       </c>
       <c r="F225" s="68"/>
     </row>
-    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:6" ht="27">
       <c r="A226" s="13" t="s">
         <v>304</v>
       </c>
@@ -11225,7 +11240,7 @@
       </c>
       <c r="F226" s="68"/>
     </row>
-    <row r="227" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" ht="60">
       <c r="A227" s="9" t="s">
         <v>590</v>
       </c>
@@ -11243,7 +11258,7 @@
       </c>
       <c r="F227" s="68"/>
     </row>
-    <row r="228" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" ht="45">
       <c r="A228" s="9" t="s">
         <v>482</v>
       </c>
@@ -11261,7 +11276,7 @@
       </c>
       <c r="F228" s="68"/>
     </row>
-    <row r="229" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" ht="60">
       <c r="A229" s="17" t="s">
         <v>226</v>
       </c>
@@ -11279,7 +11294,7 @@
       </c>
       <c r="F229" s="68"/>
     </row>
-    <row r="230" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" ht="42.75">
       <c r="A230" s="108" t="s">
         <v>500</v>
       </c>
@@ -11295,7 +11310,7 @@
       </c>
       <c r="F230" s="68"/>
     </row>
-    <row r="231" spans="1:6" ht="34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6">
       <c r="A231" s="47" t="s">
         <v>629</v>
       </c>
@@ -11313,7 +11328,7 @@
       </c>
       <c r="F231" s="68"/>
     </row>
-    <row r="232" spans="1:6" ht="72" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:6" ht="75">
       <c r="A232" s="13" t="s">
         <v>305</v>
       </c>
@@ -11331,7 +11346,7 @@
       </c>
       <c r="F232" s="68"/>
     </row>
-    <row r="233" spans="1:6" ht="36" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:6" ht="30">
       <c r="A233" s="59" t="s">
         <v>318</v>
       </c>
@@ -11349,7 +11364,7 @@
       </c>
       <c r="F233" s="68"/>
     </row>
-    <row r="234" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" ht="45">
       <c r="A234" s="17" t="s">
         <v>203</v>
       </c>
@@ -11367,7 +11382,7 @@
       </c>
       <c r="F234" s="68"/>
     </row>
-    <row r="235" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="30">
       <c r="A235" s="41" t="s">
         <v>416</v>
       </c>
@@ -11385,7 +11400,7 @@
       </c>
       <c r="F235" s="68"/>
     </row>
-    <row r="236" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" ht="60">
       <c r="A236" s="9" t="s">
         <v>788</v>
       </c>
@@ -11403,7 +11418,7 @@
       </c>
       <c r="F236" s="68"/>
     </row>
-    <row r="237" spans="1:6" ht="56" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" ht="76.5">
       <c r="A237" s="9" t="s">
         <v>491</v>
       </c>
@@ -11421,7 +11436,7 @@
       </c>
       <c r="F237" s="68"/>
     </row>
-    <row r="238" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" ht="40.5">
       <c r="A238" s="17" t="s">
         <v>139</v>
       </c>
@@ -11439,7 +11454,7 @@
       </c>
       <c r="F238" s="68"/>
     </row>
-    <row r="239" spans="1:6" ht="53" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" ht="60.75">
       <c r="A239" s="17" t="s">
         <v>23</v>
       </c>
@@ -11457,7 +11472,7 @@
       </c>
       <c r="F239" s="68"/>
     </row>
-    <row r="240" spans="1:6" ht="54" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="52.5">
       <c r="A240" s="106" t="s">
         <v>794</v>
       </c>
@@ -11475,7 +11490,7 @@
       </c>
       <c r="F240" s="68"/>
     </row>
-    <row r="241" spans="1:6" ht="44" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="45">
       <c r="A241" s="47" t="s">
         <v>468</v>
       </c>
@@ -11493,7 +11508,7 @@
       </c>
       <c r="F241" s="68"/>
     </row>
-    <row r="242" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="40.5">
       <c r="A242" s="47" t="s">
         <v>467</v>
       </c>
@@ -11511,7 +11526,7 @@
       </c>
       <c r="F242" s="68"/>
     </row>
-    <row r="243" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" ht="41.25">
       <c r="A243" s="17" t="s">
         <v>29</v>
       </c>
@@ -11529,7 +11544,7 @@
       </c>
       <c r="F243" s="68"/>
     </row>
-    <row r="244" spans="1:6" ht="68" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" ht="67.5">
       <c r="A244" s="9" t="s">
         <v>319</v>
       </c>
@@ -11547,7 +11562,7 @@
       </c>
       <c r="F244" s="68"/>
     </row>
-    <row r="245" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" ht="60.75">
       <c r="A245" s="17" t="s">
         <v>43</v>
       </c>
@@ -11565,7 +11580,7 @@
       </c>
       <c r="F245" s="68"/>
     </row>
-    <row r="246" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" ht="30">
       <c r="A246" s="9" t="s">
         <v>498</v>
       </c>
@@ -11583,7 +11598,7 @@
       </c>
       <c r="F246" s="68"/>
     </row>
-    <row r="247" spans="1:6" ht="28" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="25.5">
       <c r="A247" s="37" t="s">
         <v>562</v>
       </c>
@@ -11601,7 +11616,7 @@
       </c>
       <c r="F247" s="68"/>
     </row>
-    <row r="248" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" ht="75">
       <c r="A248" s="9" t="s">
         <v>454</v>
       </c>
@@ -11619,7 +11634,7 @@
       </c>
       <c r="F248" s="68"/>
     </row>
-    <row r="249" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" ht="60">
       <c r="A249" s="17" t="s">
         <v>88</v>
       </c>
@@ -11637,7 +11652,7 @@
       </c>
       <c r="F249" s="68"/>
     </row>
-    <row r="250" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="75">
       <c r="A250" s="45" t="s">
         <v>635</v>
       </c>
@@ -11655,7 +11670,7 @@
       </c>
       <c r="F250" s="68"/>
     </row>
-    <row r="251" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" ht="45">
       <c r="A251" s="71" t="s">
         <v>803</v>
       </c>
@@ -11673,7 +11688,7 @@
       </c>
       <c r="F251" s="68"/>
     </row>
-    <row r="252" spans="1:6" ht="42" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:6" ht="36">
       <c r="A252" s="59" t="s">
         <v>323</v>
       </c>
@@ -11691,7 +11706,7 @@
       </c>
       <c r="F252" s="68"/>
     </row>
-    <row r="253" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" ht="27.75">
       <c r="A253" s="17" t="s">
         <v>237</v>
       </c>
@@ -11709,7 +11724,7 @@
       </c>
       <c r="F253" s="68"/>
     </row>
-    <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:6" ht="27">
       <c r="A254" s="13" t="s">
         <v>308</v>
       </c>
@@ -11727,7 +11742,7 @@
       </c>
       <c r="F254" s="68"/>
     </row>
-    <row r="255" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" ht="40.5">
       <c r="A255" s="17" t="s">
         <v>179</v>
       </c>
@@ -11745,7 +11760,7 @@
       </c>
       <c r="F255" s="68"/>
     </row>
-    <row r="256" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" ht="75">
       <c r="A256" s="17" t="s">
         <v>274</v>
       </c>
@@ -11763,7 +11778,7 @@
       </c>
       <c r="F256" s="68"/>
     </row>
-    <row r="257" spans="1:6" ht="46" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" ht="45">
       <c r="A257" s="71" t="s">
         <v>47</v>
       </c>
@@ -11781,7 +11796,7 @@
       </c>
       <c r="F257" s="68"/>
     </row>
-    <row r="258" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" ht="46.5">
       <c r="A258" s="9" t="s">
         <v>449</v>
       </c>
@@ -11799,7 +11814,7 @@
       </c>
       <c r="F258" s="68"/>
     </row>
-    <row r="259" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" ht="40.5">
       <c r="A259" s="17" t="s">
         <v>212</v>
       </c>
@@ -11813,7 +11828,7 @@
       <c r="E259" s="41"/>
       <c r="F259" s="68"/>
     </row>
-    <row r="260" spans="1:6" ht="108" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" ht="90.75">
       <c r="A260" s="17" t="s">
         <v>35</v>
       </c>
@@ -11831,7 +11846,7 @@
       </c>
       <c r="F260" s="68"/>
     </row>
-    <row r="261" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" ht="40.5">
       <c r="A261" s="17" t="s">
         <v>36</v>
       </c>
@@ -11849,7 +11864,7 @@
       </c>
       <c r="F261" s="68"/>
     </row>
-    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6">
       <c r="A262" s="9" t="s">
         <v>250</v>
       </c>
@@ -11865,7 +11880,7 @@
       <c r="E262" s="41"/>
       <c r="F262" s="68"/>
     </row>
-    <row r="263" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" ht="30">
       <c r="A263" s="9" t="s">
         <v>331</v>
       </c>
@@ -11883,7 +11898,7 @@
       </c>
       <c r="F263" s="68"/>
     </row>
-    <row r="264" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" ht="45">
       <c r="A264" s="9" t="s">
         <v>495</v>
       </c>
@@ -11901,7 +11916,7 @@
       </c>
       <c r="F264" s="68"/>
     </row>
-    <row r="265" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" ht="42.75">
       <c r="A265" s="17" t="s">
         <v>160</v>
       </c>
@@ -11919,7 +11934,7 @@
       </c>
       <c r="F265" s="68"/>
     </row>
-    <row r="266" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" ht="60">
       <c r="A266" s="9" t="s">
         <v>483</v>
       </c>
@@ -11937,7 +11952,7 @@
       </c>
       <c r="F266" s="68"/>
     </row>
-    <row r="267" spans="1:6" ht="43" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" ht="38.25">
       <c r="A267" s="9" t="s">
         <v>585</v>
       </c>
@@ -11955,7 +11970,7 @@
       </c>
       <c r="F267" s="68"/>
     </row>
-    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" ht="27.75">
       <c r="A268" s="9" t="s">
         <v>582</v>
       </c>
@@ -11973,7 +11988,7 @@
       </c>
       <c r="F268" s="68"/>
     </row>
-    <row r="269" spans="1:6" ht="43" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" ht="38.25">
       <c r="A269" s="9" t="s">
         <v>584</v>
       </c>
@@ -11991,7 +12006,7 @@
       </c>
       <c r="F269" s="68"/>
     </row>
-    <row r="270" spans="1:6" ht="38" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="33">
       <c r="A270" s="38" t="s">
         <v>564</v>
       </c>
@@ -12009,7 +12024,7 @@
       </c>
       <c r="F270" s="68"/>
     </row>
-    <row r="271" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" ht="60">
       <c r="A271" s="17" t="s">
         <v>120</v>
       </c>
@@ -12027,7 +12042,7 @@
       </c>
       <c r="F271" s="68"/>
     </row>
-    <row r="272" spans="1:6" ht="51" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:6" ht="42.75">
       <c r="A272" s="95" t="s">
         <v>917</v>
       </c>
@@ -12045,7 +12060,7 @@
       </c>
       <c r="F272" s="68"/>
     </row>
-    <row r="273" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="45">
       <c r="A273" s="96" t="s">
         <v>414</v>
       </c>
@@ -12063,7 +12078,7 @@
       </c>
       <c r="F273" s="68"/>
     </row>
-    <row r="274" spans="1:6" ht="51" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6" ht="42.75">
       <c r="A274" s="13" t="s">
         <v>302</v>
       </c>
@@ -12081,7 +12096,7 @@
       </c>
       <c r="F274" s="68"/>
     </row>
-    <row r="275" spans="1:6" s="109" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" s="109" customFormat="1" ht="57">
       <c r="A275" s="17" t="s">
         <v>48</v>
       </c>
@@ -12099,7 +12114,7 @@
       </c>
       <c r="F275" s="68"/>
     </row>
-    <row r="276" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" ht="45">
       <c r="A276" s="17" t="s">
         <v>169</v>
       </c>
@@ -12117,7 +12132,7 @@
       </c>
       <c r="F276" s="150"/>
     </row>
-    <row r="277" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" ht="60.75">
       <c r="A277" s="17" t="s">
         <v>129</v>
       </c>
@@ -12135,7 +12150,7 @@
       </c>
       <c r="F277" s="68"/>
     </row>
-    <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6" ht="27">
       <c r="A278" s="24" t="s">
         <v>260</v>
       </c>
@@ -12151,7 +12166,7 @@
       </c>
       <c r="F278" s="68"/>
     </row>
-    <row r="279" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" ht="40.5">
       <c r="A279" s="17" t="s">
         <v>637</v>
       </c>
@@ -12169,7 +12184,7 @@
       </c>
       <c r="F279" s="68"/>
     </row>
-    <row r="280" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" ht="40.5">
       <c r="A280" s="17" t="s">
         <v>102</v>
       </c>
@@ -12187,7 +12202,7 @@
       </c>
       <c r="F280" s="68"/>
     </row>
-    <row r="281" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" ht="60.75">
       <c r="A281" s="17" t="s">
         <v>155</v>
       </c>
@@ -12205,7 +12220,7 @@
       </c>
       <c r="F281" s="68"/>
     </row>
-    <row r="282" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" ht="40.5">
       <c r="A282" s="17" t="s">
         <v>181</v>
       </c>
@@ -12223,7 +12238,7 @@
       </c>
       <c r="F282" s="68"/>
     </row>
-    <row r="283" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" ht="40.5">
       <c r="A283" s="17" t="s">
         <v>205</v>
       </c>
@@ -12241,7 +12256,7 @@
       </c>
       <c r="F283" s="68"/>
     </row>
-    <row r="284" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" ht="60.75">
       <c r="A284" s="17" t="s">
         <v>82</v>
       </c>
@@ -12259,7 +12274,7 @@
       </c>
       <c r="F284" s="68"/>
     </row>
-    <row r="285" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" ht="40.5">
       <c r="A285" s="95" t="s">
         <v>377</v>
       </c>
@@ -12277,7 +12292,7 @@
       </c>
       <c r="F285" s="68"/>
     </row>
-    <row r="286" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" ht="40.5">
       <c r="A286" s="17" t="s">
         <v>175</v>
       </c>
@@ -12295,7 +12310,7 @@
       </c>
       <c r="F286" s="68"/>
     </row>
-    <row r="287" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" ht="45">
       <c r="A287" s="9" t="s">
         <v>510</v>
       </c>
@@ -12313,7 +12328,7 @@
       </c>
       <c r="F287" s="68"/>
     </row>
-    <row r="288" spans="1:6" ht="68" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" ht="71.25">
       <c r="A288" s="17" t="s">
         <v>192</v>
       </c>
@@ -12331,7 +12346,7 @@
       </c>
       <c r="F288" s="68"/>
     </row>
-    <row r="289" spans="1:6" ht="170" x14ac:dyDescent="0.7">
+    <row r="289" spans="1:6" ht="156.75">
       <c r="A289" s="98" t="s">
         <v>375</v>
       </c>
@@ -12349,7 +12364,7 @@
       </c>
       <c r="F289" s="68"/>
     </row>
-    <row r="290" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="27.75">
       <c r="A290" s="17" t="s">
         <v>7</v>
       </c>
@@ -12367,7 +12382,7 @@
       </c>
       <c r="F290" s="68"/>
     </row>
-    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6" ht="27">
       <c r="A291" s="13" t="s">
         <v>310</v>
       </c>
@@ -12385,7 +12400,7 @@
       </c>
       <c r="F291" s="68"/>
     </row>
-    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6" ht="27">
       <c r="A292" s="13" t="s">
         <v>315</v>
       </c>
@@ -12403,7 +12418,7 @@
       </c>
       <c r="F292" s="68"/>
     </row>
-    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" ht="27.75">
       <c r="A293" s="9" t="s">
         <v>327</v>
       </c>
@@ -12421,7 +12436,7 @@
       </c>
       <c r="F293" s="68"/>
     </row>
-    <row r="294" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" ht="60.75">
       <c r="A294" s="17" t="s">
         <v>137</v>
       </c>
@@ -12439,7 +12454,7 @@
       </c>
       <c r="F294" s="68"/>
     </row>
-    <row r="295" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="42.75">
       <c r="A295" s="99" t="s">
         <v>348</v>
       </c>
@@ -12457,7 +12472,7 @@
       </c>
       <c r="F295" s="68"/>
     </row>
-    <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6" ht="27">
       <c r="A296" s="13" t="s">
         <v>314</v>
       </c>
@@ -12475,7 +12490,7 @@
       </c>
       <c r="F296" s="68"/>
     </row>
-    <row r="297" spans="1:6" ht="52" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6" ht="46.5">
       <c r="A297" s="13" t="s">
         <v>248</v>
       </c>
@@ -12493,7 +12508,7 @@
       </c>
       <c r="F297" s="68"/>
     </row>
-    <row r="298" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" ht="54">
       <c r="A298" s="9" t="s">
         <v>487</v>
       </c>
@@ -12511,7 +12526,7 @@
       </c>
       <c r="F298" s="68"/>
     </row>
-    <row r="299" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" ht="40.5">
       <c r="A299" s="17" t="s">
         <v>86</v>
       </c>
@@ -12529,7 +12544,7 @@
       </c>
       <c r="F299" s="68"/>
     </row>
-    <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" ht="27.75">
       <c r="A300" s="9" t="s">
         <v>655</v>
       </c>
@@ -12547,7 +12562,7 @@
       </c>
       <c r="F300" s="68"/>
     </row>
-    <row r="301" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" ht="30">
       <c r="A301" s="9" t="s">
         <v>819</v>
       </c>
@@ -12565,7 +12580,7 @@
       </c>
       <c r="F301" s="68"/>
     </row>
-    <row r="302" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" ht="75">
       <c r="A302" s="9" t="s">
         <v>835</v>
       </c>
@@ -12583,7 +12598,7 @@
       </c>
       <c r="F302" s="68"/>
     </row>
-    <row r="303" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" ht="45">
       <c r="A303" s="9" t="s">
         <v>840</v>
       </c>
@@ -12601,7 +12616,7 @@
       </c>
       <c r="F303" s="68"/>
     </row>
-    <row r="304" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" ht="75">
       <c r="A304" s="9" t="s">
         <v>841</v>
       </c>
@@ -12619,7 +12634,7 @@
       </c>
       <c r="F304" s="68"/>
     </row>
-    <row r="305" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" ht="60">
       <c r="A305" s="9" t="s">
         <v>842</v>
       </c>
@@ -12637,7 +12652,7 @@
       </c>
       <c r="F305" s="68"/>
     </row>
-    <row r="306" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" ht="45">
       <c r="A306" s="9" t="s">
         <v>843</v>
       </c>
@@ -12655,7 +12670,7 @@
       </c>
       <c r="F306" s="68"/>
     </row>
-    <row r="307" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" ht="45">
       <c r="A307" s="9" t="s">
         <v>844</v>
       </c>
@@ -12673,7 +12688,7 @@
       </c>
       <c r="F307" s="68"/>
     </row>
-    <row r="308" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" ht="30">
       <c r="A308" s="9" t="s">
         <v>845</v>
       </c>
@@ -12691,7 +12706,7 @@
       </c>
       <c r="F308" s="68"/>
     </row>
-    <row r="309" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" ht="45">
       <c r="A309" s="9" t="s">
         <v>846</v>
       </c>
@@ -12709,7 +12724,7 @@
       </c>
       <c r="F309" s="68"/>
     </row>
-    <row r="310" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" ht="45">
       <c r="A310" s="9" t="s">
         <v>847</v>
       </c>
@@ -12727,7 +12742,7 @@
       </c>
       <c r="F310" s="68"/>
     </row>
-    <row r="311" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" ht="45">
       <c r="A311" s="9" t="s">
         <v>848</v>
       </c>
@@ -12745,7 +12760,7 @@
       </c>
       <c r="F311" s="68"/>
     </row>
-    <row r="312" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" ht="30">
       <c r="A312" s="9" t="s">
         <v>849</v>
       </c>
@@ -12763,7 +12778,7 @@
       </c>
       <c r="F312" s="68"/>
     </row>
-    <row r="313" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" ht="30">
       <c r="A313" s="9" t="s">
         <v>850</v>
       </c>
@@ -12781,7 +12796,7 @@
       </c>
       <c r="F313" s="68"/>
     </row>
-    <row r="314" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" ht="30">
       <c r="A314" s="9" t="s">
         <v>851</v>
       </c>
@@ -12799,7 +12814,7 @@
       </c>
       <c r="F314" s="68"/>
     </row>
-    <row r="315" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" ht="45">
       <c r="A315" s="9" t="s">
         <v>852</v>
       </c>
@@ -12817,7 +12832,7 @@
       </c>
       <c r="F315" s="68"/>
     </row>
-    <row r="316" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" ht="45">
       <c r="A316" s="9" t="s">
         <v>853</v>
       </c>
@@ -12835,7 +12850,7 @@
       </c>
       <c r="F316" s="68"/>
     </row>
-    <row r="317" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" ht="60">
       <c r="A317" s="9" t="s">
         <v>856</v>
       </c>
@@ -12853,7 +12868,7 @@
       </c>
       <c r="F317" s="68"/>
     </row>
-    <row r="318" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" ht="90">
       <c r="A318" s="9" t="s">
         <v>862</v>
       </c>
@@ -12871,7 +12886,7 @@
       </c>
       <c r="F318" s="68"/>
     </row>
-    <row r="319" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" ht="60">
       <c r="A319" s="9" t="s">
         <v>885</v>
       </c>
@@ -12889,7 +12904,7 @@
       </c>
       <c r="F319" s="68"/>
     </row>
-    <row r="320" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" ht="30">
       <c r="A320" s="9" t="s">
         <v>887</v>
       </c>
@@ -12907,7 +12922,7 @@
       </c>
       <c r="F320" s="68"/>
     </row>
-    <row r="321" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" ht="60">
       <c r="A321" s="9" t="s">
         <v>891</v>
       </c>
@@ -12925,7 +12940,7 @@
       </c>
       <c r="F321" s="68"/>
     </row>
-    <row r="322" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" ht="60">
       <c r="A322" s="9" t="s">
         <v>893</v>
       </c>
@@ -12943,7 +12958,7 @@
       </c>
       <c r="F322" s="68"/>
     </row>
-    <row r="323" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" ht="75">
       <c r="A323" s="9" t="s">
         <v>898</v>
       </c>
@@ -12961,7 +12976,7 @@
       </c>
       <c r="F323" s="68"/>
     </row>
-    <row r="324" spans="1:6" ht="108" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" ht="90">
       <c r="A324" s="9" t="s">
         <v>899</v>
       </c>
@@ -12979,7 +12994,7 @@
       </c>
       <c r="F324" s="68"/>
     </row>
-    <row r="325" spans="1:6" ht="108" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" ht="90">
       <c r="A325" s="9" t="s">
         <v>902</v>
       </c>
@@ -12995,7 +13010,7 @@
       </c>
       <c r="F325" s="68"/>
     </row>
-    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" ht="27.75">
       <c r="A326" s="9" t="s">
         <v>905</v>
       </c>
@@ -13009,7 +13024,7 @@
       </c>
       <c r="F326" s="68"/>
     </row>
-    <row r="327" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" ht="32.25">
       <c r="A327" s="9" t="s">
         <v>906</v>
       </c>
@@ -13025,7 +13040,7 @@
       </c>
       <c r="F327" s="68"/>
     </row>
-    <row r="328" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" ht="105">
       <c r="A328" s="9" t="s">
         <v>909</v>
       </c>
@@ -13041,7 +13056,7 @@
       </c>
       <c r="F328" s="68"/>
     </row>
-    <row r="329" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" ht="75">
       <c r="A329" s="9" t="s">
         <v>914</v>
       </c>
@@ -13055,7 +13070,7 @@
       <c r="E329" s="41"/>
       <c r="F329" s="68"/>
     </row>
-    <row r="330" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" ht="30">
       <c r="A330" s="9" t="s">
         <v>915</v>
       </c>
@@ -13071,7 +13086,7 @@
       </c>
       <c r="F330" s="68"/>
     </row>
-    <row r="331" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" ht="45">
       <c r="A331" s="9" t="s">
         <v>921</v>
       </c>
@@ -13087,7 +13102,7 @@
       </c>
       <c r="F331" s="68"/>
     </row>
-    <row r="332" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" ht="60">
       <c r="A332" s="9" t="s">
         <v>938</v>
       </c>
@@ -13103,7 +13118,7 @@
       </c>
       <c r="F332" s="68"/>
     </row>
-    <row r="333" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" ht="45">
       <c r="A333" s="9" t="s">
         <v>951</v>
       </c>
@@ -13123,7 +13138,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" ht="45">
       <c r="A334" s="9" t="s">
         <v>953</v>
       </c>
@@ -13143,7 +13158,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" ht="75">
       <c r="A335" s="9" t="s">
         <v>955</v>
       </c>
@@ -13163,7 +13178,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="121" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" ht="117">
       <c r="A336" s="9" t="s">
         <v>958</v>
       </c>
@@ -13183,7 +13198,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="337" spans="1:6 16384:16384" ht="68" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6 16384:16384" ht="60">
       <c r="A337" s="9" t="s">
         <v>960</v>
       </c>
@@ -13203,7 +13218,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="338" spans="1:6 16384:16384" ht="54" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6 16384:16384" ht="45.75">
       <c r="A338" s="9" t="s">
         <v>961</v>
       </c>
@@ -13223,7 +13238,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="339" spans="1:6 16384:16384" ht="72" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6 16384:16384" ht="60">
       <c r="A339" s="9" t="s">
         <v>963</v>
       </c>
@@ -13243,7 +13258,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="340" spans="1:6 16384:16384" ht="34" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6 16384:16384" ht="45.75">
       <c r="A340" s="9" t="s">
         <v>964</v>
       </c>
@@ -13263,7 +13278,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="341" spans="1:6 16384:16384" ht="34" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6 16384:16384">
       <c r="A341" s="9" t="s">
         <v>970</v>
       </c>
@@ -13283,7 +13298,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="342" spans="1:6 16384:16384" ht="51" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6 16384:16384" ht="42.75">
       <c r="A342" s="9" t="s">
         <v>971</v>
       </c>
@@ -13303,7 +13318,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="343" spans="1:6 16384:16384" ht="90" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6 16384:16384" ht="75">
       <c r="A343" s="9" t="s">
         <v>974</v>
       </c>
@@ -13323,7 +13338,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="344" spans="1:6 16384:16384" ht="34" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6 16384:16384" ht="30">
       <c r="A344" s="9" t="s">
         <v>979</v>
       </c>
@@ -13344,7 +13359,7 @@
       </c>
       <c r="XFD344" s="41"/>
     </row>
-    <row r="345" spans="1:6 16384:16384" ht="54" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6 16384:16384" ht="60">
       <c r="A345" s="9" t="s">
         <v>980</v>
       </c>
@@ -13364,7 +13379,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="346" spans="1:6 16384:16384" ht="51" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6 16384:16384" ht="42.75">
       <c r="A346" s="9" t="s">
         <v>981</v>
       </c>
@@ -13384,7 +13399,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="347" spans="1:6 16384:16384" ht="54" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6 16384:16384" ht="45">
       <c r="A347" s="9" t="s">
         <v>982</v>
       </c>
@@ -13404,7 +13419,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="348" spans="1:6 16384:16384" ht="36" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6 16384:16384" ht="32.25">
       <c r="A348" s="9" t="s">
         <v>993</v>
       </c>
@@ -13424,7 +13439,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="349" spans="1:6 16384:16384" ht="64" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6 16384:16384" ht="60">
       <c r="A349" s="9" t="s">
         <v>996</v>
       </c>
@@ -13444,7 +13459,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="350" spans="1:6 16384:16384" ht="72" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6 16384:16384" ht="60">
       <c r="A350" s="9" t="s">
         <v>998</v>
       </c>
@@ -13464,7 +13479,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="351" spans="1:6 16384:16384" ht="144" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6 16384:16384" ht="120">
       <c r="A351" s="9" t="s">
         <v>1012</v>
       </c>
@@ -13484,7 +13499,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="352" spans="1:6 16384:16384" ht="30" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6 16384:16384" ht="27.75">
       <c r="A352" s="9" t="s">
         <v>1132</v>
       </c>
@@ -13500,7 +13515,7 @@
       <c r="E352" s="41"/>
       <c r="F352" s="68"/>
     </row>
-    <row r="353" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" ht="27.75">
       <c r="A353" s="9" t="s">
         <v>1135</v>
       </c>
@@ -13516,7 +13531,7 @@
       <c r="E353" s="41"/>
       <c r="F353" s="68"/>
     </row>
-    <row r="354" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="42.75">
       <c r="A354" s="154" t="s">
         <v>1138</v>
       </c>
@@ -13532,7 +13547,7 @@
       <c r="E354" s="41"/>
       <c r="F354" s="68"/>
     </row>
-    <row r="355" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6">
       <c r="A355" s="9" t="s">
         <v>1142</v>
       </c>
@@ -13546,7 +13561,7 @@
       <c r="E355" s="41"/>
       <c r="F355" s="68"/>
     </row>
-    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" ht="27.75">
       <c r="A356" s="9" t="s">
         <v>1144</v>
       </c>
@@ -13560,7 +13575,7 @@
       <c r="E356" s="41"/>
       <c r="F356" s="68"/>
     </row>
-    <row r="357" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6">
       <c r="A357" s="9" t="s">
         <v>1146</v>
       </c>
@@ -13574,7 +13589,7 @@
       <c r="E357" s="41"/>
       <c r="F357" s="68"/>
     </row>
-    <row r="358" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" ht="30">
       <c r="A358" s="9" t="s">
         <v>1148</v>
       </c>
@@ -13590,7 +13605,7 @@
       <c r="E358" s="41"/>
       <c r="F358" s="68"/>
     </row>
-    <row r="359" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" ht="30">
       <c r="A359" s="9" t="s">
         <v>1151</v>
       </c>
@@ -13606,7 +13621,7 @@
       <c r="E359" s="41"/>
       <c r="F359" s="68"/>
     </row>
-    <row r="360" spans="1:6" ht="25" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" ht="23.25">
       <c r="A360" s="62" t="s">
         <v>1154</v>
       </c>
@@ -13618,7 +13633,7 @@
       <c r="E360" s="41"/>
       <c r="F360" s="68"/>
     </row>
-    <row r="361" spans="1:6" ht="25" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" ht="23.25">
       <c r="A361" s="62" t="s">
         <v>1155</v>
       </c>
@@ -13630,7 +13645,7 @@
       <c r="E361" s="41"/>
       <c r="F361" s="68"/>
     </row>
-    <row r="362" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6">
       <c r="A362" s="9" t="s">
         <v>1158</v>
       </c>
@@ -13642,7 +13657,7 @@
       <c r="E362" s="41"/>
       <c r="F362" s="68"/>
     </row>
-    <row r="363" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" ht="75">
       <c r="A363" s="9" t="s">
         <v>1160</v>
       </c>
@@ -13656,7 +13671,7 @@
       <c r="E363" s="41"/>
       <c r="F363" s="68"/>
     </row>
-    <row r="364" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" ht="45">
       <c r="A364" s="9" t="s">
         <v>1159</v>
       </c>
@@ -13670,7 +13685,7 @@
       <c r="E364" s="41"/>
       <c r="F364" s="68"/>
     </row>
-    <row r="365" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" ht="60">
       <c r="A365" s="9" t="s">
         <v>1165</v>
       </c>
@@ -13684,7 +13699,7 @@
       <c r="E365" s="41"/>
       <c r="F365" s="68"/>
     </row>
-    <row r="366" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" ht="75">
       <c r="A366" s="9" t="s">
         <v>1168</v>
       </c>
@@ -13698,7 +13713,7 @@
       <c r="E366" s="41"/>
       <c r="F366" s="68"/>
     </row>
-    <row r="367" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6">
       <c r="A367" s="9" t="s">
         <v>1172</v>
       </c>
@@ -13710,7 +13725,7 @@
       <c r="E367" s="41"/>
       <c r="F367" s="68"/>
     </row>
-    <row r="368" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6">
       <c r="A368" s="9" t="s">
         <v>1171</v>
       </c>
@@ -13722,7 +13737,7 @@
       <c r="E368" s="41"/>
       <c r="F368" s="68"/>
     </row>
-    <row r="369" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6">
       <c r="A369" s="9" t="s">
         <v>998</v>
       </c>
@@ -13736,7 +13751,7 @@
       <c r="E369" s="41"/>
       <c r="F369" s="68"/>
     </row>
-    <row r="370" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6">
       <c r="A370" s="9" t="s">
         <v>1174</v>
       </c>
@@ -13748,7 +13763,7 @@
       <c r="E370" s="41"/>
       <c r="F370" s="68"/>
     </row>
-    <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6">
       <c r="A371" s="9" t="s">
         <v>1176</v>
       </c>
@@ -13760,7 +13775,7 @@
       <c r="E371" s="41"/>
       <c r="F371" s="68"/>
     </row>
-    <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" ht="27.75">
       <c r="A372" s="9" t="s">
         <v>1179</v>
       </c>
@@ -13772,7 +13787,7 @@
       <c r="E372" s="41"/>
       <c r="F372" s="68"/>
     </row>
-    <row r="373" spans="1:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="29.25">
       <c r="A373" s="154" t="s">
         <v>1180</v>
       </c>
@@ -13784,7 +13799,7 @@
       <c r="E373" s="41"/>
       <c r="F373" s="68"/>
     </row>
-    <row r="374" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" ht="135">
       <c r="A374" s="9" t="s">
         <v>1182</v>
       </c>
@@ -13798,7 +13813,7 @@
       <c r="E374" s="41"/>
       <c r="F374" s="68"/>
     </row>
-    <row r="375" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" ht="27.75">
       <c r="A375" s="9" t="s">
         <v>1183</v>
       </c>
@@ -13810,7 +13825,7 @@
       <c r="E375" s="41"/>
       <c r="F375" s="68"/>
     </row>
-    <row r="376" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" ht="83.25">
       <c r="A376" s="9" t="s">
         <v>1188</v>
       </c>
@@ -13824,7 +13839,7 @@
       <c r="E376" s="41"/>
       <c r="F376" s="68"/>
     </row>
-    <row r="377" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" ht="75">
       <c r="A377" s="158" t="s">
         <v>1189</v>
       </c>
@@ -13838,7 +13853,7 @@
       <c r="E377" s="41"/>
       <c r="F377" s="68"/>
     </row>
-    <row r="378" spans="1:6" ht="67" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" ht="77.25">
       <c r="A378" s="158" t="s">
         <v>1193</v>
       </c>
@@ -13852,7 +13867,7 @@
       <c r="E378" s="41"/>
       <c r="F378" s="68"/>
     </row>
-    <row r="379" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" ht="45">
       <c r="A379" s="158" t="s">
         <v>1194</v>
       </c>
@@ -13866,7 +13881,7 @@
       <c r="E379" s="41"/>
       <c r="F379" s="68"/>
     </row>
-    <row r="380" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" ht="45">
       <c r="A380" s="158" t="s">
         <v>1195</v>
       </c>
@@ -13880,7 +13895,7 @@
       <c r="E380" s="41"/>
       <c r="F380" s="68"/>
     </row>
-    <row r="381" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" ht="60">
       <c r="A381" s="158" t="s">
         <v>1196</v>
       </c>
@@ -13894,7 +13909,7 @@
       <c r="E381" s="41"/>
       <c r="F381" s="68"/>
     </row>
-    <row r="382" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" ht="60">
       <c r="A382" s="158" t="s">
         <v>1197</v>
       </c>
@@ -13908,7 +13923,7 @@
       <c r="E382" s="41"/>
       <c r="F382" s="68"/>
     </row>
-    <row r="383" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" ht="45">
       <c r="A383" s="158" t="s">
         <v>1198</v>
       </c>
@@ -13922,7 +13937,7 @@
       <c r="E383" s="41"/>
       <c r="F383" s="68"/>
     </row>
-    <row r="384" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" ht="45">
       <c r="A384" s="158" t="s">
         <v>1199</v>
       </c>
@@ -13936,7 +13951,7 @@
       <c r="E384" s="41"/>
       <c r="F384" s="68"/>
     </row>
-    <row r="385" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" ht="30">
       <c r="A385" s="158" t="s">
         <v>1209</v>
       </c>
@@ -13950,7 +13965,7 @@
       <c r="E385" s="41"/>
       <c r="F385" s="68"/>
     </row>
-    <row r="386" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" ht="45">
       <c r="A386" s="158" t="s">
         <v>1215</v>
       </c>
@@ -13964,7 +13979,7 @@
       <c r="E386" s="41"/>
       <c r="F386" s="68"/>
     </row>
-    <row r="387" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" ht="45">
       <c r="A387" s="158" t="s">
         <v>1218</v>
       </c>
@@ -13978,7 +13993,7 @@
       <c r="E387" s="41"/>
       <c r="F387" s="68"/>
     </row>
-    <row r="388" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" ht="27.75">
       <c r="A388" s="165" t="s">
         <v>1226</v>
       </c>
@@ -13992,7 +14007,7 @@
       <c r="E388" s="41"/>
       <c r="F388" s="68"/>
     </row>
-    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" ht="27.75">
       <c r="A389" s="165" t="s">
         <v>1226</v>
       </c>
@@ -14006,7 +14021,7 @@
       <c r="E389" s="41"/>
       <c r="F389" s="68"/>
     </row>
-    <row r="390" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" ht="27.75">
       <c r="A390" s="165" t="s">
         <v>1226</v>
       </c>
@@ -14020,7 +14035,7 @@
       <c r="E390" s="169"/>
       <c r="F390" s="170"/>
     </row>
-    <row r="391" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" ht="27.75">
       <c r="A391" s="165" t="s">
         <v>1225</v>
       </c>
@@ -14034,7 +14049,7 @@
       <c r="E391" s="169"/>
       <c r="F391" s="170"/>
     </row>
-    <row r="392" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" ht="30">
       <c r="A392" s="165" t="s">
         <v>1229</v>
       </c>
@@ -14048,7 +14063,7 @@
       <c r="E392" s="169"/>
       <c r="F392" s="170"/>
     </row>
-    <row r="393" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" ht="27.75">
       <c r="A393" s="165" t="s">
         <v>1231</v>
       </c>
@@ -14062,7 +14077,7 @@
       <c r="E393" s="169"/>
       <c r="F393" s="170"/>
     </row>
-    <row r="394" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" ht="62.25">
       <c r="A394" s="165" t="s">
         <v>1232</v>
       </c>
@@ -14076,7 +14091,7 @@
       <c r="E394" s="169"/>
       <c r="F394" s="170"/>
     </row>
-    <row r="395" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" ht="30">
       <c r="A395" s="165" t="s">
         <v>1237</v>
       </c>
@@ -14090,7 +14105,7 @@
       <c r="E395" s="169"/>
       <c r="F395" s="170"/>
     </row>
-    <row r="396" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" ht="45">
       <c r="A396" s="165" t="s">
         <v>1240</v>
       </c>
@@ -14104,7 +14119,7 @@
       <c r="E396" s="169"/>
       <c r="F396" s="170"/>
     </row>
-    <row r="397" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" ht="27.75">
       <c r="A397" s="165" t="s">
         <v>1244</v>
       </c>
@@ -14118,7 +14133,7 @@
       <c r="E397" s="169"/>
       <c r="F397" s="170"/>
     </row>
-    <row r="398" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" ht="45">
       <c r="A398" s="165" t="s">
         <v>1246</v>
       </c>
@@ -14132,7 +14147,7 @@
       <c r="E398" s="169"/>
       <c r="F398" s="170"/>
     </row>
-    <row r="399" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" ht="30">
       <c r="A399" s="165" t="s">
         <v>1249</v>
       </c>
@@ -14146,7 +14161,7 @@
       <c r="E399" s="169"/>
       <c r="F399" s="170"/>
     </row>
-    <row r="400" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" ht="45">
       <c r="A400" s="165" t="s">
         <v>1250</v>
       </c>
@@ -14160,7 +14175,7 @@
       <c r="E400" s="169"/>
       <c r="F400" s="170"/>
     </row>
-    <row r="401" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" ht="45">
       <c r="A401" s="165" t="s">
         <v>1257</v>
       </c>
@@ -14174,7 +14189,7 @@
       <c r="E401" s="169"/>
       <c r="F401" s="170"/>
     </row>
-    <row r="402" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" ht="45">
       <c r="A402" s="165" t="s">
         <v>1256</v>
       </c>
@@ -14188,7 +14203,7 @@
       <c r="E402" s="169"/>
       <c r="F402" s="170"/>
     </row>
-    <row r="403" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6">
       <c r="A403" s="165" t="s">
         <v>1266</v>
       </c>
@@ -14200,7 +14215,7 @@
       <c r="E403" s="169"/>
       <c r="F403" s="170"/>
     </row>
-    <row r="404" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6">
       <c r="A404" s="165" t="s">
         <v>1267</v>
       </c>
@@ -14212,7 +14227,7 @@
       <c r="E404" s="169"/>
       <c r="F404" s="170"/>
     </row>
-    <row r="405" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" ht="27.75">
       <c r="A405" s="165" t="s">
         <v>1270</v>
       </c>
@@ -14224,7 +14239,7 @@
       <c r="E405" s="169"/>
       <c r="F405" s="170"/>
     </row>
-    <row r="406" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" ht="27.75">
       <c r="A406" s="165" t="s">
         <v>1272</v>
       </c>
@@ -14236,7 +14251,7 @@
       <c r="E406" s="169"/>
       <c r="F406" s="170"/>
     </row>
-    <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6">
       <c r="A407" s="165" t="s">
         <v>1267</v>
       </c>
@@ -14248,7 +14263,7 @@
       <c r="E407" s="169"/>
       <c r="F407" s="170"/>
     </row>
-    <row r="408" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6">
       <c r="A408" s="165" t="s">
         <v>1274</v>
       </c>
@@ -14260,7 +14275,7 @@
       <c r="E408" s="169"/>
       <c r="F408" s="170"/>
     </row>
-    <row r="409" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" ht="27.75">
       <c r="A409" s="165" t="s">
         <v>1276</v>
       </c>
@@ -14272,7 +14287,7 @@
       <c r="E409" s="169"/>
       <c r="F409" s="170"/>
     </row>
-    <row r="410" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" ht="27.75">
       <c r="A410" s="165" t="s">
         <v>1278</v>
       </c>
@@ -14283,6 +14298,44 @@
       <c r="D410" s="168"/>
       <c r="E410" s="169"/>
       <c r="F410" s="170"/>
+    </row>
+    <row r="411" spans="1:6" ht="75">
+      <c r="A411" s="158" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B411" s="159" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C411" s="160" t="s">
+        <v>320</v>
+      </c>
+      <c r="D411" s="161" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E411" s="41"/>
+      <c r="F411" s="68"/>
+    </row>
+    <row r="412" spans="1:6" ht="27.75">
+      <c r="A412" s="158" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B412" s="159" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C412" s="160"/>
+      <c r="D412" s="161"/>
+      <c r="E412" s="41"/>
+      <c r="F412" s="68"/>
+    </row>
+    <row r="413" spans="1:6" ht="27.75">
+      <c r="A413" s="158" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B413" s="159"/>
+      <c r="C413" s="160"/>
+      <c r="D413" s="161"/>
+      <c r="E413" s="41"/>
+      <c r="F413" s="68"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D283">

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33FD53E-00A4-415B-BD10-7E392512A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD52DE-6162-42EE-B40D-2C99DC3FBC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="105" windowWidth="23490" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="270" windowWidth="19065" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1323">
   <si>
     <t>NAS</t>
   </si>
@@ -5386,12 +5386,126 @@
   <si>
     <t>NetBIOS Name Service</t>
   </si>
+  <si>
+    <t>*** is also called PMR (Perpendicular Magnetic Recording). *** aligns the poles of a magnetic element perpendicular to the surface of the disk in a hard drive. Magnetic elements in this technology represent bits of data. Tracks are written side by side and do not overlap.</t>
+  </si>
+  <si>
+    <t>*** is also called CMR Conventional Magnetic Recording). *** aligns the poles of a magnetic element perpendicular to the surface of the disk in a hard drive. Magnetic elements in this technology represent bits of data. Tracks are written side by side and do not overlap.</t>
+  </si>
+  <si>
+    <t>Perpendicular Magnetic Recording</t>
+  </si>
+  <si>
+    <t>PMR</t>
+  </si>
+  <si>
+    <t>Shingled magnetic recording</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  *** is a technique for writing data to a hard disk drive (HDD) whereby the data tracks partially overlap to increase the areal density and overall storage capacity per disk</t>
+  </si>
+  <si>
+    <t>TSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Triple Stage Actuator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *** Actuator technology has evolved from single stage to dual stage to  ***. Each evolution increases the read-write head position accuracy while decreasing the amount of time required to read and write the media.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTBF </t>
+  </si>
+  <si>
+    <t>Tracks per Inch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPI </t>
+  </si>
+  <si>
+    <t>S.M.A.R.T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Monitoring, Analysis and Reporting Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ***** is a monitoring system included in computer hard disk drives </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bits per Inch (Gbit/I) </t>
+  </si>
+  <si>
+    <t>BPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bits per Inch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat Assisted Magnetic Recording </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**** </t>
+  </si>
+  <si>
+    <t>Microwave Assisted Magnetic Recording </t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>Energyassisted Perpendicular Magnetic Recording </t>
+  </si>
+  <si>
+    <t>Technology Energyassisted Magnetic Recording </t>
+  </si>
+  <si>
+    <t>*** head technology builds on existing read/write technology found in TFI and anisotropic MR, producing heads that exhibit a higher sensitivity to changing magnetisation on the disc and work on spin-dependent electron scattering</t>
+  </si>
+  <si>
+    <t> voice coil motor</t>
+  </si>
+  <si>
+    <t>*** is a magnetic circuit that combines an iron yoke and magnets glued to it. Within a hard disk drive, because of the danger of the recorded data being destroyed, the introduction of even tiny particles must be avoided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLI </t>
+  </si>
+  <si>
+    <t>PCIe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peripheral Component Interconnect Express </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage Regulator Module </t>
+  </si>
+  <si>
+    <t>VRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDDR3 </t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vesa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Electronics Standards Association </t>
+  </si>
+  <si>
+    <t>AGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accelerated grafic ports </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="133">
+  <fonts count="134">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6156,6 +6270,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6184,7 +6304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6581,16 +6701,6 @@
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6598,14 +6708,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6617,13 +6727,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7059,10 +7170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD413"/>
+  <dimension ref="A1:XFD436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414"/>
+    <sheetView tabSelected="1" topLeftCell="A425" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B436" sqref="B436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
@@ -11090,7 +11201,7 @@
       <c r="C218" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D218" s="162" t="s">
+      <c r="D218" s="158" t="s">
         <v>773</v>
       </c>
       <c r="E218" s="41" t="s">
@@ -13665,7 +13776,7 @@
         <v>1162</v>
       </c>
       <c r="C363" s="11"/>
-      <c r="D363" s="175" t="s">
+      <c r="D363" s="164" t="s">
         <v>1263</v>
       </c>
       <c r="E363" s="41"/>
@@ -13679,7 +13790,7 @@
         <v>1161</v>
       </c>
       <c r="C364" s="11"/>
-      <c r="D364" s="175" t="s">
+      <c r="D364" s="164" t="s">
         <v>1264</v>
       </c>
       <c r="E364" s="41"/>
@@ -13693,7 +13804,7 @@
         <v>1166</v>
       </c>
       <c r="C365" s="11"/>
-      <c r="D365" s="175" t="s">
+      <c r="D365" s="164" t="s">
         <v>1265</v>
       </c>
       <c r="E365" s="41"/>
@@ -13741,7 +13852,7 @@
       <c r="A369" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="B369" s="174" t="s">
+      <c r="B369" s="162" t="s">
         <v>1261</v>
       </c>
       <c r="C369" s="11"/>
@@ -13840,502 +13951,750 @@
       <c r="F376" s="68"/>
     </row>
     <row r="377" spans="1:6" ht="75">
-      <c r="A377" s="158" t="s">
+      <c r="A377" s="9" t="s">
         <v>1189</v>
       </c>
-      <c r="B377" s="159" t="s">
+      <c r="B377" s="15" t="s">
         <v>1190</v>
       </c>
-      <c r="C377" s="160"/>
-      <c r="D377" s="161" t="s">
+      <c r="C377" s="11"/>
+      <c r="D377" s="12" t="s">
         <v>1191</v>
       </c>
       <c r="E377" s="41"/>
       <c r="F377" s="68"/>
     </row>
     <row r="378" spans="1:6" ht="77.25">
-      <c r="A378" s="158" t="s">
+      <c r="A378" s="9" t="s">
         <v>1193</v>
       </c>
-      <c r="B378" s="159" t="s">
+      <c r="B378" s="15" t="s">
         <v>1193</v>
       </c>
-      <c r="C378" s="160"/>
-      <c r="D378" s="163" t="s">
+      <c r="C378" s="11"/>
+      <c r="D378" s="159" t="s">
         <v>1208</v>
       </c>
       <c r="E378" s="41"/>
       <c r="F378" s="68"/>
     </row>
     <row r="379" spans="1:6" ht="45">
-      <c r="A379" s="158" t="s">
+      <c r="A379" s="9" t="s">
         <v>1194</v>
       </c>
-      <c r="B379" s="159" t="s">
+      <c r="B379" s="15" t="s">
         <v>1200</v>
       </c>
-      <c r="C379" s="160"/>
-      <c r="D379" s="161" t="s">
+      <c r="C379" s="11"/>
+      <c r="D379" s="12" t="s">
         <v>1207</v>
       </c>
       <c r="E379" s="41"/>
       <c r="F379" s="68"/>
     </row>
     <row r="380" spans="1:6" ht="45">
-      <c r="A380" s="158" t="s">
+      <c r="A380" s="9" t="s">
         <v>1195</v>
       </c>
-      <c r="B380" s="159" t="s">
+      <c r="B380" s="15" t="s">
         <v>1201</v>
       </c>
-      <c r="C380" s="160"/>
-      <c r="D380" s="161" t="s">
+      <c r="C380" s="11"/>
+      <c r="D380" s="12" t="s">
         <v>1206</v>
       </c>
       <c r="E380" s="41"/>
       <c r="F380" s="68"/>
     </row>
     <row r="381" spans="1:6" ht="60">
-      <c r="A381" s="158" t="s">
+      <c r="A381" s="9" t="s">
         <v>1196</v>
       </c>
-      <c r="B381" s="159" t="s">
+      <c r="B381" s="15" t="s">
         <v>1202</v>
       </c>
-      <c r="C381" s="160"/>
-      <c r="D381" s="161" t="s">
+      <c r="C381" s="11"/>
+      <c r="D381" s="12" t="s">
         <v>1205</v>
       </c>
       <c r="E381" s="41"/>
       <c r="F381" s="68"/>
     </row>
     <row r="382" spans="1:6" ht="60">
-      <c r="A382" s="158" t="s">
+      <c r="A382" s="9" t="s">
         <v>1197</v>
       </c>
-      <c r="B382" s="159" t="s">
+      <c r="B382" s="15" t="s">
         <v>1203</v>
       </c>
-      <c r="C382" s="160"/>
-      <c r="D382" s="161" t="s">
+      <c r="C382" s="11"/>
+      <c r="D382" s="12" t="s">
         <v>1204</v>
       </c>
       <c r="E382" s="41"/>
       <c r="F382" s="68"/>
     </row>
     <row r="383" spans="1:6" ht="45">
-      <c r="A383" s="158" t="s">
+      <c r="A383" s="9" t="s">
         <v>1198</v>
       </c>
-      <c r="B383" s="159" t="s">
+      <c r="B383" s="15" t="s">
         <v>1211</v>
       </c>
-      <c r="C383" s="160"/>
-      <c r="D383" s="161" t="s">
+      <c r="C383" s="11"/>
+      <c r="D383" s="12" t="s">
         <v>1212</v>
       </c>
       <c r="E383" s="41"/>
       <c r="F383" s="68"/>
     </row>
     <row r="384" spans="1:6" ht="45">
-      <c r="A384" s="158" t="s">
+      <c r="A384" s="9" t="s">
         <v>1199</v>
       </c>
-      <c r="B384" s="158" t="s">
+      <c r="B384" s="9" t="s">
         <v>1199</v>
       </c>
-      <c r="C384" s="160"/>
-      <c r="D384" s="161" t="s">
+      <c r="C384" s="11"/>
+      <c r="D384" s="12" t="s">
         <v>1213</v>
       </c>
       <c r="E384" s="41"/>
       <c r="F384" s="68"/>
     </row>
     <row r="385" spans="1:6" ht="30">
-      <c r="A385" s="158" t="s">
+      <c r="A385" s="9" t="s">
         <v>1209</v>
       </c>
-      <c r="B385" s="159" t="s">
+      <c r="B385" s="15" t="s">
         <v>1210</v>
       </c>
-      <c r="C385" s="160"/>
-      <c r="D385" s="161" t="s">
+      <c r="C385" s="11"/>
+      <c r="D385" s="12" t="s">
         <v>1214</v>
       </c>
       <c r="E385" s="41"/>
       <c r="F385" s="68"/>
     </row>
     <row r="386" spans="1:6" ht="45">
-      <c r="A386" s="158" t="s">
+      <c r="A386" s="9" t="s">
         <v>1215</v>
       </c>
-      <c r="B386" s="159" t="s">
+      <c r="B386" s="15" t="s">
         <v>1217</v>
       </c>
-      <c r="C386" s="160"/>
-      <c r="D386" s="161" t="s">
+      <c r="C386" s="11"/>
+      <c r="D386" s="12" t="s">
         <v>1216</v>
       </c>
       <c r="E386" s="41"/>
       <c r="F386" s="68"/>
     </row>
     <row r="387" spans="1:6" ht="45">
-      <c r="A387" s="158" t="s">
+      <c r="A387" s="9" t="s">
         <v>1218</v>
       </c>
-      <c r="B387" s="159" t="s">
+      <c r="B387" s="15" t="s">
         <v>1219</v>
       </c>
-      <c r="C387" s="160"/>
-      <c r="D387" s="161" t="s">
+      <c r="C387" s="11"/>
+      <c r="D387" s="12" t="s">
         <v>1220</v>
       </c>
       <c r="E387" s="41"/>
       <c r="F387" s="68"/>
     </row>
     <row r="388" spans="1:6" ht="27.75">
-      <c r="A388" s="165" t="s">
+      <c r="A388" s="161" t="s">
         <v>1226</v>
       </c>
-      <c r="B388" s="159" t="s">
+      <c r="B388" s="15" t="s">
         <v>1221</v>
       </c>
-      <c r="C388" s="160"/>
-      <c r="D388" s="168" t="s">
+      <c r="C388" s="11"/>
+      <c r="D388" s="164" t="s">
         <v>1224</v>
       </c>
       <c r="E388" s="41"/>
       <c r="F388" s="68"/>
     </row>
     <row r="389" spans="1:6" ht="27.75">
-      <c r="A389" s="165" t="s">
+      <c r="A389" s="161" t="s">
         <v>1226</v>
       </c>
-      <c r="B389" s="164" t="s">
+      <c r="B389" s="160" t="s">
         <v>1222</v>
       </c>
-      <c r="C389" s="160"/>
-      <c r="D389" s="168" t="s">
+      <c r="C389" s="11"/>
+      <c r="D389" s="164" t="s">
         <v>1224</v>
       </c>
       <c r="E389" s="41"/>
       <c r="F389" s="68"/>
     </row>
     <row r="390" spans="1:6" ht="27.75">
-      <c r="A390" s="165" t="s">
+      <c r="A390" s="161" t="s">
         <v>1226</v>
       </c>
-      <c r="B390" s="166" t="s">
+      <c r="B390" s="162" t="s">
         <v>1223</v>
       </c>
-      <c r="C390" s="167"/>
-      <c r="D390" s="168" t="s">
+      <c r="C390" s="163"/>
+      <c r="D390" s="164" t="s">
         <v>1224</v>
       </c>
-      <c r="E390" s="169"/>
-      <c r="F390" s="170"/>
+      <c r="E390" s="165"/>
+      <c r="F390" s="166"/>
     </row>
     <row r="391" spans="1:6" ht="27.75">
-      <c r="A391" s="165" t="s">
+      <c r="A391" s="161" t="s">
         <v>1225</v>
       </c>
-      <c r="B391" s="166" t="s">
+      <c r="B391" s="162" t="s">
         <v>1227</v>
       </c>
-      <c r="C391" s="167"/>
-      <c r="D391" s="168" t="s">
+      <c r="C391" s="163"/>
+      <c r="D391" s="164" t="s">
         <v>1228</v>
       </c>
-      <c r="E391" s="169"/>
-      <c r="F391" s="170"/>
+      <c r="E391" s="165"/>
+      <c r="F391" s="166"/>
     </row>
     <row r="392" spans="1:6" ht="30">
-      <c r="A392" s="165" t="s">
+      <c r="A392" s="161" t="s">
         <v>1229</v>
       </c>
-      <c r="B392" s="171" t="s">
+      <c r="B392" s="167" t="s">
         <v>1229</v>
       </c>
-      <c r="C392" s="167"/>
-      <c r="D392" s="168" t="s">
+      <c r="C392" s="163"/>
+      <c r="D392" s="164" t="s">
         <v>1230</v>
       </c>
-      <c r="E392" s="169"/>
-      <c r="F392" s="170"/>
+      <c r="E392" s="165"/>
+      <c r="F392" s="166"/>
     </row>
     <row r="393" spans="1:6" ht="27.75">
-      <c r="A393" s="165" t="s">
+      <c r="A393" s="161" t="s">
         <v>1231</v>
       </c>
-      <c r="B393" s="166" t="s">
+      <c r="B393" s="162" t="s">
         <v>1233</v>
       </c>
-      <c r="C393" s="167"/>
-      <c r="D393" s="168" t="s">
+      <c r="C393" s="163"/>
+      <c r="D393" s="164" t="s">
         <v>1236</v>
       </c>
-      <c r="E393" s="169"/>
-      <c r="F393" s="170"/>
+      <c r="E393" s="165"/>
+      <c r="F393" s="166"/>
     </row>
     <row r="394" spans="1:6" ht="62.25">
-      <c r="A394" s="165" t="s">
+      <c r="A394" s="161" t="s">
         <v>1232</v>
       </c>
-      <c r="B394" s="166" t="s">
+      <c r="B394" s="162" t="s">
         <v>1234</v>
       </c>
-      <c r="C394" s="167"/>
-      <c r="D394" s="172" t="s">
+      <c r="C394" s="163"/>
+      <c r="D394" s="168" t="s">
         <v>1235</v>
       </c>
-      <c r="E394" s="169"/>
-      <c r="F394" s="170"/>
+      <c r="E394" s="165"/>
+      <c r="F394" s="166"/>
     </row>
     <row r="395" spans="1:6" ht="30">
-      <c r="A395" s="165" t="s">
+      <c r="A395" s="161" t="s">
         <v>1237</v>
       </c>
-      <c r="B395" s="166" t="s">
+      <c r="B395" s="162" t="s">
         <v>1238</v>
       </c>
-      <c r="C395" s="167"/>
-      <c r="D395" s="168" t="s">
+      <c r="C395" s="163"/>
+      <c r="D395" s="164" t="s">
         <v>1239</v>
       </c>
-      <c r="E395" s="169"/>
-      <c r="F395" s="170"/>
+      <c r="E395" s="165"/>
+      <c r="F395" s="166"/>
     </row>
     <row r="396" spans="1:6" ht="45">
-      <c r="A396" s="165" t="s">
+      <c r="A396" s="161" t="s">
         <v>1240</v>
       </c>
-      <c r="B396" s="166" t="s">
+      <c r="B396" s="162" t="s">
         <v>1241</v>
       </c>
-      <c r="C396" s="167"/>
-      <c r="D396" s="168" t="s">
+      <c r="C396" s="163"/>
+      <c r="D396" s="164" t="s">
         <v>1242</v>
       </c>
-      <c r="E396" s="169"/>
-      <c r="F396" s="170"/>
+      <c r="E396" s="165"/>
+      <c r="F396" s="166"/>
     </row>
     <row r="397" spans="1:6" ht="27.75">
-      <c r="A397" s="165" t="s">
+      <c r="A397" s="161" t="s">
         <v>1244</v>
       </c>
-      <c r="B397" s="173" t="s">
+      <c r="B397" s="169" t="s">
         <v>1245</v>
       </c>
-      <c r="C397" s="167"/>
-      <c r="D397" s="168" t="s">
+      <c r="C397" s="163"/>
+      <c r="D397" s="164" t="s">
         <v>1243</v>
       </c>
-      <c r="E397" s="169"/>
-      <c r="F397" s="170"/>
+      <c r="E397" s="165"/>
+      <c r="F397" s="166"/>
     </row>
     <row r="398" spans="1:6" ht="45">
-      <c r="A398" s="165" t="s">
+      <c r="A398" s="161" t="s">
         <v>1246</v>
       </c>
-      <c r="B398" s="166" t="s">
+      <c r="B398" s="162" t="s">
         <v>1247</v>
       </c>
-      <c r="C398" s="167"/>
-      <c r="D398" s="168" t="s">
+      <c r="C398" s="163"/>
+      <c r="D398" s="164" t="s">
         <v>1251</v>
       </c>
-      <c r="E398" s="169"/>
-      <c r="F398" s="170"/>
+      <c r="E398" s="165"/>
+      <c r="F398" s="166"/>
     </row>
     <row r="399" spans="1:6" ht="30">
-      <c r="A399" s="165" t="s">
+      <c r="A399" s="161" t="s">
         <v>1249</v>
       </c>
-      <c r="B399" s="166" t="s">
+      <c r="B399" s="162" t="s">
         <v>1248</v>
       </c>
-      <c r="C399" s="167"/>
-      <c r="D399" s="168" t="s">
+      <c r="C399" s="163"/>
+      <c r="D399" s="164" t="s">
         <v>1252</v>
       </c>
-      <c r="E399" s="169"/>
-      <c r="F399" s="170"/>
+      <c r="E399" s="165"/>
+      <c r="F399" s="166"/>
     </row>
     <row r="400" spans="1:6" ht="45">
-      <c r="A400" s="165" t="s">
+      <c r="A400" s="161" t="s">
         <v>1250</v>
       </c>
-      <c r="B400" s="166" t="s">
+      <c r="B400" s="162" t="s">
         <v>1254</v>
       </c>
-      <c r="C400" s="167"/>
-      <c r="D400" s="168" t="s">
+      <c r="C400" s="163"/>
+      <c r="D400" s="164" t="s">
         <v>1253</v>
       </c>
-      <c r="E400" s="169"/>
-      <c r="F400" s="170"/>
+      <c r="E400" s="165"/>
+      <c r="F400" s="166"/>
     </row>
     <row r="401" spans="1:6" ht="45">
-      <c r="A401" s="165" t="s">
+      <c r="A401" s="161" t="s">
         <v>1257</v>
       </c>
-      <c r="B401" s="166" t="s">
+      <c r="B401" s="162" t="s">
         <v>1258</v>
       </c>
-      <c r="C401" s="167"/>
-      <c r="D401" s="168" t="s">
+      <c r="C401" s="163"/>
+      <c r="D401" s="164" t="s">
         <v>1255</v>
       </c>
-      <c r="E401" s="169"/>
-      <c r="F401" s="170"/>
+      <c r="E401" s="165"/>
+      <c r="F401" s="166"/>
     </row>
     <row r="402" spans="1:6" ht="45">
-      <c r="A402" s="165" t="s">
+      <c r="A402" s="161" t="s">
         <v>1256</v>
       </c>
-      <c r="B402" s="164" t="s">
+      <c r="B402" s="160" t="s">
         <v>1259</v>
       </c>
-      <c r="C402" s="167"/>
-      <c r="D402" s="168" t="s">
+      <c r="C402" s="163"/>
+      <c r="D402" s="164" t="s">
         <v>1260</v>
       </c>
-      <c r="E402" s="169"/>
-      <c r="F402" s="170"/>
+      <c r="E402" s="165"/>
+      <c r="F402" s="166"/>
     </row>
     <row r="403" spans="1:6">
-      <c r="A403" s="165" t="s">
+      <c r="A403" s="161" t="s">
         <v>1266</v>
       </c>
-      <c r="B403" s="166" t="s">
+      <c r="B403" s="162" t="s">
         <v>1268</v>
       </c>
-      <c r="C403" s="167"/>
-      <c r="D403" s="168"/>
-      <c r="E403" s="169"/>
-      <c r="F403" s="170"/>
+      <c r="C403" s="163"/>
+      <c r="D403" s="164"/>
+      <c r="E403" s="165"/>
+      <c r="F403" s="166"/>
     </row>
     <row r="404" spans="1:6">
-      <c r="A404" s="165" t="s">
+      <c r="A404" s="161" t="s">
         <v>1267</v>
       </c>
-      <c r="B404" s="166" t="s">
+      <c r="B404" s="162" t="s">
         <v>1269</v>
       </c>
-      <c r="C404" s="167"/>
-      <c r="D404" s="168"/>
-      <c r="E404" s="169"/>
-      <c r="F404" s="170"/>
+      <c r="C404" s="163"/>
+      <c r="D404" s="164"/>
+      <c r="E404" s="165"/>
+      <c r="F404" s="166"/>
     </row>
     <row r="405" spans="1:6" ht="27.75">
-      <c r="A405" s="165" t="s">
+      <c r="A405" s="161" t="s">
         <v>1270</v>
       </c>
-      <c r="B405" s="176" t="s">
+      <c r="B405" s="170" t="s">
         <v>1271</v>
       </c>
-      <c r="C405" s="167"/>
-      <c r="D405" s="168"/>
-      <c r="E405" s="169"/>
-      <c r="F405" s="170"/>
+      <c r="C405" s="163"/>
+      <c r="D405" s="164"/>
+      <c r="E405" s="165"/>
+      <c r="F405" s="166"/>
     </row>
     <row r="406" spans="1:6" ht="27.75">
-      <c r="A406" s="165" t="s">
+      <c r="A406" s="161" t="s">
         <v>1272</v>
       </c>
-      <c r="B406" s="166" t="s">
+      <c r="B406" s="162" t="s">
         <v>1273</v>
       </c>
-      <c r="C406" s="167"/>
-      <c r="D406" s="168"/>
-      <c r="E406" s="169"/>
-      <c r="F406" s="170"/>
+      <c r="C406" s="163"/>
+      <c r="D406" s="164"/>
+      <c r="E406" s="165"/>
+      <c r="F406" s="166"/>
     </row>
     <row r="407" spans="1:6">
-      <c r="A407" s="165" t="s">
+      <c r="A407" s="161" t="s">
         <v>1267</v>
       </c>
-      <c r="B407" s="166" t="s">
+      <c r="B407" s="162" t="s">
         <v>1269</v>
       </c>
-      <c r="C407" s="167"/>
-      <c r="D407" s="168"/>
-      <c r="E407" s="169"/>
-      <c r="F407" s="170"/>
+      <c r="C407" s="163"/>
+      <c r="D407" s="164"/>
+      <c r="E407" s="165"/>
+      <c r="F407" s="166"/>
     </row>
     <row r="408" spans="1:6">
-      <c r="A408" s="165" t="s">
+      <c r="A408" s="161" t="s">
         <v>1274</v>
       </c>
-      <c r="B408" s="166" t="s">
+      <c r="B408" s="162" t="s">
         <v>1275</v>
       </c>
-      <c r="C408" s="167"/>
-      <c r="D408" s="168"/>
-      <c r="E408" s="169"/>
-      <c r="F408" s="170"/>
+      <c r="C408" s="163"/>
+      <c r="D408" s="164"/>
+      <c r="E408" s="165"/>
+      <c r="F408" s="166"/>
     </row>
     <row r="409" spans="1:6" ht="27.75">
-      <c r="A409" s="165" t="s">
+      <c r="A409" s="161" t="s">
         <v>1276</v>
       </c>
-      <c r="B409" s="166" t="s">
+      <c r="B409" s="162" t="s">
         <v>1277</v>
       </c>
-      <c r="C409" s="167"/>
-      <c r="D409" s="168"/>
-      <c r="E409" s="169"/>
-      <c r="F409" s="170"/>
+      <c r="C409" s="163"/>
+      <c r="D409" s="164"/>
+      <c r="E409" s="165"/>
+      <c r="F409" s="166"/>
     </row>
     <row r="410" spans="1:6" ht="27.75">
-      <c r="A410" s="165" t="s">
+      <c r="A410" s="161" t="s">
         <v>1278</v>
       </c>
-      <c r="B410" s="166" t="s">
+      <c r="B410" s="162" t="s">
         <v>1279</v>
       </c>
-      <c r="C410" s="167"/>
-      <c r="D410" s="168"/>
-      <c r="E410" s="169"/>
-      <c r="F410" s="170"/>
+      <c r="C410" s="163"/>
+      <c r="D410" s="164"/>
+      <c r="E410" s="165"/>
+      <c r="F410" s="166"/>
     </row>
     <row r="411" spans="1:6" ht="75">
-      <c r="A411" s="158" t="s">
+      <c r="A411" s="9" t="s">
         <v>1281</v>
       </c>
-      <c r="B411" s="159" t="s">
+      <c r="B411" s="15" t="s">
         <v>1282</v>
       </c>
-      <c r="C411" s="160" t="s">
+      <c r="C411" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D411" s="161" t="s">
+      <c r="D411" s="12" t="s">
         <v>1280</v>
       </c>
       <c r="E411" s="41"/>
       <c r="F411" s="68"/>
     </row>
     <row r="412" spans="1:6" ht="27.75">
-      <c r="A412" s="158" t="s">
+      <c r="A412" s="9" t="s">
         <v>1283</v>
       </c>
-      <c r="B412" s="159" t="s">
+      <c r="B412" s="15" t="s">
         <v>1284</v>
       </c>
-      <c r="C412" s="160"/>
-      <c r="D412" s="161"/>
+      <c r="C412" s="11"/>
+      <c r="D412" s="12"/>
       <c r="E412" s="41"/>
       <c r="F412" s="68"/>
     </row>
     <row r="413" spans="1:6" ht="27.75">
-      <c r="A413" s="158" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B413" s="159"/>
-      <c r="C413" s="160"/>
-      <c r="D413" s="161"/>
+      <c r="A413" s="9"/>
+      <c r="B413" s="15"/>
+      <c r="C413" s="11"/>
+      <c r="D413" s="12"/>
       <c r="E413" s="41"/>
       <c r="F413" s="68"/>
+    </row>
+    <row r="417" spans="1:4" ht="75">
+      <c r="A417" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="75">
+      <c r="A418" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="45">
+      <c r="A419" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="60">
+      <c r="A420" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B421" s="171" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="15.75">
+      <c r="A422" s="171" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B422" s="171" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D423" s="171" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D424" s="171" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="30">
+      <c r="A425" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D425" s="172" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="30">
+      <c r="A426" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D426" s="171" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="30">
+      <c r="A427" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D427" s="171" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="30">
+      <c r="A428" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D428" s="171" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="65.25">
+      <c r="A429" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D429" s="173" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="65.25">
+      <c r="A430" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D430" s="173" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="45">
+      <c r="A431" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="30">
+      <c r="A432" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="30">
+      <c r="A435" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>1322</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D283">

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD52DE-6162-42EE-B40D-2C99DC3FBC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D50C565-5977-46C8-A6B1-8437F09094BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="270" windowWidth="19065" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="19065" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="1331">
   <si>
     <t>NAS</t>
   </si>
@@ -5499,6 +5499,48 @@
   </si>
   <si>
     <t xml:space="preserve">accelerated grafic ports </t>
+  </si>
+  <si>
+    <t>CRUD </t>
+  </si>
+  <si>
+    <t>is an acronym for ways one can operate on stored data. It is a mnemonic for the four basic functions of persistent storage.</t>
+  </si>
+  <si>
+    <t>FQDn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *** is the complete address of an internet host or computer. It provides its exact location within the domain name system (DNS) by specifying the hostname, domain name and top-level domain (TLD)</t>
+  </si>
+  <si>
+    <t>TLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> top-level domain</t>
+  </si>
+  <si>
+    <t>fully qualified domain name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create Read Update Delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6304,7 +6346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6735,6 +6777,7 @@
     <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7170,9 +7213,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD436"/>
+  <dimension ref="A1:XFD439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A429" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B436" sqref="B436"/>
     </sheetView>
   </sheetViews>
@@ -14524,7 +14567,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" ht="30">
       <c r="A423" s="2" t="s">
         <v>1297</v>
       </c>
@@ -14694,6 +14737,36 @@
       </c>
       <c r="B436" s="4" t="s">
         <v>1322</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="30">
+      <c r="A437" s="174" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B437" s="174" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="60">
+      <c r="A438" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>1328</v>
       </c>
     </row>
   </sheetData>

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D50C565-5977-46C8-A6B1-8437F09094BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6744B9-2216-4038-816A-FC7E9D40E8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="19065" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="1390">
   <si>
     <t>NAS</t>
   </si>
@@ -5542,12 +5542,200 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
+  <si>
+    <t>ePVO</t>
+  </si>
+  <si>
+    <t>E-Privacy-Verordnung</t>
+  </si>
+  <si>
+    <t>TMG</t>
+  </si>
+  <si>
+    <t>Telemediengesetz</t>
+  </si>
+  <si>
+    <t>bdsg</t>
+  </si>
+  <si>
+    <t>Bundesdatenschutzgesetz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isb </t>
+  </si>
+  <si>
+    <r>
+      <t>Informationssicherheitsbeauftragter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>it-sig</t>
+  </si>
+  <si>
+    <t>IT-Sicherheitsgesetz</t>
+  </si>
+  <si>
+    <t>BSIG</t>
+  </si>
+  <si>
+    <t>Gesetz über das Bundesamt für Sicherheit in der Informationstechnik</t>
+  </si>
+  <si>
+    <t>ISMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> information security management system</t>
+  </si>
+  <si>
+    <t>VSDI</t>
+  </si>
+  <si>
+    <t>Verband Sichere Digitale Identität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(VSDI) versteht sich als praxisnahes Kompetenz-Netzwerk für Politik, Verwaltung und Wirtschaft, das die Transformation von analogen zu digitalen Identitäten vorantreibt. </t>
+  </si>
+  <si>
+    <t>BSI</t>
+  </si>
+  <si>
+    <t>Bundesamt für Sicherheit in der Informationstechnik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSK ???? </t>
+  </si>
+  <si>
+    <t>LTFS</t>
+  </si>
+  <si>
+    <t>Linear Tape File System</t>
+  </si>
+  <si>
+    <t>BER</t>
+  </si>
+  <si>
+    <t>Bit error rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** is the number of received bits of a data stream over a communication channel that have been altered due to noise, interference, distortion or bit synchronization errors. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Recognition System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRS </t>
+  </si>
+  <si>
+    <t>VXA</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** is a tape backup format originally created by Ecrix and now owned by Tandberg Data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTO </t>
+  </si>
+  <si>
+    <t>Linear Tape-Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** technology originally developed in the late 1990s as an open standards alternative to the proprietary magnetic tape formats that were available at the time.     </t>
+  </si>
+  <si>
+    <t>DLT</t>
+  </si>
+  <si>
+    <t>FSK</t>
+  </si>
+  <si>
+    <t>Digital Linear Tape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***  (previously called CompacTape) is a magnetic-tape data storage technology developed by Digital Equipment Corporation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLR </t>
+  </si>
+  <si>
+    <t>Scalable Linear Recording</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** is the name used by Tandberg Data for its line of QIC based tape drives. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a computer data storage technology that is based upon the Digital Audio Tape (DAT) format that was developed during the 1980s. </t>
+  </si>
+  <si>
+    <t>Digital Data Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCC </t>
+  </si>
+  <si>
+    <t>Digital Compact Cassette</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *** is a magnetic tape sound recording format introduced by Philips and Matsushita Electric in late 1992 </t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Digital Audio Tape</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *** ist ein digitales Audio-Magnetband (Tonband) für entsprechende Audiorekorder.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QIC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarter-inch cartridge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** is a magnetic tape data storage format introduced by 3M in 1972,[1] with derivatives still in use as of 2016. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *** ist ein Magnetband-System zur Datenspeicherung. </t>
+  </si>
+  <si>
+    <t>Advanced Intelligent Tape</t>
+  </si>
+  <si>
+    <t>**** is a file system that allows files stored on magnetic tape to be accessed in a similar fashion to those on disk or removable flash drives.</t>
+  </si>
+  <si>
+    <t>CLSID</t>
+  </si>
+  <si>
+    <t>class identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***** is a serial number that represents a unique ID for any application component in Windows. In practice, this means all registry entries for an application component can usually be found under the registry key HKEY_CLASSES_ROOT\CLSID{CLSID value}. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="134">
+  <fonts count="137">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6318,6 +6506,25 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6346,7 +6553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6778,6 +6985,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7213,10 +7423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD439"/>
+  <dimension ref="A1:XFD462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B436" sqref="B436"/>
+    <sheetView tabSelected="1" topLeftCell="A455" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D465" sqref="D465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
@@ -14767,6 +14977,232 @@
       </c>
       <c r="B439" s="4" t="s">
         <v>1328</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B440" s="151" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B441" s="175" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B443" s="176" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="45">
+      <c r="A445" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="30">
+      <c r="A446" s="177" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="45">
+      <c r="A447" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="30">
+      <c r="A448" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="15.75">
+      <c r="A449" s="171" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="30">
+      <c r="A450" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="30">
+      <c r="A451" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="30">
+      <c r="A452" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="45">
+      <c r="A453" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="30">
+      <c r="A454" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="30">
+      <c r="A455" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="45">
+      <c r="A457" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="30">
+      <c r="A458" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="45">
+      <c r="A460" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="45">
+      <c r="A461" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="75">
+      <c r="A462" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>1389</v>
       </c>
     </row>
   </sheetData>

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorio/Sites/markdown/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA128921-87A3-DC4F-9E38-BE258F4977F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B079F717-C04A-40FA-A392-BC1C5CAB4974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="24225" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -3704,9 +3704,6 @@
     <t>NetBIOS Name Service</t>
   </si>
   <si>
-    <t>*** is also called PMR (Perpendicular Magnetic Recording). *** aligns the poles of a magnetic element perpendicular to the surface of the disk in a hard drive. Magnetic elements in this technology represent bits of data. Tracks are written side by side and do not overlap.</t>
-  </si>
-  <si>
     <t>*** is also called CMR Conventional Magnetic Recording). *** aligns the poles of a magnetic element perpendicular to the surface of the disk in a hard drive. Magnetic elements in this technology represent bits of data. Tracks are written side by side and do not overlap.</t>
   </si>
   <si>
@@ -5842,12 +5839,15 @@
   <si>
     <t>Field-Effect Transistor</t>
   </si>
+  <si>
+    <t>*** is also called PMR (Perpendicular Magnetic Recording). *** aligns the poles of a magnetic element perpendicular to the surface of the disk in a hard drive. Magnetic elements in this technology represent bits of data. Tracks are written side by side an</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="74">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6660,7 +6660,66 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -6810,20 +6869,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F413" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F413" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:F413" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">
     <sortCondition ref="A1:A299"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{38398A18-3893-4626-BEA7-125709198425}" name="abkürzung" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E64202E3-5BFC-49DB-8FB8-BA3F19BA422C}" name="means" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{CAD88F97-5D18-42FF-83DE-95F6F4A24513}" name="fach" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3C2C066B-E107-40FE-BEBE-8959BFEC20C8}" name="Column1" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{C7A3C583-19A7-4A7C-9842-10D39579E061}" name="img" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{01C19B2C-F0EA-4FDB-975F-A6864A17745E}" name="link" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{38398A18-3893-4626-BEA7-125709198425}" name="abkürzung" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E64202E3-5BFC-49DB-8FB8-BA3F19BA422C}" name="means" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CAD88F97-5D18-42FF-83DE-95F6F4A24513}" name="fach" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{3C2C066B-E107-40FE-BEBE-8959BFEC20C8}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{C7A3C583-19A7-4A7C-9842-10D39579E061}" name="img" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{01C19B2C-F0EA-4FDB-975F-A6864A17745E}" name="link" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}" name="Table2" displayName="Table2" ref="A417:D482" totalsRowShown="0">
+  <autoFilter ref="A417:D482" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{41DA4D65-38BA-49BC-9E95-6B14FD163A96}" name="CMR" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{05ADCA5B-05F1-452E-8752-A1742DD16AB0}" name="Conventional Magnetic Recording" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E7F69699-A358-4034-8565-2BC16587C3DA}" name="bs" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{EB0E64C3-C34A-410E-989C-654308A5E038}" name="*** is also called PMR (Perpendicular Magnetic Recording). *** aligns the poles of a magnetic element perpendicular to the surface of the disk in a hard drive. Magnetic elements in this technology represent bits of data. Tracks are written side by side an" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7093,19 +7165,19 @@
   <dimension ref="A1:XFD482"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A478" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B480" sqref="B480"/>
+      <selection activeCell="A464" sqref="A464:D482"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" style="116" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="66.83203125" style="117" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="116" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.85546875" style="117" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="27.75">
       <c r="A1" s="29" t="s">
         <v>39</v>
       </c>
@@ -7125,7 +7197,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="121" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="117">
       <c r="A2" s="22" t="s">
         <v>594</v>
       </c>
@@ -7145,7 +7217,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="71.25">
       <c r="A3" s="35" t="s">
         <v>267</v>
       </c>
@@ -7163,7 +7235,7 @@
       </c>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="36">
       <c r="A4" s="35" t="s">
         <v>268</v>
       </c>
@@ -7179,7 +7251,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="27">
       <c r="A5" s="35" t="s">
         <v>266</v>
       </c>
@@ -7195,7 +7267,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="27">
       <c r="A6" s="35" t="s">
         <v>277</v>
       </c>
@@ -7207,7 +7279,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="102">
       <c r="A7" s="22" t="s">
         <v>410</v>
       </c>
@@ -7227,7 +7299,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="45">
       <c r="A8" s="40" t="s">
         <v>80</v>
       </c>
@@ -7245,7 +7317,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="40.5">
       <c r="A9" s="35" t="s">
         <v>275</v>
       </c>
@@ -7259,9 +7331,9 @@
       <c r="E9" s="13"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="46.5">
       <c r="A10" s="35" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>330</v>
@@ -7279,7 +7351,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="78" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="69.75">
       <c r="A11" s="42" t="s">
         <v>404</v>
       </c>
@@ -7290,7 +7362,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>826</v>
@@ -7299,7 +7371,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A12" s="40" t="s">
         <v>107</v>
       </c>
@@ -7310,7 +7382,7 @@
         <v>113</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>826</v>
@@ -7319,9 +7391,9 @@
         <v>969</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="45">
       <c r="A13" s="44" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>384</v>
@@ -7339,12 +7411,12 @@
         <v>970</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="75">
       <c r="A14" s="35" t="s">
         <v>187</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="34" t="s">
@@ -7357,7 +7429,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="102">
       <c r="A15" s="22" t="s">
         <v>353</v>
       </c>
@@ -7377,7 +7449,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="32.25">
       <c r="A16" s="40" t="s">
         <v>258</v>
       </c>
@@ -7397,7 +7469,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="103" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="102">
       <c r="A17" s="40" t="s">
         <v>224</v>
       </c>
@@ -7408,7 +7480,7 @@
         <v>113</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>826</v>
@@ -7417,18 +7489,18 @@
         <v>976</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="78.75">
       <c r="A18" s="44" t="s">
         <v>549</v>
       </c>
       <c r="B18" s="47" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>1335</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>1336</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>826</v>
@@ -7437,7 +7509,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A19" s="22" t="s">
         <v>496</v>
       </c>
@@ -7448,7 +7520,7 @@
         <v>113</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>826</v>
@@ -7457,7 +7529,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="47.25">
       <c r="A20" s="40" t="s">
         <v>25</v>
       </c>
@@ -7473,12 +7545,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="4" customFormat="1" ht="69" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="60.75">
       <c r="A21" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>320</v>
@@ -7493,7 +7565,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" ht="67" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="62.25">
       <c r="A22" s="22" t="s">
         <v>484</v>
       </c>
@@ -7513,7 +7585,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A23" s="40" t="s">
         <v>53</v>
       </c>
@@ -7524,7 +7596,7 @@
         <v>320</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>826</v>
@@ -7533,7 +7605,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="31.5">
       <c r="A24" s="50" t="s">
         <v>568</v>
       </c>
@@ -7553,7 +7625,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="60">
       <c r="A25" s="22" t="s">
         <v>405</v>
       </c>
@@ -7573,9 +7645,9 @@
         <v>985</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="46" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="40.5">
       <c r="A26" s="22" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>342</v>
@@ -7584,7 +7656,7 @@
         <v>219</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>826</v>
@@ -7593,7 +7665,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" ht="59" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="51.75">
       <c r="A27" s="22" t="s">
         <v>565</v>
       </c>
@@ -7604,7 +7676,7 @@
         <v>113</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>826</v>
@@ -7613,9 +7685,9 @@
         <v>987</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="57">
       <c r="A28" s="22" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>380</v>
@@ -7633,7 +7705,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="75.75">
       <c r="A29" s="22" t="s">
         <v>381</v>
       </c>
@@ -7644,7 +7716,7 @@
         <v>373</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>826</v>
@@ -7653,12 +7725,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A30" s="22" t="s">
         <v>422</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>113</v>
@@ -7671,7 +7743,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="31.5">
       <c r="A31" s="25" t="s">
         <v>571</v>
       </c>
@@ -7691,7 +7763,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="4" customFormat="1" ht="85.5">
       <c r="A32" s="54" t="s">
         <v>371</v>
       </c>
@@ -7711,7 +7783,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" s="4" customFormat="1" ht="57">
       <c r="A33" s="22" t="s">
         <v>555</v>
       </c>
@@ -7731,12 +7803,12 @@
         <v>992</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" s="6" customFormat="1" ht="57">
       <c r="A34" s="22" t="s">
         <v>249</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>113</v>
@@ -7751,7 +7823,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" s="4" customFormat="1" ht="75">
       <c r="A35" s="40" t="s">
         <v>109</v>
       </c>
@@ -7771,7 +7843,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="33.75">
       <c r="A36" s="22" t="s">
         <v>581</v>
       </c>
@@ -7791,9 +7863,9 @@
         <v>992</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:6" s="4" customFormat="1" ht="60.75">
       <c r="A37" s="58" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B37" s="59" t="s">
         <v>387</v>
@@ -7811,7 +7883,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="65" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="60.75">
       <c r="A38" s="60" t="s">
         <v>470</v>
       </c>
@@ -7831,7 +7903,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" s="4" customFormat="1" ht="60">
       <c r="A39" s="22" t="s">
         <v>453</v>
       </c>
@@ -7849,7 +7921,7 @@
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A40" s="22" t="s">
         <v>408</v>
       </c>
@@ -7867,7 +7939,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" s="4" customFormat="1" ht="75">
       <c r="A41" s="40" t="s">
         <v>101</v>
       </c>
@@ -7887,7 +7959,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A42" s="22" t="s">
         <v>369</v>
       </c>
@@ -7905,18 +7977,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="4" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="4" customFormat="1" ht="81" customHeight="1">
       <c r="A43" s="62" t="s">
         <v>393</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>320</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>826</v>
@@ -7925,9 +7997,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="4" customFormat="1" ht="49" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="4" customFormat="1" ht="61.5">
       <c r="A44" s="64" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B44" s="23" t="s">
         <v>394</v>
@@ -7945,7 +8017,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="62.25">
       <c r="A45" s="22" t="s">
         <v>395</v>
       </c>
@@ -7965,7 +8037,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" s="4" customFormat="1" ht="40.5">
       <c r="A46" s="40" t="s">
         <v>105</v>
       </c>
@@ -7985,7 +8057,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A47" s="40" t="s">
         <v>75</v>
       </c>
@@ -8005,7 +8077,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" s="4" customFormat="1" ht="76.5">
       <c r="A48" s="40" t="s">
         <v>344</v>
       </c>
@@ -8016,7 +8088,7 @@
         <v>219</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>826</v>
@@ -8025,7 +8097,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" s="4" customFormat="1" ht="40.5">
       <c r="A49" s="40" t="s">
         <v>210</v>
       </c>
@@ -8043,7 +8115,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" s="4" customFormat="1" ht="60">
       <c r="A50" s="22" t="s">
         <v>333</v>
       </c>
@@ -8063,9 +8135,9 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A51" s="40" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>96</v>
@@ -8074,7 +8146,7 @@
         <v>427</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>826</v>
@@ -8083,7 +8155,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A52" s="40" t="s">
         <v>90</v>
       </c>
@@ -8103,7 +8175,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="4" customFormat="1" ht="99" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" s="4" customFormat="1" ht="107.25">
       <c r="A53" s="22" t="s">
         <v>507</v>
       </c>
@@ -8123,7 +8195,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A54" s="66" t="s">
         <v>499</v>
       </c>
@@ -8143,18 +8215,18 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="4" customFormat="1" ht="136" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" s="4" customFormat="1" ht="131.25">
       <c r="A55" s="22" t="s">
         <v>232</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>219</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>826</v>
@@ -8163,7 +8235,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="4" customFormat="1" ht="77" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" s="4" customFormat="1" ht="91.5">
       <c r="A56" s="40" t="s">
         <v>2</v>
       </c>
@@ -8174,7 +8246,7 @@
         <v>320</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>826</v>
@@ -8183,7 +8255,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A57" s="22" t="s">
         <v>490</v>
       </c>
@@ -8203,7 +8275,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="4" customFormat="1" ht="51">
       <c r="A58" s="36" t="s">
         <v>559</v>
       </c>
@@ -8223,9 +8295,9 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="4" customFormat="1" ht="97" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="4" customFormat="1" ht="93">
       <c r="A59" s="60" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B59" s="61" t="s">
         <v>424</v>
@@ -8243,7 +8315,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" s="4" customFormat="1" ht="46.5">
       <c r="A60" s="35" t="s">
         <v>347</v>
       </c>
@@ -8263,7 +8335,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" s="4" customFormat="1" ht="27">
       <c r="A61" s="35" t="s">
         <v>278</v>
       </c>
@@ -8281,7 +8353,7 @@
       </c>
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" s="4" customFormat="1" ht="60.75">
       <c r="A62" s="22" t="s">
         <v>385</v>
       </c>
@@ -8301,7 +8373,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A63" s="40" t="s">
         <v>92</v>
       </c>
@@ -8321,7 +8393,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" s="4" customFormat="1" ht="40.5">
       <c r="A64" s="22" t="s">
         <v>173</v>
       </c>
@@ -8341,7 +8413,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="4" customFormat="1" ht="107" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" s="4" customFormat="1" ht="105.75">
       <c r="A65" s="40" t="s">
         <v>21</v>
       </c>
@@ -8352,7 +8424,7 @@
         <v>320</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>826</v>
@@ -8361,7 +8433,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="4" customFormat="1" ht="78" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" s="4" customFormat="1" ht="69.75">
       <c r="A66" s="22" t="s">
         <v>252</v>
       </c>
@@ -8381,7 +8453,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A67" s="22" t="s">
         <v>489</v>
       </c>
@@ -8401,7 +8473,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A68" s="40" t="s">
         <v>94</v>
       </c>
@@ -8421,12 +8493,12 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" s="4" customFormat="1" ht="60">
       <c r="A69" s="22" t="s">
         <v>391</v>
       </c>
       <c r="B69" s="71" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C69" s="24" t="s">
         <v>113</v>
@@ -8441,7 +8513,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="4" customFormat="1" ht="93" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" s="4" customFormat="1" ht="81">
       <c r="A70" s="35" t="s">
         <v>324</v>
       </c>
@@ -8461,7 +8533,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="47.25">
       <c r="A71" s="40" t="s">
         <v>54</v>
       </c>
@@ -8481,7 +8553,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" s="4" customFormat="1" ht="45">
       <c r="A72" s="40" t="s">
         <v>78</v>
       </c>
@@ -8501,7 +8573,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="4" customFormat="1" ht="88" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" s="4" customFormat="1" ht="81">
       <c r="A73" s="40" t="s">
         <v>71</v>
       </c>
@@ -8521,7 +8593,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" s="4" customFormat="1" ht="40.5">
       <c r="A74" s="40" t="s">
         <v>209</v>
       </c>
@@ -8535,7 +8607,7 @@
       <c r="E74" s="13"/>
       <c r="F74" s="17"/>
     </row>
-    <row r="75" spans="1:6" s="4" customFormat="1" ht="67" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" s="4" customFormat="1" ht="72.75">
       <c r="A75" s="40" t="s">
         <v>153</v>
       </c>
@@ -8546,7 +8618,7 @@
         <v>113</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>826</v>
@@ -8555,7 +8627,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="4" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" s="4" customFormat="1" ht="93">
       <c r="A76" s="22" t="s">
         <v>505</v>
       </c>
@@ -8575,7 +8647,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A77" s="40" t="s">
         <v>68</v>
       </c>
@@ -8595,7 +8667,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A78" s="40" t="s">
         <v>62</v>
       </c>
@@ -8615,7 +8687,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" s="4" customFormat="1" ht="75">
       <c r="A79" s="22" t="s">
         <v>403</v>
       </c>
@@ -8635,7 +8707,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="4" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" s="4" customFormat="1" ht="90">
       <c r="A80" s="40" t="s">
         <v>619</v>
       </c>
@@ -8655,7 +8727,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="54" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="60">
       <c r="A81" s="66" t="s">
         <v>351</v>
       </c>
@@ -8675,7 +8747,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="4" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A82" s="22" t="s">
         <v>336</v>
       </c>
@@ -8695,7 +8767,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="47.25">
       <c r="A83" s="40" t="s">
         <v>183</v>
       </c>
@@ -8715,7 +8787,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" s="4" customFormat="1" ht="60">
       <c r="A84" s="22" t="s">
         <v>359</v>
       </c>
@@ -8735,7 +8807,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="306" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="270">
       <c r="A85" s="73" t="s">
         <v>430</v>
       </c>
@@ -8755,7 +8827,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" s="4" customFormat="1" ht="45">
       <c r="A86" s="22" t="s">
         <v>481</v>
       </c>
@@ -8775,12 +8847,12 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="60">
       <c r="A87" s="64" t="s">
         <v>425</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>427</v>
@@ -8795,7 +8867,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" s="4" customFormat="1" ht="60">
       <c r="A88" s="64" t="s">
         <v>426</v>
       </c>
@@ -8813,7 +8885,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="4" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A89" s="22" t="s">
         <v>337</v>
       </c>
@@ -8833,7 +8905,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" s="4" customFormat="1" ht="60">
       <c r="A90" s="22" t="s">
         <v>438</v>
       </c>
@@ -8853,7 +8925,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" s="4" customFormat="1" ht="42.75">
       <c r="A91" s="22" t="s">
         <v>264</v>
       </c>
@@ -8873,7 +8945,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" s="4" customFormat="1" ht="60.75">
       <c r="A92" s="40" t="s">
         <v>98</v>
       </c>
@@ -8893,7 +8965,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" s="4" customFormat="1" ht="75">
       <c r="A93" s="22" t="s">
         <v>254</v>
       </c>
@@ -8913,7 +8985,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="4" customFormat="1" ht="46" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" s="4" customFormat="1" ht="46.5">
       <c r="A94" s="35" t="s">
         <v>321</v>
       </c>
@@ -8933,7 +9005,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A95" s="40" t="s">
         <v>52</v>
       </c>
@@ -8953,7 +9025,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A96" s="22" t="s">
         <v>492</v>
       </c>
@@ -8973,7 +9045,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" s="4" customFormat="1" ht="36">
       <c r="A97" s="22" t="s">
         <v>497</v>
       </c>
@@ -8991,7 +9063,7 @@
       </c>
       <c r="F97" s="17"/>
     </row>
-    <row r="98" spans="1:6" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" s="4" customFormat="1" ht="36">
       <c r="A98" s="22" t="s">
         <v>494</v>
       </c>
@@ -9009,7 +9081,7 @@
       </c>
       <c r="F98" s="17"/>
     </row>
-    <row r="99" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" s="4" customFormat="1" ht="58.5">
       <c r="A99" s="22" t="s">
         <v>445</v>
       </c>
@@ -9020,19 +9092,19 @@
         <v>113</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E99" s="13" t="s">
         <v>826</v>
       </c>
       <c r="F99" s="17"/>
     </row>
-    <row r="100" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="4" customFormat="1" ht="46.5">
       <c r="A100" s="26" t="s">
         <v>464</v>
       </c>
       <c r="B100" s="76" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C100" s="24" t="s">
         <v>113</v>
@@ -9045,7 +9117,7 @@
       </c>
       <c r="F100" s="17"/>
     </row>
-    <row r="101" spans="1:6" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" s="4" customFormat="1" ht="75">
       <c r="A101" s="22" t="s">
         <v>447</v>
       </c>
@@ -9063,7 +9135,7 @@
       </c>
       <c r="F101" s="17"/>
     </row>
-    <row r="102" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" s="4" customFormat="1" ht="45">
       <c r="A102" s="40" t="s">
         <v>33</v>
       </c>
@@ -9081,7 +9153,7 @@
       </c>
       <c r="F102" s="17"/>
     </row>
-    <row r="103" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" s="4" customFormat="1" ht="42.75">
       <c r="A103" s="40" t="s">
         <v>145</v>
       </c>
@@ -9099,7 +9171,7 @@
       </c>
       <c r="F103" s="17"/>
     </row>
-    <row r="104" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" s="4" customFormat="1" ht="45">
       <c r="A104" s="40" t="s">
         <v>143</v>
       </c>
@@ -9117,7 +9189,7 @@
       </c>
       <c r="F104" s="17"/>
     </row>
-    <row r="105" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" s="4" customFormat="1" ht="31.5">
       <c r="A105" s="40" t="s">
         <v>147</v>
       </c>
@@ -9135,7 +9207,7 @@
       </c>
       <c r="F105" s="17"/>
     </row>
-    <row r="106" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" s="4" customFormat="1" ht="45">
       <c r="A106" s="40" t="s">
         <v>84</v>
       </c>
@@ -9153,7 +9225,7 @@
       </c>
       <c r="F106" s="17"/>
     </row>
-    <row r="107" spans="1:6" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" s="4" customFormat="1" ht="30">
       <c r="A107" s="40" t="s">
         <v>141</v>
       </c>
@@ -9171,7 +9243,7 @@
       </c>
       <c r="F107" s="17"/>
     </row>
-    <row r="108" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" s="4" customFormat="1" ht="45">
       <c r="A108" s="40" t="s">
         <v>8</v>
       </c>
@@ -9189,7 +9261,7 @@
       </c>
       <c r="F108" s="17"/>
     </row>
-    <row r="109" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" s="4" customFormat="1" ht="27">
       <c r="A109" s="35" t="s">
         <v>281</v>
       </c>
@@ -9205,7 +9277,7 @@
       <c r="E109" s="13"/>
       <c r="F109" s="17"/>
     </row>
-    <row r="110" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="30">
       <c r="A110" s="22" t="s">
         <v>511</v>
       </c>
@@ -9223,7 +9295,7 @@
       </c>
       <c r="F110" s="17"/>
     </row>
-    <row r="111" spans="1:6" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" s="4" customFormat="1" ht="75">
       <c r="A111" s="22" t="s">
         <v>364</v>
       </c>
@@ -9241,7 +9313,7 @@
       </c>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="40.5">
       <c r="A112" s="40" t="s">
         <v>195</v>
       </c>
@@ -9255,7 +9327,7 @@
       <c r="E112" s="9"/>
       <c r="F112" s="17"/>
     </row>
-    <row r="113" spans="1:6" ht="68" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="57">
       <c r="A113" s="22" t="s">
         <v>167</v>
       </c>
@@ -9273,7 +9345,7 @@
       </c>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" ht="60">
       <c r="A114" s="22" t="s">
         <v>486</v>
       </c>
@@ -9291,7 +9363,7 @@
       </c>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="40.5">
       <c r="A115" s="40" t="s">
         <v>161</v>
       </c>
@@ -9309,7 +9381,7 @@
       </c>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" ht="30">
       <c r="A116" s="22" t="s">
         <v>118</v>
       </c>
@@ -9325,7 +9397,7 @@
       <c r="E116" s="9"/>
       <c r="F116" s="10"/>
     </row>
-    <row r="117" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" ht="60">
       <c r="A117" s="40" t="s">
         <v>163</v>
       </c>
@@ -9343,7 +9415,7 @@
       </c>
       <c r="F117" s="10"/>
     </row>
-    <row r="118" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" ht="45">
       <c r="A118" s="22" t="s">
         <v>177</v>
       </c>
@@ -9361,7 +9433,7 @@
       </c>
       <c r="F118" s="10"/>
     </row>
-    <row r="119" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="75">
       <c r="A119" s="40" t="s">
         <v>20</v>
       </c>
@@ -9377,9 +9449,9 @@
       <c r="E119" s="9"/>
       <c r="F119" s="10"/>
     </row>
-    <row r="120" spans="1:6" ht="31" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" ht="27.75">
       <c r="A120" s="22" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B120" s="23" t="s">
         <v>833</v>
@@ -9395,7 +9467,7 @@
       </c>
       <c r="F120" s="10"/>
     </row>
-    <row r="121" spans="1:6" ht="34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="79" t="s">
         <v>579</v>
       </c>
@@ -9406,12 +9478,12 @@
         <v>113</v>
       </c>
       <c r="D121" s="65" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="10"/>
     </row>
-    <row r="122" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="75">
       <c r="A122" s="40" t="s">
         <v>228</v>
       </c>
@@ -9429,7 +9501,7 @@
       </c>
       <c r="F122" s="10"/>
     </row>
-    <row r="123" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" ht="60.75">
       <c r="A123" s="40" t="s">
         <v>132</v>
       </c>
@@ -9447,12 +9519,12 @@
       </c>
       <c r="F123" s="10"/>
     </row>
-    <row r="124" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="45">
       <c r="A124" s="40" t="s">
         <v>136</v>
       </c>
       <c r="B124" s="41" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C124" s="30" t="s">
         <v>219</v>
@@ -9465,7 +9537,7 @@
       </c>
       <c r="F124" s="10"/>
     </row>
-    <row r="125" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="40.5">
       <c r="A125" s="40" t="s">
         <v>134</v>
       </c>
@@ -9483,7 +9555,7 @@
       </c>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" spans="1:6" ht="72" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" ht="60">
       <c r="A126" s="42" t="s">
         <v>452</v>
       </c>
@@ -9501,7 +9573,7 @@
       </c>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" spans="1:6" ht="46" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" ht="40.5">
       <c r="A127" s="40" t="s">
         <v>11</v>
       </c>
@@ -9519,7 +9591,7 @@
       </c>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" ht="27">
       <c r="A128" s="35" t="s">
         <v>284</v>
       </c>
@@ -9535,7 +9607,7 @@
       <c r="E128" s="9"/>
       <c r="F128" s="10"/>
     </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" ht="27">
       <c r="A129" s="35" t="s">
         <v>256</v>
       </c>
@@ -9549,7 +9621,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="10"/>
     </row>
-    <row r="130" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" ht="30">
       <c r="A130" s="22" t="s">
         <v>556</v>
       </c>
@@ -9567,7 +9639,7 @@
       </c>
       <c r="F130" s="10"/>
     </row>
-    <row r="131" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" ht="75">
       <c r="A131" s="40" t="s">
         <v>17</v>
       </c>
@@ -9585,7 +9657,7 @@
       </c>
       <c r="F131" s="10"/>
     </row>
-    <row r="132" spans="1:6" ht="31" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6">
       <c r="A132" s="80" t="s">
         <v>420</v>
       </c>
@@ -9601,7 +9673,7 @@
       </c>
       <c r="F132" s="10"/>
     </row>
-    <row r="133" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" ht="55.5">
       <c r="A133" s="40" t="s">
         <v>440</v>
       </c>
@@ -9619,7 +9691,7 @@
       </c>
       <c r="F133" s="10"/>
     </row>
-    <row r="134" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" ht="40.5">
       <c r="A134" s="40" t="s">
         <v>26</v>
       </c>
@@ -9637,7 +9709,7 @@
       </c>
       <c r="F134" s="10"/>
     </row>
-    <row r="135" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" ht="60.75">
       <c r="A135" s="40" t="s">
         <v>238</v>
       </c>
@@ -9655,7 +9727,7 @@
       </c>
       <c r="F135" s="10"/>
     </row>
-    <row r="136" spans="1:6" ht="88" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" ht="81">
       <c r="A136" s="40" t="s">
         <v>220</v>
       </c>
@@ -9673,7 +9745,7 @@
       </c>
       <c r="F136" s="10"/>
     </row>
-    <row r="137" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" ht="45">
       <c r="A137" s="40" t="s">
         <v>69</v>
       </c>
@@ -9691,9 +9763,9 @@
       </c>
       <c r="F137" s="10"/>
     </row>
-    <row r="138" spans="1:6" ht="108" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="105">
       <c r="A138" s="62" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B138" s="81" t="s">
         <v>435</v>
@@ -9709,7 +9781,7 @@
       </c>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="1:6" ht="42" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" ht="36">
       <c r="A139" s="22" t="s">
         <v>479</v>
       </c>
@@ -9725,7 +9797,7 @@
       </c>
       <c r="F139" s="10"/>
     </row>
-    <row r="140" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" ht="120">
       <c r="A140" s="22" t="s">
         <v>472</v>
       </c>
@@ -9743,7 +9815,7 @@
       </c>
       <c r="F140" s="10"/>
     </row>
-    <row r="141" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" ht="75">
       <c r="A141" s="22" t="s">
         <v>442</v>
       </c>
@@ -9761,7 +9833,7 @@
       </c>
       <c r="F141" s="10"/>
     </row>
-    <row r="142" spans="1:6" ht="81" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" ht="78.75">
       <c r="A142" s="40" t="s">
         <v>194</v>
       </c>
@@ -9772,14 +9844,14 @@
         <v>113</v>
       </c>
       <c r="D142" s="68" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F142" s="10"/>
     </row>
-    <row r="143" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" ht="42.75">
       <c r="A143" s="40" t="s">
         <v>188</v>
       </c>
@@ -9797,7 +9869,7 @@
       </c>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" ht="45">
       <c r="A144" s="40" t="s">
         <v>12</v>
       </c>
@@ -9813,7 +9885,7 @@
       <c r="E144" s="9"/>
       <c r="F144" s="10"/>
     </row>
-    <row r="145" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" ht="75">
       <c r="A145" s="22" t="s">
         <v>361</v>
       </c>
@@ -9831,7 +9903,7 @@
       </c>
       <c r="F145" s="10"/>
     </row>
-    <row r="146" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" ht="40.5">
       <c r="A146" s="40" t="s">
         <v>99</v>
       </c>
@@ -9849,7 +9921,7 @@
       </c>
       <c r="F146" s="10"/>
     </row>
-    <row r="147" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" ht="75">
       <c r="A147" s="40" t="s">
         <v>151</v>
       </c>
@@ -9867,7 +9939,7 @@
       </c>
       <c r="F147" s="10"/>
     </row>
-    <row r="148" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" ht="60">
       <c r="A148" s="22" t="s">
         <v>485</v>
       </c>
@@ -9885,7 +9957,7 @@
       </c>
       <c r="F148" s="10"/>
     </row>
-    <row r="149" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" ht="60">
       <c r="A149" s="40" t="s">
         <v>55</v>
       </c>
@@ -9903,7 +9975,7 @@
       </c>
       <c r="F149" s="10"/>
     </row>
-    <row r="150" spans="1:6" ht="154" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" ht="141.75">
       <c r="A150" s="40" t="s">
         <v>97</v>
       </c>
@@ -9919,7 +9991,7 @@
       </c>
       <c r="F150" s="10"/>
     </row>
-    <row r="151" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" ht="40.5">
       <c r="A151" s="40" t="s">
         <v>15</v>
       </c>
@@ -9937,7 +10009,7 @@
       </c>
       <c r="F151" s="10"/>
     </row>
-    <row r="152" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="30">
       <c r="A152" s="25" t="s">
         <v>573</v>
       </c>
@@ -9955,7 +10027,7 @@
       </c>
       <c r="F152" s="10"/>
     </row>
-    <row r="153" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" ht="60">
       <c r="A153" s="40" t="s">
         <v>127</v>
       </c>
@@ -9973,7 +10045,7 @@
       </c>
       <c r="F153" s="10"/>
     </row>
-    <row r="154" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" ht="40.5">
       <c r="A154" s="40" t="s">
         <v>125</v>
       </c>
@@ -9991,7 +10063,7 @@
       </c>
       <c r="F154" s="10"/>
     </row>
-    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" ht="27">
       <c r="A155" s="35" t="s">
         <v>287</v>
       </c>
@@ -10009,7 +10081,7 @@
       </c>
       <c r="F155" s="10"/>
     </row>
-    <row r="156" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" ht="30">
       <c r="A156" s="40" t="s">
         <v>3</v>
       </c>
@@ -10027,7 +10099,7 @@
       </c>
       <c r="F156" s="10"/>
     </row>
-    <row r="157" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="46.5">
       <c r="A157" s="22" t="s">
         <v>431</v>
       </c>
@@ -10038,14 +10110,14 @@
         <v>113</v>
       </c>
       <c r="D157" s="83" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F157" s="10"/>
     </row>
-    <row r="158" spans="1:6" ht="86" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="73.5">
       <c r="A158" s="84" t="s">
         <v>382</v>
       </c>
@@ -10056,14 +10128,14 @@
         <v>113</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F158" s="10"/>
     </row>
-    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" ht="27">
       <c r="A159" s="35" t="s">
         <v>290</v>
       </c>
@@ -10081,7 +10153,7 @@
       </c>
       <c r="F159" s="10"/>
     </row>
-    <row r="160" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" ht="60">
       <c r="A160" s="40" t="s">
         <v>207</v>
       </c>
@@ -10099,7 +10171,7 @@
       </c>
       <c r="F160" s="10"/>
     </row>
-    <row r="161" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" ht="42.75">
       <c r="A161" s="40" t="s">
         <v>73</v>
       </c>
@@ -10117,7 +10189,7 @@
       </c>
       <c r="F161" s="10"/>
     </row>
-    <row r="162" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" ht="60">
       <c r="A162" s="40" t="s">
         <v>122</v>
       </c>
@@ -10135,7 +10207,7 @@
       </c>
       <c r="F162" s="10"/>
     </row>
-    <row r="163" spans="1:6" ht="68" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" ht="57">
       <c r="A163" s="40" t="s">
         <v>199</v>
       </c>
@@ -10153,7 +10225,7 @@
       </c>
       <c r="F163" s="10"/>
     </row>
-    <row r="164" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="40.5">
       <c r="A164" s="40" t="s">
         <v>6</v>
       </c>
@@ -10167,7 +10239,7 @@
       </c>
       <c r="F164" s="10"/>
     </row>
-    <row r="165" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6">
       <c r="A165" s="40" t="s">
         <v>165</v>
       </c>
@@ -10185,7 +10257,7 @@
       </c>
       <c r="F165" s="10"/>
     </row>
-    <row r="166" spans="1:6" ht="144" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" ht="135">
       <c r="A166" s="22" t="s">
         <v>473</v>
       </c>
@@ -10203,7 +10275,7 @@
       </c>
       <c r="F166" s="10"/>
     </row>
-    <row r="167" spans="1:6" ht="144" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="135">
       <c r="A167" s="22" t="s">
         <v>475</v>
       </c>
@@ -10221,7 +10293,7 @@
       </c>
       <c r="F167" s="10"/>
     </row>
-    <row r="168" spans="1:6" ht="46" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="40.5">
       <c r="A168" s="22" t="s">
         <v>477</v>
       </c>
@@ -10239,12 +10311,12 @@
       </c>
       <c r="F168" s="10"/>
     </row>
-    <row r="169" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="45">
       <c r="A169" s="25" t="s">
         <v>423</v>
       </c>
       <c r="B169" s="59" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C169" s="24" t="s">
         <v>113</v>
@@ -10257,7 +10329,7 @@
       </c>
       <c r="F169" s="10"/>
     </row>
-    <row r="170" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" ht="45">
       <c r="A170" s="22" t="s">
         <v>244</v>
       </c>
@@ -10275,7 +10347,7 @@
       </c>
       <c r="F170" s="10"/>
     </row>
-    <row r="171" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" ht="45">
       <c r="A171" s="22" t="s">
         <v>488</v>
       </c>
@@ -10293,7 +10365,7 @@
       </c>
       <c r="F171" s="10"/>
     </row>
-    <row r="172" spans="1:6" ht="54" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:6" ht="45">
       <c r="A172" s="85" t="s">
         <v>418</v>
       </c>
@@ -10311,7 +10383,7 @@
       </c>
       <c r="F172" s="10"/>
     </row>
-    <row r="173" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" ht="60">
       <c r="A173" s="22" t="s">
         <v>478</v>
       </c>
@@ -10329,7 +10401,7 @@
       </c>
       <c r="F173" s="10"/>
     </row>
-    <row r="174" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" ht="30">
       <c r="A174" s="86" t="s">
         <v>461</v>
       </c>
@@ -10347,7 +10419,7 @@
       </c>
       <c r="F174" s="10"/>
     </row>
-    <row r="175" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="45">
       <c r="A175" s="22" t="s">
         <v>457</v>
       </c>
@@ -10363,7 +10435,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="10"/>
     </row>
-    <row r="176" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" ht="40.5">
       <c r="A176" s="40" t="s">
         <v>115</v>
       </c>
@@ -10381,7 +10453,7 @@
       </c>
       <c r="F176" s="10"/>
     </row>
-    <row r="177" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" ht="42.75">
       <c r="A177" s="22" t="s">
         <v>400</v>
       </c>
@@ -10399,7 +10471,7 @@
       </c>
       <c r="F177" s="10"/>
     </row>
-    <row r="178" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" ht="60">
       <c r="A178" s="22" t="s">
         <v>246</v>
       </c>
@@ -10417,7 +10489,7 @@
       </c>
       <c r="F178" s="10"/>
     </row>
-    <row r="179" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" ht="57">
       <c r="A179" s="40" t="s">
         <v>0</v>
       </c>
@@ -10435,7 +10507,7 @@
       </c>
       <c r="F179" s="10"/>
     </row>
-    <row r="180" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" ht="45">
       <c r="A180" s="40" t="s">
         <v>197</v>
       </c>
@@ -10451,7 +10523,7 @@
       </c>
       <c r="F180" s="10"/>
     </row>
-    <row r="181" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" ht="60.75">
       <c r="A181" s="40" t="s">
         <v>235</v>
       </c>
@@ -10469,7 +10541,7 @@
       </c>
       <c r="F181" s="10"/>
     </row>
-    <row r="182" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" ht="75">
       <c r="A182" s="40" t="s">
         <v>149</v>
       </c>
@@ -10487,7 +10559,7 @@
       </c>
       <c r="F182" s="10"/>
     </row>
-    <row r="183" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" ht="42.75">
       <c r="A183" s="40" t="s">
         <v>222</v>
       </c>
@@ -10505,7 +10577,7 @@
       </c>
       <c r="F183" s="10"/>
     </row>
-    <row r="184" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" ht="40.5">
       <c r="A184" s="40" t="s">
         <v>234</v>
       </c>
@@ -10521,7 +10593,7 @@
       </c>
       <c r="F184" s="10"/>
     </row>
-    <row r="185" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" ht="60.75">
       <c r="A185" s="40" t="s">
         <v>211</v>
       </c>
@@ -10539,25 +10611,25 @@
       </c>
       <c r="F185" s="10"/>
     </row>
-    <row r="186" spans="1:6" ht="69" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="60.75">
       <c r="A186" s="22" t="s">
         <v>231</v>
       </c>
       <c r="B186" s="87" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C186" s="24" t="s">
         <v>219</v>
       </c>
       <c r="D186" s="37" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F186" s="10"/>
     </row>
-    <row r="187" spans="1:6" ht="36" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" ht="30">
       <c r="A187" s="35" t="s">
         <v>294</v>
       </c>
@@ -10575,7 +10647,7 @@
       </c>
       <c r="F187" s="10"/>
     </row>
-    <row r="188" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" ht="45">
       <c r="A188" s="40" t="s">
         <v>158</v>
       </c>
@@ -10593,7 +10665,7 @@
       </c>
       <c r="F188" s="10"/>
     </row>
-    <row r="189" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" ht="40.5">
       <c r="A189" s="40" t="s">
         <v>45</v>
       </c>
@@ -10604,14 +10676,14 @@
         <v>320</v>
       </c>
       <c r="D189" s="34" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F189" s="10"/>
     </row>
-    <row r="190" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" ht="30">
       <c r="A190" s="22" t="s">
         <v>504</v>
       </c>
@@ -10629,9 +10701,9 @@
       </c>
       <c r="F190" s="10"/>
     </row>
-    <row r="191" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="30.75">
       <c r="A191" s="88" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B191" s="67" t="s">
         <v>567</v>
@@ -10647,9 +10719,9 @@
       </c>
       <c r="F191" s="10"/>
     </row>
-    <row r="192" spans="1:6" ht="68" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" ht="67.5">
       <c r="A192" s="22" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B192" s="45" t="s">
         <v>263</v>
@@ -10665,7 +10737,7 @@
       </c>
       <c r="F192" s="10"/>
     </row>
-    <row r="193" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="78.75">
       <c r="A193" s="90" t="s">
         <v>241</v>
       </c>
@@ -10683,7 +10755,7 @@
       </c>
       <c r="F193" s="10"/>
     </row>
-    <row r="194" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" ht="60">
       <c r="A194" s="22" t="s">
         <v>480</v>
       </c>
@@ -10701,7 +10773,7 @@
       </c>
       <c r="F194" s="10"/>
     </row>
-    <row r="195" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" ht="45">
       <c r="A195" s="40" t="s">
         <v>171</v>
       </c>
@@ -10719,7 +10791,7 @@
       </c>
       <c r="F195" s="10"/>
     </row>
-    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" ht="27">
       <c r="A196" s="35" t="s">
         <v>296</v>
       </c>
@@ -10731,7 +10803,7 @@
       <c r="E196" s="9"/>
       <c r="F196" s="10"/>
     </row>
-    <row r="197" spans="1:6" ht="54" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" ht="45.75">
       <c r="A197" s="91" t="s">
         <v>397</v>
       </c>
@@ -10751,7 +10823,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" ht="27.75">
       <c r="A198" s="22" t="s">
         <v>503</v>
       </c>
@@ -10769,7 +10841,7 @@
       </c>
       <c r="F198" s="10"/>
     </row>
-    <row r="199" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" ht="30">
       <c r="A199" s="22" t="s">
         <v>406</v>
       </c>
@@ -10787,7 +10859,7 @@
       </c>
       <c r="F199" s="10"/>
     </row>
-    <row r="200" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" ht="45">
       <c r="A200" s="22" t="s">
         <v>501</v>
       </c>
@@ -10805,7 +10877,7 @@
       </c>
       <c r="F200" s="10"/>
     </row>
-    <row r="201" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" ht="54">
       <c r="A201" s="22" t="s">
         <v>502</v>
       </c>
@@ -10823,7 +10895,7 @@
       </c>
       <c r="F201" s="10"/>
     </row>
-    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" ht="27">
       <c r="A202" s="35" t="s">
         <v>297</v>
       </c>
@@ -10841,7 +10913,7 @@
       </c>
       <c r="F202" s="10"/>
     </row>
-    <row r="203" spans="1:6" ht="56" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" ht="51">
       <c r="A203" s="22" t="s">
         <v>493</v>
       </c>
@@ -10859,7 +10931,7 @@
       </c>
       <c r="F203" s="10"/>
     </row>
-    <row r="204" spans="1:6" ht="252" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" ht="255">
       <c r="A204" s="22" t="s">
         <v>429</v>
       </c>
@@ -10877,7 +10949,7 @@
       </c>
       <c r="F204" s="10"/>
     </row>
-    <row r="205" spans="1:6" ht="41" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" ht="40.5">
       <c r="A205" s="40" t="s">
         <v>31</v>
       </c>
@@ -10888,14 +10960,14 @@
         <v>320</v>
       </c>
       <c r="D205" s="34" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F205" s="10"/>
     </row>
-    <row r="206" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" ht="45">
       <c r="A206" s="22" t="s">
         <v>388</v>
       </c>
@@ -10913,7 +10985,7 @@
       </c>
       <c r="F206" s="10"/>
     </row>
-    <row r="207" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" ht="45">
       <c r="A207" s="40" t="s">
         <v>213</v>
       </c>
@@ -10931,7 +11003,7 @@
       </c>
       <c r="F207" s="10"/>
     </row>
-    <row r="208" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" ht="40.5">
       <c r="A208" s="40" t="s">
         <v>51</v>
       </c>
@@ -10949,7 +11021,7 @@
       </c>
       <c r="F208" s="10"/>
     </row>
-    <row r="209" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" ht="60">
       <c r="A209" s="22" t="s">
         <v>458</v>
       </c>
@@ -10967,7 +11039,7 @@
       </c>
       <c r="F209" s="10"/>
     </row>
-    <row r="210" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" ht="40.5">
       <c r="A210" s="40" t="s">
         <v>190</v>
       </c>
@@ -10985,7 +11057,7 @@
       </c>
       <c r="F210" s="10"/>
     </row>
-    <row r="211" spans="1:6" ht="34" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:6">
       <c r="A211" s="35" t="s">
         <v>298</v>
       </c>
@@ -11003,9 +11075,9 @@
       </c>
       <c r="F211" s="10"/>
     </row>
-    <row r="212" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="60">
       <c r="A212" s="60" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B212" s="36" t="s">
         <v>434</v>
@@ -11021,7 +11093,7 @@
       </c>
       <c r="F212" s="10"/>
     </row>
-    <row r="213" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="60">
       <c r="A213" s="92" t="s">
         <v>411</v>
       </c>
@@ -11039,7 +11111,7 @@
       </c>
       <c r="F213" s="10"/>
     </row>
-    <row r="214" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" ht="45">
       <c r="A214" s="40" t="s">
         <v>64</v>
       </c>
@@ -11057,7 +11129,7 @@
       </c>
       <c r="F214" s="10"/>
     </row>
-    <row r="215" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" ht="31.5">
       <c r="A215" s="22" t="s">
         <v>506</v>
       </c>
@@ -11068,14 +11140,14 @@
         <v>113</v>
       </c>
       <c r="D215" s="26" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E215" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F215" s="10"/>
     </row>
-    <row r="216" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" ht="45">
       <c r="A216" s="22" t="s">
         <v>508</v>
       </c>
@@ -11093,7 +11165,7 @@
       </c>
       <c r="F216" s="10"/>
     </row>
-    <row r="217" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" ht="45">
       <c r="A217" s="40" t="s">
         <v>185</v>
       </c>
@@ -11111,7 +11183,7 @@
       </c>
       <c r="F217" s="10"/>
     </row>
-    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6">
       <c r="A218" s="22" t="s">
         <v>509</v>
       </c>
@@ -11129,7 +11201,7 @@
       </c>
       <c r="F218" s="10"/>
     </row>
-    <row r="219" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" ht="60.75">
       <c r="A219" s="40" t="s">
         <v>111</v>
       </c>
@@ -11147,7 +11219,7 @@
       </c>
       <c r="F219" s="10"/>
     </row>
-    <row r="220" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" ht="45">
       <c r="A220" s="22" t="s">
         <v>349</v>
       </c>
@@ -11165,7 +11237,7 @@
       </c>
       <c r="F220" s="10"/>
     </row>
-    <row r="221" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" ht="30">
       <c r="A221" s="40" t="s">
         <v>66</v>
       </c>
@@ -11183,7 +11255,7 @@
       </c>
       <c r="F221" s="10"/>
     </row>
-    <row r="222" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" ht="40.5">
       <c r="A222" s="40" t="s">
         <v>56</v>
       </c>
@@ -11201,7 +11273,7 @@
       </c>
       <c r="F222" s="10"/>
     </row>
-    <row r="223" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" ht="75">
       <c r="A223" s="22" t="s">
         <v>576</v>
       </c>
@@ -11219,7 +11291,7 @@
       </c>
       <c r="F223" s="10"/>
     </row>
-    <row r="224" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" ht="40.5">
       <c r="A224" s="40" t="s">
         <v>849</v>
       </c>
@@ -11237,7 +11309,7 @@
       </c>
       <c r="F224" s="10"/>
     </row>
-    <row r="225" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" ht="45">
       <c r="A225" s="40" t="s">
         <v>343</v>
       </c>
@@ -11255,7 +11327,7 @@
       </c>
       <c r="F225" s="10"/>
     </row>
-    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:6" ht="27">
       <c r="A226" s="35" t="s">
         <v>304</v>
       </c>
@@ -11271,7 +11343,7 @@
       </c>
       <c r="F226" s="10"/>
     </row>
-    <row r="227" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" ht="60">
       <c r="A227" s="22" t="s">
         <v>590</v>
       </c>
@@ -11289,7 +11361,7 @@
       </c>
       <c r="F227" s="10"/>
     </row>
-    <row r="228" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" ht="45">
       <c r="A228" s="22" t="s">
         <v>482</v>
       </c>
@@ -11307,7 +11379,7 @@
       </c>
       <c r="F228" s="10"/>
     </row>
-    <row r="229" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" ht="60">
       <c r="A229" s="40" t="s">
         <v>226</v>
       </c>
@@ -11325,7 +11397,7 @@
       </c>
       <c r="F229" s="10"/>
     </row>
-    <row r="230" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" ht="42.75">
       <c r="A230" s="94" t="s">
         <v>500</v>
       </c>
@@ -11341,9 +11413,9 @@
       </c>
       <c r="F230" s="10"/>
     </row>
-    <row r="231" spans="1:6" ht="34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6">
       <c r="A231" s="60" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B231" s="23" t="s">
         <v>462</v>
@@ -11359,7 +11431,7 @@
       </c>
       <c r="F231" s="10"/>
     </row>
-    <row r="232" spans="1:6" ht="72" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:6" ht="75">
       <c r="A232" s="35" t="s">
         <v>305</v>
       </c>
@@ -11377,12 +11449,12 @@
       </c>
       <c r="F232" s="10"/>
     </row>
-    <row r="233" spans="1:6" ht="36" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:6" ht="30">
       <c r="A233" s="35" t="s">
         <v>318</v>
       </c>
       <c r="B233" s="59" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C233" s="24" t="s">
         <v>320</v>
@@ -11395,12 +11467,12 @@
       </c>
       <c r="F233" s="10"/>
     </row>
-    <row r="234" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" ht="45">
       <c r="A234" s="40" t="s">
         <v>203</v>
       </c>
       <c r="B234" s="41" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C234" s="30" t="s">
         <v>320</v>
@@ -11413,7 +11485,7 @@
       </c>
       <c r="F234" s="10"/>
     </row>
-    <row r="235" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="30">
       <c r="A235" s="25" t="s">
         <v>416</v>
       </c>
@@ -11431,7 +11503,7 @@
       </c>
       <c r="F235" s="10"/>
     </row>
-    <row r="236" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" ht="60">
       <c r="A236" s="22" t="s">
         <v>732</v>
       </c>
@@ -11449,7 +11521,7 @@
       </c>
       <c r="F236" s="10"/>
     </row>
-    <row r="237" spans="1:6" ht="56" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" ht="76.5">
       <c r="A237" s="22" t="s">
         <v>491</v>
       </c>
@@ -11467,7 +11539,7 @@
       </c>
       <c r="F237" s="10"/>
     </row>
-    <row r="238" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" ht="40.5">
       <c r="A238" s="40" t="s">
         <v>139</v>
       </c>
@@ -11485,7 +11557,7 @@
       </c>
       <c r="F238" s="10"/>
     </row>
-    <row r="239" spans="1:6" ht="53" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" ht="60.75">
       <c r="A239" s="40" t="s">
         <v>23</v>
       </c>
@@ -11496,14 +11568,14 @@
         <v>320</v>
       </c>
       <c r="D239" s="34" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E239" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F239" s="10"/>
     </row>
-    <row r="240" spans="1:6" ht="54" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="52.5">
       <c r="A240" s="84" t="s">
         <v>737</v>
       </c>
@@ -11521,7 +11593,7 @@
       </c>
       <c r="F240" s="10"/>
     </row>
-    <row r="241" spans="1:6" ht="44" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="45">
       <c r="A241" s="60" t="s">
         <v>468</v>
       </c>
@@ -11539,12 +11611,12 @@
       </c>
       <c r="F241" s="10"/>
     </row>
-    <row r="242" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="40.5">
       <c r="A242" s="60" t="s">
         <v>467</v>
       </c>
       <c r="B242" s="41" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C242" s="24" t="s">
         <v>113</v>
@@ -11557,7 +11629,7 @@
       </c>
       <c r="F242" s="10"/>
     </row>
-    <row r="243" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" ht="41.25">
       <c r="A243" s="40" t="s">
         <v>29</v>
       </c>
@@ -11568,32 +11640,32 @@
         <v>320</v>
       </c>
       <c r="D243" s="34" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E243" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F243" s="10"/>
     </row>
-    <row r="244" spans="1:6" ht="68" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" ht="67.5">
       <c r="A244" s="22" t="s">
         <v>319</v>
       </c>
       <c r="B244" s="95" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C244" s="24" t="s">
         <v>320</v>
       </c>
       <c r="D244" s="89" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F244" s="10"/>
     </row>
-    <row r="245" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" ht="60.75">
       <c r="A245" s="40" t="s">
         <v>43</v>
       </c>
@@ -11604,14 +11676,14 @@
         <v>320</v>
       </c>
       <c r="D245" s="34" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E245" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F245" s="10"/>
     </row>
-    <row r="246" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" ht="30">
       <c r="A246" s="22" t="s">
         <v>498</v>
       </c>
@@ -11629,7 +11701,7 @@
       </c>
       <c r="F246" s="10"/>
     </row>
-    <row r="247" spans="1:6" ht="28" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="25.5">
       <c r="A247" s="36" t="s">
         <v>562</v>
       </c>
@@ -11647,7 +11719,7 @@
       </c>
       <c r="F247" s="10"/>
     </row>
-    <row r="248" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" ht="75">
       <c r="A248" s="22" t="s">
         <v>454</v>
       </c>
@@ -11665,7 +11737,7 @@
       </c>
       <c r="F248" s="10"/>
     </row>
-    <row r="249" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" ht="60">
       <c r="A249" s="40" t="s">
         <v>88</v>
       </c>
@@ -11683,9 +11755,9 @@
       </c>
       <c r="F249" s="10"/>
     </row>
-    <row r="250" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="75">
       <c r="A250" s="64" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B250" s="56" t="s">
         <v>392</v>
@@ -11701,7 +11773,7 @@
       </c>
       <c r="F250" s="10"/>
     </row>
-    <row r="251" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" ht="45">
       <c r="A251" s="40" t="s">
         <v>744</v>
       </c>
@@ -11719,7 +11791,7 @@
       </c>
       <c r="F251" s="10"/>
     </row>
-    <row r="252" spans="1:6" ht="42" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:6" ht="36">
       <c r="A252" s="35" t="s">
         <v>323</v>
       </c>
@@ -11737,7 +11809,7 @@
       </c>
       <c r="F252" s="10"/>
     </row>
-    <row r="253" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" ht="27.75">
       <c r="A253" s="40" t="s">
         <v>237</v>
       </c>
@@ -11755,7 +11827,7 @@
       </c>
       <c r="F253" s="10"/>
     </row>
-    <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:6" ht="27">
       <c r="A254" s="35" t="s">
         <v>308</v>
       </c>
@@ -11773,7 +11845,7 @@
       </c>
       <c r="F254" s="10"/>
     </row>
-    <row r="255" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" ht="40.5">
       <c r="A255" s="40" t="s">
         <v>179</v>
       </c>
@@ -11791,7 +11863,7 @@
       </c>
       <c r="F255" s="10"/>
     </row>
-    <row r="256" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" ht="75">
       <c r="A256" s="40" t="s">
         <v>274</v>
       </c>
@@ -11809,7 +11881,7 @@
       </c>
       <c r="F256" s="10"/>
     </row>
-    <row r="257" spans="1:6" ht="46" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" ht="45">
       <c r="A257" s="40" t="s">
         <v>47</v>
       </c>
@@ -11827,7 +11899,7 @@
       </c>
       <c r="F257" s="10"/>
     </row>
-    <row r="258" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" ht="46.5">
       <c r="A258" s="22" t="s">
         <v>449</v>
       </c>
@@ -11845,7 +11917,7 @@
       </c>
       <c r="F258" s="10"/>
     </row>
-    <row r="259" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" ht="40.5">
       <c r="A259" s="40" t="s">
         <v>212</v>
       </c>
@@ -11859,7 +11931,7 @@
       <c r="E259" s="9"/>
       <c r="F259" s="10"/>
     </row>
-    <row r="260" spans="1:6" ht="108" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" ht="90.75">
       <c r="A260" s="40" t="s">
         <v>35</v>
       </c>
@@ -11870,14 +11942,14 @@
         <v>219</v>
       </c>
       <c r="D260" s="34" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E260" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F260" s="10"/>
     </row>
-    <row r="261" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" ht="40.5">
       <c r="A261" s="40" t="s">
         <v>36</v>
       </c>
@@ -11888,14 +11960,14 @@
         <v>320</v>
       </c>
       <c r="D261" s="34" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E261" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F261" s="10"/>
     </row>
-    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6">
       <c r="A262" s="22" t="s">
         <v>250</v>
       </c>
@@ -11911,7 +11983,7 @@
       <c r="E262" s="9"/>
       <c r="F262" s="10"/>
     </row>
-    <row r="263" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" ht="30">
       <c r="A263" s="22" t="s">
         <v>331</v>
       </c>
@@ -11929,7 +12001,7 @@
       </c>
       <c r="F263" s="10"/>
     </row>
-    <row r="264" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" ht="45">
       <c r="A264" s="22" t="s">
         <v>495</v>
       </c>
@@ -11940,19 +12012,19 @@
         <v>113</v>
       </c>
       <c r="D264" s="34" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E264" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F264" s="10"/>
     </row>
-    <row r="265" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" ht="42.75">
       <c r="A265" s="40" t="s">
         <v>160</v>
       </c>
       <c r="B265" s="41" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C265" s="30" t="s">
         <v>113</v>
@@ -11965,7 +12037,7 @@
       </c>
       <c r="F265" s="10"/>
     </row>
-    <row r="266" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" ht="60">
       <c r="A266" s="22" t="s">
         <v>483</v>
       </c>
@@ -11983,7 +12055,7 @@
       </c>
       <c r="F266" s="10"/>
     </row>
-    <row r="267" spans="1:6" ht="43" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" ht="38.25">
       <c r="A267" s="22" t="s">
         <v>585</v>
       </c>
@@ -12001,7 +12073,7 @@
       </c>
       <c r="F267" s="10"/>
     </row>
-    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" ht="27.75">
       <c r="A268" s="22" t="s">
         <v>582</v>
       </c>
@@ -12019,7 +12091,7 @@
       </c>
       <c r="F268" s="10"/>
     </row>
-    <row r="269" spans="1:6" ht="43" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" ht="38.25">
       <c r="A269" s="22" t="s">
         <v>584</v>
       </c>
@@ -12037,7 +12109,7 @@
       </c>
       <c r="F269" s="10"/>
     </row>
-    <row r="270" spans="1:6" ht="38" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="33">
       <c r="A270" s="79" t="s">
         <v>564</v>
       </c>
@@ -12055,7 +12127,7 @@
       </c>
       <c r="F270" s="10"/>
     </row>
-    <row r="271" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" ht="60">
       <c r="A271" s="40" t="s">
         <v>120</v>
       </c>
@@ -12073,9 +12145,9 @@
       </c>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6" ht="51" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:6" ht="42.75">
       <c r="A272" s="22" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B272" s="39" t="s">
         <v>852</v>
@@ -12091,7 +12163,7 @@
       </c>
       <c r="F272" s="10"/>
     </row>
-    <row r="273" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="45">
       <c r="A273" s="97" t="s">
         <v>414</v>
       </c>
@@ -12109,7 +12181,7 @@
       </c>
       <c r="F273" s="10"/>
     </row>
-    <row r="274" spans="1:6" ht="51" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6" ht="42.75">
       <c r="A274" s="35" t="s">
         <v>302</v>
       </c>
@@ -12127,7 +12199,7 @@
       </c>
       <c r="F274" s="10"/>
     </row>
-    <row r="275" spans="1:6" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" s="12" customFormat="1" ht="57">
       <c r="A275" s="40" t="s">
         <v>48</v>
       </c>
@@ -12145,7 +12217,7 @@
       </c>
       <c r="F275" s="10"/>
     </row>
-    <row r="276" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" ht="45">
       <c r="A276" s="40" t="s">
         <v>169</v>
       </c>
@@ -12163,7 +12235,7 @@
       </c>
       <c r="F276" s="19"/>
     </row>
-    <row r="277" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" ht="60.75">
       <c r="A277" s="40" t="s">
         <v>129</v>
       </c>
@@ -12181,7 +12253,7 @@
       </c>
       <c r="F277" s="10"/>
     </row>
-    <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6" ht="27">
       <c r="A278" s="35" t="s">
         <v>260</v>
       </c>
@@ -12197,9 +12269,9 @@
       </c>
       <c r="F278" s="10"/>
     </row>
-    <row r="279" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" ht="40.5">
       <c r="A279" s="40" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B279" s="41" t="s">
         <v>157</v>
@@ -12215,7 +12287,7 @@
       </c>
       <c r="F279" s="10"/>
     </row>
-    <row r="280" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" ht="40.5">
       <c r="A280" s="40" t="s">
         <v>102</v>
       </c>
@@ -12233,7 +12305,7 @@
       </c>
       <c r="F280" s="10"/>
     </row>
-    <row r="281" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" ht="60.75">
       <c r="A281" s="40" t="s">
         <v>155</v>
       </c>
@@ -12251,7 +12323,7 @@
       </c>
       <c r="F281" s="10"/>
     </row>
-    <row r="282" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" ht="40.5">
       <c r="A282" s="40" t="s">
         <v>181</v>
       </c>
@@ -12269,7 +12341,7 @@
       </c>
       <c r="F282" s="10"/>
     </row>
-    <row r="283" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" ht="40.5">
       <c r="A283" s="40" t="s">
         <v>205</v>
       </c>
@@ -12287,7 +12359,7 @@
       </c>
       <c r="F283" s="10"/>
     </row>
-    <row r="284" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" ht="60.75">
       <c r="A284" s="40" t="s">
         <v>82</v>
       </c>
@@ -12305,7 +12377,7 @@
       </c>
       <c r="F284" s="10"/>
     </row>
-    <row r="285" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" ht="40.5">
       <c r="A285" s="22" t="s">
         <v>377</v>
       </c>
@@ -12323,7 +12395,7 @@
       </c>
       <c r="F285" s="10"/>
     </row>
-    <row r="286" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" ht="40.5">
       <c r="A286" s="40" t="s">
         <v>175</v>
       </c>
@@ -12341,7 +12413,7 @@
       </c>
       <c r="F286" s="10"/>
     </row>
-    <row r="287" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" ht="45">
       <c r="A287" s="22" t="s">
         <v>510</v>
       </c>
@@ -12359,7 +12431,7 @@
       </c>
       <c r="F287" s="10"/>
     </row>
-    <row r="288" spans="1:6" ht="68" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" ht="71.25">
       <c r="A288" s="40" t="s">
         <v>192</v>
       </c>
@@ -12377,7 +12449,7 @@
       </c>
       <c r="F288" s="10"/>
     </row>
-    <row r="289" spans="1:6" ht="170" x14ac:dyDescent="0.7">
+    <row r="289" spans="1:6" ht="156.75">
       <c r="A289" s="100" t="s">
         <v>375</v>
       </c>
@@ -12395,7 +12467,7 @@
       </c>
       <c r="F289" s="10"/>
     </row>
-    <row r="290" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="27.75">
       <c r="A290" s="40" t="s">
         <v>7</v>
       </c>
@@ -12413,7 +12485,7 @@
       </c>
       <c r="F290" s="10"/>
     </row>
-    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6" ht="27">
       <c r="A291" s="35" t="s">
         <v>310</v>
       </c>
@@ -12431,7 +12503,7 @@
       </c>
       <c r="F291" s="10"/>
     </row>
-    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6" ht="27">
       <c r="A292" s="35" t="s">
         <v>315</v>
       </c>
@@ -12449,7 +12521,7 @@
       </c>
       <c r="F292" s="10"/>
     </row>
-    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" ht="27.75">
       <c r="A293" s="22" t="s">
         <v>327</v>
       </c>
@@ -12467,7 +12539,7 @@
       </c>
       <c r="F293" s="10"/>
     </row>
-    <row r="294" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" ht="60.75">
       <c r="A294" s="40" t="s">
         <v>137</v>
       </c>
@@ -12485,7 +12557,7 @@
       </c>
       <c r="F294" s="10"/>
     </row>
-    <row r="295" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="42.75">
       <c r="A295" s="102" t="s">
         <v>348</v>
       </c>
@@ -12503,7 +12575,7 @@
       </c>
       <c r="F295" s="10"/>
     </row>
-    <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6" ht="27">
       <c r="A296" s="35" t="s">
         <v>314</v>
       </c>
@@ -12521,7 +12593,7 @@
       </c>
       <c r="F296" s="10"/>
     </row>
-    <row r="297" spans="1:6" ht="52" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6" ht="46.5">
       <c r="A297" s="35" t="s">
         <v>248</v>
       </c>
@@ -12539,7 +12611,7 @@
       </c>
       <c r="F297" s="10"/>
     </row>
-    <row r="298" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" ht="54">
       <c r="A298" s="22" t="s">
         <v>487</v>
       </c>
@@ -12557,7 +12629,7 @@
       </c>
       <c r="F298" s="10"/>
     </row>
-    <row r="299" spans="1:6" ht="44" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" ht="40.5">
       <c r="A299" s="40" t="s">
         <v>86</v>
       </c>
@@ -12575,7 +12647,7 @@
       </c>
       <c r="F299" s="10"/>
     </row>
-    <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" ht="27.75">
       <c r="A300" s="22" t="s">
         <v>609</v>
       </c>
@@ -12593,7 +12665,7 @@
       </c>
       <c r="F300" s="10"/>
     </row>
-    <row r="301" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" ht="30">
       <c r="A301" s="22" t="s">
         <v>757</v>
       </c>
@@ -12611,7 +12683,7 @@
       </c>
       <c r="F301" s="10"/>
     </row>
-    <row r="302" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" ht="75">
       <c r="A302" s="22" t="s">
         <v>773</v>
       </c>
@@ -12629,7 +12701,7 @@
       </c>
       <c r="F302" s="10"/>
     </row>
-    <row r="303" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" ht="45">
       <c r="A303" s="22" t="s">
         <v>778</v>
       </c>
@@ -12647,7 +12719,7 @@
       </c>
       <c r="F303" s="10"/>
     </row>
-    <row r="304" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" ht="75">
       <c r="A304" s="22" t="s">
         <v>779</v>
       </c>
@@ -12665,7 +12737,7 @@
       </c>
       <c r="F304" s="10"/>
     </row>
-    <row r="305" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" ht="60">
       <c r="A305" s="22" t="s">
         <v>780</v>
       </c>
@@ -12683,7 +12755,7 @@
       </c>
       <c r="F305" s="10"/>
     </row>
-    <row r="306" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" ht="45">
       <c r="A306" s="22" t="s">
         <v>781</v>
       </c>
@@ -12701,12 +12773,12 @@
       </c>
       <c r="F306" s="10"/>
     </row>
-    <row r="307" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" ht="45">
       <c r="A307" s="22" t="s">
         <v>782</v>
       </c>
       <c r="B307" s="103" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C307" s="24" t="s">
         <v>113</v>
@@ -12719,7 +12791,7 @@
       </c>
       <c r="F307" s="10"/>
     </row>
-    <row r="308" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" ht="30">
       <c r="A308" s="22" t="s">
         <v>783</v>
       </c>
@@ -12737,7 +12809,7 @@
       </c>
       <c r="F308" s="10"/>
     </row>
-    <row r="309" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" ht="45">
       <c r="A309" s="22" t="s">
         <v>784</v>
       </c>
@@ -12755,7 +12827,7 @@
       </c>
       <c r="F309" s="10"/>
     </row>
-    <row r="310" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" ht="45">
       <c r="A310" s="22" t="s">
         <v>785</v>
       </c>
@@ -12773,7 +12845,7 @@
       </c>
       <c r="F310" s="10"/>
     </row>
-    <row r="311" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" ht="45">
       <c r="A311" s="22" t="s">
         <v>786</v>
       </c>
@@ -12791,7 +12863,7 @@
       </c>
       <c r="F311" s="10"/>
     </row>
-    <row r="312" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" ht="30">
       <c r="A312" s="22" t="s">
         <v>787</v>
       </c>
@@ -12809,7 +12881,7 @@
       </c>
       <c r="F312" s="10"/>
     </row>
-    <row r="313" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" ht="30">
       <c r="A313" s="22" t="s">
         <v>788</v>
       </c>
@@ -12827,7 +12899,7 @@
       </c>
       <c r="F313" s="10"/>
     </row>
-    <row r="314" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" ht="30">
       <c r="A314" s="22" t="s">
         <v>789</v>
       </c>
@@ -12845,7 +12917,7 @@
       </c>
       <c r="F314" s="10"/>
     </row>
-    <row r="315" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" ht="45">
       <c r="A315" s="22" t="s">
         <v>790</v>
       </c>
@@ -12863,7 +12935,7 @@
       </c>
       <c r="F315" s="10"/>
     </row>
-    <row r="316" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" ht="45">
       <c r="A316" s="22" t="s">
         <v>791</v>
       </c>
@@ -12881,7 +12953,7 @@
       </c>
       <c r="F316" s="10"/>
     </row>
-    <row r="317" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" ht="60">
       <c r="A317" s="22" t="s">
         <v>794</v>
       </c>
@@ -12899,7 +12971,7 @@
       </c>
       <c r="F317" s="10"/>
     </row>
-    <row r="318" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" ht="90">
       <c r="A318" s="22" t="s">
         <v>799</v>
       </c>
@@ -12917,7 +12989,7 @@
       </c>
       <c r="F318" s="10"/>
     </row>
-    <row r="319" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" ht="60">
       <c r="A319" s="22" t="s">
         <v>822</v>
       </c>
@@ -12935,7 +13007,7 @@
       </c>
       <c r="F319" s="10"/>
     </row>
-    <row r="320" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" ht="30">
       <c r="A320" s="22" t="s">
         <v>824</v>
       </c>
@@ -12953,7 +13025,7 @@
       </c>
       <c r="F320" s="10"/>
     </row>
-    <row r="321" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" ht="60">
       <c r="A321" s="22" t="s">
         <v>828</v>
       </c>
@@ -12971,7 +13043,7 @@
       </c>
       <c r="F321" s="10"/>
     </row>
-    <row r="322" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" ht="60">
       <c r="A322" s="22" t="s">
         <v>830</v>
       </c>
@@ -12989,7 +13061,7 @@
       </c>
       <c r="F322" s="10"/>
     </row>
-    <row r="323" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" ht="75">
       <c r="A323" s="22" t="s">
         <v>835</v>
       </c>
@@ -13007,7 +13079,7 @@
       </c>
       <c r="F323" s="10"/>
     </row>
-    <row r="324" spans="1:6" ht="108" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" ht="90">
       <c r="A324" s="22" t="s">
         <v>836</v>
       </c>
@@ -13025,7 +13097,7 @@
       </c>
       <c r="F324" s="10"/>
     </row>
-    <row r="325" spans="1:6" ht="108" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" ht="90">
       <c r="A325" s="22" t="s">
         <v>839</v>
       </c>
@@ -13041,7 +13113,7 @@
       </c>
       <c r="F325" s="10"/>
     </row>
-    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" ht="27.75">
       <c r="A326" s="22" t="s">
         <v>842</v>
       </c>
@@ -13055,7 +13127,7 @@
       </c>
       <c r="F326" s="10"/>
     </row>
-    <row r="327" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" ht="32.25">
       <c r="A327" s="22" t="s">
         <v>843</v>
       </c>
@@ -13064,14 +13136,14 @@
       </c>
       <c r="C327" s="24"/>
       <c r="D327" s="103" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E327" s="9" t="s">
         <v>826</v>
       </c>
       <c r="F327" s="10"/>
     </row>
-    <row r="328" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" ht="105">
       <c r="A328" s="22" t="s">
         <v>845</v>
       </c>
@@ -13087,7 +13159,7 @@
       </c>
       <c r="F328" s="10"/>
     </row>
-    <row r="329" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" ht="75">
       <c r="A329" s="22" t="s">
         <v>850</v>
       </c>
@@ -13101,7 +13173,7 @@
       <c r="E329" s="9"/>
       <c r="F329" s="10"/>
     </row>
-    <row r="330" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" ht="30">
       <c r="A330" s="22" t="s">
         <v>851</v>
       </c>
@@ -13117,7 +13189,7 @@
       </c>
       <c r="F330" s="10"/>
     </row>
-    <row r="331" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" ht="45">
       <c r="A331" s="22" t="s">
         <v>856</v>
       </c>
@@ -13133,7 +13205,7 @@
       </c>
       <c r="F331" s="10"/>
     </row>
-    <row r="332" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" ht="60">
       <c r="A332" s="22" t="s">
         <v>873</v>
       </c>
@@ -13149,7 +13221,7 @@
       </c>
       <c r="F332" s="10"/>
     </row>
-    <row r="333" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" ht="45">
       <c r="A333" s="22" t="s">
         <v>886</v>
       </c>
@@ -13169,7 +13241,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" ht="45">
       <c r="A334" s="22" t="s">
         <v>888</v>
       </c>
@@ -13189,7 +13261,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" ht="75">
       <c r="A335" s="22" t="s">
         <v>890</v>
       </c>
@@ -13209,7 +13281,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="121" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" ht="117">
       <c r="A336" s="22" t="s">
         <v>893</v>
       </c>
@@ -13229,7 +13301,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="337" spans="1:6 16384:16384" ht="68" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6 16384:16384" ht="60">
       <c r="A337" s="22" t="s">
         <v>895</v>
       </c>
@@ -13249,7 +13321,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="338" spans="1:6 16384:16384" ht="54" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6 16384:16384" ht="45.75">
       <c r="A338" s="22" t="s">
         <v>896</v>
       </c>
@@ -13269,7 +13341,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="339" spans="1:6 16384:16384" ht="72" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6 16384:16384" ht="60">
       <c r="A339" s="22" t="s">
         <v>898</v>
       </c>
@@ -13289,7 +13361,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="340" spans="1:6 16384:16384" ht="34" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6 16384:16384" ht="45.75">
       <c r="A340" s="22" t="s">
         <v>899</v>
       </c>
@@ -13300,7 +13372,7 @@
         <v>113</v>
       </c>
       <c r="D340" s="72" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E340" s="9" t="s">
         <v>826</v>
@@ -13309,7 +13381,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="341" spans="1:6 16384:16384" ht="34" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6 16384:16384">
       <c r="A341" s="22" t="s">
         <v>905</v>
       </c>
@@ -13329,7 +13401,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="342" spans="1:6 16384:16384" ht="51" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6 16384:16384" ht="42.75">
       <c r="A342" s="22" t="s">
         <v>906</v>
       </c>
@@ -13349,7 +13421,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="343" spans="1:6 16384:16384" ht="90" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6 16384:16384" ht="75">
       <c r="A343" s="22" t="s">
         <v>909</v>
       </c>
@@ -13369,7 +13441,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="344" spans="1:6 16384:16384" ht="34" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6 16384:16384" ht="30">
       <c r="A344" s="22" t="s">
         <v>914</v>
       </c>
@@ -13390,7 +13462,7 @@
       </c>
       <c r="XFD344" s="9"/>
     </row>
-    <row r="345" spans="1:6 16384:16384" ht="54" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6 16384:16384" ht="60">
       <c r="A345" s="22" t="s">
         <v>915</v>
       </c>
@@ -13410,7 +13482,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="346" spans="1:6 16384:16384" ht="51" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6 16384:16384" ht="42.75">
       <c r="A346" s="22" t="s">
         <v>916</v>
       </c>
@@ -13430,7 +13502,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="347" spans="1:6 16384:16384" ht="54" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6 16384:16384" ht="45">
       <c r="A347" s="22" t="s">
         <v>917</v>
       </c>
@@ -13450,7 +13522,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="348" spans="1:6 16384:16384" ht="36" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6 16384:16384" ht="32.25">
       <c r="A348" s="22" t="s">
         <v>928</v>
       </c>
@@ -13470,7 +13542,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="349" spans="1:6 16384:16384" ht="64" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6 16384:16384" ht="60">
       <c r="A349" s="22" t="s">
         <v>931</v>
       </c>
@@ -13490,7 +13562,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="350" spans="1:6 16384:16384" ht="72" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6 16384:16384" ht="60">
       <c r="A350" s="22" t="s">
         <v>933</v>
       </c>
@@ -13510,9 +13582,9 @@
         <v>960</v>
       </c>
     </row>
-    <row r="351" spans="1:6 16384:16384" ht="144" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6 16384:16384" ht="120">
       <c r="A351" s="22" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B351" s="106" t="s">
         <v>946</v>
@@ -13530,7 +13602,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="352" spans="1:6 16384:16384" ht="30" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6 16384:16384" ht="27.75">
       <c r="A352" s="22" t="s">
         <v>1061</v>
       </c>
@@ -13546,7 +13618,7 @@
       <c r="E352" s="9"/>
       <c r="F352" s="10"/>
     </row>
-    <row r="353" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" ht="27.75">
       <c r="A353" s="22" t="s">
         <v>1064</v>
       </c>
@@ -13562,7 +13634,7 @@
       <c r="E353" s="9"/>
       <c r="F353" s="10"/>
     </row>
-    <row r="354" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="42.75">
       <c r="A354" s="107" t="s">
         <v>1067</v>
       </c>
@@ -13578,7 +13650,7 @@
       <c r="E354" s="9"/>
       <c r="F354" s="10"/>
     </row>
-    <row r="355" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6">
       <c r="A355" s="22" t="s">
         <v>1071</v>
       </c>
@@ -13592,7 +13664,7 @@
       <c r="E355" s="9"/>
       <c r="F355" s="10"/>
     </row>
-    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" ht="27.75">
       <c r="A356" s="22" t="s">
         <v>1073</v>
       </c>
@@ -13606,7 +13678,7 @@
       <c r="E356" s="9"/>
       <c r="F356" s="10"/>
     </row>
-    <row r="357" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6">
       <c r="A357" s="22" t="s">
         <v>1075</v>
       </c>
@@ -13620,7 +13692,7 @@
       <c r="E357" s="9"/>
       <c r="F357" s="10"/>
     </row>
-    <row r="358" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" ht="30">
       <c r="A358" s="22" t="s">
         <v>1077</v>
       </c>
@@ -13636,7 +13708,7 @@
       <c r="E358" s="9"/>
       <c r="F358" s="10"/>
     </row>
-    <row r="359" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" ht="30">
       <c r="A359" s="22" t="s">
         <v>1080</v>
       </c>
@@ -13652,7 +13724,7 @@
       <c r="E359" s="9"/>
       <c r="F359" s="10"/>
     </row>
-    <row r="360" spans="1:6" ht="25" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" ht="23.25">
       <c r="A360" s="66" t="s">
         <v>1083</v>
       </c>
@@ -13664,7 +13736,7 @@
       <c r="E360" s="9"/>
       <c r="F360" s="10"/>
     </row>
-    <row r="361" spans="1:6" ht="25" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" ht="23.25">
       <c r="A361" s="66" t="s">
         <v>1084</v>
       </c>
@@ -13676,7 +13748,7 @@
       <c r="E361" s="9"/>
       <c r="F361" s="10"/>
     </row>
-    <row r="362" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6">
       <c r="A362" s="22" t="s">
         <v>1087</v>
       </c>
@@ -13688,7 +13760,7 @@
       <c r="E362" s="9"/>
       <c r="F362" s="10"/>
     </row>
-    <row r="363" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" ht="75">
       <c r="A363" s="22" t="s">
         <v>1089</v>
       </c>
@@ -13702,7 +13774,7 @@
       <c r="E363" s="9"/>
       <c r="F363" s="10"/>
     </row>
-    <row r="364" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" ht="45">
       <c r="A364" s="22" t="s">
         <v>1088</v>
       </c>
@@ -13716,7 +13788,7 @@
       <c r="E364" s="9"/>
       <c r="F364" s="10"/>
     </row>
-    <row r="365" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" ht="60">
       <c r="A365" s="22" t="s">
         <v>1094</v>
       </c>
@@ -13730,7 +13802,7 @@
       <c r="E365" s="9"/>
       <c r="F365" s="10"/>
     </row>
-    <row r="366" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" ht="60">
       <c r="A366" s="22" t="s">
         <v>1097</v>
       </c>
@@ -13744,7 +13816,7 @@
       <c r="E366" s="9"/>
       <c r="F366" s="10"/>
     </row>
-    <row r="367" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6">
       <c r="A367" s="22" t="s">
         <v>1101</v>
       </c>
@@ -13756,7 +13828,7 @@
       <c r="E367" s="9"/>
       <c r="F367" s="10"/>
     </row>
-    <row r="368" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6">
       <c r="A368" s="22" t="s">
         <v>1100</v>
       </c>
@@ -13768,7 +13840,7 @@
       <c r="E368" s="9"/>
       <c r="F368" s="10"/>
     </row>
-    <row r="369" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6">
       <c r="A369" s="22" t="s">
         <v>933</v>
       </c>
@@ -13777,12 +13849,12 @@
       </c>
       <c r="C369" s="24"/>
       <c r="D369" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E369" s="9"/>
       <c r="F369" s="10"/>
     </row>
-    <row r="370" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6">
       <c r="A370" s="22" t="s">
         <v>1103</v>
       </c>
@@ -13794,7 +13866,7 @@
       <c r="E370" s="9"/>
       <c r="F370" s="10"/>
     </row>
-    <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6">
       <c r="A371" s="22" t="s">
         <v>1105</v>
       </c>
@@ -13806,7 +13878,7 @@
       <c r="E371" s="9"/>
       <c r="F371" s="10"/>
     </row>
-    <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" ht="27.75">
       <c r="A372" s="22" t="s">
         <v>1108</v>
       </c>
@@ -13818,7 +13890,7 @@
       <c r="E372" s="9"/>
       <c r="F372" s="10"/>
     </row>
-    <row r="373" spans="1:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="29.25">
       <c r="A373" s="107" t="s">
         <v>1109</v>
       </c>
@@ -13830,7 +13902,7 @@
       <c r="E373" s="9"/>
       <c r="F373" s="10"/>
     </row>
-    <row r="374" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" ht="135">
       <c r="A374" s="22" t="s">
         <v>1111</v>
       </c>
@@ -13844,7 +13916,7 @@
       <c r="E374" s="9"/>
       <c r="F374" s="10"/>
     </row>
-    <row r="375" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" ht="27.75">
       <c r="A375" s="22" t="s">
         <v>1112</v>
       </c>
@@ -13856,7 +13928,7 @@
       <c r="E375" s="9"/>
       <c r="F375" s="10"/>
     </row>
-    <row r="376" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" ht="83.25">
       <c r="A376" s="22" t="s">
         <v>1117</v>
       </c>
@@ -13870,7 +13942,7 @@
       <c r="E376" s="9"/>
       <c r="F376" s="10"/>
     </row>
-    <row r="377" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" ht="75">
       <c r="A377" s="22" t="s">
         <v>1118</v>
       </c>
@@ -13884,7 +13956,7 @@
       <c r="E377" s="9"/>
       <c r="F377" s="10"/>
     </row>
-    <row r="378" spans="1:6" ht="67" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" ht="77.25">
       <c r="A378" s="22" t="s">
         <v>1122</v>
       </c>
@@ -13893,12 +13965,12 @@
       </c>
       <c r="C378" s="24"/>
       <c r="D378" s="111" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E378" s="9"/>
       <c r="F378" s="10"/>
     </row>
-    <row r="379" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" ht="45">
       <c r="A379" s="22" t="s">
         <v>1123</v>
       </c>
@@ -13912,7 +13984,7 @@
       <c r="E379" s="9"/>
       <c r="F379" s="10"/>
     </row>
-    <row r="380" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" ht="45">
       <c r="A380" s="22" t="s">
         <v>1124</v>
       </c>
@@ -13926,7 +13998,7 @@
       <c r="E380" s="9"/>
       <c r="F380" s="10"/>
     </row>
-    <row r="381" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" ht="60">
       <c r="A381" s="22" t="s">
         <v>1125</v>
       </c>
@@ -13940,7 +14012,7 @@
       <c r="E381" s="9"/>
       <c r="F381" s="10"/>
     </row>
-    <row r="382" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" ht="60">
       <c r="A382" s="22" t="s">
         <v>1126</v>
       </c>
@@ -13954,7 +14026,7 @@
       <c r="E382" s="9"/>
       <c r="F382" s="10"/>
     </row>
-    <row r="383" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" ht="45">
       <c r="A383" s="22" t="s">
         <v>1127</v>
       </c>
@@ -13968,7 +14040,7 @@
       <c r="E383" s="9"/>
       <c r="F383" s="10"/>
     </row>
-    <row r="384" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" ht="45">
       <c r="A384" s="22" t="s">
         <v>1128</v>
       </c>
@@ -13982,7 +14054,7 @@
       <c r="E384" s="9"/>
       <c r="F384" s="10"/>
     </row>
-    <row r="385" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" ht="30">
       <c r="A385" s="22" t="s">
         <v>1137</v>
       </c>
@@ -13996,7 +14068,7 @@
       <c r="E385" s="9"/>
       <c r="F385" s="10"/>
     </row>
-    <row r="386" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" ht="45">
       <c r="A386" s="22" t="s">
         <v>1143</v>
       </c>
@@ -14010,7 +14082,7 @@
       <c r="E386" s="9"/>
       <c r="F386" s="10"/>
     </row>
-    <row r="387" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" ht="45">
       <c r="A387" s="22" t="s">
         <v>1146</v>
       </c>
@@ -14024,7 +14096,7 @@
       <c r="E387" s="9"/>
       <c r="F387" s="10"/>
     </row>
-    <row r="388" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" ht="27.75">
       <c r="A388" s="22" t="s">
         <v>1154</v>
       </c>
@@ -14038,7 +14110,7 @@
       <c r="E388" s="9"/>
       <c r="F388" s="10"/>
     </row>
-    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" ht="27.75">
       <c r="A389" s="22" t="s">
         <v>1154</v>
       </c>
@@ -14052,7 +14124,7 @@
       <c r="E389" s="9"/>
       <c r="F389" s="10"/>
     </row>
-    <row r="390" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" ht="27.75">
       <c r="A390" s="22" t="s">
         <v>1154</v>
       </c>
@@ -14066,7 +14138,7 @@
       <c r="E390" s="25"/>
       <c r="F390" s="26"/>
     </row>
-    <row r="391" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" ht="27.75">
       <c r="A391" s="22" t="s">
         <v>1153</v>
       </c>
@@ -14080,7 +14152,7 @@
       <c r="E391" s="25"/>
       <c r="F391" s="26"/>
     </row>
-    <row r="392" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" ht="30">
       <c r="A392" s="22" t="s">
         <v>1157</v>
       </c>
@@ -14094,7 +14166,7 @@
       <c r="E392" s="25"/>
       <c r="F392" s="26"/>
     </row>
-    <row r="393" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" ht="27.75">
       <c r="A393" s="22" t="s">
         <v>1159</v>
       </c>
@@ -14108,7 +14180,7 @@
       <c r="E393" s="25"/>
       <c r="F393" s="26"/>
     </row>
-    <row r="394" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" ht="62.25">
       <c r="A394" s="22" t="s">
         <v>1160</v>
       </c>
@@ -14122,7 +14194,7 @@
       <c r="E394" s="25"/>
       <c r="F394" s="26"/>
     </row>
-    <row r="395" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" ht="30">
       <c r="A395" s="22" t="s">
         <v>1165</v>
       </c>
@@ -14136,7 +14208,7 @@
       <c r="E395" s="25"/>
       <c r="F395" s="26"/>
     </row>
-    <row r="396" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" ht="45">
       <c r="A396" s="22" t="s">
         <v>1168</v>
       </c>
@@ -14150,7 +14222,7 @@
       <c r="E396" s="25"/>
       <c r="F396" s="26"/>
     </row>
-    <row r="397" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" ht="27.75">
       <c r="A397" s="22" t="s">
         <v>1172</v>
       </c>
@@ -14164,7 +14236,7 @@
       <c r="E397" s="25"/>
       <c r="F397" s="26"/>
     </row>
-    <row r="398" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" ht="45">
       <c r="A398" s="22" t="s">
         <v>1174</v>
       </c>
@@ -14178,7 +14250,7 @@
       <c r="E398" s="25"/>
       <c r="F398" s="26"/>
     </row>
-    <row r="399" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" ht="30">
       <c r="A399" s="22" t="s">
         <v>1177</v>
       </c>
@@ -14192,7 +14264,7 @@
       <c r="E399" s="25"/>
       <c r="F399" s="26"/>
     </row>
-    <row r="400" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" ht="45">
       <c r="A400" s="22" t="s">
         <v>1178</v>
       </c>
@@ -14206,7 +14278,7 @@
       <c r="E400" s="25"/>
       <c r="F400" s="26"/>
     </row>
-    <row r="401" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" ht="45">
       <c r="A401" s="22" t="s">
         <v>1185</v>
       </c>
@@ -14220,7 +14292,7 @@
       <c r="E401" s="25"/>
       <c r="F401" s="26"/>
     </row>
-    <row r="402" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" ht="45">
       <c r="A402" s="22" t="s">
         <v>1184</v>
       </c>
@@ -14234,7 +14306,7 @@
       <c r="E402" s="25"/>
       <c r="F402" s="26"/>
     </row>
-    <row r="403" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6">
       <c r="A403" s="22" t="s">
         <v>1193</v>
       </c>
@@ -14246,7 +14318,7 @@
       <c r="E403" s="25"/>
       <c r="F403" s="26"/>
     </row>
-    <row r="404" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6">
       <c r="A404" s="22" t="s">
         <v>1194</v>
       </c>
@@ -14258,7 +14330,7 @@
       <c r="E404" s="25"/>
       <c r="F404" s="26"/>
     </row>
-    <row r="405" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" ht="27.75">
       <c r="A405" s="22" t="s">
         <v>1197</v>
       </c>
@@ -14270,7 +14342,7 @@
       <c r="E405" s="25"/>
       <c r="F405" s="26"/>
     </row>
-    <row r="406" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" ht="27.75">
       <c r="A406" s="22" t="s">
         <v>1199</v>
       </c>
@@ -14282,7 +14354,7 @@
       <c r="E406" s="25"/>
       <c r="F406" s="26"/>
     </row>
-    <row r="407" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6">
       <c r="A407" s="22" t="s">
         <v>1194</v>
       </c>
@@ -14294,7 +14366,7 @@
       <c r="E407" s="25"/>
       <c r="F407" s="26"/>
     </row>
-    <row r="408" spans="1:6" ht="34" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6">
       <c r="A408" s="22" t="s">
         <v>1201</v>
       </c>
@@ -14306,7 +14378,7 @@
       <c r="E408" s="25"/>
       <c r="F408" s="26"/>
     </row>
-    <row r="409" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" ht="27.75">
       <c r="A409" s="22" t="s">
         <v>1203</v>
       </c>
@@ -14318,7 +14390,7 @@
       <c r="E409" s="25"/>
       <c r="F409" s="26"/>
     </row>
-    <row r="410" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" ht="27.75">
       <c r="A410" s="22" t="s">
         <v>1205</v>
       </c>
@@ -14330,7 +14402,7 @@
       <c r="E410" s="25"/>
       <c r="F410" s="26"/>
     </row>
-    <row r="411" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" ht="75">
       <c r="A411" s="22" t="s">
         <v>1208</v>
       </c>
@@ -14346,7 +14418,7 @@
       <c r="E411" s="9"/>
       <c r="F411" s="10"/>
     </row>
-    <row r="412" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" ht="27.75">
       <c r="A412" s="22" t="s">
         <v>1210</v>
       </c>
@@ -14358,7 +14430,7 @@
       <c r="E412" s="9"/>
       <c r="F412" s="10"/>
     </row>
-    <row r="413" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" ht="27.75">
       <c r="A413" s="22"/>
       <c r="B413" s="23"/>
       <c r="C413" s="24"/>
@@ -14366,7 +14438,7 @@
       <c r="E413" s="9"/>
       <c r="F413" s="10"/>
     </row>
-    <row r="417" spans="1:4" ht="68" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" ht="75">
       <c r="A417" s="2" t="s">
         <v>1089</v>
       </c>
@@ -14377,54 +14449,54 @@
         <v>113</v>
       </c>
       <c r="D417" s="117" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="75">
+      <c r="A418" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B418" s="116" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D418" s="117" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="68" x14ac:dyDescent="0.35">
-      <c r="A418" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B418" s="116" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D418" s="117" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" ht="51" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" ht="45">
       <c r="A419" s="2" t="s">
         <v>1088</v>
       </c>
       <c r="B419" s="116" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D419" s="117" t="s">
         <v>1216</v>
       </c>
-      <c r="C419" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D419" s="117" t="s">
+    </row>
+    <row r="420" spans="1:4" ht="60">
+      <c r="A420" s="2" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" ht="68" x14ac:dyDescent="0.35">
-      <c r="A420" s="2" t="s">
+      <c r="B420" s="116" t="s">
         <v>1218</v>
       </c>
-      <c r="B420" s="116" t="s">
+      <c r="C420" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D420" s="117" t="s">
         <v>1219</v>
       </c>
-      <c r="C420" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D420" s="117" t="s">
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="2" t="s">
         <v>1220</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A421" s="2" t="s">
-        <v>1221</v>
       </c>
       <c r="B421" s="27" t="s">
         <v>1206</v>
@@ -14433,102 +14505,102 @@
         <v>113</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" ht="15.75">
       <c r="A422" s="27" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B422" s="27" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="30">
+      <c r="A423" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="B422" s="27" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" ht="32" x14ac:dyDescent="0.35">
-      <c r="A423" s="2" t="s">
+      <c r="B423" s="116" t="s">
         <v>1224</v>
       </c>
-      <c r="B423" s="116" t="s">
+      <c r="C423" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D423" s="27" t="s">
         <v>1225</v>
       </c>
-      <c r="C423" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D423" s="27" t="s">
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B424" s="116" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D424" s="27" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A424" s="2" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B424" s="116" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D424" s="27" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" ht="30">
       <c r="A425" s="2" t="s">
         <v>1194</v>
       </c>
       <c r="B425" s="116" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D425" s="118" t="s">
         <v>1230</v>
       </c>
-      <c r="C425" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D425" s="118" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="426" spans="1:4" ht="30">
       <c r="A426" s="2" t="s">
         <v>1201</v>
       </c>
       <c r="B426" s="116" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D426" s="27" t="s">
         <v>1232</v>
       </c>
-      <c r="C426" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D426" s="27" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="427" spans="1:4" ht="30">
       <c r="A427" s="2" t="s">
         <v>1100</v>
       </c>
       <c r="B427" s="116" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D427" s="27" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="30">
       <c r="A428" s="2" t="s">
         <v>1101</v>
       </c>
       <c r="B428" s="116" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D428" s="27" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" ht="53" x14ac:dyDescent="0.35">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="65.25">
       <c r="A429" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14539,26 +14611,26 @@
         <v>113</v>
       </c>
       <c r="D429" s="28" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" ht="53" x14ac:dyDescent="0.35">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="65.25">
       <c r="A430" s="2" t="s">
         <v>1097</v>
       </c>
       <c r="B430" s="116" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D430" s="28" t="s">
         <v>1237</v>
       </c>
-      <c r="C430" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D430" s="28" t="s">
+    </row>
+    <row r="431" spans="1:4" ht="45">
+      <c r="A431" s="2" t="s">
         <v>1238</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" ht="51" x14ac:dyDescent="0.35">
-      <c r="A431" s="2" t="s">
-        <v>1239</v>
       </c>
       <c r="B431" s="116" t="s">
         <v>901</v>
@@ -14567,415 +14639,415 @@
         <v>943</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" ht="30">
       <c r="A432" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B432" s="116" t="s">
         <v>1240</v>
       </c>
-      <c r="B432" s="116" t="s">
+      <c r="D432" s="117" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B433" s="116" t="s">
         <v>1241</v>
       </c>
-      <c r="D432" s="117" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A433" s="2" t="s">
+      <c r="D433" s="117" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="2" t="s">
         <v>1243</v>
       </c>
-      <c r="B433" s="116" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D433" s="117" t="s">
+      <c r="D434" s="117" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="30">
+      <c r="A435" s="2" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A434" s="2" t="s">
+      <c r="B435" s="116" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D435" s="117" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B436" s="116" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="30">
+      <c r="A437" s="106" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B437" s="106" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D437" s="117" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="60">
+      <c r="A438" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B438" s="116" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D438" s="117" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B439" s="116" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B440" s="106" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B441" s="119" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B442" s="116" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B443" s="120" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B444" s="116" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="45">
+      <c r="A445" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B445" s="116" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="30">
+      <c r="A446" s="121" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B446" s="116" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="45">
+      <c r="A447" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B447" s="116" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D447" s="117" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="30">
+      <c r="A448" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B448" s="116" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="15.75">
+      <c r="A449" s="27" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B449" s="116" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D449" s="117" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="30">
+      <c r="A450" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B450" s="116" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D450" s="117" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="30">
+      <c r="A451" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B451" s="116" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D451" s="117" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="30">
+      <c r="A452" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B452" s="116" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D452" s="117" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="45">
+      <c r="A453" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B453" s="116" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D453" s="117" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="30">
+      <c r="A454" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B454" s="116" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D454" s="117" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="30">
+      <c r="A455" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B455" s="116" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D455" s="117" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D456" s="117" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="45">
+      <c r="A457" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B457" s="116" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D457" s="117" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="30">
+      <c r="A458" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B458" s="116" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D458" s="117" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B459" s="117" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D459" s="117" t="s">
         <v>1244</v>
       </c>
-      <c r="D434" s="117" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" ht="32" x14ac:dyDescent="0.35">
-      <c r="A435" s="2" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B435" s="116" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D435" s="117" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A436" s="2" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B436" s="116" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" ht="34" x14ac:dyDescent="0.25">
-      <c r="A437" s="106" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B437" s="106" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D437" s="117" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" ht="51" x14ac:dyDescent="0.35">
-      <c r="A438" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B438" s="116" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D438" s="117" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A439" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B439" s="116" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A440" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B440" s="106" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A441" s="2" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B441" s="119" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A442" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B442" s="116" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A443" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B443" s="120" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A444" s="2" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B444" s="116" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" ht="32" x14ac:dyDescent="0.35">
-      <c r="A445" s="2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B445" s="116" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" ht="32" x14ac:dyDescent="0.25">
-      <c r="A446" s="121" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B446" s="116" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" ht="51" x14ac:dyDescent="0.35">
-      <c r="A447" s="2" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B447" s="116" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D447" s="117" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" ht="32" x14ac:dyDescent="0.35">
-      <c r="A448" s="2" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B448" s="116" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A449" s="27" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B449" s="116" t="s">
+    </row>
+    <row r="460" spans="1:4" ht="45">
+      <c r="A460" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B460" s="116" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D460" s="117" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="45">
+      <c r="A461" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B461" s="116" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D461" s="117" t="s">
         <v>1310</v>
       </c>
-      <c r="C449" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D449" s="117" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" ht="34" x14ac:dyDescent="0.35">
-      <c r="A450" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B450" s="116" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D450" s="117" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" ht="34" x14ac:dyDescent="0.35">
-      <c r="A451" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B451" s="116" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D451" s="117" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" ht="34" x14ac:dyDescent="0.35">
-      <c r="A452" s="2" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B452" s="116" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D452" s="117" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" ht="34" x14ac:dyDescent="0.35">
-      <c r="A453" s="2" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B453" s="116" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D453" s="117" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" ht="34" x14ac:dyDescent="0.35">
-      <c r="A454" s="2" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B454" s="116" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D454" s="117" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" ht="34" x14ac:dyDescent="0.35">
-      <c r="A455" s="2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B455" s="116" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D455" s="117" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A456" s="2" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D456" s="117" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" ht="51" x14ac:dyDescent="0.35">
-      <c r="A457" s="2" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B457" s="116" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D457" s="117" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" ht="34" x14ac:dyDescent="0.35">
-      <c r="A458" s="2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B458" s="116" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D458" s="117" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A459" s="2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B459" s="117" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D459" s="117" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" ht="51" x14ac:dyDescent="0.35">
-      <c r="A460" s="2" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B460" s="116" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D460" s="117" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" ht="51" x14ac:dyDescent="0.35">
-      <c r="A461" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B461" s="116" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D461" s="117" t="s">
+    </row>
+    <row r="462" spans="1:4" ht="75">
+      <c r="A462" s="2" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" ht="68" x14ac:dyDescent="0.35">
-      <c r="A462" s="2" t="s">
+      <c r="B462" s="116" t="s">
         <v>1312</v>
       </c>
-      <c r="B462" s="116" t="s">
+      <c r="C462" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D462" s="117" t="s">
         <v>1313</v>
       </c>
-      <c r="C462" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D462" s="117" t="s">
+    </row>
+    <row r="463" spans="1:4" ht="75">
+      <c r="A463" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B463" s="116" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D463" s="117" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="60">
+      <c r="A464" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B464" s="116" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D464" s="117" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="60">
+      <c r="A465" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B465" s="116" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D465" s="117" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="75">
+      <c r="A466" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B466" s="116" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D466" s="117" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="2" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" ht="85" x14ac:dyDescent="0.35">
-      <c r="A463" s="2" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B463" s="116" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D463" s="117" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" ht="68" x14ac:dyDescent="0.35">
-      <c r="A464" s="2" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B464" s="116" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D464" s="117" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" ht="68" x14ac:dyDescent="0.35">
-      <c r="A465" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B465" s="116" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D465" s="117" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" ht="85" x14ac:dyDescent="0.35">
-      <c r="A466" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B466" s="116" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D466" s="117" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A467" s="2" t="s">
+      <c r="B467" s="116" t="s">
         <v>1315</v>
-      </c>
-      <c r="B467" s="116" t="s">
-        <v>1316</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>113</v>
@@ -14984,12 +15056,12 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" ht="25.5">
       <c r="A468" s="122" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B468" s="116" t="s">
         <v>1404</v>
-      </c>
-      <c r="B468" s="116" t="s">
-        <v>1405</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>113</v>
@@ -14998,200 +15070,200 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="68" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" ht="75">
       <c r="A469" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B469" s="116" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D469" s="117" t="s">
         <v>1406</v>
       </c>
-      <c r="B469" s="116" t="s">
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="2" t="s">
         <v>1408</v>
       </c>
-      <c r="C469" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D469" s="117" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A470" s="2" t="s">
+      <c r="B470" s="116" t="s">
         <v>1409</v>
       </c>
-      <c r="B470" s="116" t="s">
+      <c r="C470" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D470" s="117" t="s">
         <v>1410</v>
       </c>
-      <c r="C470" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D470" s="117" t="s">
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B471" s="116" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D471" s="117" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A471" s="2" t="s">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B472" s="116" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D472" s="117" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="30">
+      <c r="A473" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B473" s="116" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D473" s="117" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="60">
+      <c r="A474" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B474" s="116" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D474" s="117" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B475" s="118" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D475" s="117" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B476" s="116" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D476" s="117" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="30">
+      <c r="A477" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B477" s="116" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D477" s="117" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B478" s="116" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D478" s="117" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="75">
+      <c r="A479" s="2" t="s">
         <v>1414</v>
       </c>
-      <c r="B471" s="116" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D471" s="117" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A472" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B472" s="116" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D472" s="117" t="s">
+      <c r="B479" s="116" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D479" s="117" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="45">
+      <c r="A480" s="123" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" ht="34" x14ac:dyDescent="0.35">
-      <c r="A473" s="2" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B473" s="116" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D473" s="117" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" ht="51" x14ac:dyDescent="0.35">
-      <c r="A474" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B474" s="116" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D474" s="117" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A475" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B475" s="118" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D475" s="117" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A476" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B476" s="116" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C476" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D476" s="117" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" ht="34" x14ac:dyDescent="0.35">
-      <c r="A477" s="2" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B477" s="116" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D477" s="117" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A478" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B478" s="116" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D478" s="117" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" ht="68" x14ac:dyDescent="0.35">
-      <c r="A479" s="2" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B479" s="116" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D479" s="117" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" ht="51" x14ac:dyDescent="0.3">
-      <c r="A480" s="123" t="s">
+      <c r="B480" s="124" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D480" s="117" t="s">
         <v>1438</v>
       </c>
-      <c r="B480" s="124" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D480" s="117" t="s">
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="2" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A481" s="2" t="s">
+      <c r="B481" s="116" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D481" s="117" t="s">
         <v>1440</v>
       </c>
-      <c r="B481" s="116" t="s">
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="2" t="s">
         <v>1442</v>
       </c>
-      <c r="C481" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D481" s="117" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A482" s="2" t="s">
+      <c r="B482" s="116" t="s">
         <v>1443</v>
       </c>
-      <c r="B482" s="116" t="s">
-        <v>1444</v>
-      </c>
       <c r="C482" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D482" s="117" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -15256,8 +15328,9 @@
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId54"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId55"/>
+    <tablePart r:id="rId56"/>
   </tableParts>
 </worksheet>
 </file>
--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B079F717-C04A-40FA-A392-BC1C5CAB4974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361D6F52-CCA4-4911-ADEB-B61125B58674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="24225" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1481">
   <si>
     <t>NAS</t>
   </si>
@@ -3893,9 +3893,6 @@
     <t xml:space="preserve">AIT </t>
   </si>
   <si>
-    <t xml:space="preserve">FSK ???? </t>
-  </si>
-  <si>
     <t>LTFS</t>
   </si>
   <si>
@@ -3938,9 +3935,6 @@
     <t>DLT</t>
   </si>
   <si>
-    <t>FSK</t>
-  </si>
-  <si>
     <t>Digital Linear Tape</t>
   </si>
   <si>
@@ -3957,9 +3951,6 @@
   </si>
   <si>
     <t xml:space="preserve">DDS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> is a computer data storage technology that is based upon the Digital Audio Tape (DAT) format that was developed during the 1980s. </t>
   </si>
   <si>
     <t>Digital Data Storage</t>
@@ -5735,12 +5726,6 @@
     <t>Voltage Dependent Resistor</t>
   </si>
   <si>
-    <t xml:space="preserve">*** = Varistor </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ––(cos φ ) Blindleistungskompensation </t>
-  </si>
-  <si>
     <t>Power Factor Correction</t>
   </si>
   <si>
@@ -5825,9 +5810,6 @@
     <t>MLC</t>
   </si>
   <si>
-    <t xml:space="preserve">***  </t>
-  </si>
-  <si>
     <t>Multi-Level-Cells</t>
   </si>
   <si>
@@ -5841,6 +5823,129 @@
   </si>
   <si>
     <t>*** is also called PMR (Perpendicular Magnetic Recording). *** aligns the poles of a magnetic element perpendicular to the surface of the disk in a hard drive. Magnetic elements in this technology represent bits of data. Tracks are written side by side an</t>
+  </si>
+  <si>
+    <t>CCD</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>PMT</t>
+  </si>
+  <si>
+    <t>*** the other kind of sensor often used in scanners, use mirrors to bounce light to a stationary sensor.</t>
+  </si>
+  <si>
+    <t>Charged Coupled Device</t>
+  </si>
+  <si>
+    <t>Contact Image System</t>
+  </si>
+  <si>
+    <t>*** are image sensors used in flatbed scanners almost in direct contact with the object to be scanned.</t>
+  </si>
+  <si>
+    <t>Photomultiplier</t>
+  </si>
+  <si>
+    <t>*** are extremely sensitive detectors of light in the ultraviolet, visible, and near-infrared ranges of the electromagnetic spectrum. They are members of the class of vacuum tubes, more specifically vacuum phototubes.</t>
+  </si>
+  <si>
+    <t>***  is one type of memory cell that is used in flash memory. In a *** , data is stored as one bit per memory cell. Since data is recorded by setting voltage at either of two levels only ("high" or "low"), the effect of noise is hardly incurred.</t>
+  </si>
+  <si>
+    <t>***   flash is a type of NAND flash memory that can store more than 1 bit per cell. NAND flash is a form of nonvolatile storage memory, which allows it to retain data without being attached to a power source.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** is the process of compensating for the lagging current by creating a leading current by connecting capacitors to the supply. A sufficient capacitance is connected so that the power factor is adjusted to be as close to unity as possible. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** is an electronic component with an electrical resistance that varies with the applied voltage. It has a nonlinear, non-ohmic current–voltage characteristic that is similar to that of a diode. = Varistor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** is a special removable disk. The design of the drive allows the inserted disk to be exposed to the magnetic head on one side and to the laser on the other side. Its writing speed is faster than that of diskettes, but is slower than that of CD/DVD drives. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** is an optical disc format designed for high-density storage of high-definition video and data. </t>
+  </si>
+  <si>
+    <t>*** was introduced with DDS-2 drives and cartridges to detect the medium type and prevent the loading of an improper medium.***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *** is a computer data storage technology that is based upon the Digital Audio Tape (DAT) format that was developed during the 1980s. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZFS </t>
+  </si>
+  <si>
+    <t>Zettabyte File System</t>
+  </si>
+  <si>
+    <t>*** is a file system with volume management capabilities.</t>
+  </si>
+  <si>
+    <t>SSHD</t>
+  </si>
+  <si>
+    <t>Solid State Hybrid Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**** is a logical or physical storage device that combines a faster storage medium such as solid-state drive with a higher-capacity hard disk drive. The intent is adding some of the speed of SSDs to the cost-effective storage capacity of traditional HDDs. </t>
+  </si>
+  <si>
+    <t>jbod</t>
+  </si>
+  <si>
+    <t>Just a Bunch of Disks</t>
+  </si>
+  <si>
+    <t>AGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Absorbent Glass Mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> **** is a type of multilevel configuration for disks. It refers to a collection of disks in a computer system or array combined as one logical volume. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *** is an advanced lead-acid battery that provides superior power to support the higher electrical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Voltage and Frequency Independent from mains supply</t>
+  </si>
+  <si>
+    <t>VFI</t>
+  </si>
+  <si>
+    <t>Voltage Independent from mains supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI </t>
+  </si>
+  <si>
+    <t>Voltage and Frequency Dependent from mains supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VFD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *** Voltage and Frequency Independent from mains supply</t>
+  </si>
+  <si>
+    <t>*** Voltage Independent from mains supply</t>
+  </si>
+  <si>
+    <t>*** Voltage and Frequency Dependent from mains supply</t>
+  </si>
+  <si>
+    <t>TFT</t>
+  </si>
+  <si>
+    <t>Thin-film transistor</t>
+  </si>
+  <si>
+    <t>*** is a special type of field-effect transistor (FET) where the transistor is thin relative to the plane of the device.[1] TFTs are grown on a supporting (but non-conducting) substrate.</t>
   </si>
 </sst>
 </file>
@@ -6324,12 +6429,10 @@
     </font>
     <font>
       <sz val="20"/>
-      <color rgb="FFB3B3D4"/>
       <name val="Cascadia Code"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFB3B3D4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -6887,8 +6990,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}" name="Table2" displayName="Table2" ref="A417:D482" totalsRowShown="0">
-  <autoFilter ref="A417:D482" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}" name="Table2" displayName="Table2" ref="A417:D492" totalsRowShown="0">
+  <autoFilter ref="A417:D492" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{41DA4D65-38BA-49BC-9E95-6B14FD163A96}" name="CMR" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{05ADCA5B-05F1-452E-8752-A1742DD16AB0}" name="Conventional Magnetic Recording" dataDxfId="2"/>
@@ -7162,10 +7265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD482"/>
+  <dimension ref="A1:XFD492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A464" sqref="A464:D482"/>
+    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C492" sqref="C492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
@@ -7317,7 +7420,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="40.5">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="27">
       <c r="A9" s="35" t="s">
         <v>275</v>
       </c>
@@ -7333,7 +7436,7 @@
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="46.5">
       <c r="A10" s="35" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>330</v>
@@ -7362,7 +7465,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>826</v>
@@ -7382,7 +7485,7 @@
         <v>113</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>826</v>
@@ -7393,7 +7496,7 @@
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="45">
       <c r="A13" s="44" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>384</v>
@@ -7416,7 +7519,7 @@
         <v>187</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="34" t="s">
@@ -7480,7 +7583,7 @@
         <v>113</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>826</v>
@@ -7494,13 +7597,13 @@
         <v>549</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>113</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>826</v>
@@ -7520,7 +7623,7 @@
         <v>113</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>826</v>
@@ -7550,7 +7653,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>320</v>
@@ -7596,7 +7699,7 @@
         <v>320</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>826</v>
@@ -7647,7 +7750,7 @@
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" ht="40.5">
       <c r="A26" s="22" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>342</v>
@@ -7656,7 +7759,7 @@
         <v>219</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>826</v>
@@ -7676,7 +7779,7 @@
         <v>113</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>826</v>
@@ -7687,7 +7790,7 @@
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="57">
       <c r="A28" s="22" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>380</v>
@@ -7716,7 +7819,7 @@
         <v>373</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>826</v>
@@ -7730,7 +7833,7 @@
         <v>422</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>113</v>
@@ -7808,7 +7911,7 @@
         <v>249</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>113</v>
@@ -7865,7 +7968,7 @@
     </row>
     <row r="37" spans="1:6" s="4" customFormat="1" ht="60.75">
       <c r="A37" s="58" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="B37" s="59" t="s">
         <v>387</v>
@@ -7982,13 +8085,13 @@
         <v>393</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>320</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>826</v>
@@ -7999,7 +8102,7 @@
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="61.5">
       <c r="A44" s="64" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="B44" s="23" t="s">
         <v>394</v>
@@ -8088,7 +8191,7 @@
         <v>219</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>826</v>
@@ -8137,7 +8240,7 @@
     </row>
     <row r="51" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A51" s="40" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>96</v>
@@ -8146,7 +8249,7 @@
         <v>427</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>826</v>
@@ -8220,13 +8323,13 @@
         <v>232</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>219</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>826</v>
@@ -8246,7 +8349,7 @@
         <v>320</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>826</v>
@@ -8295,9 +8398,9 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="4" customFormat="1" ht="93">
+    <row r="59" spans="1:6" s="4" customFormat="1" ht="91.5">
       <c r="A59" s="60" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B59" s="61" t="s">
         <v>424</v>
@@ -8353,7 +8456,7 @@
       </c>
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="1:6" s="4" customFormat="1" ht="60.75">
+    <row r="62" spans="1:6" s="4" customFormat="1" ht="47.25">
       <c r="A62" s="22" t="s">
         <v>385</v>
       </c>
@@ -8424,7 +8527,7 @@
         <v>320</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>826</v>
@@ -8498,7 +8601,7 @@
         <v>391</v>
       </c>
       <c r="B69" s="71" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C69" s="24" t="s">
         <v>113</v>
@@ -8618,7 +8721,7 @@
         <v>113</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>826</v>
@@ -8727,7 +8830,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="60">
+    <row r="81" spans="1:6" ht="45">
       <c r="A81" s="66" t="s">
         <v>351</v>
       </c>
@@ -8852,7 +8955,7 @@
         <v>425</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>427</v>
@@ -8925,7 +9028,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="4" customFormat="1" ht="42.75">
+    <row r="91" spans="1:6" s="4" customFormat="1" ht="32.25">
       <c r="A91" s="22" t="s">
         <v>264</v>
       </c>
@@ -9092,7 +9195,7 @@
         <v>113</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E99" s="13" t="s">
         <v>826</v>
@@ -9104,7 +9207,7 @@
         <v>464</v>
       </c>
       <c r="B100" s="76" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C100" s="24" t="s">
         <v>113</v>
@@ -9451,7 +9554,7 @@
     </row>
     <row r="120" spans="1:6" ht="27.75">
       <c r="A120" s="22" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B120" s="23" t="s">
         <v>833</v>
@@ -9478,7 +9581,7 @@
         <v>113</v>
       </c>
       <c r="D121" s="65" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="10"/>
@@ -9524,7 +9627,7 @@
         <v>136</v>
       </c>
       <c r="B124" s="41" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C124" s="30" t="s">
         <v>219</v>
@@ -9765,7 +9868,7 @@
     </row>
     <row r="138" spans="1:6" ht="105">
       <c r="A138" s="62" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="B138" s="81" t="s">
         <v>435</v>
@@ -9844,7 +9947,7 @@
         <v>113</v>
       </c>
       <c r="D142" s="68" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>826</v>
@@ -10110,7 +10213,7 @@
         <v>113</v>
       </c>
       <c r="D157" s="83" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>826</v>
@@ -10128,7 +10231,7 @@
         <v>113</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>826</v>
@@ -10316,7 +10419,7 @@
         <v>423</v>
       </c>
       <c r="B169" s="59" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C169" s="24" t="s">
         <v>113</v>
@@ -10577,7 +10680,7 @@
       </c>
       <c r="F183" s="10"/>
     </row>
-    <row r="184" spans="1:6" ht="40.5">
+    <row r="184" spans="1:6" ht="27.75">
       <c r="A184" s="40" t="s">
         <v>234</v>
       </c>
@@ -10593,7 +10696,7 @@
       </c>
       <c r="F184" s="10"/>
     </row>
-    <row r="185" spans="1:6" ht="60.75">
+    <row r="185" spans="1:6" ht="40.5">
       <c r="A185" s="40" t="s">
         <v>211</v>
       </c>
@@ -10616,13 +10719,13 @@
         <v>231</v>
       </c>
       <c r="B186" s="87" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C186" s="24" t="s">
         <v>219</v>
       </c>
       <c r="D186" s="37" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>826</v>
@@ -10676,7 +10779,7 @@
         <v>320</v>
       </c>
       <c r="D189" s="34" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>826</v>
@@ -10703,7 +10806,7 @@
     </row>
     <row r="191" spans="1:6" ht="30.75">
       <c r="A191" s="88" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="B191" s="67" t="s">
         <v>567</v>
@@ -10721,7 +10824,7 @@
     </row>
     <row r="192" spans="1:6" ht="67.5">
       <c r="A192" s="22" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="B192" s="45" t="s">
         <v>263</v>
@@ -10877,7 +10980,7 @@
       </c>
       <c r="F200" s="10"/>
     </row>
-    <row r="201" spans="1:6" ht="54">
+    <row r="201" spans="1:6" ht="45">
       <c r="A201" s="22" t="s">
         <v>502</v>
       </c>
@@ -10949,7 +11052,7 @@
       </c>
       <c r="F204" s="10"/>
     </row>
-    <row r="205" spans="1:6" ht="40.5">
+    <row r="205" spans="1:6" ht="35.25">
       <c r="A205" s="40" t="s">
         <v>31</v>
       </c>
@@ -10960,7 +11063,7 @@
         <v>320</v>
       </c>
       <c r="D205" s="34" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>826</v>
@@ -11077,7 +11180,7 @@
     </row>
     <row r="212" spans="1:6" ht="60">
       <c r="A212" s="60" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B212" s="36" t="s">
         <v>434</v>
@@ -11140,7 +11243,7 @@
         <v>113</v>
       </c>
       <c r="D215" s="26" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="E215" s="9" t="s">
         <v>826</v>
@@ -11183,7 +11286,7 @@
       </c>
       <c r="F217" s="10"/>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" ht="27.75">
       <c r="A218" s="22" t="s">
         <v>509</v>
       </c>
@@ -11201,7 +11304,7 @@
       </c>
       <c r="F218" s="10"/>
     </row>
-    <row r="219" spans="1:6" ht="60.75">
+    <row r="219" spans="1:6" ht="45">
       <c r="A219" s="40" t="s">
         <v>111</v>
       </c>
@@ -11415,7 +11518,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="60" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="B231" s="23" t="s">
         <v>462</v>
@@ -11454,7 +11557,7 @@
         <v>318</v>
       </c>
       <c r="B233" s="59" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="C233" s="24" t="s">
         <v>320</v>
@@ -11472,7 +11575,7 @@
         <v>203</v>
       </c>
       <c r="B234" s="41" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C234" s="30" t="s">
         <v>320</v>
@@ -11521,7 +11624,7 @@
       </c>
       <c r="F236" s="10"/>
     </row>
-    <row r="237" spans="1:6" ht="76.5">
+    <row r="237" spans="1:6" ht="51">
       <c r="A237" s="22" t="s">
         <v>491</v>
       </c>
@@ -11568,7 +11671,7 @@
         <v>320</v>
       </c>
       <c r="D239" s="34" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="E239" s="9" t="s">
         <v>826</v>
@@ -11616,7 +11719,7 @@
         <v>467</v>
       </c>
       <c r="B242" s="41" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C242" s="24" t="s">
         <v>113</v>
@@ -11640,7 +11743,7 @@
         <v>320</v>
       </c>
       <c r="D243" s="34" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="E243" s="9" t="s">
         <v>826</v>
@@ -11652,13 +11755,13 @@
         <v>319</v>
       </c>
       <c r="B244" s="95" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C244" s="24" t="s">
         <v>320</v>
       </c>
       <c r="D244" s="89" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>826</v>
@@ -11676,7 +11779,7 @@
         <v>320</v>
       </c>
       <c r="D245" s="34" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="E245" s="9" t="s">
         <v>826</v>
@@ -11757,7 +11860,7 @@
     </row>
     <row r="250" spans="1:6" ht="75">
       <c r="A250" s="64" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="B250" s="56" t="s">
         <v>392</v>
@@ -11845,7 +11948,7 @@
       </c>
       <c r="F254" s="10"/>
     </row>
-    <row r="255" spans="1:6" ht="40.5">
+    <row r="255" spans="1:6" ht="30">
       <c r="A255" s="40" t="s">
         <v>179</v>
       </c>
@@ -11917,7 +12020,7 @@
       </c>
       <c r="F258" s="10"/>
     </row>
-    <row r="259" spans="1:6" ht="40.5">
+    <row r="259" spans="1:6" ht="27.75">
       <c r="A259" s="40" t="s">
         <v>212</v>
       </c>
@@ -11942,7 +12045,7 @@
         <v>219</v>
       </c>
       <c r="D260" s="34" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="E260" s="9" t="s">
         <v>826</v>
@@ -11960,7 +12063,7 @@
         <v>320</v>
       </c>
       <c r="D261" s="34" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="E261" s="9" t="s">
         <v>826</v>
@@ -12012,7 +12115,7 @@
         <v>113</v>
       </c>
       <c r="D264" s="34" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="E264" s="9" t="s">
         <v>826</v>
@@ -12024,7 +12127,7 @@
         <v>160</v>
       </c>
       <c r="B265" s="41" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C265" s="30" t="s">
         <v>113</v>
@@ -12147,7 +12250,7 @@
     </row>
     <row r="272" spans="1:6" ht="42.75">
       <c r="A272" s="22" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B272" s="39" t="s">
         <v>852</v>
@@ -12271,7 +12374,7 @@
     </row>
     <row r="279" spans="1:6" ht="40.5">
       <c r="A279" s="40" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B279" s="41" t="s">
         <v>157</v>
@@ -12287,7 +12390,7 @@
       </c>
       <c r="F279" s="10"/>
     </row>
-    <row r="280" spans="1:6" ht="40.5">
+    <row r="280" spans="1:6" ht="27.75">
       <c r="A280" s="40" t="s">
         <v>102</v>
       </c>
@@ -12305,7 +12408,7 @@
       </c>
       <c r="F280" s="10"/>
     </row>
-    <row r="281" spans="1:6" ht="60.75">
+    <row r="281" spans="1:6" ht="40.5">
       <c r="A281" s="40" t="s">
         <v>155</v>
       </c>
@@ -12778,7 +12881,7 @@
         <v>782</v>
       </c>
       <c r="B307" s="103" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C307" s="24" t="s">
         <v>113</v>
@@ -13136,7 +13239,7 @@
       </c>
       <c r="C327" s="24"/>
       <c r="D327" s="103" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="E327" s="9" t="s">
         <v>826</v>
@@ -13372,7 +13475,7 @@
         <v>113</v>
       </c>
       <c r="D340" s="72" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="E340" s="9" t="s">
         <v>826</v>
@@ -13522,7 +13625,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="348" spans="1:6 16384:16384" ht="32.25">
+    <row r="348" spans="1:6 16384:16384" ht="31.5">
       <c r="A348" s="22" t="s">
         <v>928</v>
       </c>
@@ -13584,7 +13687,7 @@
     </row>
     <row r="351" spans="1:6 16384:16384" ht="120">
       <c r="A351" s="22" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="B351" s="106" t="s">
         <v>946</v>
@@ -13849,7 +13952,7 @@
       </c>
       <c r="C369" s="24"/>
       <c r="D369" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="E369" s="9"/>
       <c r="F369" s="10"/>
@@ -13866,7 +13969,7 @@
       <c r="E370" s="9"/>
       <c r="F370" s="10"/>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" ht="27.75">
       <c r="A371" s="22" t="s">
         <v>1105</v>
       </c>
@@ -13965,7 +14068,7 @@
       </c>
       <c r="C378" s="24"/>
       <c r="D378" s="111" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="E378" s="9"/>
       <c r="F378" s="10"/>
@@ -14449,7 +14552,7 @@
         <v>113</v>
       </c>
       <c r="D417" s="117" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="75">
@@ -14544,7 +14647,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="30">
+    <row r="425" spans="1:4">
       <c r="A425" s="2" t="s">
         <v>1194</v>
       </c>
@@ -14693,7 +14796,7 @@
         <v>1249</v>
       </c>
       <c r="B437" s="106" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="D437" s="117" t="s">
         <v>1250</v>
@@ -14747,7 +14850,7 @@
         <v>1262</v>
       </c>
       <c r="B443" s="120" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -14798,172 +14901,175 @@
         <v>1274</v>
       </c>
       <c r="B449" s="116" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D449" s="117" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="30">
       <c r="A450" s="2" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="B450" s="116" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D450" s="117" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="30">
       <c r="A451" s="2" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B451" s="116" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D451" s="117" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="30">
       <c r="A452" s="2" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="B452" s="116" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D452" s="117" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="45">
       <c r="A453" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B453" s="116" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D453" s="117" t="s">
-        <v>1297</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="30">
       <c r="A454" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B454" s="116" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D454" s="117" t="s">
         <v>1293</v>
-      </c>
-      <c r="B454" s="116" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D454" s="117" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="30">
       <c r="A455" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B455" s="116" t="s">
         <v>1289</v>
       </c>
-      <c r="B455" s="116" t="s">
-        <v>1291</v>
-      </c>
       <c r="C455" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D455" s="117" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="45">
       <c r="A456" s="2" t="s">
-        <v>1290</v>
+        <v>1285</v>
+      </c>
+      <c r="B456" s="116" t="s">
+        <v>1286</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D456" s="117" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" ht="45">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="30">
       <c r="A457" s="2" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B457" s="116" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D457" s="117" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="30">
       <c r="A458" s="2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B458" s="116" t="s">
-        <v>1284</v>
+        <v>1281</v>
+      </c>
+      <c r="B458" s="117" t="s">
+        <v>1280</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D458" s="117" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="45">
       <c r="A459" s="2" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B459" s="117" t="s">
-        <v>1281</v>
+        <v>1277</v>
+      </c>
+      <c r="B459" s="116" t="s">
+        <v>1278</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D459" s="117" t="s">
-        <v>1244</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="45">
       <c r="A460" s="2" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B460" s="116" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D460" s="117" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" ht="45">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="75">
       <c r="A461" s="2" t="s">
-        <v>1276</v>
+        <v>1308</v>
       </c>
       <c r="B461" s="116" t="s">
-        <v>1277</v>
+        <v>1309</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>113</v>
@@ -14974,91 +15080,91 @@
     </row>
     <row r="462" spans="1:4" ht="75">
       <c r="A462" s="2" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
       <c r="B462" s="116" t="s">
-        <v>1312</v>
+        <v>1323</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D462" s="117" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" ht="75">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="60">
       <c r="A463" s="2" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="B463" s="116" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D463" s="117" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="60">
       <c r="A464" s="2" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="B464" s="116" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D464" s="117" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" ht="60">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="75">
       <c r="A465" s="2" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="B465" s="116" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D465" s="117" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" ht="75">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="30">
       <c r="A466" s="2" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="B466" s="116" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D466" s="117" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="2" t="s">
-        <v>1314</v>
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="60">
+      <c r="A467" s="122" t="s">
+        <v>1400</v>
       </c>
       <c r="B467" s="116" t="s">
-        <v>1315</v>
+        <v>1401</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D467" s="117" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" ht="25.5">
-      <c r="A468" s="122" t="s">
-        <v>1403</v>
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="75">
+      <c r="A468" s="2" t="s">
+        <v>1402</v>
       </c>
       <c r="B468" s="116" t="s">
         <v>1404</v>
@@ -15067,203 +15173,343 @@
         <v>113</v>
       </c>
       <c r="D468" s="117" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" ht="75">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="60">
       <c r="A469" s="2" t="s">
         <v>1405</v>
       </c>
       <c r="B469" s="116" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D469" s="117" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="60">
       <c r="A470" s="2" t="s">
         <v>1408</v>
       </c>
       <c r="B470" s="116" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D470" s="117" t="s">
-        <v>1410</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="2" t="s">
-        <v>1413</v>
+        <v>1427</v>
       </c>
       <c r="B471" s="116" t="s">
-        <v>1412</v>
+        <v>1427</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D471" s="117" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="30">
       <c r="A472" s="2" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="B472" s="116" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D472" s="117" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" ht="30">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="60">
       <c r="A473" s="2" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="B473" s="116" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D473" s="117" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" ht="60">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
       <c r="A474" s="2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B474" s="116" t="s">
-        <v>1429</v>
+        <v>1422</v>
+      </c>
+      <c r="B474" s="118" t="s">
+        <v>1421</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D474" s="117" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B475" s="118" t="s">
-        <v>1426</v>
+        <v>1420</v>
+      </c>
+      <c r="B475" s="116" t="s">
+        <v>1418</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D475" s="117" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="30">
       <c r="A476" s="2" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="B476" s="116" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D476" s="117" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" ht="30">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
       <c r="A477" s="2" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="B477" s="116" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D477" s="117" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="75">
       <c r="A478" s="2" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="B478" s="116" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D478" s="117" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" ht="75">
-      <c r="A479" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B479" s="116" t="s">
-        <v>1415</v>
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="45">
+      <c r="A479" s="123" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B479" s="124" t="s">
+        <v>1438</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D479" s="117" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" ht="45">
-      <c r="A480" s="123" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="60">
+      <c r="A480" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B480" s="116" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D480" s="117" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="60">
+      <c r="A481" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B481" s="116" t="s">
         <v>1437</v>
       </c>
-      <c r="B480" s="124" t="s">
+      <c r="C481" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D481" s="117" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="30">
+      <c r="A482" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B482" s="116" t="s">
         <v>1444</v>
       </c>
-      <c r="C480" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D480" s="117" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
-      <c r="A481" s="2" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B481" s="116" t="s">
+      <c r="C482" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D482" s="117" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="30">
+      <c r="A483" s="2" t="s">
         <v>1441</v>
       </c>
-      <c r="C481" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D481" s="117" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4">
-      <c r="A482" s="2" t="s">
+      <c r="B483" s="116" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D483" s="117" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="60">
+      <c r="A484" s="2" t="s">
         <v>1442</v>
       </c>
-      <c r="B482" s="116" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D482" s="117" t="s">
-        <v>1440</v>
+      <c r="B484" s="116" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D484" s="117" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B485" s="116" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D485" s="117" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="60">
+      <c r="A486" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B486" s="116" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D486" s="117" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" ht="45">
+      <c r="A487" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B487" s="116" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D487" s="117" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="30">
+      <c r="A488" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B488" s="116" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D488" s="117" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" ht="30">
+      <c r="A489" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B489" s="116" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D489" s="116" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" ht="30">
+      <c r="A490" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B490" s="116" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D490" s="116" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="30">
+      <c r="A491" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B491" s="116" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D491" s="116" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="45">
+      <c r="A492" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B492" s="116" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D492" s="117" t="s">
+        <v>1480</v>
       </c>
     </row>
   </sheetData>

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361D6F52-CCA4-4911-ADEB-B61125B58674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A51C11-F5E5-4BB7-9480-86B15F3B619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="24225" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1487">
   <si>
     <t>NAS</t>
   </si>
@@ -5946,6 +5946,24 @@
   </si>
   <si>
     <t>*** is a special type of field-effect transistor (FET) where the transistor is thin relative to the plane of the device.[1] TFTs are grown on a supporting (but non-conducting) substrate.</t>
+  </si>
+  <si>
+    <t>rip</t>
+  </si>
+  <si>
+    <t>Open Shortest Path First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPF </t>
+  </si>
+  <si>
+    <t>Routing Information Protocol</t>
+  </si>
+  <si>
+    <t>*** is one of the oldest distance-vector routing protocols which employs the hop count as a routing metric. RIP prevents routing loops by implementing a limit on the number of hops allowed in a path from source to destination.</t>
+  </si>
+  <si>
+    <t>*** is a routing protocol for Internet Protocol networks. It uses a link state routing algorithm and falls into the group of interior gateway protocols, operating within a single autonomous system</t>
   </si>
 </sst>
 </file>
@@ -6990,8 +7008,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}" name="Table2" displayName="Table2" ref="A417:D492" totalsRowShown="0">
-  <autoFilter ref="A417:D492" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}" name="Table2" displayName="Table2" ref="A417:D494" totalsRowShown="0">
+  <autoFilter ref="A417:D494" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{41DA4D65-38BA-49BC-9E95-6B14FD163A96}" name="CMR" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{05ADCA5B-05F1-452E-8752-A1742DD16AB0}" name="Conventional Magnetic Recording" dataDxfId="2"/>
@@ -7265,10 +7283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD492"/>
+  <dimension ref="A1:XFD494"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A487" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C492" sqref="C492"/>
+      <selection activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
@@ -15022,7 +15040,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="30">
+    <row r="458" spans="1:4" ht="45">
       <c r="A458" s="2" t="s">
         <v>1281</v>
       </c>
@@ -15510,6 +15528,31 @@
       </c>
       <c r="D492" s="117" t="s">
         <v>1480</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" ht="60">
+      <c r="A493" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B493" s="116" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D493" s="117" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" ht="45">
+      <c r="A494" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B494" s="116" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D494" s="117" t="s">
+        <v>1486</v>
       </c>
     </row>
   </sheetData>

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A51C11-F5E5-4BB7-9480-86B15F3B619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D58A778-8DD7-418F-AACF-C87262557EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="24225" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="1489">
   <si>
     <t>NAS</t>
   </si>
@@ -5964,6 +5964,12 @@
   </si>
   <si>
     <t>*** is a routing protocol for Internet Protocol networks. It uses a link state routing algorithm and falls into the group of interior gateway protocols, operating within a single autonomous system</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> authentication authorization  accounting</t>
   </si>
 </sst>
 </file>
@@ -7008,8 +7014,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}" name="Table2" displayName="Table2" ref="A417:D494" totalsRowShown="0">
-  <autoFilter ref="A417:D494" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}" name="Table2" displayName="Table2" ref="A417:D495" totalsRowShown="0">
+  <autoFilter ref="A417:D495" xr:uid="{2C4AE21E-206B-451D-B363-9BDA04EDE6B7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{41DA4D65-38BA-49BC-9E95-6B14FD163A96}" name="CMR" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{05ADCA5B-05F1-452E-8752-A1742DD16AB0}" name="Conventional Magnetic Recording" dataDxfId="2"/>
@@ -7283,10 +7289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD494"/>
+  <dimension ref="A1:XFD495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D493" sqref="D493"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
@@ -15538,7 +15544,7 @@
         <v>1484</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>113</v>
+        <v>320</v>
       </c>
       <c r="D493" s="117" t="s">
         <v>1485</v>
@@ -15551,8 +15557,22 @@
       <c r="B494" s="116" t="s">
         <v>1482</v>
       </c>
+      <c r="C494" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="D494" s="117" t="s">
         <v>1486</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="30">
+      <c r="A495" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B495" s="116" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7652382F-1C3C-431D-A5B6-5D156C12B524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D371B31-5D53-4063-886D-7E884B479C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="24225" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="2850" windowWidth="24225" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="1506">
   <si>
     <t>NAS</t>
   </si>
@@ -5031,6 +5031,45 @@
   </si>
   <si>
     <t xml:space="preserve"> **** chips contain a software mask that is burned onto the chip during the design phase of the semiconductor manufacturing process.</t>
+  </si>
+  <si>
+    <t>IGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interior Gateway Protocol </t>
+  </si>
+  <si>
+    <t>werden Routingprotokolle bezeichnet, die innerhalb von autonomen Systemen eingesetzt werden (Intradomain-Routing).</t>
+  </si>
+  <si>
+    <t>OSPF</t>
+  </si>
+  <si>
+    <t>****  protocol is one of a family of IP Routing protocols, and is an Interior Gateway Protocol (IGP) for the Internet, used to distribute IP routing information throughout a single Autonomous System (AS) in an IP network.</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Autonomous System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interior Gateway Protocol</t>
+  </si>
+  <si>
+    <t>BGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Border Gateway Protocol </t>
+  </si>
+  <si>
+    <t>*** refers to a gateway protocol that enables the internet to exchange routing information between autonomous systems (AS). As networks interact with each other, they need a way to communicate. This is accomplished through peering. BGP makes peering possible.</t>
+  </si>
+  <si>
+    <t>***  is a dynamic route update protocol used between routers that run on TCP/IP hosts within a single autonomous system. The routers use this protocol to exchange information about IP routes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ** is a collection of connected Internet Protocol (IP) routing prefixes under the control of one or more network operators on behalf …</t>
   </si>
 </sst>
 </file>
@@ -5230,7 +5269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5279,26 +5318,19 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -5318,6 +5350,21 @@
         <vertAlign val="baseline"/>
         <color auto="1"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5390,18 +5437,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F476" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
-  <autoFilter ref="A1:F476" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F474">
-    <sortCondition ref="A1:A474"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F481" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
+  <autoFilter ref="A1:F481" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F475">
+    <sortCondition ref="A1:A475"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{38398A18-3893-4626-BEA7-125709198425}" name="abkürzung" dataDxfId="5" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{E64202E3-5BFC-49DB-8FB8-BA3F19BA422C}" name="means" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{CAD88F97-5D18-42FF-83DE-95F6F4A24513}" name="fach" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{3C2C066B-E107-40FE-BEBE-8959BFEC20C8}" name="Column1" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{CAD88F97-5D18-42FF-83DE-95F6F4A24513}" name="fach" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{3C2C066B-E107-40FE-BEBE-8959BFEC20C8}" name="Column1" dataDxfId="2" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{C7A3C583-19A7-4A7C-9842-10D39579E061}" name="img" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{01C19B2C-F0EA-4FDB-975F-A6864A17745E}" name="link" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{01C19B2C-F0EA-4FDB-975F-A6864A17745E}" name="link" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5670,10 +5717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD476"/>
+  <dimension ref="A1:XFD481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D272" sqref="D272"/>
+    <sheetView tabSelected="1" topLeftCell="A474" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D477" sqref="D477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
@@ -9545,7 +9592,7 @@
       </c>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:6" ht="33">
+    <row r="219" spans="1:6" customFormat="1" ht="33">
       <c r="A219" s="18" t="s">
         <v>467</v>
       </c>
@@ -9563,4385 +9610,4533 @@
       </c>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="18" t="s">
+    <row r="220" spans="1:6" customFormat="1">
+      <c r="A220" s="24" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B220" s="25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D220" s="27" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E220" s="26"/>
+      <c r="F220" s="26"/>
+    </row>
+    <row r="221" spans="1:6" customFormat="1">
+      <c r="A221" s="18" t="s">
         <v>1062</v>
       </c>
-      <c r="B220" s="17" t="s">
+      <c r="B221" s="17" t="s">
         <v>1063</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C221" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D220" s="20" t="s">
+      <c r="D221" s="20" t="s">
         <v>1477</v>
       </c>
-      <c r="F220" s="3"/>
-    </row>
-    <row r="221" spans="1:6" ht="45">
-      <c r="A221" s="18" t="s">
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+    </row>
+    <row r="222" spans="1:6" customFormat="1" ht="45">
+      <c r="A222" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="B221" s="17" t="s">
+      <c r="B222" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D221" s="20" t="s">
+      <c r="C222" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D222" s="20" t="s">
         <v>654</v>
       </c>
-      <c r="E221" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F221" s="3"/>
-    </row>
-    <row r="222" spans="1:6" ht="33.75">
-      <c r="A222" s="18" t="s">
+      <c r="E222" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F222" s="3"/>
+    </row>
+    <row r="223" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A223" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="B222" s="17" t="s">
+      <c r="B223" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="C222" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D222" s="20" t="s">
+      <c r="C223" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D223" s="20" t="s">
         <v>1478</v>
       </c>
-      <c r="E222" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F222" s="3"/>
-    </row>
-    <row r="223" spans="1:6" ht="33.75">
-      <c r="A223" s="23" t="s">
+      <c r="E223" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F223" s="3"/>
+    </row>
+    <row r="224" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A224" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B223" s="17" t="s">
+      <c r="B224" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C223" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D223" s="20" t="s">
+      <c r="C224" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D224" s="20" t="s">
         <v>1479</v>
       </c>
-      <c r="E223" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F223" s="3"/>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="18" t="s">
+      <c r="E224" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F224" s="3"/>
+    </row>
+    <row r="225" spans="1:6" customFormat="1">
+      <c r="A225" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B224" s="17" t="s">
+      <c r="B225" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C224" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D224" s="20" t="s">
+      <c r="C225" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D225" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="E224" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F224" s="3"/>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="18" t="s">
+      <c r="E225" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F225" s="3"/>
+    </row>
+    <row r="226" spans="1:6" customFormat="1">
+      <c r="A226" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B225" s="17" t="s">
+      <c r="B226" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C226" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D225" s="20" t="s">
+      <c r="D226" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="F225" s="3"/>
-    </row>
-    <row r="226" spans="1:6" ht="33.75">
-      <c r="A226" s="18" t="s">
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A227" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="B226" s="17" t="s">
+      <c r="B227" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C227" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D226" s="20" t="s">
+      <c r="D227" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="E226" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F226" s="3"/>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="18" t="s">
+      <c r="E227" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228" spans="1:6" customFormat="1">
+      <c r="A228" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B227" s="17" t="s">
+      <c r="B228" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="C227" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D227" s="20" t="s">
+      <c r="C228" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D228" s="20" t="s">
         <v>644</v>
       </c>
-      <c r="E227" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F227" s="3"/>
-    </row>
-    <row r="228" spans="1:6" ht="33.75">
-      <c r="A228" s="18" t="s">
+      <c r="E228" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A229" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B228" s="17" t="s">
+      <c r="B229" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C229" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D228" s="20" t="s">
+      <c r="D229" s="20" t="s">
         <v>1480</v>
       </c>
-      <c r="E228" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F228" s="3"/>
-    </row>
-    <row r="229" spans="1:6" ht="33.75">
-      <c r="A229" s="18" t="s">
+      <c r="E229" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A230" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="B229" s="17" t="s">
+      <c r="B230" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="C229" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D229" s="20" t="s">
+      <c r="C230" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D230" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="E229" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F229" s="3" t="s">
+      <c r="E230" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F230" s="3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="33.75">
-      <c r="A230" s="18" t="s">
+    <row r="231" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A231" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="B230" s="17" t="s">
+      <c r="B231" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="C230" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D230" s="20" t="s">
+      <c r="C231" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D231" s="20" t="s">
         <v>645</v>
       </c>
-      <c r="E230" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F230" s="3"/>
-    </row>
-    <row r="231" spans="1:6" ht="33.75">
-      <c r="A231" s="18" t="s">
+      <c r="E231" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A232" s="18" t="s">
         <v>1186</v>
       </c>
-      <c r="B231" s="17" t="s">
+      <c r="B232" s="17" t="s">
         <v>1481</v>
       </c>
-      <c r="C231" s="3"/>
-      <c r="D231" s="20" t="s">
+      <c r="C232" s="3"/>
+      <c r="D232" s="20" t="s">
         <v>1482</v>
       </c>
-      <c r="F231" s="3"/>
-    </row>
-    <row r="232" spans="1:6" ht="33">
-      <c r="A232" s="18" t="s">
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+    </row>
+    <row r="233" spans="1:6" customFormat="1" ht="33">
+      <c r="A233" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B232" s="17" t="s">
+      <c r="B233" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C233" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D232" s="20" t="s">
+      <c r="D233" s="20" t="s">
         <v>646</v>
       </c>
-      <c r="E232" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F232" s="3"/>
-    </row>
-    <row r="233" spans="1:6" ht="33.75">
-      <c r="A233" s="18" t="s">
+      <c r="E233" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A234" s="18" t="s">
         <v>1191</v>
       </c>
-      <c r="B233" s="17" t="s">
+      <c r="B234" s="17" t="s">
         <v>1192</v>
       </c>
-      <c r="C233" s="3"/>
-      <c r="D233" s="20" t="s">
+      <c r="C234" s="3"/>
+      <c r="D234" s="20" t="s">
         <v>1483</v>
       </c>
-      <c r="F233" s="3"/>
-    </row>
-    <row r="234" spans="1:6" ht="63">
-      <c r="A234" s="18" t="s">
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+    </row>
+    <row r="235" spans="1:6" customFormat="1" ht="63">
+      <c r="A235" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B234" s="17" t="s">
+      <c r="B235" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C234" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D234" s="20" t="s">
+      <c r="C235" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D235" s="20" t="s">
         <v>1484</v>
       </c>
-      <c r="E234" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F234" s="3"/>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="18" t="s">
+      <c r="E235" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F235" s="3"/>
+    </row>
+    <row r="236" spans="1:6" customFormat="1">
+      <c r="A236" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B235" s="17" t="s">
+      <c r="B236" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C236" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D235" s="20" t="s">
+      <c r="D236" s="20" t="s">
         <v>647</v>
       </c>
-      <c r="E235" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F235" s="3"/>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="18" t="s">
+      <c r="E236" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237" spans="1:6" customFormat="1">
+      <c r="A237" s="18" t="s">
         <v>1187</v>
       </c>
-      <c r="B236" s="17" t="s">
+      <c r="B237" s="17" t="s">
         <v>1188</v>
       </c>
-      <c r="C236" s="3"/>
-      <c r="D236" s="20"/>
-      <c r="F236" s="3"/>
-    </row>
-    <row r="237" spans="1:6" ht="33">
-      <c r="A237" s="18" t="s">
+      <c r="C237" s="3"/>
+      <c r="D237" s="20"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238" spans="1:6" customFormat="1" ht="33">
+      <c r="A238" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="B237" s="17" t="s">
+      <c r="B238" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="C237" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D237" s="20" t="s">
+      <c r="C238" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D238" s="20" t="s">
         <v>556</v>
       </c>
-      <c r="E237" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F237" s="3"/>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="18" t="s">
+      <c r="E238" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F238" s="3"/>
+    </row>
+    <row r="239" spans="1:6" customFormat="1">
+      <c r="A239" s="18" t="s">
         <v>1316</v>
       </c>
-      <c r="B238" s="17" t="s">
+      <c r="B239" s="17" t="s">
         <v>1317</v>
       </c>
-      <c r="C238" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D238" s="20" t="s">
+      <c r="C239" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D239" s="20" t="s">
         <v>1320</v>
       </c>
-      <c r="F238" s="3"/>
-    </row>
-    <row r="239" spans="1:6" ht="33.75">
-      <c r="A239" s="18" t="s">
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+    </row>
+    <row r="240" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A240" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B239" s="17" t="s">
+      <c r="B240" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C239" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D239" s="20" t="s">
+      <c r="C240" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D240" s="20" t="s">
         <v>648</v>
       </c>
-      <c r="E239" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F239" s="3"/>
-    </row>
-    <row r="240" spans="1:6" ht="33">
-      <c r="A240" s="18" t="s">
+      <c r="E240" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F240" s="3"/>
+    </row>
+    <row r="241" spans="1:6" customFormat="1" ht="33">
+      <c r="A241" s="18" t="s">
         <v>774</v>
       </c>
-      <c r="B240" s="17" t="s">
+      <c r="B241" s="17" t="s">
         <v>773</v>
       </c>
-      <c r="C240" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D240" s="20" t="s">
+      <c r="C241" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D241" s="20" t="s">
         <v>1485</v>
       </c>
-      <c r="E240" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F240" s="3"/>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="18" t="s">
+      <c r="E241" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F241" s="3"/>
+    </row>
+    <row r="242" spans="1:6" customFormat="1">
+      <c r="A242" s="18" t="s">
         <v>1078</v>
       </c>
-      <c r="B241" s="17" t="s">
+      <c r="B242" s="17" t="s">
         <v>1090</v>
       </c>
-      <c r="C241" s="3"/>
-      <c r="D241" s="20" t="s">
+      <c r="C242" s="3"/>
+      <c r="D242" s="20" t="s">
         <v>1091</v>
       </c>
-      <c r="F241" s="3"/>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242" s="18" t="s">
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+    </row>
+    <row r="243" spans="1:6" customFormat="1">
+      <c r="A243" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B242" s="17" t="s">
+      <c r="B243" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D242" s="20" t="s">
+      <c r="C243" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D243" s="20" t="s">
         <v>649</v>
       </c>
-      <c r="E242" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F242" s="3"/>
-    </row>
-    <row r="243" spans="1:6" ht="33.75">
-      <c r="A243" s="18" t="s">
+      <c r="E243" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F243" s="3"/>
+    </row>
+    <row r="244" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A244" s="18" t="s">
         <v>901</v>
       </c>
-      <c r="B243" s="17" t="s">
+      <c r="B244" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C244" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="D243" s="20" t="s">
+      <c r="D244" s="20" t="s">
         <v>1486</v>
       </c>
-      <c r="E243" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F243" s="3" t="s">
+      <c r="E244" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F244" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="33.75">
-      <c r="A244" s="18" t="s">
+    <row r="245" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A245" s="18" t="s">
         <v>1073</v>
       </c>
-      <c r="B244" s="17" t="s">
+      <c r="B245" s="17" t="s">
         <v>1073</v>
       </c>
-      <c r="C244" s="3"/>
-      <c r="D244" s="20" t="s">
+      <c r="C245" s="3"/>
+      <c r="D245" s="20" t="s">
         <v>1346</v>
       </c>
-      <c r="F244" s="3"/>
-    </row>
-    <row r="245" spans="1:6" ht="45">
-      <c r="A245" s="18" t="s">
+      <c r="E245" s="3"/>
+      <c r="F245" s="3"/>
+    </row>
+    <row r="246" spans="1:6" customFormat="1" ht="45">
+      <c r="A246" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="B245" s="17" t="s">
+      <c r="B246" s="17" t="s">
         <v>815</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C246" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="D245" s="20" t="s">
+      <c r="D246" s="20" t="s">
         <v>1487</v>
       </c>
-      <c r="E245" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F245" s="3"/>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" s="18" t="s">
+      <c r="E246" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F246" s="3"/>
+    </row>
+    <row r="247" spans="1:6" customFormat="1">
+      <c r="A247" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="B246" s="17" t="s">
+      <c r="B247" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C247" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D246" s="20" t="s">
+      <c r="D247" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="E246" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F246" s="3"/>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="18" t="s">
+      <c r="E247" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F247" s="3"/>
+    </row>
+    <row r="248" spans="1:6" customFormat="1">
+      <c r="A248" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B247" s="17" t="s">
+      <c r="B248" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C248" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D247" s="20" t="s">
+      <c r="D248" s="20" t="s">
         <v>650</v>
       </c>
-      <c r="E247" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F247" s="3"/>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="18" t="s">
+      <c r="E248" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F248" s="3"/>
+    </row>
+    <row r="249" spans="1:6" customFormat="1">
+      <c r="A249" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="B248" s="17" t="s">
+      <c r="B249" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="C248" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D248" s="20" t="s">
+      <c r="C249" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D249" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="E248" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F248" s="3"/>
-    </row>
-    <row r="249" spans="1:6" ht="33.75">
-      <c r="A249" s="18" t="s">
+      <c r="E249" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F249" s="3"/>
+    </row>
+    <row r="250" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A250" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="B249" s="17" t="s">
+      <c r="B250" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C249" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D249" s="20" t="s">
+      <c r="C250" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D250" s="20" t="s">
         <v>1488</v>
       </c>
-      <c r="E249" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F249" s="3"/>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250" s="18" t="s">
+      <c r="E250" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" spans="1:6" customFormat="1">
+      <c r="A251" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="B250" s="17" t="s">
+      <c r="B251" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D250" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F250" s="3"/>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="B251" s="17" t="s">
-        <v>208</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>651</v>
+        <v>289</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>803</v>
       </c>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" customFormat="1">
       <c r="A252" s="18" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="B252" s="17" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D252" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253" spans="1:6" customFormat="1">
+      <c r="A253" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B253" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D253" s="20" t="s">
         <v>825</v>
       </c>
-      <c r="E252" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F252" s="3"/>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253" s="18" t="s">
+      <c r="E253" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F253" s="3"/>
+    </row>
+    <row r="254" spans="1:6" customFormat="1">
+      <c r="A254" s="18" t="s">
         <v>1198</v>
       </c>
-      <c r="B253" s="17" t="s">
+      <c r="B254" s="17" t="s">
         <v>1199</v>
       </c>
-      <c r="C253" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D253" s="20" t="s">
+      <c r="C254" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D254" s="20" t="s">
         <v>1230</v>
       </c>
-      <c r="F253" s="3"/>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254" s="18" t="s">
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+    </row>
+    <row r="255" spans="1:6" customFormat="1">
+      <c r="A255" s="18" t="s">
         <v>1208</v>
       </c>
-      <c r="B254" s="17" t="s">
+      <c r="B255" s="17" t="s">
         <v>1209</v>
       </c>
-      <c r="C254" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D254" s="20" t="s">
+      <c r="C255" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D255" s="20" t="s">
         <v>1210</v>
       </c>
-      <c r="F254" s="3"/>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255" s="18" t="s">
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+    </row>
+    <row r="256" spans="1:6" customFormat="1">
+      <c r="A256" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B255" s="17" t="s">
+      <c r="B256" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C256" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D255" s="20" t="s">
+      <c r="D256" s="20" t="s">
         <v>652</v>
       </c>
-      <c r="E255" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F255" s="3"/>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" s="18" t="s">
+      <c r="E256" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F256" s="3"/>
+    </row>
+    <row r="257" spans="1:6" customFormat="1">
+      <c r="A257" s="18" t="s">
         <v>885</v>
       </c>
-      <c r="B256" s="17" t="s">
+      <c r="B257" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="C256" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D256" s="20" t="s">
+      <c r="C257" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D257" s="20" t="s">
         <v>922</v>
       </c>
-      <c r="E256" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F256" s="3" t="s">
+      <c r="E257" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F257" s="3" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="33.75">
-      <c r="A257" s="18" t="s">
+    <row r="258" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A258" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="B257" s="17" t="s">
+      <c r="B258" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C258" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D257" s="20" t="s">
+      <c r="D258" s="20" t="s">
         <v>1489</v>
       </c>
-      <c r="E257" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F257" s="3"/>
-    </row>
-    <row r="258" spans="1:6" ht="33">
-      <c r="A258" s="18" t="s">
+      <c r="E258" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259" spans="1:6" customFormat="1" ht="33">
+      <c r="A259" s="18" t="s">
         <v>1143</v>
       </c>
-      <c r="B258" s="17" t="s">
+      <c r="B259" s="17" t="s">
         <v>1166</v>
       </c>
-      <c r="C258" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D258" s="20" t="s">
+      <c r="C259" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D259" s="20" t="s">
         <v>1490</v>
       </c>
-      <c r="F258" s="3"/>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="18" t="s">
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+    </row>
+    <row r="260" spans="1:6" customFormat="1">
+      <c r="A260" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B259" s="17" t="s">
+      <c r="B260" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C259" s="3"/>
-      <c r="D259" s="20"/>
-      <c r="E259" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F259" s="3"/>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260" s="18" t="s">
+      <c r="C260" s="3"/>
+      <c r="D260" s="20"/>
+      <c r="E260" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F260" s="3"/>
+    </row>
+    <row r="261" spans="1:6" customFormat="1">
+      <c r="A261" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B260" s="17" t="s">
+      <c r="B261" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C260" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D260" s="20" t="s">
+      <c r="C261" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D261" s="20" t="s">
         <v>653</v>
       </c>
-      <c r="E260" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F260" s="3"/>
-    </row>
-    <row r="261" spans="1:6" ht="56.25">
-      <c r="A261" s="18" t="s">
+      <c r="E261" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F261" s="3"/>
+    </row>
+    <row r="262" spans="1:6" customFormat="1" ht="56.25">
+      <c r="A262" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="B261" s="17" t="s">
+      <c r="B262" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="C261" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D261" s="20" t="s">
+      <c r="C262" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D262" s="20" t="s">
         <v>655</v>
       </c>
-      <c r="E261" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F261" s="3"/>
-    </row>
-    <row r="262" spans="1:6" ht="56.25">
-      <c r="A262" s="18" t="s">
+      <c r="E262" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F262" s="3"/>
+    </row>
+    <row r="263" spans="1:6" customFormat="1" ht="56.25">
+      <c r="A263" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="B262" s="17" t="s">
+      <c r="B263" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C262" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D262" s="20" t="s">
+      <c r="C263" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D263" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="E262" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F262" s="3"/>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263" s="18" t="s">
+      <c r="E263" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F263" s="3"/>
+    </row>
+    <row r="264" spans="1:6" customFormat="1">
+      <c r="A264" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="B263" s="17" t="s">
+      <c r="B264" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="C263" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D263" s="20" t="s">
+      <c r="C264" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D264" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="E263" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F263" s="3"/>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264" s="18" t="s">
+      <c r="E264" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265" spans="1:6" customFormat="1">
+      <c r="A265" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B264" s="17" t="s">
+      <c r="B265" s="17" t="s">
         <v>1366</v>
       </c>
-      <c r="C264" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D264" s="20" t="s">
+      <c r="C265" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D265" s="20" t="s">
         <v>658</v>
       </c>
-      <c r="E264" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F264" s="3"/>
-    </row>
-    <row r="265" spans="1:6" ht="33">
-      <c r="A265" s="18" t="s">
+      <c r="E265" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F265" s="3"/>
+    </row>
+    <row r="266" spans="1:6" customFormat="1" ht="33">
+      <c r="A266" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="B265" s="17" t="s">
+      <c r="B266" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C266" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D265" s="20" t="s">
+      <c r="D266" s="20" t="s">
         <v>659</v>
       </c>
-      <c r="E265" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F265" s="3"/>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="A266" s="18" t="s">
+      <c r="E266" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F266" s="3"/>
+    </row>
+    <row r="267" spans="1:6" customFormat="1">
+      <c r="A267" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="B266" s="17" t="s">
+      <c r="B267" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="C266" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D266" s="20" t="s">
+      <c r="C267" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D267" s="20" t="s">
         <v>660</v>
       </c>
-      <c r="E266" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F266" s="3"/>
-    </row>
-    <row r="267" spans="1:6" s="6" customFormat="1">
-      <c r="A267" s="18" t="s">
+      <c r="E267" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268" spans="1:6" s="6" customFormat="1">
+      <c r="A268" s="18" t="s">
         <v>1288</v>
       </c>
-      <c r="B267" s="17" t="s">
+      <c r="B268" s="17" t="s">
         <v>1289</v>
       </c>
-      <c r="C267" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D267" s="20" t="s">
+      <c r="C268" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D268" s="20" t="s">
         <v>1303</v>
       </c>
-      <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
-    </row>
-    <row r="268" spans="1:6">
-      <c r="A268" s="18" t="s">
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+    </row>
+    <row r="269" spans="1:6" customFormat="1">
+      <c r="A269" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="B268" s="17" t="s">
+      <c r="B269" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="C268" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D268" s="20" t="s">
+      <c r="C269" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D269" s="20" t="s">
         <v>661</v>
       </c>
-      <c r="E268" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F268" s="3"/>
-    </row>
-    <row r="269" spans="1:6" ht="48">
-      <c r="A269" s="18" t="s">
+      <c r="E269" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F269" s="3"/>
+    </row>
+    <row r="270" spans="1:6" customFormat="1" ht="48">
+      <c r="A270" s="18" t="s">
         <v>760</v>
       </c>
-      <c r="B269" s="17" t="s">
+      <c r="B270" s="17" t="s">
         <v>772</v>
       </c>
-      <c r="C269" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D269" s="20" t="s">
+      <c r="C270" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D270" s="20" t="s">
         <v>1491</v>
       </c>
-      <c r="E269" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F269" s="3"/>
-    </row>
-    <row r="270" spans="1:6" ht="33.75">
-      <c r="A270" s="18" t="s">
+      <c r="E270" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A271" s="18" t="s">
         <v>1255</v>
       </c>
-      <c r="B270" s="17" t="s">
+      <c r="B271" s="17" t="s">
         <v>1256</v>
       </c>
-      <c r="C270" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D270" s="20" t="s">
+      <c r="C271" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D271" s="20" t="s">
         <v>1306</v>
       </c>
-      <c r="F270" s="3"/>
-    </row>
-    <row r="271" spans="1:6" ht="33.75">
-      <c r="A271" s="18" t="s">
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+    </row>
+    <row r="272" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A272" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="B271" s="17" t="s">
+      <c r="B272" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="C271" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D271" s="20" t="s">
+      <c r="C272" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D272" s="20" t="s">
         <v>662</v>
       </c>
-      <c r="E271" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F271" s="3"/>
-    </row>
-    <row r="272" spans="1:6" ht="33">
-      <c r="A272" s="18" t="s">
+      <c r="E272" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273" spans="1:6" customFormat="1" ht="33">
+      <c r="A273" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="B272" s="17" t="s">
+      <c r="B273" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="C272" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D272" s="20" t="s">
+      <c r="C273" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D273" s="20" t="s">
         <v>663</v>
       </c>
-      <c r="E272" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F272" s="3"/>
-    </row>
-    <row r="273" spans="1:6">
-      <c r="A273" s="18" t="s">
+      <c r="E273" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F273" s="3"/>
+    </row>
+    <row r="274" spans="1:6" customFormat="1">
+      <c r="A274" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="B273" s="17" t="s">
+      <c r="B274" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="C273" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D273" s="20" t="s">
+      <c r="C274" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D274" s="20" t="s">
         <v>1492</v>
       </c>
-      <c r="F273" s="3"/>
-    </row>
-    <row r="274" spans="1:6">
-      <c r="A274" s="18" t="s">
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275" spans="1:6" customFormat="1">
+      <c r="A275" s="18" t="s">
         <v>1204</v>
       </c>
-      <c r="B274" s="17" t="s">
+      <c r="B275" s="17" t="s">
         <v>1203</v>
       </c>
-      <c r="C274" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D274" s="20" t="s">
+      <c r="C275" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D275" s="20" t="s">
         <v>1308</v>
       </c>
-      <c r="F274" s="3"/>
-    </row>
-    <row r="275" spans="1:6">
-      <c r="A275" s="18" t="s">
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+    </row>
+    <row r="276" spans="1:6" customFormat="1">
+      <c r="A276" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B275" s="17" t="s">
+      <c r="B276" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C275" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D275" s="20" t="s">
+      <c r="C276" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D276" s="20" t="s">
         <v>664</v>
       </c>
-      <c r="E275" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F275" s="3"/>
-    </row>
-    <row r="276" spans="1:6">
-      <c r="A276" s="18" t="s">
+      <c r="E276" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F276" s="3"/>
+    </row>
+    <row r="277" spans="1:6" customFormat="1">
+      <c r="A277" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="B276" s="17" t="s">
+      <c r="B277" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C277" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D276" s="20" t="s">
+      <c r="D277" s="20" t="s">
         <v>665</v>
       </c>
-      <c r="E276" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F276" s="3"/>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="A277" s="18" t="s">
+      <c r="E277" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F277" s="3"/>
+    </row>
+    <row r="278" spans="1:6" customFormat="1">
+      <c r="A278" s="18" t="s">
         <v>1157</v>
       </c>
-      <c r="B277" s="17" t="s">
+      <c r="B278" s="17" t="s">
         <v>1146</v>
       </c>
-      <c r="C277" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D277" s="20"/>
-      <c r="F277" s="3"/>
-    </row>
-    <row r="278" spans="1:6" ht="33.75">
-      <c r="A278" s="18" t="s">
+      <c r="C278" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D278" s="20"/>
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+    </row>
+    <row r="279" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A279" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B278" s="17" t="s">
+      <c r="B279" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C279" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D278" s="20" t="s">
+      <c r="D279" s="20" t="s">
         <v>666</v>
       </c>
-      <c r="E278" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F278" s="3"/>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279" s="18" t="s">
+      <c r="E279" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F279" s="3"/>
+    </row>
+    <row r="280" spans="1:6" customFormat="1">
+      <c r="A280" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B279" s="17" t="s">
+      <c r="B280" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C279" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D279" s="20" t="s">
+      <c r="C280" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D280" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="E279" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F279" s="3"/>
-    </row>
-    <row r="280" spans="1:6">
-      <c r="A280" s="18" t="s">
+      <c r="E280" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F280" s="3"/>
+    </row>
+    <row r="281" spans="1:6" customFormat="1">
+      <c r="A281" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B280" s="17" t="s">
+      <c r="B281" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C280" s="3"/>
-      <c r="D280" s="20" t="s">
+      <c r="C281" s="3"/>
+      <c r="D281" s="20" t="s">
         <v>668</v>
       </c>
-      <c r="E280" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F280" s="3"/>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="18" t="s">
+      <c r="E281" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F281" s="3"/>
+    </row>
+    <row r="282" spans="1:6" customFormat="1">
+      <c r="A282" s="18" t="s">
         <v>1150</v>
       </c>
-      <c r="B281" s="17" t="s">
+      <c r="B282" s="17" t="s">
         <v>1151</v>
       </c>
-      <c r="C281" s="3"/>
-      <c r="D281" s="20"/>
-      <c r="F281" s="3"/>
-    </row>
-    <row r="282" spans="1:6" ht="56.25">
-      <c r="A282" s="18" t="s">
+      <c r="C282" s="3"/>
+      <c r="D282" s="20"/>
+      <c r="E282" s="3"/>
+      <c r="F282" s="3"/>
+    </row>
+    <row r="283" spans="1:6" customFormat="1" ht="56.25">
+      <c r="A283" s="18" t="s">
         <v>1367</v>
       </c>
-      <c r="B282" s="17" t="s">
+      <c r="B283" s="17" t="s">
         <v>915</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C283" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D282" s="20" t="s">
+      <c r="D283" s="20" t="s">
         <v>916</v>
       </c>
-      <c r="E282" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F282" s="3" t="s">
+      <c r="E283" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F283" s="3" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="33">
-      <c r="A283" s="18" t="s">
+    <row r="284" spans="1:6" customFormat="1" ht="33">
+      <c r="A284" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="B283" s="17" t="s">
+      <c r="B284" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D283" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F283" s="3"/>
-    </row>
-    <row r="284" spans="1:6" ht="33.75">
-      <c r="A284" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B284" s="17" t="s">
-        <v>150</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D284" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F284" s="3"/>
+    </row>
+    <row r="285" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A285" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B285" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D285" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="E284" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F284" s="3"/>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="A285" s="18" t="s">
+      <c r="E285" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F285" s="3"/>
+    </row>
+    <row r="286" spans="1:6" customFormat="1">
+      <c r="A286" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="B285" s="17" t="s">
+      <c r="B286" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D285" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="E285" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F285" s="3"/>
-    </row>
-    <row r="286" spans="1:6" ht="33.75">
-      <c r="A286" s="18" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B286" s="17" t="s">
-        <v>1149</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>317</v>
       </c>
       <c r="D286" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F286" s="3"/>
+    </row>
+    <row r="287" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A287" s="18" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B287" s="17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D287" s="20" t="s">
         <v>1147</v>
       </c>
-      <c r="F286" s="3"/>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287" s="18" t="s">
+      <c r="E287" s="3"/>
+      <c r="F287" s="3"/>
+    </row>
+    <row r="288" spans="1:6" customFormat="1">
+      <c r="A288" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B287" s="17" t="s">
+      <c r="B288" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C287" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D287" s="20"/>
-      <c r="E287" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F287" s="3"/>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288" s="18" t="s">
+      <c r="C288" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D288" s="20"/>
+      <c r="E288" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F288" s="3"/>
+    </row>
+    <row r="289" spans="1:6" customFormat="1">
+      <c r="A289" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="B288" s="17" t="s">
+      <c r="B289" s="17" t="s">
         <v>216</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D288" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="E288" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F288" s="3"/>
-    </row>
-    <row r="289" spans="1:6" ht="33">
-      <c r="A289" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B289" s="17" t="s">
-        <v>1368</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D289" s="20" t="s">
-        <v>1448</v>
+        <v>290</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>803</v>
       </c>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="1:6" ht="33">
+    <row r="290" spans="1:6" customFormat="1" ht="33">
       <c r="A290" s="18" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="B290" s="17" t="s">
-        <v>292</v>
+        <v>1368</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D290" s="20" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F290" s="3"/>
+    </row>
+    <row r="291" spans="1:6" customFormat="1" ht="33">
+      <c r="A291" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D291" s="20" t="s">
         <v>672</v>
       </c>
-      <c r="E290" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F290" s="3"/>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291" s="18" t="s">
+      <c r="E291" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F291" s="3"/>
+    </row>
+    <row r="292" spans="1:6" customFormat="1">
+      <c r="A292" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B291" s="17" t="s">
+      <c r="B292" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C291" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D291" s="20" t="s">
+      <c r="C292" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D292" s="20" t="s">
         <v>674</v>
       </c>
-      <c r="E291" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F291" s="3"/>
-    </row>
-    <row r="292" spans="1:6">
-      <c r="A292" s="18" t="s">
+      <c r="E292" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F292" s="3"/>
+    </row>
+    <row r="293" spans="1:6" customFormat="1">
+      <c r="A293" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B292" s="17" t="s">
+      <c r="B293" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C293" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D292" s="20" t="s">
+      <c r="D293" s="20" t="s">
         <v>1449</v>
       </c>
-      <c r="E292" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F292" s="3"/>
-    </row>
-    <row r="293" spans="1:6" ht="33">
-      <c r="A293" s="18" t="s">
+      <c r="E293" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F293" s="3"/>
+    </row>
+    <row r="294" spans="1:6" customFormat="1" ht="33">
+      <c r="A294" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="B293" s="17" t="s">
+      <c r="B294" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="C293" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D293" s="20" t="s">
+      <c r="C294" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D294" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="E293" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F293" s="3"/>
-    </row>
-    <row r="294" spans="1:6">
-      <c r="A294" s="18" t="s">
+      <c r="E294" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F294" s="3"/>
+    </row>
+    <row r="295" spans="1:6" customFormat="1">
+      <c r="A295" s="18" t="s">
         <v>1280</v>
       </c>
-      <c r="B294" s="17" t="s">
+      <c r="B295" s="17" t="s">
         <v>1279</v>
       </c>
-      <c r="C294" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D294" s="20" t="s">
+      <c r="C295" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D295" s="20" t="s">
         <v>1281</v>
       </c>
-      <c r="F294" s="3"/>
-    </row>
-    <row r="295" spans="1:6">
-      <c r="A295" s="18" t="s">
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+    </row>
+    <row r="296" spans="1:6" customFormat="1">
+      <c r="A296" s="18" t="s">
         <v>1369</v>
       </c>
-      <c r="B295" s="17" t="s">
+      <c r="B296" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C295" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D295" s="20" t="s">
+      <c r="C296" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D296" s="20" t="s">
         <v>675</v>
       </c>
-      <c r="E295" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F295" s="3"/>
-    </row>
-    <row r="296" spans="1:6" ht="33.75">
-      <c r="A296" s="18" t="s">
+      <c r="E296" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F296" s="3"/>
+    </row>
+    <row r="297" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A297" s="18" t="s">
         <v>1370</v>
       </c>
-      <c r="B296" s="17" t="s">
+      <c r="B297" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C297" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D296" s="20" t="s">
+      <c r="D297" s="20" t="s">
         <v>676</v>
       </c>
-      <c r="E296" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F296" s="3"/>
-    </row>
-    <row r="297" spans="1:6" ht="33.75">
-      <c r="A297" s="18" t="s">
+      <c r="E297" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F297" s="3"/>
+    </row>
+    <row r="298" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A298" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="B297" s="17" t="s">
+      <c r="B298" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C298" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D297" s="20" t="s">
+      <c r="D298" s="20" t="s">
         <v>677</v>
       </c>
-      <c r="E297" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F297" s="3"/>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="A298" s="18" t="s">
+      <c r="E298" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F298" s="3"/>
+    </row>
+    <row r="299" spans="1:6" customFormat="1">
+      <c r="A299" s="18" t="s">
         <v>1027</v>
       </c>
-      <c r="B298" s="17" t="s">
+      <c r="B299" s="17" t="s">
         <v>1028</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C299" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="D298" s="20" t="s">
+      <c r="D299" s="20" t="s">
         <v>1030</v>
       </c>
-      <c r="F298" s="3"/>
-    </row>
-    <row r="299" spans="1:6">
-      <c r="A299" s="18" t="s">
+      <c r="E299" s="3"/>
+      <c r="F299" s="3"/>
+    </row>
+    <row r="300" spans="1:6" customFormat="1">
+      <c r="A300" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="B299" s="17" t="s">
+      <c r="B300" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="C299" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D299" s="20" t="s">
+      <c r="C300" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D300" s="20" t="s">
         <v>678</v>
       </c>
-      <c r="E299" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F299" s="3"/>
-    </row>
-    <row r="300" spans="1:6" ht="33.75">
-      <c r="A300" s="18" t="s">
+      <c r="E300" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F300" s="3"/>
+    </row>
+    <row r="301" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A301" s="18" t="s">
         <v>1264</v>
       </c>
-      <c r="B300" s="17" t="s">
+      <c r="B301" s="17" t="s">
         <v>1265</v>
       </c>
-      <c r="C300" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D300" s="20" t="s">
+      <c r="C301" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D301" s="20" t="s">
         <v>1266</v>
       </c>
-      <c r="F300" s="3"/>
-    </row>
-    <row r="301" spans="1:6" ht="33.75">
-      <c r="A301" s="18" t="s">
+      <c r="E301" s="3"/>
+      <c r="F301" s="3"/>
+    </row>
+    <row r="302" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A302" s="18" t="s">
         <v>1257</v>
       </c>
-      <c r="B301" s="17" t="s">
+      <c r="B302" s="17" t="s">
         <v>1259</v>
       </c>
-      <c r="C301" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D301" s="20" t="s">
+      <c r="C302" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D302" s="20" t="s">
         <v>1258</v>
       </c>
-      <c r="F301" s="3"/>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302" s="18" t="s">
+      <c r="E302" s="3"/>
+      <c r="F302" s="3"/>
+    </row>
+    <row r="303" spans="1:6" customFormat="1">
+      <c r="A303" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B302" s="17" t="s">
+      <c r="B303" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D302" s="20" t="s">
-        <v>679</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F302" s="3"/>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="A303" s="18" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B303" s="17" t="s">
-        <v>1335</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>317</v>
       </c>
       <c r="D303" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F303" s="3"/>
+    </row>
+    <row r="304" spans="1:6" customFormat="1">
+      <c r="A304" s="18" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B304" s="17" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D304" s="20" t="s">
         <v>1339</v>
       </c>
-      <c r="F303" s="3"/>
-    </row>
-    <row r="304" spans="1:6">
-      <c r="A304" s="18" t="s">
+      <c r="E304" s="3"/>
+      <c r="F304" s="3"/>
+    </row>
+    <row r="305" spans="1:6" customFormat="1">
+      <c r="A305" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="B304" s="17"/>
-      <c r="C304" s="3" t="s">
+      <c r="B305" s="17"/>
+      <c r="C305" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D304" s="20"/>
-      <c r="F304" s="3"/>
-    </row>
-    <row r="305" spans="1:6">
-      <c r="A305" s="18" t="s">
+      <c r="D305" s="20"/>
+      <c r="E305" s="3"/>
+      <c r="F305" s="3"/>
+    </row>
+    <row r="306" spans="1:6" customFormat="1">
+      <c r="A306" s="18" t="s">
         <v>1268</v>
       </c>
-      <c r="B305" s="17" t="s">
+      <c r="B306" s="17" t="s">
         <v>1267</v>
       </c>
-      <c r="C305" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D305" s="20" t="s">
+      <c r="C306" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D306" s="20" t="s">
         <v>1269</v>
       </c>
-      <c r="F305" s="3"/>
-    </row>
-    <row r="306" spans="1:6" ht="33">
-      <c r="A306" s="18" t="s">
+      <c r="E306" s="3"/>
+      <c r="F306" s="3"/>
+    </row>
+    <row r="307" spans="1:6" customFormat="1" ht="33">
+      <c r="A307" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="B306" s="17" t="s">
+      <c r="B307" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C307" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D306" s="20" t="s">
+      <c r="D307" s="20" t="s">
         <v>680</v>
       </c>
-      <c r="E306" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F306" s="3" t="s">
+      <c r="E307" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F307" s="3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
-      <c r="A307" s="18" t="s">
+    <row r="308" spans="1:6" customFormat="1">
+      <c r="A308" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="B307" s="17" t="s">
+      <c r="B308" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="C307" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D307" s="20" t="s">
+      <c r="C308" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D308" s="20" t="s">
         <v>681</v>
       </c>
-      <c r="E307" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F307" s="3"/>
-    </row>
-    <row r="308" spans="1:6">
-      <c r="A308" s="18" t="s">
+      <c r="E308" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F308" s="3"/>
+    </row>
+    <row r="309" spans="1:6" customFormat="1">
+      <c r="A309" s="18" t="s">
         <v>1277</v>
       </c>
-      <c r="B308" s="17" t="s">
+      <c r="B309" s="17" t="s">
         <v>1276</v>
       </c>
-      <c r="C308" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D308" s="20" t="s">
+      <c r="C309" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D309" s="20" t="s">
         <v>1278</v>
       </c>
-      <c r="F308" s="3"/>
-    </row>
-    <row r="309" spans="1:6" ht="33">
-      <c r="A309" s="18" t="s">
+      <c r="E309" s="3"/>
+      <c r="F309" s="3"/>
+    </row>
+    <row r="310" spans="1:6" customFormat="1" ht="33">
+      <c r="A310" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="B309" s="17" t="s">
+      <c r="B310" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="C309" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D309" s="20" t="s">
+      <c r="C310" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D310" s="20" t="s">
         <v>682</v>
       </c>
-      <c r="E309" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F309" s="3"/>
-    </row>
-    <row r="310" spans="1:6" ht="33">
-      <c r="A310" s="18" t="s">
+      <c r="E310" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F310" s="3"/>
+    </row>
+    <row r="311" spans="1:6" customFormat="1" ht="33">
+      <c r="A311" s="18" t="s">
         <v>1171</v>
       </c>
-      <c r="B310" s="17" t="s">
+      <c r="B311" s="17" t="s">
         <v>1172</v>
       </c>
-      <c r="C310" s="3"/>
-      <c r="D310" s="20" t="s">
+      <c r="C311" s="3"/>
+      <c r="D311" s="20" t="s">
         <v>1167</v>
       </c>
-      <c r="F310" s="3"/>
-    </row>
-    <row r="311" spans="1:6">
-      <c r="A311" s="18" t="s">
+      <c r="E311" s="3"/>
+      <c r="F311" s="3"/>
+    </row>
+    <row r="312" spans="1:6" customFormat="1">
+      <c r="A312" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="B311" s="17" t="s">
+      <c r="B312" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="C311" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D311" s="20" t="s">
+      <c r="C312" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D312" s="20" t="s">
         <v>683</v>
       </c>
-      <c r="E311" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F311" s="3"/>
-    </row>
-    <row r="312" spans="1:6" ht="33">
-      <c r="A312" s="18" t="s">
+      <c r="E312" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F312" s="3"/>
+    </row>
+    <row r="313" spans="1:6" customFormat="1" ht="33">
+      <c r="A313" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="B312" s="17" t="s">
+      <c r="B313" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="C312" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D312" s="20" t="s">
+      <c r="C313" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D313" s="20" t="s">
         <v>684</v>
       </c>
-      <c r="E312" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F312" s="3"/>
-    </row>
-    <row r="313" spans="1:6">
-      <c r="A313" s="18" t="s">
+      <c r="E313" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F313" s="3"/>
+    </row>
+    <row r="314" spans="1:6" customFormat="1">
+      <c r="A314" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="B313" s="17" t="s">
+      <c r="B314" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C314" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D313" s="20" t="s">
+      <c r="D314" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="E313" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F313" s="3"/>
-    </row>
-    <row r="314" spans="1:6" ht="33.75">
-      <c r="A314" s="18" t="s">
+      <c r="E314" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F314" s="3"/>
+    </row>
+    <row r="315" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A315" s="18" t="s">
         <v>1263</v>
       </c>
-      <c r="B314" s="17" t="s">
+      <c r="B315" s="17" t="s">
         <v>1262</v>
       </c>
-      <c r="C314" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D314" s="20" t="s">
+      <c r="C315" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D315" s="20" t="s">
         <v>1304</v>
       </c>
-      <c r="F314" s="3"/>
-    </row>
-    <row r="315" spans="1:6">
-      <c r="A315" s="18" t="s">
+      <c r="E315" s="3"/>
+      <c r="F315" s="3"/>
+    </row>
+    <row r="316" spans="1:6" customFormat="1">
+      <c r="A316" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="B315" s="17" t="s">
+      <c r="B316" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="C315" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D315" s="20" t="s">
+      <c r="C316" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D316" s="20" t="s">
         <v>685</v>
       </c>
-      <c r="E315" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F315" s="3"/>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="A316" s="18" t="s">
+      <c r="E316" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F316" s="3"/>
+    </row>
+    <row r="317" spans="1:6" customFormat="1">
+      <c r="A317" s="18" t="s">
         <v>1371</v>
       </c>
-      <c r="B316" s="17" t="s">
+      <c r="B317" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="C316" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D316" s="20" t="s">
+      <c r="C317" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D317" s="20" t="s">
         <v>751</v>
       </c>
-      <c r="E316" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F316" s="3"/>
-    </row>
-    <row r="317" spans="1:6" ht="33.75">
-      <c r="A317" s="18" t="s">
+      <c r="E317" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F317" s="3"/>
+    </row>
+    <row r="318" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A318" s="18" t="s">
         <v>1154</v>
       </c>
-      <c r="B317" s="17" t="s">
+      <c r="B318" s="17" t="s">
         <v>1153</v>
       </c>
-      <c r="C317" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D317" s="20" t="s">
+      <c r="C318" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D318" s="20" t="s">
         <v>1152</v>
       </c>
-      <c r="F317" s="3"/>
-    </row>
-    <row r="318" spans="1:6" ht="33.75">
-      <c r="A318" s="18" t="s">
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
+    </row>
+    <row r="319" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A319" s="18" t="s">
         <v>1295</v>
       </c>
-      <c r="B318" s="17" t="s">
+      <c r="B319" s="17" t="s">
         <v>1300</v>
       </c>
-      <c r="C318" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D318" s="20" t="s">
+      <c r="C319" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D319" s="20" t="s">
         <v>1301</v>
       </c>
-      <c r="F318" s="3"/>
-    </row>
-    <row r="319" spans="1:6" ht="112.5">
-      <c r="A319" s="18" t="s">
+      <c r="E319" s="3"/>
+      <c r="F319" s="3"/>
+    </row>
+    <row r="320" spans="1:6" customFormat="1" ht="112.5">
+      <c r="A320" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B319" s="17" t="s">
+      <c r="B320" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C320" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D319" s="20" t="s">
+      <c r="D320" s="20" t="s">
         <v>686</v>
       </c>
-      <c r="E319" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F319" s="3"/>
-    </row>
-    <row r="320" spans="1:6" ht="33">
-      <c r="A320" s="18" t="s">
+      <c r="E320" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F320" s="3"/>
+    </row>
+    <row r="321" spans="1:6 16384:16384" customFormat="1" ht="33">
+      <c r="A321" s="18" t="s">
         <v>807</v>
       </c>
-      <c r="B320" s="17" t="s">
+      <c r="B321" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C321" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D320" s="20" t="s">
+      <c r="D321" s="20" t="s">
         <v>854</v>
       </c>
-      <c r="E320" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F320" s="3"/>
-    </row>
-    <row r="321" spans="1:6 16384:16384">
-      <c r="A321" s="18" t="s">
+      <c r="E321" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F321" s="3"/>
+    </row>
+    <row r="322" spans="1:6 16384:16384" customFormat="1">
+      <c r="A322" s="18" t="s">
         <v>1065</v>
       </c>
-      <c r="B321" s="17"/>
-      <c r="C321" s="3"/>
-      <c r="D321" s="20" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F321" s="3"/>
-    </row>
-    <row r="322" spans="1:6 16384:16384" ht="78.75">
-      <c r="A322" s="18" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B322" s="17" t="s">
-        <v>1067</v>
-      </c>
+      <c r="B322" s="17"/>
       <c r="C322" s="3"/>
       <c r="D322" s="20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E322" s="3"/>
+      <c r="F322" s="3"/>
+    </row>
+    <row r="323" spans="1:6 16384:16384" customFormat="1" ht="78.75">
+      <c r="A323" s="18" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B323" s="17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C323" s="3"/>
+      <c r="D323" s="20" t="s">
         <v>1068</v>
       </c>
-      <c r="F322" s="3"/>
-    </row>
-    <row r="323" spans="1:6 16384:16384">
-      <c r="A323" s="18" t="s">
+      <c r="E323" s="3"/>
+      <c r="F323" s="3"/>
+    </row>
+    <row r="324" spans="1:6 16384:16384" customFormat="1">
+      <c r="A324" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B323" s="17" t="s">
+      <c r="B324" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C324" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D323" s="20" t="s">
+      <c r="D324" s="20" t="s">
         <v>1450</v>
       </c>
-      <c r="E323" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F323" s="3"/>
-    </row>
-    <row r="324" spans="1:6 16384:16384">
-      <c r="A324" s="18" t="s">
+      <c r="E324" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F324" s="3"/>
+    </row>
+    <row r="325" spans="1:6 16384:16384" customFormat="1">
+      <c r="A325" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="B324" s="17" t="s">
+      <c r="B325" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C324" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D324" s="20" t="s">
+      <c r="C325" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D325" s="20" t="s">
         <v>687</v>
       </c>
-      <c r="E324" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F324" s="3"/>
-    </row>
-    <row r="325" spans="1:6 16384:16384">
-      <c r="A325" s="18" t="s">
+      <c r="E325" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F325" s="3"/>
+    </row>
+    <row r="326" spans="1:6 16384:16384" customFormat="1">
+      <c r="A326" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="B325" s="17" t="s">
+      <c r="B326" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C326" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D325" s="20" t="s">
+      <c r="D326" s="20" t="s">
         <v>688</v>
       </c>
-      <c r="E325" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F325" s="3"/>
-    </row>
-    <row r="326" spans="1:6 16384:16384">
-      <c r="A326" s="18" t="s">
+      <c r="E326" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F326" s="3"/>
+    </row>
+    <row r="327" spans="1:6 16384:16384" customFormat="1">
+      <c r="A327" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B326" s="17" t="s">
+      <c r="B327" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C327" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D326" s="20" t="s">
+      <c r="D327" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E326" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F326" s="3"/>
-    </row>
-    <row r="327" spans="1:6 16384:16384" ht="33">
-      <c r="A327" s="18" t="s">
+      <c r="E327" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328" spans="1:6 16384:16384" customFormat="1" ht="33">
+      <c r="A328" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="B327" s="17" t="s">
+      <c r="B328" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="C327" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D327" s="20" t="s">
+      <c r="C328" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D328" s="20" t="s">
         <v>689</v>
       </c>
-      <c r="E327" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F327" s="3"/>
-    </row>
-    <row r="328" spans="1:6 16384:16384" ht="33">
-      <c r="A328" s="18" t="s">
+      <c r="E328" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F328" s="3"/>
+    </row>
+    <row r="329" spans="1:6 16384:16384" customFormat="1" ht="33">
+      <c r="A329" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B328" s="17" t="s">
+      <c r="B329" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C328" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D328" s="20" t="s">
+      <c r="C329" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D329" s="20" t="s">
         <v>690</v>
       </c>
-      <c r="E328" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F328" s="3"/>
-    </row>
-    <row r="329" spans="1:6 16384:16384">
-      <c r="A329" s="18" t="s">
+      <c r="E329" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F329" s="3"/>
+    </row>
+    <row r="330" spans="1:6 16384:16384" customFormat="1">
+      <c r="A330" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="B329" s="17" t="s">
+      <c r="B330" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C330" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D329" s="20" t="s">
+      <c r="D330" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="E329" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F329" s="3"/>
-    </row>
-    <row r="330" spans="1:6 16384:16384">
-      <c r="A330" s="18" t="s">
+      <c r="E330" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F330" s="3"/>
+    </row>
+    <row r="331" spans="1:6 16384:16384" customFormat="1">
+      <c r="A331" s="18" t="s">
         <v>1283</v>
       </c>
-      <c r="B330" s="17" t="s">
+      <c r="B331" s="17" t="s">
         <v>1284</v>
       </c>
-      <c r="C330" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D330" s="20" t="s">
+      <c r="C331" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D331" s="20" t="s">
         <v>1285</v>
       </c>
-      <c r="F330" s="3"/>
-    </row>
-    <row r="331" spans="1:6 16384:16384">
-      <c r="A331" s="18" t="s">
+      <c r="E331" s="3"/>
+      <c r="F331" s="3"/>
+    </row>
+    <row r="332" spans="1:6 16384:16384" customFormat="1">
+      <c r="A332" s="18" t="s">
         <v>1225</v>
       </c>
-      <c r="B331" s="17" t="s">
+      <c r="B332" s="17" t="s">
         <v>1226</v>
       </c>
-      <c r="C331" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D331" s="20" t="s">
+      <c r="C332" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D332" s="20" t="s">
         <v>1227</v>
       </c>
-      <c r="F331" s="3"/>
-    </row>
-    <row r="332" spans="1:6 16384:16384" ht="33.75">
-      <c r="A332" s="18" t="s">
+      <c r="E332" s="3"/>
+      <c r="F332" s="3"/>
+    </row>
+    <row r="333" spans="1:6 16384:16384" customFormat="1" ht="33.75">
+      <c r="A333" s="18" t="s">
         <v>1372</v>
       </c>
-      <c r="B332" s="17" t="s">
+      <c r="B333" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C333" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D332" s="20" t="s">
+      <c r="D333" s="20" t="s">
         <v>692</v>
       </c>
-      <c r="E332" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F332" s="3"/>
-    </row>
-    <row r="333" spans="1:6 16384:16384" ht="48">
-      <c r="A333" s="18" t="s">
+      <c r="E333" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F333" s="3"/>
+    </row>
+    <row r="334" spans="1:6 16384:16384" customFormat="1" ht="48">
+      <c r="A334" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="B333" s="17" t="s">
+      <c r="B334" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C333" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D333" s="20" t="s">
+      <c r="C334" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D334" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="E333" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F333" s="3"/>
-    </row>
-    <row r="334" spans="1:6 16384:16384">
-      <c r="A334" s="18" t="s">
+      <c r="E334" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F334" s="3"/>
+    </row>
+    <row r="335" spans="1:6 16384:16384" customFormat="1">
+      <c r="A335" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B334" s="17" t="s">
+      <c r="B335" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C334" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D334" s="20" t="s">
+      <c r="C335" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D335" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="E334" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F334" s="3"/>
-    </row>
-    <row r="335" spans="1:6 16384:16384" ht="33.75">
-      <c r="A335" s="18" t="s">
+      <c r="E335" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F335" s="3"/>
+    </row>
+    <row r="336" spans="1:6 16384:16384" customFormat="1" ht="33.75">
+      <c r="A336" s="18" t="s">
         <v>860</v>
       </c>
-      <c r="B335" s="17" t="s">
+      <c r="B336" s="17" t="s">
         <v>861</v>
       </c>
-      <c r="C335" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D335" s="20" t="s">
+      <c r="C336" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D336" s="20" t="s">
         <v>862</v>
       </c>
-      <c r="E335" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F335" s="3" t="s">
+      <c r="E336" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F336" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="XFD335" s="5"/>
-    </row>
-    <row r="336" spans="1:6 16384:16384">
-      <c r="A336" s="18" t="s">
+      <c r="XFD336" s="5"/>
+    </row>
+    <row r="337" spans="1:6" customFormat="1">
+      <c r="A337" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="B336" s="17" t="s">
+      <c r="B337" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="C336" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D336" s="20" t="s">
+      <c r="C337" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D337" s="20" t="s">
         <v>1451</v>
       </c>
-      <c r="E336" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F336" s="3"/>
-    </row>
-    <row r="337" spans="1:6">
-      <c r="A337" s="18" t="s">
+      <c r="E337" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F337" s="3"/>
+    </row>
+    <row r="338" spans="1:6" customFormat="1">
+      <c r="A338" s="18" t="s">
         <v>887</v>
       </c>
-      <c r="B337" s="17" t="s">
+      <c r="B338" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="C337" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D337" s="20" t="s">
+      <c r="C338" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D338" s="20" t="s">
         <v>924</v>
       </c>
-      <c r="E337" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F337" s="3" t="s">
+      <c r="E338" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F338" s="3" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
-      <c r="A338" s="18" t="s">
+    <row r="339" spans="1:6" customFormat="1">
+      <c r="A339" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="B338" s="17" t="s">
+      <c r="B339" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="C338" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D338" s="20" t="s">
+      <c r="C339" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D339" s="20" t="s">
         <v>695</v>
       </c>
-      <c r="E338" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F338" s="3"/>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="A339" s="18" t="s">
+      <c r="E339" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F339" s="3"/>
+    </row>
+    <row r="340" spans="1:6" customFormat="1">
+      <c r="A340" s="18" t="s">
         <v>1061</v>
       </c>
-      <c r="B339" s="17" t="s">
+      <c r="B340" s="17" t="s">
         <v>1060</v>
       </c>
-      <c r="C339" s="3"/>
-      <c r="D339" s="20"/>
-      <c r="F339" s="3"/>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="A340" s="18" t="s">
+      <c r="C340" s="3"/>
+      <c r="D340" s="20"/>
+      <c r="E340" s="3"/>
+      <c r="F340" s="3"/>
+    </row>
+    <row r="341" spans="1:6" customFormat="1">
+      <c r="A341" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B340" s="17" t="s">
+      <c r="B341" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="C341" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D340" s="20" t="s">
+      <c r="D341" s="20" t="s">
         <v>696</v>
       </c>
-      <c r="E340" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F340" s="3"/>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="A341" s="18" t="s">
+      <c r="E341" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F341" s="3"/>
+    </row>
+    <row r="342" spans="1:6" customFormat="1">
+      <c r="A342" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="B341" s="17" t="s">
+      <c r="B342" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="C341" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D341" s="20" t="s">
+      <c r="C342" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D342" s="20" t="s">
         <v>697</v>
       </c>
-      <c r="E341" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F341" s="3"/>
-    </row>
-    <row r="342" spans="1:6" ht="33.75">
-      <c r="A342" s="18" t="s">
+      <c r="E342" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F342" s="3"/>
+    </row>
+    <row r="343" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A343" s="18" t="s">
         <v>1334</v>
       </c>
-      <c r="B342" s="17" t="s">
+      <c r="B343" s="17" t="s">
         <v>1337</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="C343" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D342" s="20" t="s">
+      <c r="D343" s="20" t="s">
         <v>1338</v>
       </c>
-      <c r="F342" s="3"/>
-    </row>
-    <row r="343" spans="1:6" ht="33">
-      <c r="A343" s="18" t="s">
+      <c r="E343" s="3"/>
+      <c r="F343" s="3"/>
+    </row>
+    <row r="344" spans="1:6" customFormat="1" ht="33">
+      <c r="A344" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B343" s="17" t="s">
+      <c r="B344" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C343" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D343" s="20" t="s">
+      <c r="C344" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D344" s="20" t="s">
         <v>698</v>
       </c>
-      <c r="E343" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F343" s="3"/>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="A344" s="18" t="s">
+      <c r="E344" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F344" s="3"/>
+    </row>
+    <row r="345" spans="1:6" customFormat="1">
+      <c r="A345" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="B344" s="17" t="s">
+      <c r="B345" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C345" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D344" s="20" t="s">
+      <c r="D345" s="20" t="s">
         <v>699</v>
       </c>
-      <c r="E344" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F344" s="3"/>
-    </row>
-    <row r="345" spans="1:6">
-      <c r="A345" s="18" t="s">
+      <c r="E345" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F345" s="3"/>
+    </row>
+    <row r="346" spans="1:6" customFormat="1">
+      <c r="A346" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B345" s="17" t="s">
+      <c r="B346" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C345" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D345" s="20" t="s">
+      <c r="C346" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D346" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="E345" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F345" s="3"/>
-    </row>
-    <row r="346" spans="1:6" ht="33">
-      <c r="A346" s="18" t="s">
+      <c r="E346" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F346" s="3"/>
+    </row>
+    <row r="347" spans="1:6" customFormat="1" ht="33">
+      <c r="A347" s="18" t="s">
         <v>869</v>
       </c>
-      <c r="B346" s="17" t="s">
+      <c r="B347" s="17" t="s">
         <v>910</v>
       </c>
-      <c r="C346" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D346" s="20" t="s">
+      <c r="C347" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D347" s="20" t="s">
         <v>1254</v>
       </c>
-      <c r="E346" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F346" s="3" t="s">
+      <c r="E347" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F347" s="3" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
-      <c r="A347" s="18" t="s">
+    <row r="348" spans="1:6" customFormat="1">
+      <c r="A348" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B347" s="17" t="s">
+      <c r="B348" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C347" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D347" s="20" t="s">
+      <c r="C348" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D348" s="20" t="s">
         <v>701</v>
       </c>
-      <c r="E347" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F347" s="3"/>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="A348" s="18" t="s">
+      <c r="E348" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F348" s="3"/>
+    </row>
+    <row r="349" spans="1:6" customFormat="1">
+      <c r="A349" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="B348" s="17" t="s">
+      <c r="B349" s="17" t="s">
         <v>821</v>
       </c>
-      <c r="C348" s="3"/>
-      <c r="D348" s="20" t="s">
+      <c r="C349" s="3"/>
+      <c r="D349" s="20" t="s">
         <v>1373</v>
       </c>
-      <c r="E348" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F348" s="3"/>
-    </row>
-    <row r="349" spans="1:6" ht="33.75">
-      <c r="A349" s="18" t="s">
+      <c r="E349" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F349" s="3"/>
+    </row>
+    <row r="350" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A350" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="B349" s="17" t="s">
+      <c r="B350" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="C349" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D349" s="20" t="s">
+      <c r="C350" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D350" s="20" t="s">
         <v>702</v>
       </c>
-      <c r="E349" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F349" s="3"/>
-    </row>
-    <row r="350" spans="1:6" ht="33">
-      <c r="A350" s="18" t="s">
+      <c r="E350" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F350" s="3"/>
+    </row>
+    <row r="351" spans="1:6" customFormat="1" ht="33">
+      <c r="A351" s="18" t="s">
         <v>1160</v>
       </c>
-      <c r="B350" s="17" t="s">
+      <c r="B351" s="17" t="s">
         <v>1161</v>
       </c>
-      <c r="C350" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D350" s="20" t="s">
+      <c r="C351" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D351" s="20" t="s">
         <v>1162</v>
       </c>
-      <c r="F350" s="3"/>
-    </row>
-    <row r="351" spans="1:6">
-      <c r="A351" s="18" t="s">
+      <c r="E351" s="3"/>
+      <c r="F351" s="3"/>
+    </row>
+    <row r="352" spans="1:6" customFormat="1">
+      <c r="A352" s="18" t="s">
         <v>826</v>
       </c>
-      <c r="B351" s="17" t="s">
+      <c r="B352" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="C351" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D351" s="20" t="s">
+      <c r="C352" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D352" s="20" t="s">
         <v>703</v>
       </c>
-      <c r="E351" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F351" s="3"/>
-    </row>
-    <row r="352" spans="1:6">
-      <c r="A352" s="18" t="s">
+      <c r="E352" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F352" s="3"/>
+    </row>
+    <row r="353" spans="1:6" customFormat="1">
+      <c r="A353" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="B352" s="17" t="s">
+      <c r="B353" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C352" s="3" t="s">
+      <c r="C353" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D352" s="20" t="s">
+      <c r="D353" s="20" t="s">
         <v>704</v>
       </c>
-      <c r="E352" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F352" s="3"/>
-    </row>
-    <row r="353" spans="1:6">
-      <c r="A353" s="18" t="s">
+      <c r="E353" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F353" s="3"/>
+    </row>
+    <row r="354" spans="1:6" customFormat="1">
+      <c r="A354" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="B353" s="17" t="s">
+      <c r="B354" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="C354" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D353" s="20"/>
-      <c r="E353" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F353" s="3"/>
-    </row>
-    <row r="354" spans="1:6">
-      <c r="A354" s="18" t="s">
+      <c r="D354" s="20"/>
+      <c r="E354" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F354" s="3"/>
+    </row>
+    <row r="355" spans="1:6" customFormat="1">
+      <c r="A355" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="B354" s="17" t="s">
+      <c r="B355" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="C354" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D354" s="20" t="s">
+      <c r="C355" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D355" s="20" t="s">
         <v>705</v>
       </c>
-      <c r="E354" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F354" s="3"/>
-    </row>
-    <row r="355" spans="1:6" ht="33">
-      <c r="A355" s="18" t="s">
+      <c r="E355" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F355" s="3"/>
+    </row>
+    <row r="356" spans="1:6" customFormat="1" ht="33">
+      <c r="A356" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="B355" s="17" t="s">
+      <c r="B356" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="C355" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D355" s="20" t="s">
+      <c r="C356" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D356" s="20" t="s">
         <v>706</v>
       </c>
-      <c r="E355" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F355" s="3"/>
-    </row>
-    <row r="356" spans="1:6">
-      <c r="A356" s="18" t="s">
+      <c r="E356" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F356" s="3"/>
+    </row>
+    <row r="357" spans="1:6" customFormat="1">
+      <c r="A357" s="18" t="s">
         <v>1270</v>
       </c>
-      <c r="B356" s="17" t="s">
+      <c r="B357" s="17" t="s">
         <v>1271</v>
       </c>
-      <c r="C356" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D356" s="20" t="s">
+      <c r="C357" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D357" s="20" t="s">
         <v>1272</v>
       </c>
-      <c r="F356" s="3"/>
-    </row>
-    <row r="357" spans="1:6" ht="33.75">
-      <c r="A357" s="18" t="s">
+      <c r="E357" s="3"/>
+      <c r="F357" s="3"/>
+    </row>
+    <row r="358" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A358" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B357" s="17" t="s">
+      <c r="B358" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C357" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D357" s="20" t="s">
+      <c r="C358" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D358" s="20" t="s">
         <v>707</v>
       </c>
-      <c r="E357" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F357" s="3"/>
-    </row>
-    <row r="358" spans="1:6" ht="33">
-      <c r="A358" s="18" t="s">
+      <c r="E358" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F358" s="3"/>
+    </row>
+    <row r="359" spans="1:6" customFormat="1" ht="33">
+      <c r="A359" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="B358" s="17" t="s">
+      <c r="B359" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="C358" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D358" s="20"/>
-      <c r="E358" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F358" s="3"/>
-    </row>
-    <row r="359" spans="1:6" ht="33">
-      <c r="A359" s="18" t="s">
+      <c r="C359" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D359" s="20"/>
+      <c r="E359" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F359" s="3"/>
+    </row>
+    <row r="360" spans="1:6" customFormat="1" ht="33">
+      <c r="A360" s="18" t="s">
         <v>1374</v>
       </c>
-      <c r="B359" s="17" t="s">
+      <c r="B360" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="C359" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D359" s="20" t="s">
+      <c r="C360" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D360" s="20" t="s">
         <v>708</v>
       </c>
-      <c r="E359" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F359" s="3"/>
-    </row>
-    <row r="360" spans="1:6" ht="33.75">
-      <c r="A360" s="18" t="s">
+      <c r="E360" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F360" s="3"/>
+    </row>
+    <row r="361" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A361" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="B360" s="17" t="s">
+      <c r="B361" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="C361" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D360" s="20" t="s">
+      <c r="D361" s="20" t="s">
         <v>709</v>
       </c>
-      <c r="E360" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F360" s="3"/>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="A361" s="18" t="s">
+      <c r="E361" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F361" s="3"/>
+    </row>
+    <row r="362" spans="1:6" customFormat="1">
+      <c r="A362" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="B361" s="17" t="s">
+      <c r="B362" s="17" t="s">
         <v>1375</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D361" s="20" t="s">
-        <v>713</v>
-      </c>
-      <c r="E361" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F361" s="3"/>
-    </row>
-    <row r="362" spans="1:6">
-      <c r="A362" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B362" s="17" t="s">
-        <v>1376</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>317</v>
       </c>
       <c r="D362" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F362" s="3"/>
+    </row>
+    <row r="363" spans="1:6" customFormat="1">
+      <c r="A363" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B363" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D363" s="20" t="s">
         <v>710</v>
       </c>
-      <c r="E362" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F362" s="3"/>
-    </row>
-    <row r="363" spans="1:6">
-      <c r="A363" s="18" t="s">
+      <c r="E363" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F363" s="3"/>
+    </row>
+    <row r="364" spans="1:6" customFormat="1">
+      <c r="A364" s="18" t="s">
         <v>1088</v>
       </c>
-      <c r="B363" s="17" t="s">
+      <c r="B364" s="17" t="s">
         <v>1089</v>
       </c>
-      <c r="C363" s="3"/>
-      <c r="D363" s="20" t="s">
+      <c r="C364" s="3"/>
+      <c r="D364" s="20" t="s">
         <v>1093</v>
       </c>
-      <c r="F363" s="3"/>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="A364" s="18" t="s">
+      <c r="E364" s="3"/>
+      <c r="F364" s="3"/>
+    </row>
+    <row r="365" spans="1:6" customFormat="1">
+      <c r="A365" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="B364" s="17" t="s">
+      <c r="B365" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="C364" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D364" s="20" t="s">
+      <c r="C365" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D365" s="20" t="s">
         <v>711</v>
       </c>
-      <c r="E364" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F364" s="3"/>
-    </row>
-    <row r="365" spans="1:6" ht="33.75">
-      <c r="A365" s="18" t="s">
+      <c r="E365" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F365" s="3"/>
+    </row>
+    <row r="366" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A366" s="18" t="s">
         <v>712</v>
       </c>
-      <c r="B365" s="17" t="s">
+      <c r="B366" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="C365" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D365" s="20" t="s">
+      <c r="C366" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D366" s="20" t="s">
         <v>714</v>
       </c>
-      <c r="E365" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F365" s="3"/>
-    </row>
-    <row r="366" spans="1:6">
-      <c r="A366" s="18" t="s">
+      <c r="E366" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F366" s="3"/>
+    </row>
+    <row r="367" spans="1:6" customFormat="1">
+      <c r="A367" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="B366" s="17" t="s">
+      <c r="B367" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="C366" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D366" s="20" t="s">
+      <c r="C367" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D367" s="20" t="s">
         <v>715</v>
       </c>
-      <c r="E366" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F366" s="3"/>
-    </row>
-    <row r="367" spans="1:6">
-      <c r="A367" s="18" t="s">
+      <c r="E367" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F367" s="3"/>
+    </row>
+    <row r="368" spans="1:6" customFormat="1">
+      <c r="A368" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B367" s="17" t="s">
+      <c r="B368" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="C368" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D367" s="20" t="s">
+      <c r="D368" s="20" t="s">
         <v>716</v>
       </c>
-      <c r="E367" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F367" s="3"/>
-    </row>
-    <row r="368" spans="1:6" ht="33.75">
-      <c r="A368" s="18" t="s">
+      <c r="E368" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F368" s="3"/>
+    </row>
+    <row r="369" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A369" s="18" t="s">
         <v>1290</v>
       </c>
-      <c r="B368" s="17" t="s">
+      <c r="B369" s="17" t="s">
         <v>1291</v>
       </c>
-      <c r="C368" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D368" s="20" t="s">
+      <c r="C369" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D369" s="20" t="s">
         <v>1302</v>
       </c>
-      <c r="F368" s="3"/>
-    </row>
-    <row r="369" spans="1:6">
-      <c r="A369" s="18" t="s">
+      <c r="E369" s="3"/>
+      <c r="F369" s="3"/>
+    </row>
+    <row r="370" spans="1:6" customFormat="1">
+      <c r="A370" s="18" t="s">
         <v>866</v>
       </c>
-      <c r="B369" s="17" t="s">
+      <c r="B370" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="C369" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D369" s="20" t="s">
+      <c r="C370" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D370" s="20" t="s">
         <v>912</v>
       </c>
-      <c r="E369" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F369" s="3" t="s">
+      <c r="E370" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F370" s="3" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
-      <c r="A370" s="18" t="s">
+    <row r="371" spans="1:6" customFormat="1">
+      <c r="A371" s="18" t="s">
         <v>1214</v>
       </c>
-      <c r="B370" s="17" t="s">
+      <c r="B371" s="17" t="s">
         <v>1215</v>
       </c>
-      <c r="C370" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D370" s="20" t="s">
+      <c r="C371" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D371" s="20" t="s">
         <v>1216</v>
       </c>
-      <c r="F370" s="3"/>
-    </row>
-    <row r="371" spans="1:6" ht="33.75">
-      <c r="A371" s="18" t="s">
-        <v>903</v>
-      </c>
-      <c r="B371" s="17" t="s">
-        <v>904</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="D371" s="20" t="s">
-        <v>929</v>
-      </c>
-      <c r="E371" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F371" s="3" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" ht="33">
+      <c r="E371" s="3"/>
+      <c r="F371" s="3"/>
+    </row>
+    <row r="372" spans="1:6" customFormat="1" ht="33.75">
       <c r="A372" s="18" t="s">
         <v>903</v>
       </c>
       <c r="B372" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="D372" s="20" t="s">
+        <v>929</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" customFormat="1" ht="33">
+      <c r="A373" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="B373" s="17" t="s">
         <v>1139</v>
       </c>
-      <c r="C372" s="3"/>
-      <c r="D372" s="20" t="s">
+      <c r="C373" s="3"/>
+      <c r="D373" s="20" t="s">
         <v>1452</v>
       </c>
-      <c r="F372" s="3"/>
-    </row>
-    <row r="373" spans="1:6" ht="33.75">
-      <c r="A373" s="18" t="s">
+      <c r="E373" s="3"/>
+      <c r="F373" s="3"/>
+    </row>
+    <row r="374" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A374" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B373" s="17" t="s">
+      <c r="B374" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="C374" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D373" s="20" t="s">
+      <c r="D374" s="20" t="s">
         <v>1453</v>
       </c>
-      <c r="E373" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F373" s="3"/>
-    </row>
-    <row r="374" spans="1:6">
-      <c r="A374" s="18" t="s">
+      <c r="E374" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F374" s="3"/>
+    </row>
+    <row r="375" spans="1:6" customFormat="1">
+      <c r="A375" s="18" t="s">
         <v>717</v>
       </c>
-      <c r="B374" s="17" t="s">
+      <c r="B375" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="C374" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D374" s="20" t="s">
+      <c r="C375" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D375" s="20" t="s">
         <v>718</v>
       </c>
-      <c r="E374" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F374" s="3"/>
-    </row>
-    <row r="375" spans="1:6">
-      <c r="A375" s="18" t="s">
+      <c r="E375" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F375" s="3"/>
+    </row>
+    <row r="376" spans="1:6" customFormat="1">
+      <c r="A376" s="18" t="s">
         <v>828</v>
       </c>
-      <c r="B375" s="17" t="s">
+      <c r="B376" s="17" t="s">
         <v>830</v>
       </c>
-      <c r="C375" s="3"/>
-      <c r="D375" s="20" t="s">
+      <c r="C376" s="3"/>
+      <c r="D376" s="20" t="s">
         <v>831</v>
       </c>
-      <c r="E375" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F375" s="3"/>
-    </row>
-    <row r="376" spans="1:6">
-      <c r="A376" s="18" t="s">
+      <c r="E376" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F376" s="3"/>
+    </row>
+    <row r="377" spans="1:6" customFormat="1">
+      <c r="A377" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="B376" s="17" t="s">
+      <c r="B377" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="C376" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D376" s="20" t="s">
+      <c r="C377" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D377" s="20" t="s">
         <v>719</v>
       </c>
-      <c r="E376" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F376" s="3"/>
-    </row>
-    <row r="377" spans="1:6">
-      <c r="A377" s="18" t="s">
+      <c r="E377" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F377" s="3"/>
+    </row>
+    <row r="378" spans="1:6" customFormat="1">
+      <c r="A378" s="18" t="s">
         <v>1046</v>
       </c>
-      <c r="B377" s="17" t="s">
+      <c r="B378" s="17" t="s">
         <v>1048</v>
       </c>
-      <c r="C377" s="3"/>
-      <c r="D377" s="20" t="s">
+      <c r="C378" s="3"/>
+      <c r="D378" s="20" t="s">
         <v>1141</v>
       </c>
-      <c r="F377" s="3"/>
-    </row>
-    <row r="378" spans="1:6">
-      <c r="A378" s="18" t="s">
+      <c r="E378" s="3"/>
+      <c r="F378" s="3"/>
+    </row>
+    <row r="379" spans="1:6" customFormat="1">
+      <c r="A379" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="B378" s="17" t="s">
+      <c r="B379" s="17" t="s">
         <v>1377</v>
       </c>
-      <c r="C378" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D378" s="20" t="s">
+      <c r="C379" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D379" s="20" t="s">
         <v>720</v>
       </c>
-      <c r="E378" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F378" s="3"/>
-    </row>
-    <row r="379" spans="1:6">
-      <c r="A379" s="18" t="s">
+      <c r="E379" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F379" s="3"/>
+    </row>
+    <row r="380" spans="1:6" customFormat="1">
+      <c r="A380" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B379" s="17" t="s">
+      <c r="B380" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D379" s="20" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E379" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F379" s="3"/>
-    </row>
-    <row r="380" spans="1:6" ht="33.75">
-      <c r="A380" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="B380" s="17" t="s">
-        <v>1378</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>317</v>
       </c>
       <c r="D380" s="20" t="s">
-        <v>1347</v>
+        <v>1454</v>
       </c>
       <c r="E380" s="3" t="s">
         <v>803</v>
       </c>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="1:6" ht="33">
+    <row r="381" spans="1:6" customFormat="1" ht="33.75">
       <c r="A381" s="18" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="B381" s="17" t="s">
-        <v>44</v>
+        <v>1378</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>317</v>
       </c>
       <c r="D381" s="20" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F381" s="3"/>
+    </row>
+    <row r="382" spans="1:6" customFormat="1" ht="33">
+      <c r="A382" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B382" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D382" s="20" t="s">
         <v>1455</v>
       </c>
-      <c r="E381" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F381" s="3"/>
-    </row>
-    <row r="382" spans="1:6">
-      <c r="A382" s="18" t="s">
+      <c r="E382" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F382" s="3"/>
+    </row>
+    <row r="383" spans="1:6" customFormat="1">
+      <c r="A383" s="18" t="s">
         <v>737</v>
       </c>
-      <c r="B382" s="17" t="s">
+      <c r="B383" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="C382" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D382" s="20" t="s">
+      <c r="C383" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D383" s="20" t="s">
         <v>836</v>
       </c>
-      <c r="E382" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F382" s="3"/>
-    </row>
-    <row r="383" spans="1:6" ht="33">
-      <c r="A383" s="18" t="s">
+      <c r="E383" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F383" s="3"/>
+    </row>
+    <row r="384" spans="1:6" customFormat="1" ht="33">
+      <c r="A384" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="B383" s="17" t="s">
+      <c r="B384" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="C383" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D383" s="20" t="s">
+      <c r="C384" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D384" s="20" t="s">
         <v>721</v>
       </c>
-      <c r="E383" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F383" s="3"/>
-    </row>
-    <row r="384" spans="1:6">
-      <c r="A384" s="18" t="s">
+      <c r="E384" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F384" s="3"/>
+    </row>
+    <row r="385" spans="1:6" customFormat="1">
+      <c r="A385" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="B384" s="17" t="s">
+      <c r="B385" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="C384" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D384" s="20" t="s">
+      <c r="C385" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D385" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="E384" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F384" s="3"/>
-    </row>
-    <row r="385" spans="1:6" ht="33.75">
-      <c r="A385" s="18" t="s">
+      <c r="E385" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F385" s="3"/>
+    </row>
+    <row r="386" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A386" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="B385" s="17" t="s">
+      <c r="B386" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="C385" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D385" s="20" t="s">
+      <c r="C386" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D386" s="20" t="s">
         <v>755</v>
       </c>
-      <c r="E385" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F385" s="3"/>
-    </row>
-    <row r="386" spans="1:6" ht="45">
-      <c r="A386" s="18" t="s">
+      <c r="E386" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F386" s="3"/>
+    </row>
+    <row r="387" spans="1:6" customFormat="1" ht="45">
+      <c r="A387" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B386" s="17" t="s">
+      <c r="B387" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C386" s="3" t="s">
+      <c r="C387" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D386" s="20" t="s">
+      <c r="D387" s="20" t="s">
         <v>722</v>
       </c>
-      <c r="E386" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F386" s="3"/>
-    </row>
-    <row r="387" spans="1:6" ht="33.75">
-      <c r="A387" s="18" t="s">
+      <c r="E387" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F387" s="3"/>
+    </row>
+    <row r="388" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A388" s="18" t="s">
         <v>1379</v>
       </c>
-      <c r="B387" s="17" t="s">
+      <c r="B388" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="C387" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D387" s="20" t="s">
+      <c r="C388" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D388" s="20" t="s">
         <v>723</v>
       </c>
-      <c r="E387" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F387" s="3"/>
-    </row>
-    <row r="388" spans="1:6">
-      <c r="A388" s="18" t="s">
+      <c r="E388" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F388" s="3"/>
+    </row>
+    <row r="389" spans="1:6" customFormat="1">
+      <c r="A389" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="B388" s="17" t="s">
+      <c r="B389" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="C388" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D388" s="20" t="s">
+      <c r="C389" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D389" s="20" t="s">
         <v>726</v>
       </c>
-      <c r="E388" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F388" s="3"/>
-    </row>
-    <row r="389" spans="1:6">
-      <c r="A389" s="18" t="s">
+      <c r="E389" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F389" s="3"/>
+    </row>
+    <row r="390" spans="1:6" customFormat="1">
+      <c r="A390" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="B389" s="17" t="s">
+      <c r="B390" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="C389" s="3" t="s">
+      <c r="C390" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D389" s="20" t="s">
+      <c r="D390" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E389" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F389" s="3"/>
-    </row>
-    <row r="390" spans="1:6">
-      <c r="A390" s="18" t="s">
+      <c r="E390" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F390" s="3"/>
+    </row>
+    <row r="391" spans="1:6" customFormat="1">
+      <c r="A391" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="B390" s="17" t="s">
+      <c r="B391" s="17" t="s">
         <v>729</v>
       </c>
-      <c r="C390" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D390" s="20" t="s">
+      <c r="C391" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D391" s="20" t="s">
         <v>728</v>
       </c>
-      <c r="E390" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F390" s="3"/>
-    </row>
-    <row r="391" spans="1:6">
-      <c r="A391" s="18" t="s">
+      <c r="E391" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F391" s="3"/>
+    </row>
+    <row r="392" spans="1:6" customFormat="1">
+      <c r="A392" s="18" t="s">
         <v>1056</v>
       </c>
-      <c r="B391" s="17" t="s">
+      <c r="B392" s="17" t="s">
         <v>1057</v>
       </c>
-      <c r="C391" s="3"/>
-      <c r="D391" s="20"/>
-      <c r="F391" s="3"/>
-    </row>
-    <row r="392" spans="1:6">
-      <c r="A392" s="18" t="s">
+      <c r="C392" s="3"/>
+      <c r="D392" s="20"/>
+      <c r="E392" s="3"/>
+      <c r="F392" s="3"/>
+    </row>
+    <row r="393" spans="1:6" customFormat="1">
+      <c r="A393" s="18" t="s">
         <v>761</v>
       </c>
-      <c r="B392" s="17" t="s">
+      <c r="B393" s="17" t="s">
         <v>775</v>
       </c>
-      <c r="C392" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D392" s="20" t="s">
+      <c r="C393" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D393" s="20" t="s">
         <v>840</v>
       </c>
-      <c r="E392" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F392" s="3"/>
-    </row>
-    <row r="393" spans="1:6">
-      <c r="A393" s="18" t="s">
+      <c r="E393" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F393" s="3"/>
+    </row>
+    <row r="394" spans="1:6" customFormat="1">
+      <c r="A394" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="B393" s="17" t="s">
+      <c r="B394" s="17" t="s">
         <v>1380</v>
       </c>
-      <c r="C393" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D393" s="20" t="s">
+      <c r="C394" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D394" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="E393" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F393" s="3"/>
-    </row>
-    <row r="394" spans="1:6">
-      <c r="A394" s="18" t="s">
+      <c r="E394" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F394" s="3"/>
+    </row>
+    <row r="395" spans="1:6" customFormat="1">
+      <c r="A395" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="B394" s="17" t="s">
+      <c r="B395" s="17" t="s">
         <v>776</v>
       </c>
-      <c r="C394" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D394" s="20" t="s">
+      <c r="C395" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D395" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="E394" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F394" s="3"/>
-    </row>
-    <row r="395" spans="1:6">
-      <c r="A395" s="18" t="s">
+      <c r="E395" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F395" s="3"/>
+    </row>
+    <row r="396" spans="1:6" customFormat="1">
+      <c r="A396" s="18" t="s">
         <v>765</v>
       </c>
-      <c r="B395" s="17" t="s">
+      <c r="B396" s="17" t="s">
         <v>780</v>
       </c>
-      <c r="C395" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D395" s="20" t="s">
+      <c r="C396" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D396" s="20" t="s">
         <v>844</v>
       </c>
-      <c r="E395" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F395" s="3"/>
-    </row>
-    <row r="396" spans="1:6">
-      <c r="A396" s="18" t="s">
+      <c r="E396" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F396" s="3"/>
+    </row>
+    <row r="397" spans="1:6" customFormat="1">
+      <c r="A397" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="B396" s="17" t="s">
+      <c r="B397" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="C396" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D396" s="20" t="s">
+      <c r="C397" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D397" s="20" t="s">
         <v>845</v>
       </c>
-      <c r="E396" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F396" s="3"/>
-    </row>
-    <row r="397" spans="1:6" ht="45">
-      <c r="A397" s="18" t="s">
+      <c r="E397" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F397" s="3"/>
+    </row>
+    <row r="398" spans="1:6" customFormat="1" ht="45">
+      <c r="A398" s="18" t="s">
         <v>822</v>
       </c>
-      <c r="B397" s="17" t="s">
+      <c r="B398" s="17" t="s">
         <v>823</v>
       </c>
-      <c r="C397" s="3"/>
-      <c r="D397" s="20" t="s">
+      <c r="C398" s="3"/>
+      <c r="D398" s="20" t="s">
         <v>824</v>
       </c>
-      <c r="E397" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F397" s="3"/>
-    </row>
-    <row r="398" spans="1:6" ht="33.75">
-      <c r="A398" s="18" t="s">
+      <c r="E398" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F398" s="3"/>
+    </row>
+    <row r="399" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A399" s="18" t="s">
         <v>1313</v>
       </c>
-      <c r="B398" s="17" t="s">
+      <c r="B399" s="17" t="s">
         <v>1314</v>
       </c>
-      <c r="C398" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D398" s="20" t="s">
+      <c r="C399" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D399" s="20" t="s">
         <v>1315</v>
       </c>
-      <c r="F398" s="3"/>
-    </row>
-    <row r="399" spans="1:6">
-      <c r="A399" s="18" t="s">
+      <c r="E399" s="3"/>
+      <c r="F399" s="3"/>
+    </row>
+    <row r="400" spans="1:6" customFormat="1">
+      <c r="A400" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="B399" s="17" t="s">
+      <c r="B400" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C399" s="3" t="s">
+      <c r="C400" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D399" s="20" t="s">
+      <c r="D400" s="20" t="s">
         <v>730</v>
       </c>
-      <c r="E399" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F399" s="3"/>
-    </row>
-    <row r="400" spans="1:6" ht="33">
-      <c r="A400" s="18" t="s">
+      <c r="E400" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F400" s="3"/>
+    </row>
+    <row r="401" spans="1:6" customFormat="1" ht="33">
+      <c r="A401" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="B400" s="17" t="s">
+      <c r="B401" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="C400" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D400" s="20" t="s">
+      <c r="C401" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D401" s="20" t="s">
         <v>843</v>
       </c>
-      <c r="E400" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F400" s="3"/>
-    </row>
-    <row r="401" spans="1:6">
-      <c r="A401" s="18" t="s">
+      <c r="E401" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F401" s="3"/>
+    </row>
+    <row r="402" spans="1:6" customFormat="1">
+      <c r="A402" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="B401" s="17" t="s">
+      <c r="B402" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D401" s="20" t="s">
-        <v>731</v>
-      </c>
-      <c r="E401" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F401" s="3"/>
-    </row>
-    <row r="402" spans="1:6" ht="33.75">
-      <c r="A402" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="B402" s="17" t="s">
-        <v>206</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D402" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F402" s="3"/>
+    </row>
+    <row r="403" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A403" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B403" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D403" s="20" t="s">
         <v>732</v>
       </c>
-      <c r="E402" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F402" s="3"/>
-    </row>
-    <row r="403" spans="1:6">
-      <c r="A403" s="18" t="s">
+      <c r="E403" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F403" s="3"/>
+    </row>
+    <row r="404" spans="1:6" customFormat="1">
+      <c r="A404" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B403" s="17" t="s">
+      <c r="B404" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C403" s="3" t="s">
+      <c r="C404" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D403" s="20" t="s">
+      <c r="D404" s="20" t="s">
         <v>733</v>
       </c>
-      <c r="E403" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F403" s="3"/>
-    </row>
-    <row r="404" spans="1:6">
-      <c r="A404" s="18" t="s">
+      <c r="E404" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F404" s="3"/>
+    </row>
+    <row r="405" spans="1:6" customFormat="1">
+      <c r="A405" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="B404" s="17" t="s">
+      <c r="B405" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="C404" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D404" s="20" t="s">
+      <c r="C405" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D405" s="20" t="s">
         <v>734</v>
       </c>
-      <c r="E404" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F404" s="3"/>
-    </row>
-    <row r="405" spans="1:6">
-      <c r="A405" s="18" t="s">
+      <c r="E405" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F405" s="3"/>
+    </row>
+    <row r="406" spans="1:6" customFormat="1">
+      <c r="A406" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B405" s="17" t="s">
+      <c r="B406" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D405" s="20"/>
-      <c r="F405" s="3"/>
-    </row>
-    <row r="406" spans="1:6" ht="45">
-      <c r="A406" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B406" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D406" s="20" t="s">
+      <c r="D406" s="20"/>
+      <c r="E406" s="3"/>
+      <c r="F406" s="3"/>
+    </row>
+    <row r="407" spans="1:6" customFormat="1" ht="45">
+      <c r="A407" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B407" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D407" s="20" t="s">
         <v>1348</v>
       </c>
-      <c r="E406" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F406" s="3"/>
-    </row>
-    <row r="407" spans="1:6">
-      <c r="A407" s="18" t="s">
+      <c r="E407" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F407" s="3"/>
+    </row>
+    <row r="408" spans="1:6" customFormat="1">
+      <c r="A408" s="18" t="s">
         <v>1331</v>
       </c>
-      <c r="B407" s="17" t="s">
+      <c r="B408" s="17" t="s">
         <v>1332</v>
       </c>
-      <c r="C407" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D407" s="20" t="s">
+      <c r="C408" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D408" s="20" t="s">
         <v>1333</v>
       </c>
-      <c r="F407" s="3"/>
-    </row>
-    <row r="408" spans="1:6">
-      <c r="A408" s="18" t="s">
+      <c r="E408" s="3"/>
+      <c r="F408" s="3"/>
+    </row>
+    <row r="409" spans="1:6" customFormat="1">
+      <c r="A409" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B408" s="17" t="s">
+      <c r="B409" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C408" s="3" t="s">
+      <c r="C409" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D408" s="20" t="s">
+      <c r="D409" s="20" t="s">
         <v>1456</v>
       </c>
-      <c r="E408" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F408" s="3"/>
-    </row>
-    <row r="409" spans="1:6">
-      <c r="A409" s="18" t="s">
+      <c r="E409" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F409" s="3"/>
+    </row>
+    <row r="410" spans="1:6" customFormat="1">
+      <c r="A410" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="B409" s="17" t="s">
+      <c r="B410" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C409" s="3" t="s">
+      <c r="C410" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D409" s="20" t="s">
+      <c r="D410" s="20" t="s">
         <v>735</v>
       </c>
-      <c r="F409" s="3"/>
-    </row>
-    <row r="410" spans="1:6">
-      <c r="A410" s="18" t="s">
+      <c r="E410" s="3"/>
+      <c r="F410" s="3"/>
+    </row>
+    <row r="411" spans="1:6" customFormat="1">
+      <c r="A411" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="B410" s="17" t="s">
+      <c r="B411" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="C410" s="3" t="s">
+      <c r="C411" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D410" s="20" t="s">
+      <c r="D411" s="20" t="s">
         <v>736</v>
       </c>
-      <c r="E410" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F410" s="3"/>
-    </row>
-    <row r="411" spans="1:6">
-      <c r="A411" s="18" t="s">
+      <c r="E411" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F411" s="3"/>
+    </row>
+    <row r="412" spans="1:6" customFormat="1">
+      <c r="A412" s="18" t="s">
         <v>1177</v>
       </c>
-      <c r="B411" s="17" t="s">
+      <c r="B412" s="17" t="s">
         <v>1178</v>
-      </c>
-      <c r="C411" s="3"/>
-      <c r="D411" s="20"/>
-      <c r="F411" s="3"/>
-    </row>
-    <row r="412" spans="1:6">
-      <c r="A412" s="18" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B412" s="17" t="s">
-        <v>1183</v>
       </c>
       <c r="C412" s="3"/>
       <c r="D412" s="20"/>
+      <c r="E412" s="3"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="1:6" ht="33.75">
+    <row r="413" spans="1:6" customFormat="1">
       <c r="A413" s="18" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B413" s="17" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C413" s="3"/>
+      <c r="D413" s="20"/>
+      <c r="E413" s="3"/>
+      <c r="F413" s="3"/>
+    </row>
+    <row r="414" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A414" s="18" t="s">
         <v>868</v>
       </c>
-      <c r="B413" s="17" t="s">
+      <c r="B414" s="17" t="s">
         <v>870</v>
       </c>
-      <c r="C413" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D413" s="20" t="s">
+      <c r="C414" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D414" s="20" t="s">
         <v>913</v>
       </c>
-      <c r="E413" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F413" s="3" t="s">
+      <c r="E414" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F414" s="3" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
-      <c r="A414" s="18" t="s">
+    <row r="415" spans="1:6" customFormat="1">
+      <c r="A415" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="B414" s="17" t="s">
+      <c r="B415" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="C414" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D414" s="20" t="s">
+      <c r="C415" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D415" s="20" t="s">
         <v>1253</v>
       </c>
-      <c r="E414" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F414" s="3"/>
-    </row>
-    <row r="415" spans="1:6">
-      <c r="A415" s="18" t="s">
+      <c r="E415" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F415" s="3"/>
+    </row>
+    <row r="416" spans="1:6" customFormat="1">
+      <c r="A416" s="18" t="s">
         <v>1159</v>
       </c>
-      <c r="B415" s="17" t="s">
+      <c r="B416" s="17" t="s">
         <v>1158</v>
       </c>
-      <c r="C415" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D415" s="20"/>
-      <c r="F415" s="3"/>
-    </row>
-    <row r="416" spans="1:6">
-      <c r="A416" s="18" t="s">
+      <c r="C416" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D416" s="20"/>
+      <c r="E416" s="3"/>
+      <c r="F416" s="3"/>
+    </row>
+    <row r="417" spans="1:6" customFormat="1">
+      <c r="A417" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B416" s="17" t="s">
+      <c r="B417" s="17" t="s">
         <v>1381</v>
       </c>
-      <c r="C416" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D416" s="20" t="s">
+      <c r="C417" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D417" s="20" t="s">
         <v>739</v>
       </c>
-      <c r="E416" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F416" s="3"/>
-    </row>
-    <row r="417" spans="1:6" ht="33.75">
-      <c r="A417" s="18" t="s">
+      <c r="E417" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F417" s="3"/>
+    </row>
+    <row r="418" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A418" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="B417" s="17" t="s">
+      <c r="B418" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="C417" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D417" s="20" t="s">
+      <c r="C418" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D418" s="20" t="s">
         <v>745</v>
       </c>
-      <c r="E417" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F417" s="3"/>
-    </row>
-    <row r="418" spans="1:6">
-      <c r="A418" s="18" t="s">
+      <c r="E418" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F418" s="3"/>
+    </row>
+    <row r="419" spans="1:6" customFormat="1">
+      <c r="A419" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="B418" s="17" t="s">
+      <c r="B419" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="C418" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D418" s="20" t="s">
+      <c r="C419" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D419" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="E418" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F418" s="3"/>
-    </row>
-    <row r="419" spans="1:6">
-      <c r="A419" s="18" t="s">
+      <c r="E419" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F419" s="3"/>
+    </row>
+    <row r="420" spans="1:6" customFormat="1">
+      <c r="A420" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="B419" s="17" t="s">
+      <c r="B420" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="C419" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D419" s="20" t="s">
+      <c r="C420" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D420" s="20" t="s">
         <v>747</v>
       </c>
-      <c r="E419" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F419" s="3"/>
-    </row>
-    <row r="420" spans="1:6">
-      <c r="A420" s="18" t="s">
+      <c r="E420" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F420" s="3"/>
+    </row>
+    <row r="421" spans="1:6" customFormat="1">
+      <c r="A421" s="18" t="s">
         <v>758</v>
       </c>
-      <c r="B420" s="17" t="s">
+      <c r="B421" s="17" t="s">
         <v>757</v>
       </c>
-      <c r="C420" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D420" s="20" t="s">
+      <c r="C421" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D421" s="20" t="s">
         <v>838</v>
       </c>
-      <c r="E420" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F420" s="3"/>
-    </row>
-    <row r="421" spans="1:6">
-      <c r="A421" s="18" t="s">
+      <c r="E421" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F421" s="3"/>
+    </row>
+    <row r="422" spans="1:6" customFormat="1">
+      <c r="A422" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="B421" s="17" t="s">
+      <c r="B422" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="C421" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D421" s="20" t="s">
+      <c r="C422" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D422" s="20" t="s">
         <v>748</v>
       </c>
-      <c r="E421" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F421" s="3"/>
-    </row>
-    <row r="422" spans="1:6">
-      <c r="A422" s="18" t="s">
+      <c r="E422" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F422" s="3"/>
+    </row>
+    <row r="423" spans="1:6" customFormat="1">
+      <c r="A423" s="18" t="s">
         <v>1155</v>
       </c>
-      <c r="B422" s="17" t="s">
+      <c r="B423" s="17" t="s">
         <v>1156</v>
       </c>
-      <c r="C422" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D422" s="20" t="s">
+      <c r="C423" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D423" s="20" t="s">
         <v>1395</v>
       </c>
-      <c r="F422" s="3"/>
-    </row>
-    <row r="423" spans="1:6">
-      <c r="A423" s="18" t="s">
+      <c r="E423" s="3"/>
+      <c r="F423" s="3"/>
+    </row>
+    <row r="424" spans="1:6" customFormat="1">
+      <c r="A424" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="B423" s="17" t="s">
+      <c r="B424" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="C423" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D423" s="20" t="s">
+      <c r="C424" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D424" s="20" t="s">
         <v>749</v>
       </c>
-      <c r="E423" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F423" s="3"/>
-    </row>
-    <row r="424" spans="1:6" ht="33">
-      <c r="A424" s="18" t="s">
+      <c r="E424" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F424" s="3"/>
+    </row>
+    <row r="425" spans="1:6" customFormat="1" ht="33">
+      <c r="A425" s="18" t="s">
         <v>771</v>
       </c>
-      <c r="B424" s="17" t="s">
+      <c r="B425" s="17" t="s">
         <v>850</v>
       </c>
-      <c r="C424" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D424" s="20" t="s">
+      <c r="C425" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D425" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="E424" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F424" s="3"/>
-    </row>
-    <row r="425" spans="1:6" ht="33.75">
-      <c r="A425" s="18" t="s">
+      <c r="E425" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F425" s="3"/>
+    </row>
+    <row r="426" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A426" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B425" s="17" t="s">
+      <c r="B426" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C425" s="3" t="s">
+      <c r="C426" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="D425" s="20" t="s">
+      <c r="D426" s="20" t="s">
         <v>750</v>
       </c>
-      <c r="E425" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F425" s="3"/>
-    </row>
-    <row r="426" spans="1:6">
-      <c r="A426" s="18" t="s">
+      <c r="E426" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F426" s="3"/>
+    </row>
+    <row r="427" spans="1:6" customFormat="1">
+      <c r="A427" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="B426" s="17" t="s">
+      <c r="B427" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="C426" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D426" s="20" t="s">
+      <c r="C427" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D427" s="20" t="s">
         <v>752</v>
       </c>
-      <c r="E426" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F426" s="3"/>
-    </row>
-    <row r="427" spans="1:6">
-      <c r="A427" s="18" t="s">
+      <c r="E427" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F427" s="3"/>
+    </row>
+    <row r="428" spans="1:6" customFormat="1">
+      <c r="A428" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="B427" s="17" t="s">
+      <c r="B428" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C427" s="3" t="s">
+      <c r="C428" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D427" s="20" t="s">
+      <c r="D428" s="20" t="s">
         <v>788</v>
       </c>
-      <c r="E427" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F427" s="3"/>
-    </row>
-    <row r="428" spans="1:6">
-      <c r="A428" s="18" t="s">
+      <c r="E428" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F428" s="3"/>
+    </row>
+    <row r="429" spans="1:6" customFormat="1">
+      <c r="A429" s="18" t="s">
         <v>1234</v>
       </c>
-      <c r="B428" s="17" t="s">
+      <c r="B429" s="17" t="s">
         <v>1235</v>
       </c>
-      <c r="C428" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D428" s="20" t="s">
+      <c r="C429" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D429" s="20" t="s">
         <v>1307</v>
       </c>
-      <c r="F428" s="3"/>
-    </row>
-    <row r="429" spans="1:6">
-      <c r="A429" s="18" t="s">
+      <c r="E429" s="3"/>
+      <c r="F429" s="3"/>
+    </row>
+    <row r="430" spans="1:6" customFormat="1">
+      <c r="A430" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B429" s="17" t="s">
+      <c r="B430" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C429" s="3" t="s">
+      <c r="C430" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D429" s="20" t="s">
+      <c r="D430" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="E429" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F429" s="3"/>
-    </row>
-    <row r="430" spans="1:6" ht="33">
-      <c r="A430" s="18" t="s">
+      <c r="E430" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F430" s="3"/>
+    </row>
+    <row r="431" spans="1:6" customFormat="1" ht="33">
+      <c r="A431" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B430" s="17" t="s">
+      <c r="B431" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C430" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D430" s="20" t="s">
+      <c r="C431" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D431" s="20" t="s">
         <v>789</v>
       </c>
-      <c r="E430" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F430" s="3"/>
-    </row>
-    <row r="431" spans="1:6">
-      <c r="A431" s="18" t="s">
+      <c r="E431" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F431" s="3"/>
+    </row>
+    <row r="432" spans="1:6" customFormat="1">
+      <c r="A432" s="18" t="s">
         <v>1037</v>
       </c>
-      <c r="B431" s="17" t="s">
+      <c r="B432" s="17" t="s">
         <v>1038</v>
       </c>
-      <c r="C431" s="3" t="s">
+      <c r="C432" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="D431" s="20" t="s">
+      <c r="D432" s="20" t="s">
         <v>1039</v>
       </c>
-      <c r="F431" s="3"/>
-    </row>
-    <row r="432" spans="1:6" ht="33">
-      <c r="A432" s="18" t="s">
+      <c r="E432" s="3"/>
+      <c r="F432" s="3"/>
+    </row>
+    <row r="433" spans="1:6" customFormat="1" ht="33">
+      <c r="A433" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B432" s="17" t="s">
+      <c r="B433" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C432" s="3" t="s">
+      <c r="C433" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D432" s="20" t="s">
+      <c r="D433" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E432" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F432" s="3"/>
-    </row>
-    <row r="433" spans="1:6">
-      <c r="A433" s="18" t="s">
+      <c r="E433" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F433" s="3"/>
+    </row>
+    <row r="434" spans="1:6" customFormat="1">
+      <c r="A434" s="18" t="s">
         <v>1040</v>
       </c>
-      <c r="B433" s="17" t="s">
+      <c r="B434" s="17" t="s">
         <v>1041</v>
       </c>
-      <c r="C433" s="3" t="s">
+      <c r="C434" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="D433" s="20" t="s">
+      <c r="D434" s="20" t="s">
         <v>1042</v>
       </c>
-      <c r="F433" s="3"/>
-    </row>
-    <row r="434" spans="1:6">
-      <c r="A434" s="18" t="s">
+      <c r="E434" s="3"/>
+      <c r="F434" s="3"/>
+    </row>
+    <row r="435" spans="1:6" customFormat="1">
+      <c r="A435" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B434" s="17" t="s">
+      <c r="B435" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C434" s="3" t="s">
+      <c r="C435" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D434" s="20"/>
-      <c r="E434" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F434" s="3"/>
-    </row>
-    <row r="435" spans="1:6">
-      <c r="A435" s="18" t="s">
+      <c r="D435" s="20"/>
+      <c r="E435" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F435" s="3"/>
+    </row>
+    <row r="436" spans="1:6" customFormat="1">
+      <c r="A436" s="18" t="s">
         <v>1382</v>
       </c>
-      <c r="B435" s="17" t="s">
+      <c r="B436" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C435" s="3" t="s">
+      <c r="C436" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D435" s="20" t="s">
+      <c r="D436" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="E435" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F435" s="3"/>
-    </row>
-    <row r="436" spans="1:6">
-      <c r="A436" s="18" t="s">
+      <c r="E436" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F436" s="3"/>
+    </row>
+    <row r="437" spans="1:6" customFormat="1">
+      <c r="A437" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B436" s="17" t="s">
+      <c r="B437" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C436" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D436" s="20" t="s">
+      <c r="C437" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D437" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E436" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F436" s="3"/>
-    </row>
-    <row r="437" spans="1:6" ht="33">
-      <c r="A437" s="18" t="s">
+      <c r="E437" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F437" s="3"/>
+    </row>
+    <row r="438" spans="1:6" customFormat="1" ht="33">
+      <c r="A438" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B437" s="17" t="s">
+      <c r="B438" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C437" s="3" t="s">
+      <c r="C438" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D437" s="20" t="s">
+      <c r="D438" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E437" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F437" s="3"/>
-    </row>
-    <row r="438" spans="1:6" ht="45">
-      <c r="A438" s="18" t="s">
+      <c r="E438" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F438" s="3"/>
+    </row>
+    <row r="439" spans="1:6" customFormat="1" ht="45">
+      <c r="A439" s="18" t="s">
         <v>779</v>
       </c>
-      <c r="B438" s="17" t="s">
+      <c r="B439" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="C438" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D438" s="20" t="s">
+      <c r="C439" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D439" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="E438" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F438" s="3"/>
-    </row>
-    <row r="439" spans="1:6">
-      <c r="A439" s="18" t="s">
+      <c r="E439" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F439" s="3"/>
+    </row>
+    <row r="440" spans="1:6" customFormat="1">
+      <c r="A440" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B439" s="17" t="s">
+      <c r="B440" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C439" s="3" t="s">
+      <c r="C440" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D439" s="20" t="s">
+      <c r="D440" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="E439" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F439" s="3"/>
-    </row>
-    <row r="440" spans="1:6">
-      <c r="A440" s="18" t="s">
+      <c r="E440" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F440" s="3"/>
+    </row>
+    <row r="441" spans="1:6" customFormat="1">
+      <c r="A441" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B440" s="17" t="s">
+      <c r="B441" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C440" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D440" s="20" t="s">
+      <c r="C441" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D441" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="E440" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F440" s="3"/>
-    </row>
-    <row r="441" spans="1:6">
-      <c r="A441" s="18" t="s">
+      <c r="E441" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F441" s="3"/>
+    </row>
+    <row r="442" spans="1:6" customFormat="1">
+      <c r="A442" s="18" t="s">
         <v>1275</v>
       </c>
-      <c r="B441" s="17" t="s">
+      <c r="B442" s="17" t="s">
         <v>1273</v>
       </c>
-      <c r="C441" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D441" s="20" t="s">
+      <c r="C442" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D442" s="20" t="s">
         <v>1274</v>
       </c>
-      <c r="F441" s="3"/>
-    </row>
-    <row r="442" spans="1:6">
-      <c r="A442" s="18" t="s">
+      <c r="E442" s="3"/>
+      <c r="F442" s="3"/>
+    </row>
+    <row r="443" spans="1:6" customFormat="1">
+      <c r="A443" s="18" t="s">
         <v>1052</v>
       </c>
-      <c r="B442" s="17" t="s">
+      <c r="B443" s="17" t="s">
         <v>1169</v>
       </c>
-      <c r="C442" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D442" s="20" t="s">
+      <c r="C443" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D443" s="20" t="s">
         <v>1170</v>
       </c>
-      <c r="F442" s="3"/>
-    </row>
-    <row r="443" spans="1:6">
-      <c r="A443" s="18" t="s">
+      <c r="E443" s="3"/>
+      <c r="F443" s="3"/>
+    </row>
+    <row r="444" spans="1:6" customFormat="1">
+      <c r="A444" s="18" t="s">
         <v>1260</v>
       </c>
-      <c r="B443" s="17" t="s">
+      <c r="B444" s="17" t="s">
         <v>1261</v>
       </c>
-      <c r="C443" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D443" s="20" t="s">
+      <c r="C444" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D444" s="20" t="s">
         <v>1305</v>
       </c>
-      <c r="F443" s="3"/>
-    </row>
-    <row r="444" spans="1:6" ht="33">
-      <c r="A444" s="18" t="s">
+      <c r="E444" s="3"/>
+      <c r="F444" s="3"/>
+    </row>
+    <row r="445" spans="1:6" customFormat="1" ht="33">
+      <c r="A445" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B444" s="17" t="s">
+      <c r="B445" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C444" s="3" t="s">
+      <c r="C445" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D444" s="20" t="s">
+      <c r="D445" s="20" t="s">
         <v>791</v>
       </c>
-      <c r="E444" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F444" s="3"/>
-    </row>
-    <row r="445" spans="1:6" ht="33">
-      <c r="A445" s="18" t="s">
+      <c r="E445" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F445" s="3"/>
+    </row>
+    <row r="446" spans="1:6" customFormat="1" ht="33">
+      <c r="A446" s="18" t="s">
         <v>856</v>
       </c>
-      <c r="B445" s="17" t="s">
+      <c r="B446" s="17" t="s">
         <v>857</v>
       </c>
-      <c r="C445" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D445" s="20" t="s">
+      <c r="C446" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D446" s="20" t="s">
         <v>906</v>
       </c>
-      <c r="E445" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F445" s="3" t="s">
+      <c r="E446" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F446" s="3" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="33">
-      <c r="A446" s="18" t="s">
+    <row r="447" spans="1:6" customFormat="1" ht="33">
+      <c r="A447" s="18" t="s">
         <v>1327</v>
       </c>
-      <c r="B446" s="17" t="s">
+      <c r="B447" s="17" t="s">
         <v>1326</v>
       </c>
-      <c r="C446" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D446" s="20" t="s">
+      <c r="C447" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D447" s="20" t="s">
         <v>1330</v>
       </c>
-      <c r="F446" s="3"/>
-    </row>
-    <row r="447" spans="1:6" ht="33">
-      <c r="A447" s="18" t="s">
+      <c r="E447" s="3"/>
+      <c r="F447" s="3"/>
+    </row>
+    <row r="448" spans="1:6" customFormat="1" ht="33">
+      <c r="A448" s="18" t="s">
         <v>1323</v>
       </c>
-      <c r="B447" s="17" t="s">
+      <c r="B448" s="17" t="s">
         <v>1322</v>
       </c>
-      <c r="C447" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D447" s="20" t="s">
+      <c r="C448" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D448" s="20" t="s">
         <v>1328</v>
       </c>
-      <c r="F447" s="3"/>
-    </row>
-    <row r="448" spans="1:6">
-      <c r="A448" s="18" t="s">
+      <c r="E448" s="3"/>
+      <c r="F448" s="3"/>
+    </row>
+    <row r="449" spans="1:6" customFormat="1">
+      <c r="A449" s="18" t="s">
         <v>875</v>
       </c>
-      <c r="B448" s="17" t="s">
+      <c r="B449" s="17" t="s">
         <v>878</v>
       </c>
-      <c r="C448" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D448" s="20" t="s">
+      <c r="C449" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D449" s="20" t="s">
         <v>914</v>
       </c>
-      <c r="E448" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F448" s="3" t="s">
+      <c r="E449" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F449" s="3" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="33">
-      <c r="A449" s="18" t="s">
+    <row r="450" spans="1:6" customFormat="1" ht="33">
+      <c r="A450" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="B449" s="17" t="s">
+      <c r="B450" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="C449" s="3" t="s">
+      <c r="C450" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D449" s="20" t="s">
+      <c r="D450" s="20" t="s">
         <v>792</v>
       </c>
-      <c r="E449" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F449" s="3"/>
-    </row>
-    <row r="450" spans="1:6">
-      <c r="A450" s="18" t="s">
+      <c r="E450" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F450" s="3"/>
+    </row>
+    <row r="451" spans="1:6" customFormat="1">
+      <c r="A451" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="B450" s="17" t="s">
+      <c r="B451" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="C450" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D450" s="20" t="s">
+      <c r="C451" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D451" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="E450" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F450" s="3"/>
-    </row>
-    <row r="451" spans="1:6" ht="33.75">
-      <c r="A451" s="18" t="s">
+      <c r="E451" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F451" s="3"/>
+    </row>
+    <row r="452" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A452" s="18" t="s">
         <v>799</v>
       </c>
-      <c r="B451" s="17" t="s">
+      <c r="B452" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="C451" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D451" s="20" t="s">
+      <c r="C452" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D452" s="20" t="s">
         <v>1394</v>
       </c>
-      <c r="E451" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F451" s="3"/>
-    </row>
-    <row r="452" spans="1:6" ht="33">
-      <c r="A452" s="18" t="s">
+      <c r="E452" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F452" s="3"/>
+    </row>
+    <row r="453" spans="1:6" customFormat="1" ht="33">
+      <c r="A453" s="18" t="s">
         <v>1325</v>
       </c>
-      <c r="B452" s="17" t="s">
+      <c r="B453" s="17" t="s">
         <v>1324</v>
       </c>
-      <c r="C452" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D452" s="20" t="s">
+      <c r="C453" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D453" s="20" t="s">
         <v>1329</v>
       </c>
-      <c r="F452" s="3"/>
-    </row>
-    <row r="453" spans="1:6">
-      <c r="A453" s="18" t="s">
+      <c r="E453" s="3"/>
+      <c r="F453" s="3"/>
+    </row>
+    <row r="454" spans="1:6" customFormat="1">
+      <c r="A454" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B453" s="17" t="s">
+      <c r="B454" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C453" s="3" t="s">
+      <c r="C454" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D453" s="20" t="s">
+      <c r="D454" s="20" t="s">
         <v>793</v>
       </c>
-      <c r="E453" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F453" s="3"/>
-    </row>
-    <row r="454" spans="1:6">
-      <c r="A454" s="18" t="s">
+      <c r="E454" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F454" s="3"/>
+    </row>
+    <row r="455" spans="1:6" customFormat="1">
+      <c r="A455" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="B454" s="17" t="s">
+      <c r="B455" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="C454" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D454" s="20" t="s">
+      <c r="C455" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D455" s="20" t="s">
         <v>1393</v>
       </c>
-      <c r="E454" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F454" s="3"/>
-    </row>
-    <row r="455" spans="1:6" ht="33.75">
-      <c r="A455" s="18" t="s">
+      <c r="E455" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F455" s="3"/>
+    </row>
+    <row r="456" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A456" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B455" s="17" t="s">
+      <c r="B456" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C455" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D455" s="20" t="s">
+      <c r="C456" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D456" s="20" t="s">
         <v>794</v>
       </c>
-      <c r="E455" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F455" s="3"/>
-    </row>
-    <row r="456" spans="1:6" ht="33.75">
-      <c r="A456" s="18" t="s">
+      <c r="E456" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F456" s="3"/>
+    </row>
+    <row r="457" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A457" s="18" t="s">
         <v>865</v>
       </c>
-      <c r="B456" s="17" t="s">
+      <c r="B457" s="17" t="s">
         <v>867</v>
       </c>
-      <c r="C456" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D456" s="20" t="s">
+      <c r="C457" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D457" s="20" t="s">
         <v>911</v>
       </c>
-      <c r="E456" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F456" s="3" t="s">
+      <c r="E457" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F457" s="3" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="33">
-      <c r="A457" s="18" t="s">
+    <row r="458" spans="1:6" customFormat="1" ht="33">
+      <c r="A458" s="18" t="s">
         <v>1193</v>
       </c>
-      <c r="B457" s="17" t="s">
+      <c r="B458" s="17" t="s">
         <v>1194</v>
       </c>
-      <c r="C457" s="3"/>
-      <c r="D457" s="20" t="s">
+      <c r="C458" s="3"/>
+      <c r="D458" s="20" t="s">
         <v>1392</v>
       </c>
-      <c r="F457" s="3"/>
-    </row>
-    <row r="458" spans="1:6" ht="78.75">
-      <c r="A458" s="18" t="s">
+      <c r="E458" s="3"/>
+      <c r="F458" s="3"/>
+    </row>
+    <row r="459" spans="1:6" customFormat="1" ht="78.75">
+      <c r="A459" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="B458" s="17" t="s">
+      <c r="B459" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C458" s="3" t="s">
+      <c r="C459" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D458" s="20" t="s">
+      <c r="D459" s="20" t="s">
         <v>795</v>
       </c>
-      <c r="E458" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F458" s="3"/>
-    </row>
-    <row r="459" spans="1:6">
-      <c r="A459" s="18" t="s">
+      <c r="E459" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F459" s="3"/>
+    </row>
+    <row r="460" spans="1:6" customFormat="1">
+      <c r="A460" s="18" t="s">
         <v>1205</v>
       </c>
-      <c r="B459" s="17" t="s">
+      <c r="B460" s="17" t="s">
         <v>1206</v>
       </c>
-      <c r="C459" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D459" s="20" t="s">
+      <c r="C460" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D460" s="20" t="s">
         <v>1207</v>
       </c>
-      <c r="F459" s="3"/>
-    </row>
-    <row r="460" spans="1:6">
-      <c r="A460" s="18" t="s">
+      <c r="E460" s="3"/>
+      <c r="F460" s="3"/>
+    </row>
+    <row r="461" spans="1:6" customFormat="1">
+      <c r="A461" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B460" s="17" t="s">
+      <c r="B461" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C460" s="3" t="s">
+      <c r="C461" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D460" s="20" t="s">
+      <c r="D461" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E460" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F460" s="3"/>
-    </row>
-    <row r="461" spans="1:6">
-      <c r="A461" s="18" t="s">
+      <c r="E461" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F461" s="3"/>
+    </row>
+    <row r="462" spans="1:6" customFormat="1">
+      <c r="A462" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="B461" s="19" t="s">
+      <c r="B462" s="19" t="s">
         <v>308</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D461" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="E461" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F461" s="3"/>
-    </row>
-    <row r="462" spans="1:6">
-      <c r="A462" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="B462" s="17" t="s">
-        <v>314</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D462" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F462" s="3"/>
+    </row>
+    <row r="463" spans="1:6" customFormat="1">
+      <c r="A463" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="B463" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="E462" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F462" s="3"/>
-    </row>
-    <row r="463" spans="1:6">
-      <c r="A463" s="18" t="s">
+      <c r="C463" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D463" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F463" s="3"/>
+    </row>
+    <row r="464" spans="1:6" customFormat="1">
+      <c r="A464" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="B463" s="17" t="s">
+      <c r="B464" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C463" s="3" t="s">
+      <c r="C464" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D463" s="20" t="s">
+      <c r="D464" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="E463" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F463" s="3"/>
-    </row>
-    <row r="464" spans="1:6" ht="33">
-      <c r="A464" s="18" t="s">
+      <c r="E464" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F464" s="3"/>
+    </row>
+    <row r="465" spans="1:6" customFormat="1" ht="33">
+      <c r="A465" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B464" s="17" t="s">
+      <c r="B465" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C464" s="3" t="s">
+      <c r="C465" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D464" s="20" t="s">
+      <c r="D465" s="20" t="s">
         <v>796</v>
       </c>
-      <c r="E464" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F464" s="3"/>
-    </row>
-    <row r="465" spans="1:6" ht="48">
-      <c r="A465" s="18" t="s">
+      <c r="E465" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F465" s="3"/>
+    </row>
+    <row r="466" spans="1:6" customFormat="1" ht="48">
+      <c r="A466" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="B465" s="17" t="s">
+      <c r="B466" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C465" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D465" s="20" t="s">
+      <c r="C466" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D466" s="20" t="s">
         <v>797</v>
       </c>
-      <c r="E465" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F465" s="3"/>
-    </row>
-    <row r="466" spans="1:6">
-      <c r="A466" s="18" t="s">
+      <c r="E466" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F466" s="3"/>
+    </row>
+    <row r="467" spans="1:6" customFormat="1">
+      <c r="A467" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="B466" s="17" t="s">
+      <c r="B467" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C466" s="3" t="s">
+      <c r="C467" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D466" s="20" t="s">
+      <c r="D467" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="E466" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F466" s="3"/>
-    </row>
-    <row r="467" spans="1:6" ht="33.75">
-      <c r="A467" s="18" t="s">
+      <c r="E467" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F467" s="3"/>
+    </row>
+    <row r="468" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A468" s="18" t="s">
         <v>1245</v>
       </c>
-      <c r="B467" s="17" t="s">
+      <c r="B468" s="17" t="s">
         <v>1246</v>
       </c>
-      <c r="C467" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D467" s="20" t="s">
+      <c r="C468" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D468" s="20" t="s">
         <v>1247</v>
       </c>
-      <c r="F467" s="3"/>
-    </row>
-    <row r="468" spans="1:6">
-      <c r="A468" s="18" t="s">
+      <c r="E468" s="3"/>
+      <c r="F468" s="3"/>
+    </row>
+    <row r="469" spans="1:6" customFormat="1">
+      <c r="A469" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B468" s="17" t="s">
+      <c r="B469" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C468" s="3" t="s">
+      <c r="C469" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D468" s="20" t="s">
+      <c r="D469" s="20" t="s">
         <v>798</v>
       </c>
-      <c r="E468" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F468" s="3"/>
-    </row>
-    <row r="469" spans="1:6">
-      <c r="A469" s="18" t="s">
+      <c r="E469" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F469" s="3"/>
+    </row>
+    <row r="470" spans="1:6" customFormat="1">
+      <c r="A470" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="B469" s="17" t="s">
+      <c r="B470" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="C469" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D469" s="20" t="s">
+      <c r="C470" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D470" s="20" t="s">
         <v>1391</v>
       </c>
-      <c r="E469" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F469" s="3"/>
-    </row>
-    <row r="470" spans="1:6">
-      <c r="A470" s="18" t="s">
+      <c r="E470" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F470" s="3"/>
+    </row>
+    <row r="471" spans="1:6" customFormat="1">
+      <c r="A471" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B470" s="17" t="s">
+      <c r="B471" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C470" s="3" t="s">
+      <c r="C471" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D470" s="20" t="s">
+      <c r="D471" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E470" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F470" s="3"/>
-    </row>
-    <row r="471" spans="1:6">
-      <c r="A471" s="18" t="s">
+      <c r="E471" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F471" s="3"/>
+    </row>
+    <row r="472" spans="1:6" customFormat="1">
+      <c r="A472" s="18" t="s">
         <v>1079</v>
       </c>
-      <c r="B471" s="17" t="s">
+      <c r="B472" s="17" t="s">
         <v>1079</v>
       </c>
-      <c r="C471" s="3"/>
-      <c r="D471" s="20" t="s">
+      <c r="C472" s="3"/>
+      <c r="D472" s="20" t="s">
         <v>1092</v>
       </c>
-      <c r="F471" s="3"/>
-    </row>
-    <row r="472" spans="1:6">
-      <c r="A472" s="18" t="s">
+      <c r="E472" s="3"/>
+      <c r="F472" s="3"/>
+    </row>
+    <row r="473" spans="1:6" customFormat="1">
+      <c r="A473" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="B472" s="17" t="s">
+      <c r="B473" s="17" t="s">
         <v>899</v>
       </c>
-      <c r="C472" s="3" t="s">
+      <c r="C473" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="D472" s="20" t="s">
+      <c r="D473" s="20" t="s">
         <v>925</v>
       </c>
-      <c r="E472" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F472" s="3" t="s">
+      <c r="E473" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F473" s="3" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
-      <c r="A473" s="18" t="s">
+    <row r="474" spans="1:6" customFormat="1">
+      <c r="A474" s="18" t="s">
         <v>1022</v>
       </c>
-      <c r="B473" s="17" t="s">
+      <c r="B474" s="17" t="s">
         <v>1026</v>
       </c>
-      <c r="C473" s="3" t="s">
+      <c r="C474" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D473" s="20" t="s">
+      <c r="D474" s="20" t="s">
         <v>1390</v>
       </c>
-      <c r="F473" s="3"/>
-    </row>
-    <row r="474" spans="1:6">
-      <c r="A474" s="18" t="s">
+      <c r="E474" s="3"/>
+      <c r="F474" s="3"/>
+    </row>
+    <row r="475" spans="1:6" customFormat="1">
+      <c r="A475" s="18" t="s">
         <v>1310</v>
       </c>
-      <c r="B474" s="17" t="s">
+      <c r="B475" s="17" t="s">
         <v>1311</v>
       </c>
-      <c r="C474" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D474" s="20" t="s">
+      <c r="C475" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D475" s="20" t="s">
         <v>1312</v>
       </c>
-      <c r="F474" s="3"/>
-    </row>
-    <row r="475" spans="1:6" ht="33.75">
-      <c r="A475" s="18" t="s">
+      <c r="E475" s="3"/>
+      <c r="F475" s="3"/>
+    </row>
+    <row r="476" spans="1:6" customFormat="1" ht="33.75">
+      <c r="A476" s="18" t="s">
         <v>1426</v>
       </c>
-      <c r="B475" s="17" t="s">
+      <c r="B476" s="17" t="s">
         <v>1427</v>
       </c>
-      <c r="C475" s="3" t="s">
+      <c r="C476" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D475" s="20" t="s">
+      <c r="D476" s="20" t="s">
         <v>1428</v>
       </c>
-      <c r="F475" s="3"/>
-    </row>
-    <row r="476" spans="1:6">
-      <c r="A476" s="18" t="s">
+      <c r="E476" s="3"/>
+      <c r="F476" s="3"/>
+    </row>
+    <row r="477" spans="1:6" customFormat="1">
+      <c r="A477" s="18" t="s">
         <v>1429</v>
       </c>
-      <c r="B476" s="17" t="s">
+      <c r="B477" s="17" t="s">
         <v>1430</v>
       </c>
-      <c r="C476" s="3"/>
-      <c r="D476" s="20" t="s">
+      <c r="C477" s="3"/>
+      <c r="D477" s="20" t="s">
         <v>1457</v>
       </c>
-      <c r="F476" s="3"/>
+      <c r="E477" s="3"/>
+      <c r="F477" s="3"/>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" s="24" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B478" s="25" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C478" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D478" s="27" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E478" s="26"/>
+      <c r="F478" s="26"/>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" s="24" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B479" s="25" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C479" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D479" s="27" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E479" s="26"/>
+      <c r="F479" s="26"/>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" s="24" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B480" s="25" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C480" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D480" s="27" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E480" s="26"/>
+      <c r="F480" s="26"/>
+    </row>
+    <row r="481" spans="1:6" ht="33.75">
+      <c r="A481" s="24" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B481" s="25" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C481" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D481" s="27" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E481" s="26"/>
+      <c r="F481" s="26"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D275">
-    <sortCondition ref="A275"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D276">
+    <sortCondition ref="A276"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F413" r:id="rId1" xr:uid="{A20490C1-FE9D-4457-85F1-35FF49320AEB}"/>
-    <hyperlink ref="F337" r:id="rId2" xr:uid="{72E128F2-1083-4B81-91DD-F87BEF6D6F0A}"/>
+    <hyperlink ref="F414" r:id="rId1" xr:uid="{A20490C1-FE9D-4457-85F1-35FF49320AEB}"/>
+    <hyperlink ref="F338" r:id="rId2" xr:uid="{72E128F2-1083-4B81-91DD-F87BEF6D6F0A}"/>
     <hyperlink ref="F29" r:id="rId3" xr:uid="{43FC818E-FE52-4052-84FA-B2191142E2E4}"/>
-    <hyperlink ref="F445" r:id="rId4" xr:uid="{848C2150-8751-4648-9A45-1A89F8A221A7}"/>
+    <hyperlink ref="F446" r:id="rId4" xr:uid="{848C2150-8751-4648-9A45-1A89F8A221A7}"/>
     <hyperlink ref="F33" r:id="rId5" xr:uid="{BB44B598-43DD-40B5-9CA3-D33BD3AE5B20}"/>
     <hyperlink ref="F35" r:id="rId6" location="AMD_virtualization_.28AMD-V.29" xr:uid="{D4353DA4-45DA-4F32-A05C-4AEAF3CD0C59}"/>
     <hyperlink ref="F36" r:id="rId7" xr:uid="{1BE1B50F-30A0-42EF-9769-45C983938C3C}"/>

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEEBEE6-6A82-4805-88DC-5AD8A84633F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB493D5-EA19-4FB1-86B6-F8185729760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="105" windowWidth="24225" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="1522">
   <si>
     <t>NAS</t>
   </si>
@@ -5100,6 +5100,24 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>sctp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Control Transmission Protocol </t>
+  </si>
+  <si>
+    <t>**** is a transport-layer protocol that ensures reliable, in-sequence transport of data. SCTP provides multihoming support where one or both endpoints of a connection can consist of more than one IP address. This enables transparent failover between redundant network paths.</t>
+  </si>
+  <si>
+    <t>imap</t>
+  </si>
+  <si>
+    <t>Internet Message Access Protocol</t>
+  </si>
+  <si>
+    <t>**** is a standard email retrieval (incoming) protocol. It stores email messages on a mail server and enables the recipient to view and manipulate them as though they were stored locally on their device(s).</t>
   </si>
 </sst>
 </file>
@@ -5299,7 +5317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5348,6 +5366,14 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5459,8 +5485,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F485" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
-  <autoFilter ref="A1:F485" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F487" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
+  <autoFilter ref="A1:F487" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F475">
     <sortCondition ref="A1:A475"/>
   </sortState>
@@ -5739,10 +5765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD485"/>
+  <dimension ref="A1:XFD487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
@@ -14127,6 +14153,38 @@
         <v>1510</v>
       </c>
       <c r="F485" s="3"/>
+    </row>
+    <row r="486" spans="1:6" ht="33.75">
+      <c r="A486" s="24" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B486" s="25" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D486" s="27" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E486" s="26"/>
+      <c r="F486" s="26"/>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487" s="24" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B487" s="25" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D487" s="27" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E487" s="26"/>
+      <c r="F487" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D276">

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB493D5-EA19-4FB1-86B6-F8185729760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42721FF5-4ADB-475B-9BB2-2BBC665902A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="105" windowWidth="24225" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="1522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="1540">
   <si>
     <t>NAS</t>
   </si>
@@ -5118,6 +5118,60 @@
   </si>
   <si>
     <t>**** is a standard email retrieval (incoming) protocol. It stores email messages on a mail server and enables the recipient to view and manipulate them as though they were stored locally on their device(s).</t>
+  </si>
+  <si>
+    <t>Internet Engineering Steering Group</t>
+  </si>
+  <si>
+    <t>The Internet Engineering Steering Group (IESG) is responsible for technical management of IETF activities and the Internet standards process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IETF </t>
+  </si>
+  <si>
+    <t>IESG</t>
+  </si>
+  <si>
+    <t>Internet Engineering Task Force</t>
+  </si>
+  <si>
+    <t>The Internet Engineering Task Force is a standards organization for the Internet and is responsible for the technical standards that make up the Internet protocol suite. It has no formal membership roster or requirements and all its participants are volunteers.</t>
+  </si>
+  <si>
+    <t>smbd</t>
+  </si>
+  <si>
+    <t>NMBD</t>
+  </si>
+  <si>
+    <t>smbd is the server daemon that provides filesharing and printing services to Windows clients. The server provides filespace and printer services to clients using the SMB (or CIFS) protocol.</t>
+  </si>
+  <si>
+    <t>nmbd is a server that understands and can reply to NetBIOS over IP name service requests, like those produced by SMB/CIFS clients such as Windows 95/98/ME, Windows NT, Windows 2000, Windows XP and LanManager clients</t>
+  </si>
+  <si>
+    <t>Network Message Block Daemon</t>
+  </si>
+  <si>
+    <t>Server Message Block Daemon</t>
+  </si>
+  <si>
+    <t>Transport Layer Security () encrypts data sent over the Internet to ensure that eavesdroppers and hackers are unable to see what you transmit which is particularly useful for private and sensitive information such as passwords, credit card numbers, and personal correspondence.</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>Transport Layer Security</t>
+  </si>
+  <si>
+    <t>secure sockets layer</t>
+  </si>
+  <si>
+    <t>SSL Stands for secure sockets layer. Protocol for web browsers and servers that allows for the authentication, encryption and decryption of data sent over the Internet.</t>
+  </si>
+  <si>
+    <t>SSL</t>
   </si>
 </sst>
 </file>
@@ -5485,8 +5539,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F487" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
-  <autoFilter ref="A1:F487" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F493" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
+  <autoFilter ref="A1:F493" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F475">
     <sortCondition ref="A1:A475"/>
   </sortState>
@@ -5765,10 +5819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD487"/>
+  <dimension ref="A1:XFD493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A486" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A492" sqref="A492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
@@ -14155,36 +14209,128 @@
       <c r="F485" s="3"/>
     </row>
     <row r="486" spans="1:6" ht="33.75">
-      <c r="A486" s="24" t="s">
+      <c r="A486" s="18" t="s">
         <v>1516</v>
       </c>
-      <c r="B486" s="25" t="s">
+      <c r="B486" s="17" t="s">
         <v>1517</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D486" s="27" t="s">
+      <c r="D486" s="20" t="s">
         <v>1518</v>
       </c>
-      <c r="E486" s="26"/>
-      <c r="F486" s="26"/>
+      <c r="F486" s="3"/>
     </row>
     <row r="487" spans="1:6">
-      <c r="A487" s="24" t="s">
+      <c r="A487" s="18" t="s">
         <v>1519</v>
       </c>
-      <c r="B487" s="25" t="s">
+      <c r="B487" s="17" t="s">
         <v>1520</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D487" s="27" t="s">
+      <c r="D487" s="20" t="s">
         <v>1521</v>
       </c>
-      <c r="E487" s="26"/>
-      <c r="F487" s="26"/>
+      <c r="F487" s="3"/>
+    </row>
+    <row r="488" spans="1:6" ht="30">
+      <c r="A488" s="25" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B488" s="25" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C488" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D488" s="27" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E488" s="26"/>
+      <c r="F488" s="26"/>
+    </row>
+    <row r="489" spans="1:6" ht="33.75">
+      <c r="A489" s="24" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B489" s="25" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C489" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D489" s="27" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E489" s="26"/>
+      <c r="F489" s="26"/>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490" s="24" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B490" s="25" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C490" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D490" s="27" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E490" s="26"/>
+      <c r="F490" s="26"/>
+    </row>
+    <row r="491" spans="1:6" ht="33.75">
+      <c r="A491" s="24" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B491" s="25" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C491" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D491" s="27" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E491" s="26"/>
+      <c r="F491" s="26"/>
+    </row>
+    <row r="492" spans="1:6" ht="33.75">
+      <c r="A492" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B492" s="25" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C492" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D492" s="27" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E492" s="26"/>
+      <c r="F492" s="26"/>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" s="24" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B493" s="25" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C493" s="26"/>
+      <c r="D493" s="27" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E493" s="26"/>
+      <c r="F493" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D276">

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42721FF5-4ADB-475B-9BB2-2BBC665902A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381C6E8D-90C3-4227-A57C-803145CE5435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="105" windowWidth="24225" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="1541">
   <si>
     <t>NAS</t>
   </si>
@@ -5172,6 +5172,9 @@
   </si>
   <si>
     <t>SSL</t>
+  </si>
+  <si>
+    <t>**** est un protocole réseau basé sur la suite de protocoles Internet pour la diffusion et la découverte de services de réseau et d'informations de présence. Il accomplit cette tâche sans l'aide de mécanismes de configuration basés sur le serveur, tels que le protocole DHCP (Dynamic Host Configuration Protocol) ou le DNS (Domain Name System), et sans configuration statique particulière d'un hôte de réseau.</t>
   </si>
 </sst>
 </file>
@@ -5371,7 +5374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5420,14 +5423,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5821,8 +5816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A492" sqref="A492"/>
+    <sheetView tabSelected="1" topLeftCell="A463" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A469" sqref="A469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
@@ -12642,15 +12637,19 @@
       </c>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" ht="45">
       <c r="A392" s="18" t="s">
         <v>1051</v>
       </c>
       <c r="B392" s="17" t="s">
         <v>1052</v>
       </c>
-      <c r="C392" s="3"/>
-      <c r="D392" s="20"/>
+      <c r="C392" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D392" s="20" t="s">
+        <v>1540</v>
+      </c>
       <c r="F392" s="3"/>
     </row>
     <row r="393" spans="1:6">
@@ -14239,98 +14238,92 @@
       <c r="F487" s="3"/>
     </row>
     <row r="488" spans="1:6" ht="30">
-      <c r="A488" s="25" t="s">
+      <c r="A488" s="17" t="s">
         <v>1525</v>
       </c>
-      <c r="B488" s="25" t="s">
+      <c r="B488" s="17" t="s">
         <v>1522</v>
       </c>
-      <c r="C488" s="26" t="s">
+      <c r="C488" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D488" s="27" t="s">
+      <c r="D488" s="20" t="s">
         <v>1523</v>
       </c>
-      <c r="E488" s="26"/>
-      <c r="F488" s="26"/>
+      <c r="F488" s="3"/>
     </row>
     <row r="489" spans="1:6" ht="33.75">
-      <c r="A489" s="24" t="s">
+      <c r="A489" s="18" t="s">
         <v>1524</v>
       </c>
-      <c r="B489" s="25" t="s">
+      <c r="B489" s="17" t="s">
         <v>1526</v>
       </c>
-      <c r="C489" s="26" t="s">
+      <c r="C489" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D489" s="27" t="s">
+      <c r="D489" s="20" t="s">
         <v>1527</v>
       </c>
-      <c r="E489" s="26"/>
-      <c r="F489" s="26"/>
+      <c r="F489" s="3"/>
     </row>
     <row r="490" spans="1:6">
-      <c r="A490" s="24" t="s">
+      <c r="A490" s="18" t="s">
         <v>1528</v>
       </c>
-      <c r="B490" s="25" t="s">
+      <c r="B490" s="17" t="s">
         <v>1533</v>
       </c>
-      <c r="C490" s="26" t="s">
+      <c r="C490" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D490" s="27" t="s">
+      <c r="D490" s="20" t="s">
         <v>1530</v>
       </c>
-      <c r="E490" s="26"/>
-      <c r="F490" s="26"/>
+      <c r="F490" s="3"/>
     </row>
     <row r="491" spans="1:6" ht="33.75">
-      <c r="A491" s="24" t="s">
+      <c r="A491" s="18" t="s">
         <v>1529</v>
       </c>
-      <c r="B491" s="25" t="s">
+      <c r="B491" s="17" t="s">
         <v>1532</v>
       </c>
-      <c r="C491" s="26" t="s">
+      <c r="C491" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D491" s="27" t="s">
+      <c r="D491" s="20" t="s">
         <v>1531</v>
       </c>
-      <c r="E491" s="26"/>
-      <c r="F491" s="26"/>
+      <c r="F491" s="3"/>
     </row>
     <row r="492" spans="1:6" ht="33.75">
-      <c r="A492" s="24" t="s">
+      <c r="A492" s="18" t="s">
         <v>1535</v>
       </c>
-      <c r="B492" s="25" t="s">
+      <c r="B492" s="17" t="s">
         <v>1536</v>
       </c>
-      <c r="C492" s="26" t="s">
+      <c r="C492" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D492" s="27" t="s">
+      <c r="D492" s="20" t="s">
         <v>1534</v>
       </c>
-      <c r="E492" s="26"/>
-      <c r="F492" s="26"/>
+      <c r="F492" s="3"/>
     </row>
     <row r="493" spans="1:6">
-      <c r="A493" s="24" t="s">
+      <c r="A493" s="18" t="s">
         <v>1539</v>
       </c>
-      <c r="B493" s="25" t="s">
+      <c r="B493" s="17" t="s">
         <v>1537</v>
       </c>
-      <c r="C493" s="26"/>
-      <c r="D493" s="27" t="s">
+      <c r="C493" s="3"/>
+      <c r="D493" s="20" t="s">
         <v>1538</v>
       </c>
-      <c r="E493" s="26"/>
-      <c r="F493" s="26"/>
+      <c r="F493" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D276">

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorio/Sites/markdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381C6E8D-90C3-4227-A57C-803145CE5435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9879510-C7F4-9D4D-A5B9-DEA874EDD761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="105" windowWidth="24225" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="1541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1566">
   <si>
     <t>NAS</t>
   </si>
@@ -5176,12 +5168,87 @@
   <si>
     <t>**** est un protocole réseau basé sur la suite de protocoles Internet pour la diffusion et la découverte de services de réseau et d'informations de présence. Il accomplit cette tâche sans l'aide de mécanismes de configuration basés sur le serveur, tels que le protocole DHCP (Dynamic Host Configuration Protocol) ou le DNS (Domain Name System), et sans configuration statique particulière d'un hôte de réseau.</t>
   </si>
+  <si>
+    <t xml:space="preserve">NTLDR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abbreviation of NT loader </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSM </t>
+  </si>
+  <si>
+    <t>Compatibility Support Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEI </t>
+  </si>
+  <si>
+    <t>Pre EFI Initialization</t>
+  </si>
+  <si>
+    <t>DXE</t>
+  </si>
+  <si>
+    <t>Driver Execution Enviroment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSR-Partition </t>
+  </si>
+  <si>
+    <t>A Microsoft Reserved Partition is a partition of a data storage device, which is created to reserve a portion of disk space for possible subsequent use by a Windows operating system installed on a separate partition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELAM </t>
+  </si>
+  <si>
+    <t>early Launch Anti-Malware Technik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEK </t>
+  </si>
+  <si>
+    <t>Key Exchange Key Datenbank</t>
+  </si>
+  <si>
+    <t>Microsoft Reserved Partition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK </t>
+  </si>
+  <si>
+    <t>Platform Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL </t>
+  </si>
+  <si>
+    <t>after life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT </t>
+  </si>
+  <si>
+    <t>Run Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSL </t>
+  </si>
+  <si>
+    <t>Transient System Load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDS </t>
+  </si>
+  <si>
+    <t>Boot Dev Select</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5374,7 +5441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5423,6 +5490,14 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5534,8 +5609,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F493" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
-  <autoFilter ref="A1:F493" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F505" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
+  <autoFilter ref="A1:F505" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F475">
     <sortCondition ref="A1:A475"/>
   </sortState>
@@ -5814,23 +5889,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD493"/>
+  <dimension ref="A1:XFD505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469"/>
+    <sheetView tabSelected="1" topLeftCell="A486" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B499" sqref="B499"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="78.140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="3"/>
-    <col min="6" max="6" width="58.85546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="78.1640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="3"/>
+    <col min="6" max="6" width="58.83203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27.75">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -5850,7 +5925,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>1099</v>
       </c>
@@ -5864,7 +5939,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>1099</v>
       </c>
@@ -5878,7 +5953,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>1099</v>
       </c>
@@ -5891,7 +5966,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>1098</v>
       </c>
@@ -5905,7 +5980,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>1102</v>
       </c>
@@ -5919,7 +5994,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>1104</v>
       </c>
@@ -5933,7 +6008,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>1105</v>
       </c>
@@ -5947,7 +6022,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>1110</v>
       </c>
@@ -5961,7 +6036,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>1113</v>
       </c>
@@ -5975,7 +6050,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>1117</v>
       </c>
@@ -5989,7 +6064,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>1119</v>
       </c>
@@ -6003,7 +6078,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>1122</v>
       </c>
@@ -6017,7 +6092,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>1123</v>
       </c>
@@ -6031,7 +6106,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>1130</v>
       </c>
@@ -6045,7 +6120,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>1129</v>
       </c>
@@ -6059,7 +6134,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>264</v>
       </c>
@@ -6077,7 +6152,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>265</v>
       </c>
@@ -6093,7 +6168,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>263</v>
       </c>
@@ -6109,7 +6184,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>274</v>
       </c>
@@ -6119,7 +6194,7 @@
       </c>
       <c r="D20" s="20"/>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>1335</v>
       </c>
@@ -6137,7 +6212,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>1277</v>
       </c>
@@ -6153,7 +6228,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>879</v>
       </c>
@@ -6173,7 +6248,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>398</v>
       </c>
@@ -6193,7 +6268,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>80</v>
       </c>
@@ -6211,7 +6286,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>272</v>
       </c>
@@ -6225,7 +6300,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>1243</v>
       </c>
@@ -6245,7 +6320,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>1313</v>
       </c>
@@ -6263,7 +6338,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>853</v>
       </c>
@@ -6283,7 +6358,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>392</v>
       </c>
@@ -6303,7 +6378,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>1192</v>
       </c>
@@ -6321,7 +6396,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>1089</v>
       </c>
@@ -6337,7 +6412,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" s="4" customFormat="1">
+    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>107</v>
       </c>
@@ -6357,7 +6432,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>1344</v>
       </c>
@@ -6377,7 +6452,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>187</v>
       </c>
@@ -6395,7 +6470,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>346</v>
       </c>
@@ -6415,7 +6490,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>255</v>
       </c>
@@ -6435,7 +6510,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="56.25">
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>224</v>
       </c>
@@ -6455,7 +6530,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>1053</v>
       </c>
@@ -6473,7 +6548,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>534</v>
       </c>
@@ -6493,7 +6568,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>482</v>
       </c>
@@ -6513,7 +6588,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>25</v>
       </c>
@@ -6529,7 +6604,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>22</v>
       </c>
@@ -6549,7 +6624,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="33">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>470</v>
       </c>
@@ -6569,7 +6644,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>53</v>
       </c>
@@ -6589,7 +6664,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>552</v>
       </c>
@@ -6609,7 +6684,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>764</v>
       </c>
@@ -6627,7 +6702,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>765</v>
       </c>
@@ -6645,7 +6720,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>393</v>
       </c>
@@ -6665,7 +6740,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>1347</v>
       </c>
@@ -6685,7 +6760,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>1238</v>
       </c>
@@ -6701,7 +6776,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>1179</v>
       </c>
@@ -6717,7 +6792,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>1195</v>
       </c>
@@ -6733,7 +6808,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>549</v>
       </c>
@@ -6753,7 +6828,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>1348</v>
       </c>
@@ -6773,7 +6848,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="56" spans="1:6" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>369</v>
       </c>
@@ -6793,7 +6868,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>1158</v>
       </c>
@@ -6811,7 +6886,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>410</v>
       </c>
@@ -6829,7 +6904,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="59" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>1190</v>
       </c>
@@ -6845,7 +6920,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="48">
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
         <v>1184</v>
       </c>
@@ -6859,7 +6934,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>1072</v>
       </c>
@@ -6875,7 +6950,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1">
+    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>555</v>
       </c>
@@ -6895,7 +6970,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>359</v>
       </c>
@@ -6915,7 +6990,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>539</v>
       </c>
@@ -6935,7 +7010,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="2" customFormat="1">
+    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>1288</v>
       </c>
@@ -6953,7 +7028,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" s="2" customFormat="1">
+    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>1019</v>
       </c>
@@ -6969,7 +7044,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" s="2" customFormat="1">
+    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
         <v>796</v>
       </c>
@@ -6987,7 +7062,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1">
+    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
         <v>246</v>
       </c>
@@ -7007,7 +7082,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>1289</v>
       </c>
@@ -7022,7 +7097,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>109</v>
       </c>
@@ -7042,7 +7117,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="2" customFormat="1">
+    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
         <v>565</v>
       </c>
@@ -7062,7 +7137,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="2" customFormat="1">
+    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
         <v>828</v>
       </c>
@@ -7078,7 +7153,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
         <v>1226</v>
       </c>
@@ -7096,7 +7171,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="74" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>1378</v>
       </c>
@@ -7116,7 +7191,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="75" spans="1:6" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
         <v>1042</v>
       </c>
@@ -7132,7 +7207,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" s="2" customFormat="1">
+    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>456</v>
       </c>
@@ -7152,7 +7227,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
         <v>811</v>
       </c>
@@ -7168,7 +7243,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" s="2" customFormat="1">
+    <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
         <v>441</v>
       </c>
@@ -7186,7 +7261,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
         <v>396</v>
       </c>
@@ -7203,7 +7278,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="80" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
         <v>101</v>
       </c>
@@ -7223,7 +7298,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="33.75">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
         <v>755</v>
       </c>
@@ -7241,7 +7316,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" s="2" customFormat="1">
+    <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
         <v>357</v>
       </c>
@@ -7259,7 +7334,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
         <v>1169</v>
       </c>
@@ -7275,7 +7350,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
         <v>381</v>
       </c>
@@ -7295,7 +7370,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="33">
+    <row r="85" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>1352</v>
       </c>
@@ -7315,7 +7390,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="86" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
         <v>383</v>
       </c>
@@ -7335,7 +7410,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="2" customFormat="1">
+    <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
         <v>105</v>
       </c>
@@ -7355,7 +7430,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="2" customFormat="1">
+    <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>75</v>
       </c>
@@ -7375,7 +7450,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="2" customFormat="1">
+    <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
         <v>881</v>
       </c>
@@ -7395,7 +7470,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
         <v>337</v>
       </c>
@@ -7415,7 +7490,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="2" customFormat="1">
+    <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
         <v>1217</v>
       </c>
@@ -7433,7 +7508,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" s="2" customFormat="1">
+    <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
         <v>210</v>
       </c>
@@ -7451,7 +7526,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="2" customFormat="1">
+    <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
         <v>327</v>
       </c>
@@ -7471,7 +7546,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="2" customFormat="1">
+    <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
         <v>1214</v>
       </c>
@@ -7489,7 +7564,7 @@
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" s="2" customFormat="1">
+    <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>1353</v>
       </c>
@@ -7509,7 +7584,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="2" customFormat="1">
+    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>90</v>
       </c>
@@ -7529,7 +7604,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="2" customFormat="1">
+    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>493</v>
       </c>
@@ -7549,7 +7624,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="98" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>485</v>
       </c>
@@ -7569,7 +7644,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="2" customFormat="1">
+    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>1212</v>
       </c>
@@ -7587,7 +7662,7 @@
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="100" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>232</v>
       </c>
@@ -7607,7 +7682,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="2" customFormat="1" ht="48">
+    <row r="101" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>2</v>
       </c>
@@ -7627,7 +7702,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" ht="48">
+    <row r="102" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>1408</v>
       </c>
@@ -7645,7 +7720,7 @@
       </c>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="103" spans="1:6" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A103" s="18" t="s">
         <v>1407</v>
       </c>
@@ -7661,7 +7736,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" s="2" customFormat="1">
+    <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="18" t="s">
         <v>1409</v>
       </c>
@@ -7675,7 +7750,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" s="2" customFormat="1">
+    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="18" t="s">
         <v>476</v>
       </c>
@@ -7695,7 +7770,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="2" customFormat="1">
+    <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="18" t="s">
         <v>543</v>
       </c>
@@ -7715,7 +7790,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="107" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A107" s="18" t="s">
         <v>1355</v>
       </c>
@@ -7735,7 +7810,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="18" t="s">
         <v>340</v>
       </c>
@@ -7755,7 +7830,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="18" t="s">
         <v>1206</v>
       </c>
@@ -7773,7 +7848,7 @@
       </c>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" s="2" customFormat="1">
+    <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="18" t="s">
         <v>275</v>
       </c>
@@ -7791,7 +7866,7 @@
       </c>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" ht="33.75">
+    <row r="111" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A111" s="18" t="s">
         <v>1066</v>
       </c>
@@ -7807,7 +7882,7 @@
       </c>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="18" t="s">
         <v>373</v>
       </c>
@@ -7827,7 +7902,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="18" t="s">
         <v>92</v>
       </c>
@@ -7847,7 +7922,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="18" t="s">
         <v>173</v>
       </c>
@@ -7867,7 +7942,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="33.75">
+    <row r="115" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A115" s="18" t="s">
         <v>807</v>
       </c>
@@ -7885,7 +7960,7 @@
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" ht="45">
+    <row r="116" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A116" s="18" t="s">
         <v>21</v>
       </c>
@@ -7905,7 +7980,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="33">
+    <row r="117" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A117" s="18" t="s">
         <v>249</v>
       </c>
@@ -7925,7 +8000,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="18" t="s">
         <v>475</v>
       </c>
@@ -7945,7 +8020,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="18" t="s">
         <v>94</v>
       </c>
@@ -7965,7 +8040,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="33.75">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="18" t="s">
         <v>379</v>
       </c>
@@ -7985,7 +8060,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="33.75">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
         <v>320</v>
       </c>
@@ -8005,7 +8080,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="18" t="s">
         <v>1028</v>
       </c>
@@ -8023,7 +8098,7 @@
       </c>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="18" t="s">
         <v>54</v>
       </c>
@@ -8043,7 +8118,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="18" t="s">
         <v>78</v>
       </c>
@@ -8063,7 +8138,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="33.75">
+    <row r="125" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A125" s="18" t="s">
         <v>71</v>
       </c>
@@ -8083,7 +8158,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="33.75">
+    <row r="126" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A126" s="18" t="s">
         <v>1231</v>
       </c>
@@ -8098,7 +8173,7 @@
       </c>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="18" t="s">
         <v>871</v>
       </c>
@@ -8118,7 +8193,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="45">
+    <row r="128" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A128" s="18" t="s">
         <v>1050</v>
       </c>
@@ -8131,7 +8206,7 @@
       </c>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="18" t="s">
         <v>209</v>
       </c>
@@ -8144,7 +8219,7 @@
       <c r="D129" s="20"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" ht="33.75">
+    <row r="130" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A130" s="18" t="s">
         <v>153</v>
       </c>
@@ -8164,7 +8239,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="18" t="s">
         <v>1065</v>
       </c>
@@ -8177,7 +8252,7 @@
       </c>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" ht="33.75">
+    <row r="132" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A132" s="18" t="s">
         <v>749</v>
       </c>
@@ -8195,7 +8270,7 @@
       </c>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" ht="33.75">
+    <row r="133" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A133" s="18" t="s">
         <v>491</v>
       </c>
@@ -8215,7 +8290,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="18" t="s">
         <v>68</v>
       </c>
@@ -8235,7 +8310,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="18" t="s">
         <v>62</v>
       </c>
@@ -8255,7 +8330,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="48">
+    <row r="136" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A136" s="18" t="s">
         <v>391</v>
       </c>
@@ -8275,7 +8350,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="33.75">
+    <row r="137" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A137" s="18" t="s">
         <v>600</v>
       </c>
@@ -8295,7 +8370,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="48">
+    <row r="138" spans="1:6" ht="51" x14ac:dyDescent="0.35">
       <c r="A138" s="18" t="s">
         <v>344</v>
       </c>
@@ -8315,7 +8390,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="33">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="18" t="s">
         <v>330</v>
       </c>
@@ -8335,7 +8410,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="18" t="s">
         <v>763</v>
       </c>
@@ -8353,7 +8428,7 @@
       </c>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="18" t="s">
         <v>183</v>
       </c>
@@ -8373,7 +8448,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="33">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="18" t="s">
         <v>349</v>
       </c>
@@ -8393,7 +8468,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="112.5">
+    <row r="143" spans="1:6" ht="108" x14ac:dyDescent="0.35">
       <c r="A143" s="18" t="s">
         <v>418</v>
       </c>
@@ -8413,7 +8488,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="45">
+    <row r="144" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A144" s="18" t="s">
         <v>1049</v>
       </c>
@@ -8428,7 +8503,7 @@
       </c>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" ht="33.75">
+    <row r="145" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A145" s="18" t="s">
         <v>467</v>
       </c>
@@ -8448,7 +8523,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="18" t="s">
         <v>1175</v>
       </c>
@@ -8461,7 +8536,7 @@
       </c>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" ht="33.75">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="18" t="s">
         <v>413</v>
       </c>
@@ -8481,7 +8556,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="33.75">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="18" t="s">
         <v>414</v>
       </c>
@@ -8498,7 +8573,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="45">
+    <row r="149" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A149" s="18" t="s">
         <v>331</v>
       </c>
@@ -8518,7 +8593,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="33.75">
+    <row r="150" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A150" s="18" t="s">
         <v>1040</v>
       </c>
@@ -8531,7 +8606,7 @@
       </c>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="18" t="s">
         <v>426</v>
       </c>
@@ -8551,7 +8626,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="33">
+    <row r="152" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A152" s="18" t="s">
         <v>261</v>
       </c>
@@ -8571,7 +8646,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="33">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="18" t="s">
         <v>98</v>
       </c>
@@ -8591,7 +8666,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="33.75">
+    <row r="154" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A154" s="18" t="s">
         <v>251</v>
       </c>
@@ -8611,7 +8686,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="18" t="s">
         <v>1069</v>
       </c>
@@ -8624,7 +8699,7 @@
       </c>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="18" t="s">
         <v>1070</v>
       </c>
@@ -8637,7 +8712,7 @@
       </c>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" ht="33.75">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="18" t="s">
         <v>1071</v>
       </c>
@@ -8650,7 +8725,7 @@
       </c>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="18" t="s">
         <v>317</v>
       </c>
@@ -8670,7 +8745,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="18" t="s">
         <v>52</v>
       </c>
@@ -8690,7 +8765,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="18" t="s">
         <v>1282</v>
       </c>
@@ -8705,7 +8780,7 @@
       </c>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="18" t="s">
         <v>1091</v>
       </c>
@@ -8718,7 +8793,7 @@
       </c>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="18" t="s">
         <v>478</v>
       </c>
@@ -8738,7 +8813,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="18" t="s">
         <v>483</v>
       </c>
@@ -8756,7 +8831,7 @@
       </c>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6" ht="33">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="18" t="s">
         <v>480</v>
       </c>
@@ -8774,7 +8849,7 @@
       </c>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="18" t="s">
         <v>844</v>
       </c>
@@ -8790,7 +8865,7 @@
       </c>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="18" t="s">
         <v>766</v>
       </c>
@@ -8808,7 +8883,7 @@
       </c>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="1:6" ht="33.75">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="18" t="s">
         <v>822</v>
       </c>
@@ -8821,7 +8896,7 @@
       </c>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="18" t="s">
         <v>433</v>
       </c>
@@ -8839,7 +8914,7 @@
       </c>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="18" t="s">
         <v>1170</v>
       </c>
@@ -8852,7 +8927,7 @@
       </c>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6" ht="37.5">
+    <row r="170" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="s">
         <v>1461</v>
       </c>
@@ -8870,7 +8945,7 @@
       </c>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6" ht="33.75">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="18" t="s">
         <v>435</v>
       </c>
@@ -8888,7 +8963,7 @@
       </c>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6" ht="33.75">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="18" t="s">
         <v>33</v>
       </c>
@@ -8906,7 +8981,7 @@
       </c>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="18" t="s">
         <v>145</v>
       </c>
@@ -8924,7 +8999,7 @@
       </c>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="18" t="s">
         <v>143</v>
       </c>
@@ -8942,7 +9017,7 @@
       </c>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="18" t="s">
         <v>147</v>
       </c>
@@ -8960,7 +9035,7 @@
       </c>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="18" t="s">
         <v>84</v>
       </c>
@@ -8978,7 +9053,7 @@
       </c>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="18" t="s">
         <v>141</v>
       </c>
@@ -8996,7 +9071,7 @@
       </c>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
         <v>8</v>
       </c>
@@ -9014,7 +9089,7 @@
       </c>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="18" t="s">
         <v>278</v>
       </c>
@@ -9029,7 +9104,7 @@
       </c>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="1:6" ht="45">
+    <row r="180" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A180" s="18" t="s">
         <v>814</v>
       </c>
@@ -9045,7 +9120,7 @@
       </c>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="18" t="s">
         <v>497</v>
       </c>
@@ -9063,7 +9138,7 @@
       </c>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
         <v>1168</v>
       </c>
@@ -9074,7 +9149,7 @@
       </c>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="1:6" ht="33.75">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
         <v>1026</v>
       </c>
@@ -9089,7 +9164,7 @@
       </c>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="18" t="s">
         <v>800</v>
       </c>
@@ -9107,7 +9182,7 @@
       </c>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="1:6" ht="33.75">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="18" t="s">
         <v>354</v>
       </c>
@@ -9125,7 +9200,7 @@
       </c>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="1:6" ht="33.75">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
         <v>1139</v>
       </c>
@@ -9140,7 +9215,7 @@
       </c>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6" ht="33">
+    <row r="187" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A187" s="18" t="s">
         <v>1030</v>
       </c>
@@ -9155,7 +9230,7 @@
       </c>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="1:6" ht="33.75">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="18" t="s">
         <v>858</v>
       </c>
@@ -9175,7 +9250,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="18" t="s">
         <v>195</v>
       </c>
@@ -9188,7 +9263,7 @@
       </c>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="1:6" ht="33.75">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="18" t="s">
         <v>167</v>
       </c>
@@ -9206,7 +9281,7 @@
       </c>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="18" t="s">
         <v>472</v>
       </c>
@@ -9224,7 +9299,7 @@
       </c>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="1:6" ht="33.75">
+    <row r="192" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A192" s="18" t="s">
         <v>161</v>
       </c>
@@ -9242,7 +9317,7 @@
       </c>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="18" t="s">
         <v>118</v>
       </c>
@@ -9257,7 +9332,7 @@
       </c>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="18" t="s">
         <v>163</v>
       </c>
@@ -9275,7 +9350,7 @@
       </c>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="18" t="s">
         <v>177</v>
       </c>
@@ -9293,7 +9368,7 @@
       </c>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="1:6" ht="33.75">
+    <row r="196" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
         <v>1137</v>
       </c>
@@ -9308,7 +9383,7 @@
       </c>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="1:6" ht="33.75">
+    <row r="197" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
         <v>20</v>
       </c>
@@ -9323,7 +9398,7 @@
       </c>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
         <v>1379</v>
       </c>
@@ -9341,7 +9416,7 @@
       </c>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="1:6" ht="33">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="18" t="s">
         <v>1234</v>
       </c>
@@ -9356,7 +9431,7 @@
       </c>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="1:6" ht="33.75">
+    <row r="200" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A200" s="18" t="s">
         <v>874</v>
       </c>
@@ -9376,7 +9451,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="18" t="s">
         <v>563</v>
       </c>
@@ -9391,7 +9466,7 @@
       </c>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="1:6" ht="33.75">
+    <row r="202" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A202" s="18" t="s">
         <v>228</v>
       </c>
@@ -9409,7 +9484,7 @@
       </c>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="1:6" ht="33">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="18" t="s">
         <v>132</v>
       </c>
@@ -9427,7 +9502,7 @@
       </c>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="18" t="s">
         <v>136</v>
       </c>
@@ -9445,7 +9520,7 @@
       </c>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="18" t="s">
         <v>134</v>
       </c>
@@ -9463,7 +9538,7 @@
       </c>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="1:6" ht="33.75">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="18" t="s">
         <v>440</v>
       </c>
@@ -9481,7 +9556,7 @@
       </c>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="18" t="s">
         <v>11</v>
       </c>
@@ -9499,7 +9574,7 @@
       </c>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="18" t="s">
         <v>280</v>
       </c>
@@ -9514,7 +9589,7 @@
       </c>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="18" t="s">
         <v>253</v>
       </c>
@@ -9527,7 +9602,7 @@
       <c r="D209" s="20"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="18" t="s">
         <v>540</v>
       </c>
@@ -9545,7 +9620,7 @@
       </c>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="1:6" ht="33.75">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="18" t="s">
         <v>17</v>
       </c>
@@ -9563,7 +9638,7 @@
       </c>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="18" t="s">
         <v>408</v>
       </c>
@@ -9581,7 +9656,7 @@
       </c>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="1:6" ht="33">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="18" t="s">
         <v>428</v>
       </c>
@@ -9599,7 +9674,7 @@
       </c>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="18" t="s">
         <v>26</v>
       </c>
@@ -9617,7 +9692,7 @@
       </c>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="1:6" ht="33">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="18" t="s">
         <v>238</v>
       </c>
@@ -9635,7 +9710,7 @@
       </c>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="1:6" ht="33.75">
+    <row r="216" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A216" s="18" t="s">
         <v>220</v>
       </c>
@@ -9653,7 +9728,7 @@
       </c>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="18" t="s">
         <v>69</v>
       </c>
@@ -9671,7 +9746,7 @@
       </c>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="1:6" ht="45">
+    <row r="218" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A218" s="22" t="s">
         <v>1360</v>
       </c>
@@ -9689,7 +9764,7 @@
       </c>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:6" ht="33">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="18" t="s">
         <v>465</v>
       </c>
@@ -9707,7 +9782,7 @@
       </c>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="18" t="s">
         <v>1488</v>
       </c>
@@ -9722,7 +9797,7 @@
       </c>
       <c r="F220" s="3"/>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="18" t="s">
         <v>1057</v>
       </c>
@@ -9737,7 +9812,7 @@
       </c>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="1:6" ht="45">
+    <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A222" s="18" t="s">
         <v>458</v>
       </c>
@@ -9755,7 +9830,7 @@
       </c>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="1:6" ht="33.75">
+    <row r="223" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A223" s="18" t="s">
         <v>430</v>
       </c>
@@ -9773,7 +9848,7 @@
       </c>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="1:6" ht="33.75">
+    <row r="224" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A224" s="23" t="s">
         <v>194</v>
       </c>
@@ -9791,7 +9866,7 @@
       </c>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="18" t="s">
         <v>188</v>
       </c>
@@ -9809,7 +9884,7 @@
       </c>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="18" t="s">
         <v>12</v>
       </c>
@@ -9824,7 +9899,7 @@
       </c>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="1:6" ht="33.75">
+    <row r="227" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A227" s="18" t="s">
         <v>351</v>
       </c>
@@ -9842,7 +9917,7 @@
       </c>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="18" t="s">
         <v>99</v>
       </c>
@@ -9860,7 +9935,7 @@
       </c>
       <c r="F228" s="3"/>
     </row>
-    <row r="229" spans="1:6" ht="33.75">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="18" t="s">
         <v>151</v>
       </c>
@@ -9878,7 +9953,7 @@
       </c>
       <c r="F229" s="3"/>
     </row>
-    <row r="230" spans="1:6" ht="33.75">
+    <row r="230" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A230" s="18" t="s">
         <v>577</v>
       </c>
@@ -9898,7 +9973,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="33.75">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="18" t="s">
         <v>471</v>
       </c>
@@ -9916,7 +9991,7 @@
       </c>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="1:6" ht="33.75">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="18" t="s">
         <v>1181</v>
       </c>
@@ -9929,7 +10004,7 @@
       </c>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="1:6" ht="33">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="18" t="s">
         <v>55</v>
       </c>
@@ -9947,7 +10022,7 @@
       </c>
       <c r="F233" s="3"/>
     </row>
-    <row r="234" spans="1:6" ht="33.75">
+    <row r="234" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A234" s="18" t="s">
         <v>1186</v>
       </c>
@@ -9960,7 +10035,7 @@
       </c>
       <c r="F234" s="3"/>
     </row>
-    <row r="235" spans="1:6" ht="63">
+    <row r="235" spans="1:6" ht="67" x14ac:dyDescent="0.35">
       <c r="A235" s="18" t="s">
         <v>97</v>
       </c>
@@ -9978,7 +10053,7 @@
       </c>
       <c r="F235" s="3"/>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="18" t="s">
         <v>15</v>
       </c>
@@ -9996,7 +10071,7 @@
       </c>
       <c r="F236" s="3"/>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="18" t="s">
         <v>1182</v>
       </c>
@@ -10007,7 +10082,7 @@
       <c r="D237" s="20"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="1:6" ht="33">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="18" t="s">
         <v>557</v>
       </c>
@@ -10025,7 +10100,7 @@
       </c>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="18" t="s">
         <v>1311</v>
       </c>
@@ -10040,7 +10115,7 @@
       </c>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="1:6" ht="33.75">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="18" t="s">
         <v>127</v>
       </c>
@@ -10058,7 +10133,7 @@
       </c>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="1:6" ht="33">
+    <row r="241" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A241" s="18" t="s">
         <v>770</v>
       </c>
@@ -10076,7 +10151,7 @@
       </c>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="18" t="s">
         <v>1073</v>
       </c>
@@ -10089,7 +10164,7 @@
       </c>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="18" t="s">
         <v>125</v>
       </c>
@@ -10107,7 +10182,7 @@
       </c>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="1:6" ht="33.75">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="18" t="s">
         <v>896</v>
       </c>
@@ -10127,7 +10202,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="33.75">
+    <row r="245" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A245" s="18" t="s">
         <v>1068</v>
       </c>
@@ -10140,7 +10215,7 @@
       </c>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="1:6" ht="45">
+    <row r="246" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A246" s="18" t="s">
         <v>808</v>
       </c>
@@ -10158,7 +10233,7 @@
       </c>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="18" t="s">
         <v>283</v>
       </c>
@@ -10176,7 +10251,7 @@
       </c>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="18" t="s">
         <v>3</v>
       </c>
@@ -10194,7 +10269,7 @@
       </c>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="18" t="s">
         <v>419</v>
       </c>
@@ -10212,7 +10287,7 @@
       </c>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="1:6" ht="33.75">
+    <row r="250" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A250" s="18" t="s">
         <v>370</v>
       </c>
@@ -10230,7 +10305,7 @@
       </c>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="18" t="s">
         <v>286</v>
       </c>
@@ -10248,7 +10323,7 @@
       </c>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="18" t="s">
         <v>207</v>
       </c>
@@ -10266,7 +10341,7 @@
       </c>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="18" t="s">
         <v>73</v>
       </c>
@@ -10284,7 +10359,7 @@
       </c>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="18" t="s">
         <v>1193</v>
       </c>
@@ -10299,7 +10374,7 @@
       </c>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="18" t="s">
         <v>1203</v>
       </c>
@@ -10314,7 +10389,7 @@
       </c>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="18" t="s">
         <v>122</v>
       </c>
@@ -10332,7 +10407,7 @@
       </c>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="18" t="s">
         <v>880</v>
       </c>
@@ -10352,7 +10427,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="33.75">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="18" t="s">
         <v>199</v>
       </c>
@@ -10370,7 +10445,7 @@
       </c>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="1:6" ht="33">
+    <row r="259" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A259" s="18" t="s">
         <v>1138</v>
       </c>
@@ -10385,7 +10460,7 @@
       </c>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="18" t="s">
         <v>6</v>
       </c>
@@ -10399,7 +10474,7 @@
       </c>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="18" t="s">
         <v>165</v>
       </c>
@@ -10417,7 +10492,7 @@
       </c>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="1:6" ht="56.25">
+    <row r="262" spans="1:6" ht="60" x14ac:dyDescent="0.35">
       <c r="A262" s="18" t="s">
         <v>459</v>
       </c>
@@ -10435,7 +10510,7 @@
       </c>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="1:6" ht="56.25">
+    <row r="263" spans="1:6" ht="60" x14ac:dyDescent="0.35">
       <c r="A263" s="18" t="s">
         <v>461</v>
       </c>
@@ -10453,7 +10528,7 @@
       </c>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="18" t="s">
         <v>463</v>
       </c>
@@ -10471,7 +10546,7 @@
       </c>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="18" t="s">
         <v>411</v>
       </c>
@@ -10489,7 +10564,7 @@
       </c>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="1:6" ht="33">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="18" t="s">
         <v>241</v>
       </c>
@@ -10507,7 +10582,7 @@
       </c>
       <c r="F266" s="3"/>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="18" t="s">
         <v>474</v>
       </c>
@@ -10525,7 +10600,7 @@
       </c>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="1:6" s="6" customFormat="1">
+    <row r="268" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A268" s="18" t="s">
         <v>1283</v>
       </c>
@@ -10541,7 +10616,7 @@
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="18" t="s">
         <v>406</v>
       </c>
@@ -10559,7 +10634,7 @@
       </c>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="1:6" ht="48">
+    <row r="270" spans="1:6" ht="51" x14ac:dyDescent="0.35">
       <c r="A270" s="18" t="s">
         <v>756</v>
       </c>
@@ -10577,7 +10652,7 @@
       </c>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="1:6" ht="33.75">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="18" t="s">
         <v>1250</v>
       </c>
@@ -10592,7 +10667,7 @@
       </c>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="1:6" ht="33.75">
+    <row r="272" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A272" s="18" t="s">
         <v>464</v>
       </c>
@@ -10610,7 +10685,7 @@
       </c>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="1:6" ht="33">
+    <row r="273" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A273" s="18" t="s">
         <v>449</v>
       </c>
@@ -10628,7 +10703,7 @@
       </c>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="18" t="s">
         <v>445</v>
       </c>
@@ -10643,7 +10718,7 @@
       </c>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="18" t="s">
         <v>1199</v>
       </c>
@@ -10658,7 +10733,7 @@
       </c>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="18" t="s">
         <v>115</v>
       </c>
@@ -10676,7 +10751,7 @@
       </c>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="18" t="s">
         <v>388</v>
       </c>
@@ -10694,7 +10769,7 @@
       </c>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="18" t="s">
         <v>1152</v>
       </c>
@@ -10707,7 +10782,7 @@
       <c r="D278" s="20"/>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="1:6" ht="33.75">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="18" t="s">
         <v>243</v>
       </c>
@@ -10725,7 +10800,7 @@
       </c>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="18" t="s">
         <v>0</v>
       </c>
@@ -10743,7 +10818,7 @@
       </c>
       <c r="F280" s="3"/>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="18" t="s">
         <v>197</v>
       </c>
@@ -10759,7 +10834,7 @@
       </c>
       <c r="F281" s="3"/>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="18" t="s">
         <v>1145</v>
       </c>
@@ -10770,7 +10845,7 @@
       <c r="D282" s="20"/>
       <c r="F282" s="3"/>
     </row>
-    <row r="283" spans="1:6" ht="56.25">
+    <row r="283" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A283" s="18" t="s">
         <v>1362</v>
       </c>
@@ -10790,7 +10865,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="33">
+    <row r="284" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A284" s="18" t="s">
         <v>235</v>
       </c>
@@ -10808,7 +10883,7 @@
       </c>
       <c r="F284" s="3"/>
     </row>
-    <row r="285" spans="1:6" ht="33.75">
+    <row r="285" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A285" s="18" t="s">
         <v>149</v>
       </c>
@@ -10826,7 +10901,7 @@
       </c>
       <c r="F285" s="3"/>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="18" t="s">
         <v>222</v>
       </c>
@@ -10844,7 +10919,7 @@
       </c>
       <c r="F286" s="3"/>
     </row>
-    <row r="287" spans="1:6" ht="33.75">
+    <row r="287" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A287" s="18" t="s">
         <v>1143</v>
       </c>
@@ -10859,7 +10934,7 @@
       </c>
       <c r="F287" s="3"/>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="18" t="s">
         <v>234</v>
       </c>
@@ -10875,7 +10950,7 @@
       </c>
       <c r="F288" s="3"/>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="18" t="s">
         <v>211</v>
       </c>
@@ -10893,7 +10968,7 @@
       </c>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="1:6" ht="33">
+    <row r="290" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A290" s="18" t="s">
         <v>231</v>
       </c>
@@ -10911,7 +10986,7 @@
       </c>
       <c r="F290" s="3"/>
     </row>
-    <row r="291" spans="1:6" ht="33">
+    <row r="291" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A291" s="18" t="s">
         <v>290</v>
       </c>
@@ -10929,7 +11004,7 @@
       </c>
       <c r="F291" s="3"/>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="18" t="s">
         <v>158</v>
       </c>
@@ -10947,7 +11022,7 @@
       </c>
       <c r="F292" s="3"/>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="18" t="s">
         <v>45</v>
       </c>
@@ -10965,7 +11040,7 @@
       </c>
       <c r="F293" s="3"/>
     </row>
-    <row r="294" spans="1:6" ht="33">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="18" t="s">
         <v>490</v>
       </c>
@@ -10983,7 +11058,7 @@
       </c>
       <c r="F294" s="3"/>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="18" t="s">
         <v>1275</v>
       </c>
@@ -10998,7 +11073,7 @@
       </c>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="18" t="s">
         <v>1364</v>
       </c>
@@ -11016,7 +11091,7 @@
       </c>
       <c r="F296" s="3"/>
     </row>
-    <row r="297" spans="1:6" ht="33.75">
+    <row r="297" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A297" s="18" t="s">
         <v>1365</v>
       </c>
@@ -11034,7 +11109,7 @@
       </c>
       <c r="F297" s="3"/>
     </row>
-    <row r="298" spans="1:6" ht="33.75">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="18" t="s">
         <v>239</v>
       </c>
@@ -11052,7 +11127,7 @@
       </c>
       <c r="F298" s="3"/>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="18" t="s">
         <v>1022</v>
       </c>
@@ -11067,7 +11142,7 @@
       </c>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="18" t="s">
         <v>466</v>
       </c>
@@ -11085,7 +11160,7 @@
       </c>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="1:6" ht="33.75">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="18" t="s">
         <v>1259</v>
       </c>
@@ -11100,7 +11175,7 @@
       </c>
       <c r="F301" s="3"/>
     </row>
-    <row r="302" spans="1:6" ht="33.75">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="18" t="s">
         <v>1252</v>
       </c>
@@ -11115,7 +11190,7 @@
       </c>
       <c r="F302" s="3"/>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="18" t="s">
         <v>171</v>
       </c>
@@ -11133,7 +11208,7 @@
       </c>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="18" t="s">
         <v>1331</v>
       </c>
@@ -11148,7 +11223,7 @@
       </c>
       <c r="F304" s="3"/>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="18" t="s">
         <v>292</v>
       </c>
@@ -11159,7 +11234,7 @@
       <c r="D305" s="20"/>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="18" t="s">
         <v>1263</v>
       </c>
@@ -11174,7 +11249,7 @@
       </c>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="1:6" ht="33">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="18" t="s">
         <v>385</v>
       </c>
@@ -11194,7 +11269,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="18" t="s">
         <v>489</v>
       </c>
@@ -11212,7 +11287,7 @@
       </c>
       <c r="F308" s="3"/>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="18" t="s">
         <v>1272</v>
       </c>
@@ -11227,7 +11302,7 @@
       </c>
       <c r="F309" s="3"/>
     </row>
-    <row r="310" spans="1:6" ht="33">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="18" t="s">
         <v>394</v>
       </c>
@@ -11245,7 +11320,7 @@
       </c>
       <c r="F310" s="3"/>
     </row>
-    <row r="311" spans="1:6" ht="33">
+    <row r="311" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A311" s="18" t="s">
         <v>1166</v>
       </c>
@@ -11258,7 +11333,7 @@
       </c>
       <c r="F311" s="3"/>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="18" t="s">
         <v>487</v>
       </c>
@@ -11276,7 +11351,7 @@
       </c>
       <c r="F312" s="3"/>
     </row>
-    <row r="313" spans="1:6" ht="33">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="18" t="s">
         <v>488</v>
       </c>
@@ -11294,7 +11369,7 @@
       </c>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="18" t="s">
         <v>293</v>
       </c>
@@ -11312,7 +11387,7 @@
       </c>
       <c r="F314" s="3"/>
     </row>
-    <row r="315" spans="1:6" ht="33.75">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="18" t="s">
         <v>1258</v>
       </c>
@@ -11327,7 +11402,7 @@
       </c>
       <c r="F315" s="3"/>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="18" t="s">
         <v>479</v>
       </c>
@@ -11345,7 +11420,7 @@
       </c>
       <c r="F316" s="3"/>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="18" t="s">
         <v>1366</v>
       </c>
@@ -11363,7 +11438,7 @@
       </c>
       <c r="F317" s="3"/>
     </row>
-    <row r="318" spans="1:6" ht="33.75">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="18" t="s">
         <v>1149</v>
       </c>
@@ -11378,7 +11453,7 @@
       </c>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="1:6" ht="33.75">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="18" t="s">
         <v>1290</v>
       </c>
@@ -11393,7 +11468,7 @@
       </c>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="1:6" ht="112.5">
+    <row r="320" spans="1:6" ht="96" x14ac:dyDescent="0.35">
       <c r="A320" s="18" t="s">
         <v>417</v>
       </c>
@@ -11411,7 +11486,7 @@
       </c>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="1:6 16384:16384" ht="33">
+    <row r="321" spans="1:6 16384:16384" ht="35" x14ac:dyDescent="0.35">
       <c r="A321" s="18" t="s">
         <v>802</v>
       </c>
@@ -11429,7 +11504,7 @@
       </c>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="1:6 16384:16384">
+    <row r="322" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A322" s="18" t="s">
         <v>1060</v>
       </c>
@@ -11440,7 +11515,7 @@
       </c>
       <c r="F322" s="3"/>
     </row>
-    <row r="323" spans="1:6 16384:16384" ht="78.75">
+    <row r="323" spans="1:6 16384:16384" ht="84" x14ac:dyDescent="0.35">
       <c r="A323" s="18" t="s">
         <v>1059</v>
       </c>
@@ -11453,7 +11528,7 @@
       </c>
       <c r="F323" s="3"/>
     </row>
-    <row r="324" spans="1:6 16384:16384">
+    <row r="324" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A324" s="18" t="s">
         <v>31</v>
       </c>
@@ -11471,7 +11546,7 @@
       </c>
       <c r="F324" s="3"/>
     </row>
-    <row r="325" spans="1:6 16384:16384">
+    <row r="325" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A325" s="18" t="s">
         <v>376</v>
       </c>
@@ -11489,7 +11564,7 @@
       </c>
       <c r="F325" s="3"/>
     </row>
-    <row r="326" spans="1:6 16384:16384">
+    <row r="326" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A326" s="18" t="s">
         <v>213</v>
       </c>
@@ -11507,7 +11582,7 @@
       </c>
       <c r="F326" s="3"/>
     </row>
-    <row r="327" spans="1:6 16384:16384">
+    <row r="327" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A327" s="18" t="s">
         <v>51</v>
       </c>
@@ -11525,7 +11600,7 @@
       </c>
       <c r="F327" s="3"/>
     </row>
-    <row r="328" spans="1:6 16384:16384" ht="33">
+    <row r="328" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A328" s="18" t="s">
         <v>446</v>
       </c>
@@ -11543,7 +11618,7 @@
       </c>
       <c r="F328" s="3"/>
     </row>
-    <row r="329" spans="1:6 16384:16384" ht="33">
+    <row r="329" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A329" s="18" t="s">
         <v>190</v>
       </c>
@@ -11561,7 +11636,7 @@
       </c>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="1:6 16384:16384">
+    <row r="330" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A330" s="18" t="s">
         <v>294</v>
       </c>
@@ -11579,7 +11654,7 @@
       </c>
       <c r="F330" s="3"/>
     </row>
-    <row r="331" spans="1:6 16384:16384">
+    <row r="331" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A331" s="18" t="s">
         <v>1278</v>
       </c>
@@ -11594,7 +11669,7 @@
       </c>
       <c r="F331" s="3"/>
     </row>
-    <row r="332" spans="1:6 16384:16384">
+    <row r="332" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A332" s="18" t="s">
         <v>1220</v>
       </c>
@@ -11609,7 +11684,7 @@
       </c>
       <c r="F332" s="3"/>
     </row>
-    <row r="333" spans="1:6 16384:16384" ht="33.75">
+    <row r="333" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A333" s="18" t="s">
         <v>1367</v>
       </c>
@@ -11627,7 +11702,7 @@
       </c>
       <c r="F333" s="3"/>
     </row>
-    <row r="334" spans="1:6 16384:16384" ht="48">
+    <row r="334" spans="1:6 16384:16384" ht="51" x14ac:dyDescent="0.35">
       <c r="A334" s="18" t="s">
         <v>399</v>
       </c>
@@ -11645,7 +11720,7 @@
       </c>
       <c r="F334" s="3"/>
     </row>
-    <row r="335" spans="1:6 16384:16384">
+    <row r="335" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A335" s="18" t="s">
         <v>64</v>
       </c>
@@ -11663,7 +11738,7 @@
       </c>
       <c r="F335" s="3"/>
     </row>
-    <row r="336" spans="1:6 16384:16384" ht="33.75">
+    <row r="336" spans="1:6 16384:16384" ht="36" x14ac:dyDescent="0.35">
       <c r="A336" s="18" t="s">
         <v>855</v>
       </c>
@@ -11684,7 +11759,7 @@
       </c>
       <c r="XFD336" s="5"/>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="18" t="s">
         <v>492</v>
       </c>
@@ -11702,7 +11777,7 @@
       </c>
       <c r="F337" s="3"/>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="18" t="s">
         <v>882</v>
       </c>
@@ -11722,7 +11797,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="18" t="s">
         <v>494</v>
       </c>
@@ -11740,7 +11815,7 @@
       </c>
       <c r="F339" s="3"/>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="18" t="s">
         <v>1056</v>
       </c>
@@ -11751,7 +11826,7 @@
       <c r="D340" s="20"/>
       <c r="F340" s="3"/>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="18" t="s">
         <v>185</v>
       </c>
@@ -11769,7 +11844,7 @@
       </c>
       <c r="F341" s="3"/>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="18" t="s">
         <v>495</v>
       </c>
@@ -11787,7 +11862,7 @@
       </c>
       <c r="F342" s="3"/>
     </row>
-    <row r="343" spans="1:6" ht="33.75">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="18" t="s">
         <v>1329</v>
       </c>
@@ -11802,7 +11877,7 @@
       </c>
       <c r="F343" s="3"/>
     </row>
-    <row r="344" spans="1:6" ht="33">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="18" t="s">
         <v>111</v>
       </c>
@@ -11820,7 +11895,7 @@
       </c>
       <c r="F344" s="3"/>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="18" t="s">
         <v>342</v>
       </c>
@@ -11838,7 +11913,7 @@
       </c>
       <c r="F345" s="3"/>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="18" t="s">
         <v>66</v>
       </c>
@@ -11856,7 +11931,7 @@
       </c>
       <c r="F346" s="3"/>
     </row>
-    <row r="347" spans="1:6" ht="33">
+    <row r="347" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A347" s="18" t="s">
         <v>864</v>
       </c>
@@ -11876,7 +11951,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="18" t="s">
         <v>56</v>
       </c>
@@ -11894,7 +11969,7 @@
       </c>
       <c r="F348" s="3"/>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="18" t="s">
         <v>815</v>
       </c>
@@ -11910,7 +11985,7 @@
       </c>
       <c r="F349" s="3"/>
     </row>
-    <row r="350" spans="1:6" ht="33.75">
+    <row r="350" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A350" s="18" t="s">
         <v>560</v>
       </c>
@@ -11928,7 +12003,7 @@
       </c>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="1:6" ht="33">
+    <row r="351" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A351" s="18" t="s">
         <v>1155</v>
       </c>
@@ -11943,7 +12018,7 @@
       </c>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="18" t="s">
         <v>821</v>
       </c>
@@ -11961,7 +12036,7 @@
       </c>
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="18" t="s">
         <v>336</v>
       </c>
@@ -11979,7 +12054,7 @@
       </c>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="18" t="s">
         <v>300</v>
       </c>
@@ -11995,7 +12070,7 @@
       </c>
       <c r="F354" s="3"/>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="18" t="s">
         <v>573</v>
       </c>
@@ -12013,7 +12088,7 @@
       </c>
       <c r="F355" s="3"/>
     </row>
-    <row r="356" spans="1:6" ht="33">
+    <row r="356" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A356" s="18" t="s">
         <v>468</v>
       </c>
@@ -12031,7 +12106,7 @@
       </c>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="18" t="s">
         <v>1265</v>
       </c>
@@ -12046,7 +12121,7 @@
       </c>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="1:6" ht="33.75">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="18" t="s">
         <v>226</v>
       </c>
@@ -12064,7 +12139,7 @@
       </c>
       <c r="F358" s="3"/>
     </row>
-    <row r="359" spans="1:6" ht="33">
+    <row r="359" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A359" s="18" t="s">
         <v>486</v>
       </c>
@@ -12080,7 +12155,7 @@
       </c>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="1:6" ht="33">
+    <row r="360" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A360" s="18" t="s">
         <v>1369</v>
       </c>
@@ -12098,7 +12173,7 @@
       </c>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="1:6" ht="33.75">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="18" t="s">
         <v>301</v>
       </c>
@@ -12116,7 +12191,7 @@
       </c>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="18" t="s">
         <v>314</v>
       </c>
@@ -12134,7 +12209,7 @@
       </c>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="18" t="s">
         <v>203</v>
       </c>
@@ -12152,7 +12227,7 @@
       </c>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="18" t="s">
         <v>1083</v>
       </c>
@@ -12165,7 +12240,7 @@
       </c>
       <c r="F364" s="3"/>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="18" t="s">
         <v>404</v>
       </c>
@@ -12183,7 +12258,7 @@
       </c>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="1:6" ht="33.75">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="18" t="s">
         <v>708</v>
       </c>
@@ -12201,7 +12276,7 @@
       </c>
       <c r="F366" s="3"/>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="18" t="s">
         <v>477</v>
       </c>
@@ -12219,7 +12294,7 @@
       </c>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="18" t="s">
         <v>139</v>
       </c>
@@ -12237,7 +12312,7 @@
       </c>
       <c r="F368" s="3"/>
     </row>
-    <row r="369" spans="1:6" ht="33.75">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="18" t="s">
         <v>1285</v>
       </c>
@@ -12252,7 +12327,7 @@
       </c>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="18" t="s">
         <v>861</v>
       </c>
@@ -12272,7 +12347,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="18" t="s">
         <v>1209</v>
       </c>
@@ -12287,7 +12362,7 @@
       </c>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="1:6" ht="33.75">
+    <row r="372" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A372" s="18" t="s">
         <v>898</v>
       </c>
@@ -12307,7 +12382,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="33">
+    <row r="373" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A373" s="18" t="s">
         <v>898</v>
       </c>
@@ -12320,7 +12395,7 @@
       </c>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="1:6" ht="33.75">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="18" t="s">
         <v>23</v>
       </c>
@@ -12338,7 +12413,7 @@
       </c>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="18" t="s">
         <v>713</v>
       </c>
@@ -12356,7 +12431,7 @@
       </c>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="18" t="s">
         <v>823</v>
       </c>
@@ -12372,7 +12447,7 @@
       </c>
       <c r="F376" s="3"/>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="18" t="s">
         <v>454</v>
       </c>
@@ -12390,7 +12465,7 @@
       </c>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="18" t="s">
         <v>1041</v>
       </c>
@@ -12403,7 +12478,7 @@
       </c>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="18" t="s">
         <v>453</v>
       </c>
@@ -12421,7 +12496,7 @@
       </c>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="18" t="s">
         <v>29</v>
       </c>
@@ -12439,7 +12514,7 @@
       </c>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="1:6" ht="33.75">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="18" t="s">
         <v>315</v>
       </c>
@@ -12457,7 +12532,7 @@
       </c>
       <c r="F381" s="3"/>
     </row>
-    <row r="382" spans="1:6" ht="33">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="18" t="s">
         <v>43</v>
       </c>
@@ -12475,7 +12550,7 @@
       </c>
       <c r="F382" s="3"/>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="18" t="s">
         <v>733</v>
       </c>
@@ -12493,7 +12568,7 @@
       </c>
       <c r="F383" s="3"/>
     </row>
-    <row r="384" spans="1:6" ht="33">
+    <row r="384" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A384" s="18" t="s">
         <v>484</v>
       </c>
@@ -12511,7 +12586,7 @@
       </c>
       <c r="F384" s="3"/>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="18" t="s">
         <v>546</v>
       </c>
@@ -12529,7 +12604,7 @@
       </c>
       <c r="F385" s="3"/>
     </row>
-    <row r="386" spans="1:6" ht="33.75">
+    <row r="386" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A386" s="18" t="s">
         <v>442</v>
       </c>
@@ -12547,7 +12622,7 @@
       </c>
       <c r="F386" s="3"/>
     </row>
-    <row r="387" spans="1:6" ht="45">
+    <row r="387" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A387" s="18" t="s">
         <v>88</v>
       </c>
@@ -12565,7 +12640,7 @@
       </c>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="1:6" ht="33.75">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="18" t="s">
         <v>1374</v>
       </c>
@@ -12583,7 +12658,7 @@
       </c>
       <c r="F388" s="3"/>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="18" t="s">
         <v>720</v>
       </c>
@@ -12601,7 +12676,7 @@
       </c>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="18" t="s">
         <v>319</v>
       </c>
@@ -12619,7 +12694,7 @@
       </c>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="18" t="s">
         <v>237</v>
       </c>
@@ -12637,7 +12712,7 @@
       </c>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="1:6" ht="45">
+    <row r="392" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A392" s="18" t="s">
         <v>1051</v>
       </c>
@@ -12652,7 +12727,7 @@
       </c>
       <c r="F392" s="3"/>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="18" t="s">
         <v>757</v>
       </c>
@@ -12670,7 +12745,7 @@
       </c>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="18" t="s">
         <v>758</v>
       </c>
@@ -12688,7 +12763,7 @@
       </c>
       <c r="F394" s="3"/>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="18" t="s">
         <v>759</v>
       </c>
@@ -12706,7 +12781,7 @@
       </c>
       <c r="F395" s="3"/>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="18" t="s">
         <v>761</v>
       </c>
@@ -12724,7 +12799,7 @@
       </c>
       <c r="F396" s="3"/>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="18" t="s">
         <v>762</v>
       </c>
@@ -12742,7 +12817,7 @@
       </c>
       <c r="F397" s="3"/>
     </row>
-    <row r="398" spans="1:6" ht="45">
+    <row r="398" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A398" s="18" t="s">
         <v>817</v>
       </c>
@@ -12758,7 +12833,7 @@
       </c>
       <c r="F398" s="3"/>
     </row>
-    <row r="399" spans="1:6" ht="33.75">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="18" t="s">
         <v>1308</v>
       </c>
@@ -12773,7 +12848,7 @@
       </c>
       <c r="F399" s="3"/>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="18" t="s">
         <v>304</v>
       </c>
@@ -12791,7 +12866,7 @@
       </c>
       <c r="F400" s="3"/>
     </row>
-    <row r="401" spans="1:6" ht="33">
+    <row r="401" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A401" s="18" t="s">
         <v>760</v>
       </c>
@@ -12809,7 +12884,7 @@
       </c>
       <c r="F401" s="3"/>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="18" t="s">
         <v>179</v>
       </c>
@@ -12827,7 +12902,7 @@
       </c>
       <c r="F402" s="3"/>
     </row>
-    <row r="403" spans="1:6" ht="33.75">
+    <row r="403" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A403" s="18" t="s">
         <v>271</v>
       </c>
@@ -12845,7 +12920,7 @@
       </c>
       <c r="F403" s="3"/>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="18" t="s">
         <v>47</v>
       </c>
@@ -12863,7 +12938,7 @@
       </c>
       <c r="F404" s="3"/>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="18" t="s">
         <v>437</v>
       </c>
@@ -12881,7 +12956,7 @@
       </c>
       <c r="F405" s="3"/>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="18" t="s">
         <v>212</v>
       </c>
@@ -12894,7 +12969,7 @@
       <c r="D406" s="20"/>
       <c r="F406" s="3"/>
     </row>
-    <row r="407" spans="1:6" ht="45">
+    <row r="407" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A407" s="18" t="s">
         <v>35</v>
       </c>
@@ -12912,7 +12987,7 @@
       </c>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="18" t="s">
         <v>1326</v>
       </c>
@@ -12927,7 +13002,7 @@
       </c>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="18" t="s">
         <v>36</v>
       </c>
@@ -12945,7 +13020,7 @@
       </c>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="18" t="s">
         <v>247</v>
       </c>
@@ -12960,7 +13035,7 @@
       </c>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="18" t="s">
         <v>325</v>
       </c>
@@ -12978,7 +13053,7 @@
       </c>
       <c r="F411" s="3"/>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="18" t="s">
         <v>1172</v>
       </c>
@@ -12989,7 +13064,7 @@
       <c r="D412" s="20"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="18" t="s">
         <v>1177</v>
       </c>
@@ -13000,7 +13075,7 @@
       <c r="D413" s="20"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="1:6" ht="33.75">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="18" t="s">
         <v>863</v>
       </c>
@@ -13020,7 +13095,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="18" t="s">
         <v>481</v>
       </c>
@@ -13038,7 +13113,7 @@
       </c>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="18" t="s">
         <v>1154</v>
       </c>
@@ -13051,7 +13126,7 @@
       <c r="D416" s="20"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="18" t="s">
         <v>160</v>
       </c>
@@ -13069,7 +13144,7 @@
       </c>
       <c r="F417" s="3"/>
     </row>
-    <row r="418" spans="1:6" ht="33.75">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="18" t="s">
         <v>469</v>
       </c>
@@ -13087,7 +13162,7 @@
       </c>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="18" t="s">
         <v>568</v>
       </c>
@@ -13105,7 +13180,7 @@
       </c>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="18" t="s">
         <v>566</v>
       </c>
@@ -13123,7 +13198,7 @@
       </c>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="18" t="s">
         <v>754</v>
       </c>
@@ -13141,7 +13216,7 @@
       </c>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="18" t="s">
         <v>567</v>
       </c>
@@ -13159,7 +13234,7 @@
       </c>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="18" t="s">
         <v>1150</v>
       </c>
@@ -13174,7 +13249,7 @@
       </c>
       <c r="F423" s="3"/>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="18" t="s">
         <v>548</v>
       </c>
@@ -13192,7 +13267,7 @@
       </c>
       <c r="F424" s="3"/>
     </row>
-    <row r="425" spans="1:6" ht="33">
+    <row r="425" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A425" s="18" t="s">
         <v>767</v>
       </c>
@@ -13210,7 +13285,7 @@
       </c>
       <c r="F425" s="3"/>
     </row>
-    <row r="426" spans="1:6" ht="33.75">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="18" t="s">
         <v>120</v>
       </c>
@@ -13228,7 +13303,7 @@
       </c>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="18" t="s">
         <v>402</v>
       </c>
@@ -13246,7 +13321,7 @@
       </c>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="18" t="s">
         <v>298</v>
       </c>
@@ -13264,7 +13339,7 @@
       </c>
       <c r="F428" s="3"/>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="18" t="s">
         <v>1229</v>
       </c>
@@ -13279,7 +13354,7 @@
       </c>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="18" t="s">
         <v>48</v>
       </c>
@@ -13297,7 +13372,7 @@
       </c>
       <c r="F430" s="3"/>
     </row>
-    <row r="431" spans="1:6" ht="33">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="18" t="s">
         <v>169</v>
       </c>
@@ -13315,7 +13390,7 @@
       </c>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="18" t="s">
         <v>1032</v>
       </c>
@@ -13330,7 +13405,7 @@
       </c>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="1:6" ht="33">
+    <row r="433" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A433" s="18" t="s">
         <v>129</v>
       </c>
@@ -13348,7 +13423,7 @@
       </c>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="18" t="s">
         <v>1035</v>
       </c>
@@ -13363,7 +13438,7 @@
       </c>
       <c r="F434" s="3"/>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="18" t="s">
         <v>257</v>
       </c>
@@ -13379,7 +13454,7 @@
       </c>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="18" t="s">
         <v>1377</v>
       </c>
@@ -13397,7 +13472,7 @@
       </c>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="18" t="s">
         <v>102</v>
       </c>
@@ -13415,7 +13490,7 @@
       </c>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="1:6" ht="33">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="18" t="s">
         <v>155</v>
       </c>
@@ -13433,7 +13508,7 @@
       </c>
       <c r="F438" s="3"/>
     </row>
-    <row r="439" spans="1:6" ht="45">
+    <row r="439" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A439" s="18" t="s">
         <v>775</v>
       </c>
@@ -13451,7 +13526,7 @@
       </c>
       <c r="F439" s="3"/>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="18" t="s">
         <v>181</v>
       </c>
@@ -13469,7 +13544,7 @@
       </c>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="18" t="s">
         <v>205</v>
       </c>
@@ -13487,7 +13562,7 @@
       </c>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="18" t="s">
         <v>1270</v>
       </c>
@@ -13502,7 +13577,7 @@
       </c>
       <c r="F442" s="3"/>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="18" t="s">
         <v>1047</v>
       </c>
@@ -13517,7 +13592,7 @@
       </c>
       <c r="F443" s="3"/>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="18" t="s">
         <v>1255</v>
       </c>
@@ -13532,7 +13607,7 @@
       </c>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="1:6" ht="33">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="18" t="s">
         <v>82</v>
       </c>
@@ -13550,7 +13625,7 @@
       </c>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="1:6" ht="33">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="18" t="s">
         <v>851</v>
       </c>
@@ -13570,7 +13645,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="33">
+    <row r="447" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A447" s="18" t="s">
         <v>1322</v>
       </c>
@@ -13585,7 +13660,7 @@
       </c>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="1:6" ht="33">
+    <row r="448" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A448" s="18" t="s">
         <v>1318</v>
       </c>
@@ -13600,7 +13675,7 @@
       </c>
       <c r="F448" s="3"/>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="18" t="s">
         <v>870</v>
       </c>
@@ -13620,7 +13695,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="33">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="18" t="s">
         <v>365</v>
       </c>
@@ -13638,7 +13713,7 @@
       </c>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="18" t="s">
         <v>591</v>
       </c>
@@ -13656,7 +13731,7 @@
       </c>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="1:6" ht="33.75">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="18" t="s">
         <v>794</v>
       </c>
@@ -13674,7 +13749,7 @@
       </c>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="1:6" ht="33">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="18" t="s">
         <v>1320</v>
       </c>
@@ -13689,7 +13764,7 @@
       </c>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="18" t="s">
         <v>175</v>
       </c>
@@ -13707,7 +13782,7 @@
       </c>
       <c r="F454" s="3"/>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="18" t="s">
         <v>496</v>
       </c>
@@ -13725,7 +13800,7 @@
       </c>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="1:6" ht="33.75">
+    <row r="456" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A456" s="18" t="s">
         <v>192</v>
       </c>
@@ -13743,7 +13818,7 @@
       </c>
       <c r="F456" s="3"/>
     </row>
-    <row r="457" spans="1:6" ht="33.75">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="18" t="s">
         <v>860</v>
       </c>
@@ -13763,7 +13838,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="33">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="18" t="s">
         <v>1188</v>
       </c>
@@ -13776,7 +13851,7 @@
       </c>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="1:6" ht="78.75">
+    <row r="459" spans="1:6" ht="72" x14ac:dyDescent="0.35">
       <c r="A459" s="18" t="s">
         <v>363</v>
       </c>
@@ -13794,7 +13869,7 @@
       </c>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="18" t="s">
         <v>1200</v>
       </c>
@@ -13809,7 +13884,7 @@
       </c>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="18" t="s">
         <v>7</v>
       </c>
@@ -13827,7 +13902,7 @@
       </c>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="18" t="s">
         <v>306</v>
       </c>
@@ -13845,7 +13920,7 @@
       </c>
       <c r="F462" s="3"/>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="18" t="s">
         <v>311</v>
       </c>
@@ -13863,7 +13938,7 @@
       </c>
       <c r="F463" s="3"/>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="18" t="s">
         <v>322</v>
       </c>
@@ -13881,7 +13956,7 @@
       </c>
       <c r="F464" s="3"/>
     </row>
-    <row r="465" spans="1:6" ht="33">
+    <row r="465" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A465" s="18" t="s">
         <v>137</v>
       </c>
@@ -13899,7 +13974,7 @@
       </c>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="1:6" ht="48">
+    <row r="466" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A466" s="18" t="s">
         <v>341</v>
       </c>
@@ -13917,7 +13992,7 @@
       </c>
       <c r="F466" s="3"/>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="18" t="s">
         <v>310</v>
       </c>
@@ -13935,7 +14010,7 @@
       </c>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="1:6" ht="33.75">
+    <row r="468" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A468" s="18" t="s">
         <v>1240</v>
       </c>
@@ -13950,7 +14025,7 @@
       </c>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="18" t="s">
         <v>245</v>
       </c>
@@ -13968,7 +14043,7 @@
       </c>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="18" t="s">
         <v>473</v>
       </c>
@@ -13986,7 +14061,7 @@
       </c>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="18" t="s">
         <v>86</v>
       </c>
@@ -14004,7 +14079,7 @@
       </c>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="18" t="s">
         <v>1074</v>
       </c>
@@ -14017,7 +14092,7 @@
       </c>
       <c r="F472" s="3"/>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="18" t="s">
         <v>893</v>
       </c>
@@ -14037,7 +14112,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="18" t="s">
         <v>1017</v>
       </c>
@@ -14052,7 +14127,7 @@
       </c>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="18" t="s">
         <v>1305</v>
       </c>
@@ -14067,7 +14142,7 @@
       </c>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="1:6" ht="33.75">
+    <row r="476" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A476" s="18" t="s">
         <v>1421</v>
       </c>
@@ -14082,7 +14157,7 @@
       </c>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="18" t="s">
         <v>1424</v>
       </c>
@@ -14095,7 +14170,7 @@
       </c>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="18" t="s">
         <v>1491</v>
       </c>
@@ -14110,7 +14185,7 @@
       </c>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="18" t="s">
         <v>1493</v>
       </c>
@@ -14125,7 +14200,7 @@
       </c>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="18" t="s">
         <v>1488</v>
       </c>
@@ -14140,7 +14215,7 @@
       </c>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="1:6" ht="33.75">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="18" t="s">
         <v>1496</v>
       </c>
@@ -14155,7 +14230,7 @@
       </c>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="1:6" ht="33">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="18" t="s">
         <v>1026</v>
       </c>
@@ -14168,7 +14243,7 @@
       </c>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="18" t="s">
         <v>1502</v>
       </c>
@@ -14181,7 +14256,7 @@
       </c>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="18" t="s">
         <v>1505</v>
       </c>
@@ -14194,7 +14269,7 @@
       </c>
       <c r="F484" s="3"/>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="18" t="s">
         <v>1508</v>
       </c>
@@ -14207,7 +14282,7 @@
       </c>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="1:6" ht="33.75">
+    <row r="486" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A486" s="18" t="s">
         <v>1516</v>
       </c>
@@ -14222,7 +14297,7 @@
       </c>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="18" t="s">
         <v>1519</v>
       </c>
@@ -14237,7 +14312,7 @@
       </c>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="1:6" ht="30">
+    <row r="488" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A488" s="17" t="s">
         <v>1525</v>
       </c>
@@ -14252,7 +14327,7 @@
       </c>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="1:6" ht="33.75">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="18" t="s">
         <v>1524</v>
       </c>
@@ -14267,7 +14342,7 @@
       </c>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="18" t="s">
         <v>1528</v>
       </c>
@@ -14282,7 +14357,7 @@
       </c>
       <c r="F490" s="3"/>
     </row>
-    <row r="491" spans="1:6" ht="33.75">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="18" t="s">
         <v>1529</v>
       </c>
@@ -14297,7 +14372,7 @@
       </c>
       <c r="F491" s="3"/>
     </row>
-    <row r="492" spans="1:6" ht="33.75">
+    <row r="492" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A492" s="18" t="s">
         <v>1535</v>
       </c>
@@ -14312,18 +14387,192 @@
       </c>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="18" t="s">
         <v>1539</v>
       </c>
       <c r="B493" s="17" t="s">
         <v>1537</v>
       </c>
-      <c r="C493" s="3"/>
+      <c r="C493" s="3" t="s">
+        <v>316</v>
+      </c>
       <c r="D493" s="20" t="s">
         <v>1538</v>
       </c>
       <c r="F493" s="3"/>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A494" s="24" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B494" s="25" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C494" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D494" s="27"/>
+      <c r="E494" s="26"/>
+      <c r="F494" s="26"/>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A495" s="24" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B495" s="25" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C495" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D495" s="27"/>
+      <c r="E495" s="26"/>
+      <c r="F495" s="26"/>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A496" s="24" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B496" s="25" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C496" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D496" s="27"/>
+      <c r="E496" s="26"/>
+      <c r="F496" s="26"/>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A497" s="24" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B497" s="25" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C497" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D497" s="27"/>
+      <c r="E497" s="26"/>
+      <c r="F497" s="26"/>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A498" s="24" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B498" s="25" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C498" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D498" s="27"/>
+      <c r="E498" s="26"/>
+      <c r="F498" s="26"/>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A499" s="24" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B499" s="25" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C499" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D499" s="27"/>
+      <c r="E499" s="26"/>
+      <c r="F499" s="26"/>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A500" s="24" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B500" s="25" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C500" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D500" s="27"/>
+      <c r="E500" s="26"/>
+      <c r="F500" s="26"/>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A501" s="24" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B501" s="25" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C501" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D501" s="27"/>
+      <c r="E501" s="26"/>
+      <c r="F501" s="26"/>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A502" s="24" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B502" s="25" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C502" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D502" s="27"/>
+      <c r="E502" s="26"/>
+      <c r="F502" s="26"/>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A503" s="24" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B503" s="25" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C503" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D503" s="27" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E503" s="26"/>
+      <c r="F503" s="26"/>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A504" s="24" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B504" s="25" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C504" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D504" s="27"/>
+      <c r="E504" s="26"/>
+      <c r="F504" s="26"/>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A505" s="24" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B505" s="25" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C505" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D505" s="27" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E505" s="26"/>
+      <c r="F505" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D276">

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorio/Sites/markdown/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9879510-C7F4-9D4D-A5B9-DEA874EDD761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBE266E-2ED5-4289-9C7B-C22098AB8FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="105" windowWidth="24225" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="1570">
   <si>
     <t>NAS</t>
   </si>
@@ -5243,12 +5243,28 @@
   <si>
     <t>Boot Dev Select</t>
   </si>
+  <si>
+    <t xml:space="preserve">SPI FIREWALL:
+</t>
+  </si>
+  <si>
+    <t>Stateful Packet Inspection FIREWALL</t>
+  </si>
+  <si>
+    <t>NAT
+PAT
+Source-Nat
+PNAT</t>
+  </si>
+  <si>
+    <t>port translation protocol</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5441,7 +5457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5497,6 +5513,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5609,8 +5628,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F505" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
-  <autoFilter ref="A1:F505" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F507" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
+  <autoFilter ref="A1:F507" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F475">
     <sortCondition ref="A1:A475"/>
   </sortState>
@@ -5889,23 +5908,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD505"/>
+  <dimension ref="A1:XFD507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B499" sqref="B499"/>
+    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D507" sqref="D507"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="78.1640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="3"/>
-    <col min="6" max="6" width="58.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="78.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="3"/>
+    <col min="6" max="6" width="58.85546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27.75">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -5925,7 +5944,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="18" t="s">
         <v>1099</v>
       </c>
@@ -5939,7 +5958,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="A3" s="18" t="s">
         <v>1099</v>
       </c>
@@ -5953,7 +5972,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="18" t="s">
         <v>1099</v>
       </c>
@@ -5966,7 +5985,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="18" t="s">
         <v>1098</v>
       </c>
@@ -5980,7 +5999,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="18" t="s">
         <v>1102</v>
       </c>
@@ -5994,7 +6013,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="18" t="s">
         <v>1104</v>
       </c>
@@ -6008,7 +6027,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="2" customFormat="1">
       <c r="A8" s="18" t="s">
         <v>1105</v>
       </c>
@@ -6022,7 +6041,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="18" t="s">
         <v>1110</v>
       </c>
@@ -6036,7 +6055,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="2" customFormat="1">
       <c r="A10" s="18" t="s">
         <v>1113</v>
       </c>
@@ -6050,7 +6069,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="18" t="s">
         <v>1117</v>
       </c>
@@ -6064,7 +6083,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="18" t="s">
         <v>1119</v>
       </c>
@@ -6078,7 +6097,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="18" t="s">
         <v>1122</v>
       </c>
@@ -6092,7 +6111,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" s="2" customFormat="1">
       <c r="A14" s="18" t="s">
         <v>1123</v>
       </c>
@@ -6106,7 +6125,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="18" t="s">
         <v>1130</v>
       </c>
@@ -6120,7 +6139,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" s="2" customFormat="1">
       <c r="A16" s="18" t="s">
         <v>1129</v>
       </c>
@@ -6134,7 +6153,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A17" s="18" t="s">
         <v>264</v>
       </c>
@@ -6152,7 +6171,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" s="2" customFormat="1">
       <c r="A18" s="18" t="s">
         <v>265</v>
       </c>
@@ -6168,7 +6187,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="2" customFormat="1">
       <c r="A19" s="18" t="s">
         <v>263</v>
       </c>
@@ -6184,7 +6203,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="18" t="s">
         <v>274</v>
       </c>
@@ -6194,7 +6213,7 @@
       </c>
       <c r="D20" s="20"/>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="33">
       <c r="A21" s="18" t="s">
         <v>1335</v>
       </c>
@@ -6212,7 +6231,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" s="2" customFormat="1">
       <c r="A22" s="18" t="s">
         <v>1277</v>
       </c>
@@ -6228,7 +6247,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" s="2" customFormat="1">
       <c r="A23" s="18" t="s">
         <v>879</v>
       </c>
@@ -6248,7 +6267,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="33">
       <c r="A24" s="18" t="s">
         <v>398</v>
       </c>
@@ -6268,7 +6287,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="33">
       <c r="A25" s="18" t="s">
         <v>80</v>
       </c>
@@ -6286,7 +6305,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" s="2" customFormat="1">
       <c r="A26" s="18" t="s">
         <v>272</v>
       </c>
@@ -6300,7 +6319,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" s="2" customFormat="1">
       <c r="A27" s="18" t="s">
         <v>1243</v>
       </c>
@@ -6320,7 +6339,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="18" t="s">
         <v>1313</v>
       </c>
@@ -6338,7 +6357,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" s="2" customFormat="1">
       <c r="A29" s="18" t="s">
         <v>853</v>
       </c>
@@ -6358,7 +6377,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="33">
       <c r="A30" s="18" t="s">
         <v>392</v>
       </c>
@@ -6378,7 +6397,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" s="2" customFormat="1">
       <c r="A31" s="18" t="s">
         <v>1192</v>
       </c>
@@ -6396,7 +6415,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" s="2" customFormat="1">
       <c r="A32" s="18" t="s">
         <v>1089</v>
       </c>
@@ -6412,7 +6431,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" s="4" customFormat="1">
       <c r="A33" s="18" t="s">
         <v>107</v>
       </c>
@@ -6432,7 +6451,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" s="2" customFormat="1">
       <c r="A34" s="18" t="s">
         <v>1344</v>
       </c>
@@ -6452,7 +6471,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6">
       <c r="A35" s="18" t="s">
         <v>187</v>
       </c>
@@ -6470,7 +6489,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="33">
       <c r="A36" s="18" t="s">
         <v>346</v>
       </c>
@@ -6490,7 +6509,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6">
       <c r="A37" s="18" t="s">
         <v>255</v>
       </c>
@@ -6510,7 +6529,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="56.25">
       <c r="A38" s="18" t="s">
         <v>224</v>
       </c>
@@ -6530,7 +6549,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A39" s="18" t="s">
         <v>1053</v>
       </c>
@@ -6548,7 +6567,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" s="2" customFormat="1">
       <c r="A40" s="18" t="s">
         <v>534</v>
       </c>
@@ -6568,7 +6587,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" s="2" customFormat="1">
       <c r="A41" s="18" t="s">
         <v>482</v>
       </c>
@@ -6588,7 +6607,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" s="2" customFormat="1">
       <c r="A42" s="18" t="s">
         <v>25</v>
       </c>
@@ -6604,7 +6623,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="33">
       <c r="A43" s="18" t="s">
         <v>22</v>
       </c>
@@ -6624,7 +6643,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="33">
       <c r="A44" s="18" t="s">
         <v>470</v>
       </c>
@@ -6644,7 +6663,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" s="2" customFormat="1">
       <c r="A45" s="18" t="s">
         <v>53</v>
       </c>
@@ -6664,7 +6683,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" s="2" customFormat="1">
       <c r="A46" s="18" t="s">
         <v>552</v>
       </c>
@@ -6684,7 +6703,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" s="2" customFormat="1">
       <c r="A47" s="18" t="s">
         <v>764</v>
       </c>
@@ -6702,7 +6721,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" s="2" customFormat="1">
       <c r="A48" s="18" t="s">
         <v>765</v>
       </c>
@@ -6720,7 +6739,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" s="2" customFormat="1">
       <c r="A49" s="18" t="s">
         <v>393</v>
       </c>
@@ -6740,7 +6759,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" s="2" customFormat="1">
       <c r="A50" s="18" t="s">
         <v>1347</v>
       </c>
@@ -6760,7 +6779,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A51" s="18" t="s">
         <v>1238</v>
       </c>
@@ -6776,7 +6795,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" s="2" customFormat="1">
       <c r="A52" s="18" t="s">
         <v>1179</v>
       </c>
@@ -6792,7 +6811,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" s="2" customFormat="1">
       <c r="A53" s="18" t="s">
         <v>1195</v>
       </c>
@@ -6808,7 +6827,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" s="2" customFormat="1">
       <c r="A54" s="18" t="s">
         <v>549</v>
       </c>
@@ -6828,7 +6847,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" s="2" customFormat="1">
       <c r="A55" s="18" t="s">
         <v>1348</v>
       </c>
@@ -6848,7 +6867,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A56" s="18" t="s">
         <v>369</v>
       </c>
@@ -6868,7 +6887,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A57" s="18" t="s">
         <v>1158</v>
       </c>
@@ -6886,7 +6905,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" s="2" customFormat="1">
       <c r="A58" s="18" t="s">
         <v>410</v>
       </c>
@@ -6904,7 +6923,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" s="2" customFormat="1" ht="33">
       <c r="A59" s="18" t="s">
         <v>1190</v>
       </c>
@@ -6920,7 +6939,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="48">
       <c r="A60" s="18" t="s">
         <v>1184</v>
       </c>
@@ -6934,7 +6953,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A61" s="18" t="s">
         <v>1072</v>
       </c>
@@ -6950,7 +6969,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" s="2" customFormat="1">
       <c r="A62" s="18" t="s">
         <v>555</v>
       </c>
@@ -6970,7 +6989,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A63" s="18" t="s">
         <v>359</v>
       </c>
@@ -6990,7 +7009,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A64" s="18" t="s">
         <v>539</v>
       </c>
@@ -7010,7 +7029,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" s="2" customFormat="1">
       <c r="A65" s="18" t="s">
         <v>1288</v>
       </c>
@@ -7028,7 +7047,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" s="2" customFormat="1">
       <c r="A66" s="18" t="s">
         <v>1019</v>
       </c>
@@ -7044,7 +7063,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" s="2" customFormat="1">
       <c r="A67" s="18" t="s">
         <v>796</v>
       </c>
@@ -7062,7 +7081,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" s="2" customFormat="1">
       <c r="A68" s="18" t="s">
         <v>246</v>
       </c>
@@ -7082,7 +7101,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6">
       <c r="A69" s="18" t="s">
         <v>1289</v>
       </c>
@@ -7097,7 +7116,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A70" s="18" t="s">
         <v>109</v>
       </c>
@@ -7117,7 +7136,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" s="2" customFormat="1">
       <c r="A71" s="18" t="s">
         <v>565</v>
       </c>
@@ -7137,7 +7156,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" s="2" customFormat="1">
       <c r="A72" s="18" t="s">
         <v>828</v>
       </c>
@@ -7153,7 +7172,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A73" s="18" t="s">
         <v>1226</v>
       </c>
@@ -7171,7 +7190,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A74" s="18" t="s">
         <v>1378</v>
       </c>
@@ -7191,7 +7210,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A75" s="18" t="s">
         <v>1042</v>
       </c>
@@ -7207,7 +7226,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" s="2" customFormat="1">
       <c r="A76" s="18" t="s">
         <v>456</v>
       </c>
@@ -7227,7 +7246,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A77" s="18" t="s">
         <v>811</v>
       </c>
@@ -7243,7 +7262,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" s="2" customFormat="1">
       <c r="A78" s="18" t="s">
         <v>441</v>
       </c>
@@ -7261,7 +7280,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6">
       <c r="A79" s="18" t="s">
         <v>396</v>
       </c>
@@ -7278,7 +7297,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A80" s="18" t="s">
         <v>101</v>
       </c>
@@ -7298,7 +7317,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="33.75">
       <c r="A81" s="18" t="s">
         <v>755</v>
       </c>
@@ -7316,7 +7335,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" s="2" customFormat="1">
       <c r="A82" s="18" t="s">
         <v>357</v>
       </c>
@@ -7334,7 +7353,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6">
       <c r="A83" s="18" t="s">
         <v>1169</v>
       </c>
@@ -7350,7 +7369,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A84" s="18" t="s">
         <v>381</v>
       </c>
@@ -7370,7 +7389,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="33">
       <c r="A85" s="18" t="s">
         <v>1352</v>
       </c>
@@ -7390,7 +7409,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" s="2" customFormat="1" ht="33">
       <c r="A86" s="18" t="s">
         <v>383</v>
       </c>
@@ -7410,7 +7429,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" s="2" customFormat="1">
       <c r="A87" s="18" t="s">
         <v>105</v>
       </c>
@@ -7430,7 +7449,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" s="2" customFormat="1">
       <c r="A88" s="18" t="s">
         <v>75</v>
       </c>
@@ -7450,7 +7469,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" s="2" customFormat="1">
       <c r="A89" s="18" t="s">
         <v>881</v>
       </c>
@@ -7470,7 +7489,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A90" s="18" t="s">
         <v>337</v>
       </c>
@@ -7490,7 +7509,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" s="2" customFormat="1">
       <c r="A91" s="18" t="s">
         <v>1217</v>
       </c>
@@ -7508,7 +7527,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" s="2" customFormat="1">
       <c r="A92" s="18" t="s">
         <v>210</v>
       </c>
@@ -7526,7 +7545,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" s="2" customFormat="1">
       <c r="A93" s="18" t="s">
         <v>327</v>
       </c>
@@ -7546,7 +7565,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" s="2" customFormat="1">
       <c r="A94" s="18" t="s">
         <v>1214</v>
       </c>
@@ -7564,7 +7583,7 @@
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" s="2" customFormat="1">
       <c r="A95" s="18" t="s">
         <v>1353</v>
       </c>
@@ -7584,7 +7603,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" s="2" customFormat="1">
       <c r="A96" s="18" t="s">
         <v>90</v>
       </c>
@@ -7604,7 +7623,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" s="2" customFormat="1">
       <c r="A97" s="18" t="s">
         <v>493</v>
       </c>
@@ -7624,7 +7643,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" s="2" customFormat="1" ht="33">
       <c r="A98" s="18" t="s">
         <v>485</v>
       </c>
@@ -7644,7 +7663,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" s="2" customFormat="1">
       <c r="A99" s="18" t="s">
         <v>1212</v>
       </c>
@@ -7662,7 +7681,7 @@
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A100" s="18" t="s">
         <v>232</v>
       </c>
@@ -7682,7 +7701,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" s="2" customFormat="1" ht="48">
       <c r="A101" s="18" t="s">
         <v>2</v>
       </c>
@@ -7702,7 +7721,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" s="2" customFormat="1" ht="48">
       <c r="A102" s="18" t="s">
         <v>1408</v>
       </c>
@@ -7720,7 +7739,7 @@
       </c>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" s="2" customFormat="1" ht="33.75">
       <c r="A103" s="18" t="s">
         <v>1407</v>
       </c>
@@ -7736,7 +7755,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" s="2" customFormat="1">
       <c r="A104" s="18" t="s">
         <v>1409</v>
       </c>
@@ -7750,7 +7769,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" s="2" customFormat="1">
       <c r="A105" s="18" t="s">
         <v>476</v>
       </c>
@@ -7770,7 +7789,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" s="2" customFormat="1">
       <c r="A106" s="18" t="s">
         <v>543</v>
       </c>
@@ -7790,7 +7809,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" s="2" customFormat="1" ht="33">
       <c r="A107" s="18" t="s">
         <v>1355</v>
       </c>
@@ -7810,7 +7829,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" s="2" customFormat="1" ht="33">
       <c r="A108" s="18" t="s">
         <v>340</v>
       </c>
@@ -7830,7 +7849,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6">
       <c r="A109" s="18" t="s">
         <v>1206</v>
       </c>
@@ -7848,7 +7867,7 @@
       </c>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" s="2" customFormat="1">
       <c r="A110" s="18" t="s">
         <v>275</v>
       </c>
@@ -7866,7 +7885,7 @@
       </c>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" ht="33.75">
       <c r="A111" s="18" t="s">
         <v>1066</v>
       </c>
@@ -7882,7 +7901,7 @@
       </c>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6">
       <c r="A112" s="18" t="s">
         <v>373</v>
       </c>
@@ -7902,7 +7921,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6">
       <c r="A113" s="18" t="s">
         <v>92</v>
       </c>
@@ -7922,7 +7941,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6">
       <c r="A114" s="18" t="s">
         <v>173</v>
       </c>
@@ -7942,7 +7961,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="33.75">
       <c r="A115" s="18" t="s">
         <v>807</v>
       </c>
@@ -7960,7 +7979,7 @@
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" ht="48" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" ht="45">
       <c r="A116" s="18" t="s">
         <v>21</v>
       </c>
@@ -7980,7 +7999,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" ht="33">
       <c r="A117" s="18" t="s">
         <v>249</v>
       </c>
@@ -8000,7 +8019,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6">
       <c r="A118" s="18" t="s">
         <v>475</v>
       </c>
@@ -8020,7 +8039,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6">
       <c r="A119" s="18" t="s">
         <v>94</v>
       </c>
@@ -8040,7 +8059,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" ht="33.75">
       <c r="A120" s="18" t="s">
         <v>379</v>
       </c>
@@ -8060,7 +8079,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" ht="33.75">
       <c r="A121" s="18" t="s">
         <v>320</v>
       </c>
@@ -8080,7 +8099,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6">
       <c r="A122" s="18" t="s">
         <v>1028</v>
       </c>
@@ -8098,7 +8117,7 @@
       </c>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6">
       <c r="A123" s="18" t="s">
         <v>54</v>
       </c>
@@ -8118,7 +8137,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6">
       <c r="A124" s="18" t="s">
         <v>78</v>
       </c>
@@ -8138,7 +8157,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="33.75">
       <c r="A125" s="18" t="s">
         <v>71</v>
       </c>
@@ -8158,7 +8177,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" ht="33.75">
       <c r="A126" s="18" t="s">
         <v>1231</v>
       </c>
@@ -8173,7 +8192,7 @@
       </c>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6">
       <c r="A127" s="18" t="s">
         <v>871</v>
       </c>
@@ -8193,7 +8212,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="48" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" ht="45">
       <c r="A128" s="18" t="s">
         <v>1050</v>
       </c>
@@ -8206,7 +8225,7 @@
       </c>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6">
       <c r="A129" s="18" t="s">
         <v>209</v>
       </c>
@@ -8219,7 +8238,7 @@
       <c r="D129" s="20"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" ht="33.75">
       <c r="A130" s="18" t="s">
         <v>153</v>
       </c>
@@ -8239,7 +8258,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6">
       <c r="A131" s="18" t="s">
         <v>1065</v>
       </c>
@@ -8252,7 +8271,7 @@
       </c>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" ht="33.75">
       <c r="A132" s="18" t="s">
         <v>749</v>
       </c>
@@ -8270,7 +8289,7 @@
       </c>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" ht="33.75">
       <c r="A133" s="18" t="s">
         <v>491</v>
       </c>
@@ -8290,7 +8309,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6">
       <c r="A134" s="18" t="s">
         <v>68</v>
       </c>
@@ -8310,7 +8329,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6">
       <c r="A135" s="18" t="s">
         <v>62</v>
       </c>
@@ -8330,7 +8349,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" ht="48">
       <c r="A136" s="18" t="s">
         <v>391</v>
       </c>
@@ -8350,7 +8369,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" ht="33.75">
       <c r="A137" s="18" t="s">
         <v>600</v>
       </c>
@@ -8370,7 +8389,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" ht="48">
       <c r="A138" s="18" t="s">
         <v>344</v>
       </c>
@@ -8390,7 +8409,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" ht="33">
       <c r="A139" s="18" t="s">
         <v>330</v>
       </c>
@@ -8410,7 +8429,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6">
       <c r="A140" s="18" t="s">
         <v>763</v>
       </c>
@@ -8428,7 +8447,7 @@
       </c>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6">
       <c r="A141" s="18" t="s">
         <v>183</v>
       </c>
@@ -8448,7 +8467,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" ht="33">
       <c r="A142" s="18" t="s">
         <v>349</v>
       </c>
@@ -8468,7 +8487,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="108" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" ht="112.5">
       <c r="A143" s="18" t="s">
         <v>418</v>
       </c>
@@ -8488,7 +8507,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="48" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" ht="45">
       <c r="A144" s="18" t="s">
         <v>1049</v>
       </c>
@@ -8503,7 +8522,7 @@
       </c>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" ht="33.75">
       <c r="A145" s="18" t="s">
         <v>467</v>
       </c>
@@ -8523,7 +8542,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6">
       <c r="A146" s="18" t="s">
         <v>1175</v>
       </c>
@@ -8536,7 +8555,7 @@
       </c>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" ht="33.75">
       <c r="A147" s="18" t="s">
         <v>413</v>
       </c>
@@ -8556,7 +8575,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" ht="33.75">
       <c r="A148" s="18" t="s">
         <v>414</v>
       </c>
@@ -8573,7 +8592,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="48" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" ht="45">
       <c r="A149" s="18" t="s">
         <v>331</v>
       </c>
@@ -8593,7 +8612,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" ht="33.75">
       <c r="A150" s="18" t="s">
         <v>1040</v>
       </c>
@@ -8606,7 +8625,7 @@
       </c>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6">
       <c r="A151" s="18" t="s">
         <v>426</v>
       </c>
@@ -8626,7 +8645,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" ht="33">
       <c r="A152" s="18" t="s">
         <v>261</v>
       </c>
@@ -8646,7 +8665,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" ht="33">
       <c r="A153" s="18" t="s">
         <v>98</v>
       </c>
@@ -8666,7 +8685,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" ht="33.75">
       <c r="A154" s="18" t="s">
         <v>251</v>
       </c>
@@ -8686,7 +8705,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6">
       <c r="A155" s="18" t="s">
         <v>1069</v>
       </c>
@@ -8699,7 +8718,7 @@
       </c>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6">
       <c r="A156" s="18" t="s">
         <v>1070</v>
       </c>
@@ -8712,7 +8731,7 @@
       </c>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="33.75">
       <c r="A157" s="18" t="s">
         <v>1071</v>
       </c>
@@ -8725,7 +8744,7 @@
       </c>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6">
       <c r="A158" s="18" t="s">
         <v>317</v>
       </c>
@@ -8745,7 +8764,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6">
       <c r="A159" s="18" t="s">
         <v>52</v>
       </c>
@@ -8765,7 +8784,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6">
       <c r="A160" s="18" t="s">
         <v>1282</v>
       </c>
@@ -8780,7 +8799,7 @@
       </c>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6">
       <c r="A161" s="18" t="s">
         <v>1091</v>
       </c>
@@ -8793,7 +8812,7 @@
       </c>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6">
       <c r="A162" s="18" t="s">
         <v>478</v>
       </c>
@@ -8813,7 +8832,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6">
       <c r="A163" s="18" t="s">
         <v>483</v>
       </c>
@@ -8831,7 +8850,7 @@
       </c>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="33">
       <c r="A164" s="18" t="s">
         <v>480</v>
       </c>
@@ -8849,7 +8868,7 @@
       </c>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6">
       <c r="A165" s="18" t="s">
         <v>844</v>
       </c>
@@ -8865,7 +8884,7 @@
       </c>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6">
       <c r="A166" s="18" t="s">
         <v>766</v>
       </c>
@@ -8883,7 +8902,7 @@
       </c>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="33.75">
       <c r="A167" s="18" t="s">
         <v>822</v>
       </c>
@@ -8896,7 +8915,7 @@
       </c>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6">
       <c r="A168" s="18" t="s">
         <v>433</v>
       </c>
@@ -8914,7 +8933,7 @@
       </c>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6">
       <c r="A169" s="18" t="s">
         <v>1170</v>
       </c>
@@ -8927,7 +8946,7 @@
       </c>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="37.5">
       <c r="A170" s="21" t="s">
         <v>1461</v>
       </c>
@@ -8945,7 +8964,7 @@
       </c>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" ht="33.75">
       <c r="A171" s="18" t="s">
         <v>435</v>
       </c>
@@ -8963,7 +8982,7 @@
       </c>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" ht="33.75">
       <c r="A172" s="18" t="s">
         <v>33</v>
       </c>
@@ -8981,7 +9000,7 @@
       </c>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6">
       <c r="A173" s="18" t="s">
         <v>145</v>
       </c>
@@ -8999,7 +9018,7 @@
       </c>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6">
       <c r="A174" s="18" t="s">
         <v>143</v>
       </c>
@@ -9017,7 +9036,7 @@
       </c>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6">
       <c r="A175" s="18" t="s">
         <v>147</v>
       </c>
@@ -9035,7 +9054,7 @@
       </c>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6">
       <c r="A176" s="18" t="s">
         <v>84</v>
       </c>
@@ -9053,7 +9072,7 @@
       </c>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6">
       <c r="A177" s="18" t="s">
         <v>141</v>
       </c>
@@ -9071,7 +9090,7 @@
       </c>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6">
       <c r="A178" s="18" t="s">
         <v>8</v>
       </c>
@@ -9089,7 +9108,7 @@
       </c>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6">
       <c r="A179" s="18" t="s">
         <v>278</v>
       </c>
@@ -9104,7 +9123,7 @@
       </c>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" ht="45">
       <c r="A180" s="18" t="s">
         <v>814</v>
       </c>
@@ -9120,7 +9139,7 @@
       </c>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6">
       <c r="A181" s="18" t="s">
         <v>497</v>
       </c>
@@ -9138,7 +9157,7 @@
       </c>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6">
       <c r="A182" s="18" t="s">
         <v>1168</v>
       </c>
@@ -9149,7 +9168,7 @@
       </c>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" ht="33.75">
       <c r="A183" s="18" t="s">
         <v>1026</v>
       </c>
@@ -9164,7 +9183,7 @@
       </c>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6">
       <c r="A184" s="18" t="s">
         <v>800</v>
       </c>
@@ -9182,7 +9201,7 @@
       </c>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" ht="33.75">
       <c r="A185" s="18" t="s">
         <v>354</v>
       </c>
@@ -9200,7 +9219,7 @@
       </c>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="33.75">
       <c r="A186" s="18" t="s">
         <v>1139</v>
       </c>
@@ -9215,7 +9234,7 @@
       </c>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="33">
       <c r="A187" s="18" t="s">
         <v>1030</v>
       </c>
@@ -9230,7 +9249,7 @@
       </c>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" ht="33.75">
       <c r="A188" s="18" t="s">
         <v>858</v>
       </c>
@@ -9250,7 +9269,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6">
       <c r="A189" s="18" t="s">
         <v>195</v>
       </c>
@@ -9263,7 +9282,7 @@
       </c>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" ht="33.75">
       <c r="A190" s="18" t="s">
         <v>167</v>
       </c>
@@ -9281,7 +9300,7 @@
       </c>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6">
       <c r="A191" s="18" t="s">
         <v>472</v>
       </c>
@@ -9299,7 +9318,7 @@
       </c>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" ht="33.75">
       <c r="A192" s="18" t="s">
         <v>161</v>
       </c>
@@ -9317,7 +9336,7 @@
       </c>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6">
       <c r="A193" s="18" t="s">
         <v>118</v>
       </c>
@@ -9332,7 +9351,7 @@
       </c>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6">
       <c r="A194" s="18" t="s">
         <v>163</v>
       </c>
@@ -9350,7 +9369,7 @@
       </c>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6">
       <c r="A195" s="18" t="s">
         <v>177</v>
       </c>
@@ -9368,7 +9387,7 @@
       </c>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" ht="33.75">
       <c r="A196" s="18" t="s">
         <v>1137</v>
       </c>
@@ -9383,7 +9402,7 @@
       </c>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" ht="33.75">
       <c r="A197" s="18" t="s">
         <v>20</v>
       </c>
@@ -9398,7 +9417,7 @@
       </c>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6">
       <c r="A198" s="18" t="s">
         <v>1379</v>
       </c>
@@ -9416,7 +9435,7 @@
       </c>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" ht="33">
       <c r="A199" s="18" t="s">
         <v>1234</v>
       </c>
@@ -9431,7 +9450,7 @@
       </c>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" ht="33.75">
       <c r="A200" s="18" t="s">
         <v>874</v>
       </c>
@@ -9451,7 +9470,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6">
       <c r="A201" s="18" t="s">
         <v>563</v>
       </c>
@@ -9466,7 +9485,7 @@
       </c>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" ht="33.75">
       <c r="A202" s="18" t="s">
         <v>228</v>
       </c>
@@ -9484,7 +9503,7 @@
       </c>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" ht="33">
       <c r="A203" s="18" t="s">
         <v>132</v>
       </c>
@@ -9502,7 +9521,7 @@
       </c>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6">
       <c r="A204" s="18" t="s">
         <v>136</v>
       </c>
@@ -9520,7 +9539,7 @@
       </c>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6">
       <c r="A205" s="18" t="s">
         <v>134</v>
       </c>
@@ -9538,7 +9557,7 @@
       </c>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" ht="33.75">
       <c r="A206" s="18" t="s">
         <v>440</v>
       </c>
@@ -9556,7 +9575,7 @@
       </c>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6">
       <c r="A207" s="18" t="s">
         <v>11</v>
       </c>
@@ -9574,7 +9593,7 @@
       </c>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6">
       <c r="A208" s="18" t="s">
         <v>280</v>
       </c>
@@ -9589,7 +9608,7 @@
       </c>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6">
       <c r="A209" s="18" t="s">
         <v>253</v>
       </c>
@@ -9602,7 +9621,7 @@
       <c r="D209" s="20"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6">
       <c r="A210" s="18" t="s">
         <v>540</v>
       </c>
@@ -9620,7 +9639,7 @@
       </c>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" ht="33.75">
       <c r="A211" s="18" t="s">
         <v>17</v>
       </c>
@@ -9638,7 +9657,7 @@
       </c>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6">
       <c r="A212" s="18" t="s">
         <v>408</v>
       </c>
@@ -9656,7 +9675,7 @@
       </c>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" ht="33">
       <c r="A213" s="18" t="s">
         <v>428</v>
       </c>
@@ -9674,7 +9693,7 @@
       </c>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6">
       <c r="A214" s="18" t="s">
         <v>26</v>
       </c>
@@ -9692,7 +9711,7 @@
       </c>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" ht="33">
       <c r="A215" s="18" t="s">
         <v>238</v>
       </c>
@@ -9710,7 +9729,7 @@
       </c>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" ht="33.75">
       <c r="A216" s="18" t="s">
         <v>220</v>
       </c>
@@ -9728,7 +9747,7 @@
       </c>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6">
       <c r="A217" s="18" t="s">
         <v>69</v>
       </c>
@@ -9746,7 +9765,7 @@
       </c>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="45">
       <c r="A218" s="22" t="s">
         <v>1360</v>
       </c>
@@ -9764,7 +9783,7 @@
       </c>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" ht="33">
       <c r="A219" s="18" t="s">
         <v>465</v>
       </c>
@@ -9782,7 +9801,7 @@
       </c>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6">
       <c r="A220" s="18" t="s">
         <v>1488</v>
       </c>
@@ -9797,7 +9816,7 @@
       </c>
       <c r="F220" s="3"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6">
       <c r="A221" s="18" t="s">
         <v>1057</v>
       </c>
@@ -9812,7 +9831,7 @@
       </c>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" ht="45">
       <c r="A222" s="18" t="s">
         <v>458</v>
       </c>
@@ -9830,7 +9849,7 @@
       </c>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" ht="33.75">
       <c r="A223" s="18" t="s">
         <v>430</v>
       </c>
@@ -9848,7 +9867,7 @@
       </c>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" ht="33.75">
       <c r="A224" s="23" t="s">
         <v>194</v>
       </c>
@@ -9866,7 +9885,7 @@
       </c>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6">
       <c r="A225" s="18" t="s">
         <v>188</v>
       </c>
@@ -9884,7 +9903,7 @@
       </c>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6">
       <c r="A226" s="18" t="s">
         <v>12</v>
       </c>
@@ -9899,7 +9918,7 @@
       </c>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" ht="33.75">
       <c r="A227" s="18" t="s">
         <v>351</v>
       </c>
@@ -9917,7 +9936,7 @@
       </c>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6">
       <c r="A228" s="18" t="s">
         <v>99</v>
       </c>
@@ -9935,7 +9954,7 @@
       </c>
       <c r="F228" s="3"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" ht="33.75">
       <c r="A229" s="18" t="s">
         <v>151</v>
       </c>
@@ -9953,7 +9972,7 @@
       </c>
       <c r="F229" s="3"/>
     </row>
-    <row r="230" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" ht="33.75">
       <c r="A230" s="18" t="s">
         <v>577</v>
       </c>
@@ -9973,7 +9992,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" ht="33.75">
       <c r="A231" s="18" t="s">
         <v>471</v>
       </c>
@@ -9991,7 +10010,7 @@
       </c>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" ht="33.75">
       <c r="A232" s="18" t="s">
         <v>1181</v>
       </c>
@@ -10004,7 +10023,7 @@
       </c>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" ht="33">
       <c r="A233" s="18" t="s">
         <v>55</v>
       </c>
@@ -10022,7 +10041,7 @@
       </c>
       <c r="F233" s="3"/>
     </row>
-    <row r="234" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" ht="33.75">
       <c r="A234" s="18" t="s">
         <v>1186</v>
       </c>
@@ -10035,7 +10054,7 @@
       </c>
       <c r="F234" s="3"/>
     </row>
-    <row r="235" spans="1:6" ht="67" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" ht="63">
       <c r="A235" s="18" t="s">
         <v>97</v>
       </c>
@@ -10053,7 +10072,7 @@
       </c>
       <c r="F235" s="3"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6">
       <c r="A236" s="18" t="s">
         <v>15</v>
       </c>
@@ -10071,7 +10090,7 @@
       </c>
       <c r="F236" s="3"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6">
       <c r="A237" s="18" t="s">
         <v>1182</v>
       </c>
@@ -10082,7 +10101,7 @@
       <c r="D237" s="20"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" ht="33">
       <c r="A238" s="18" t="s">
         <v>557</v>
       </c>
@@ -10100,7 +10119,7 @@
       </c>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6">
       <c r="A239" s="18" t="s">
         <v>1311</v>
       </c>
@@ -10115,7 +10134,7 @@
       </c>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" ht="33.75">
       <c r="A240" s="18" t="s">
         <v>127</v>
       </c>
@@ -10133,7 +10152,7 @@
       </c>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" ht="33">
       <c r="A241" s="18" t="s">
         <v>770</v>
       </c>
@@ -10151,7 +10170,7 @@
       </c>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6">
       <c r="A242" s="18" t="s">
         <v>1073</v>
       </c>
@@ -10164,7 +10183,7 @@
       </c>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6">
       <c r="A243" s="18" t="s">
         <v>125</v>
       </c>
@@ -10182,7 +10201,7 @@
       </c>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" ht="33.75">
       <c r="A244" s="18" t="s">
         <v>896</v>
       </c>
@@ -10202,7 +10221,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" ht="33.75">
       <c r="A245" s="18" t="s">
         <v>1068</v>
       </c>
@@ -10215,7 +10234,7 @@
       </c>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="1:6" ht="48" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" ht="45">
       <c r="A246" s="18" t="s">
         <v>808</v>
       </c>
@@ -10233,7 +10252,7 @@
       </c>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6">
       <c r="A247" s="18" t="s">
         <v>283</v>
       </c>
@@ -10251,7 +10270,7 @@
       </c>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6">
       <c r="A248" s="18" t="s">
         <v>3</v>
       </c>
@@ -10269,7 +10288,7 @@
       </c>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6">
       <c r="A249" s="18" t="s">
         <v>419</v>
       </c>
@@ -10287,7 +10306,7 @@
       </c>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" ht="33.75">
       <c r="A250" s="18" t="s">
         <v>370</v>
       </c>
@@ -10305,7 +10324,7 @@
       </c>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6">
       <c r="A251" s="18" t="s">
         <v>286</v>
       </c>
@@ -10323,7 +10342,7 @@
       </c>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6">
       <c r="A252" s="18" t="s">
         <v>207</v>
       </c>
@@ -10341,7 +10360,7 @@
       </c>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6">
       <c r="A253" s="18" t="s">
         <v>73</v>
       </c>
@@ -10359,7 +10378,7 @@
       </c>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6">
       <c r="A254" s="18" t="s">
         <v>1193</v>
       </c>
@@ -10374,7 +10393,7 @@
       </c>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6">
       <c r="A255" s="18" t="s">
         <v>1203</v>
       </c>
@@ -10389,7 +10408,7 @@
       </c>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6">
       <c r="A256" s="18" t="s">
         <v>122</v>
       </c>
@@ -10407,7 +10426,7 @@
       </c>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6">
       <c r="A257" s="18" t="s">
         <v>880</v>
       </c>
@@ -10427,7 +10446,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" ht="33.75">
       <c r="A258" s="18" t="s">
         <v>199</v>
       </c>
@@ -10445,7 +10464,7 @@
       </c>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" ht="33">
       <c r="A259" s="18" t="s">
         <v>1138</v>
       </c>
@@ -10460,7 +10479,7 @@
       </c>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6">
       <c r="A260" s="18" t="s">
         <v>6</v>
       </c>
@@ -10474,7 +10493,7 @@
       </c>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6">
       <c r="A261" s="18" t="s">
         <v>165</v>
       </c>
@@ -10492,7 +10511,7 @@
       </c>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="1:6" ht="60" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" ht="56.25">
       <c r="A262" s="18" t="s">
         <v>459</v>
       </c>
@@ -10510,7 +10529,7 @@
       </c>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="1:6" ht="60" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" ht="56.25">
       <c r="A263" s="18" t="s">
         <v>461</v>
       </c>
@@ -10528,7 +10547,7 @@
       </c>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6">
       <c r="A264" s="18" t="s">
         <v>463</v>
       </c>
@@ -10546,7 +10565,7 @@
       </c>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6">
       <c r="A265" s="18" t="s">
         <v>411</v>
       </c>
@@ -10564,7 +10583,7 @@
       </c>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" ht="33">
       <c r="A266" s="18" t="s">
         <v>241</v>
       </c>
@@ -10582,7 +10601,7 @@
       </c>
       <c r="F266" s="3"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6">
       <c r="A267" s="18" t="s">
         <v>474</v>
       </c>
@@ -10600,7 +10619,7 @@
       </c>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" s="6" customFormat="1">
       <c r="A268" s="18" t="s">
         <v>1283</v>
       </c>
@@ -10616,7 +10635,7 @@
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6">
       <c r="A269" s="18" t="s">
         <v>406</v>
       </c>
@@ -10634,7 +10653,7 @@
       </c>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" ht="48">
       <c r="A270" s="18" t="s">
         <v>756</v>
       </c>
@@ -10652,7 +10671,7 @@
       </c>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" ht="33.75">
       <c r="A271" s="18" t="s">
         <v>1250</v>
       </c>
@@ -10667,7 +10686,7 @@
       </c>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" ht="33.75">
       <c r="A272" s="18" t="s">
         <v>464</v>
       </c>
@@ -10685,7 +10704,7 @@
       </c>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" ht="33">
       <c r="A273" s="18" t="s">
         <v>449</v>
       </c>
@@ -10703,7 +10722,7 @@
       </c>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6">
       <c r="A274" s="18" t="s">
         <v>445</v>
       </c>
@@ -10718,7 +10737,7 @@
       </c>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6">
       <c r="A275" s="18" t="s">
         <v>1199</v>
       </c>
@@ -10733,7 +10752,7 @@
       </c>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6">
       <c r="A276" s="18" t="s">
         <v>115</v>
       </c>
@@ -10751,7 +10770,7 @@
       </c>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6">
       <c r="A277" s="18" t="s">
         <v>388</v>
       </c>
@@ -10769,7 +10788,7 @@
       </c>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6">
       <c r="A278" s="18" t="s">
         <v>1152</v>
       </c>
@@ -10782,7 +10801,7 @@
       <c r="D278" s="20"/>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" ht="33.75">
       <c r="A279" s="18" t="s">
         <v>243</v>
       </c>
@@ -10800,7 +10819,7 @@
       </c>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6">
       <c r="A280" s="18" t="s">
         <v>0</v>
       </c>
@@ -10818,7 +10837,7 @@
       </c>
       <c r="F280" s="3"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6">
       <c r="A281" s="18" t="s">
         <v>197</v>
       </c>
@@ -10834,7 +10853,7 @@
       </c>
       <c r="F281" s="3"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6">
       <c r="A282" s="18" t="s">
         <v>1145</v>
       </c>
@@ -10845,7 +10864,7 @@
       <c r="D282" s="20"/>
       <c r="F282" s="3"/>
     </row>
-    <row r="283" spans="1:6" ht="48" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" ht="56.25">
       <c r="A283" s="18" t="s">
         <v>1362</v>
       </c>
@@ -10865,7 +10884,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" ht="33">
       <c r="A284" s="18" t="s">
         <v>235</v>
       </c>
@@ -10883,7 +10902,7 @@
       </c>
       <c r="F284" s="3"/>
     </row>
-    <row r="285" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" ht="33.75">
       <c r="A285" s="18" t="s">
         <v>149</v>
       </c>
@@ -10901,7 +10920,7 @@
       </c>
       <c r="F285" s="3"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6">
       <c r="A286" s="18" t="s">
         <v>222</v>
       </c>
@@ -10919,7 +10938,7 @@
       </c>
       <c r="F286" s="3"/>
     </row>
-    <row r="287" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" ht="33.75">
       <c r="A287" s="18" t="s">
         <v>1143</v>
       </c>
@@ -10934,7 +10953,7 @@
       </c>
       <c r="F287" s="3"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6">
       <c r="A288" s="18" t="s">
         <v>234</v>
       </c>
@@ -10950,7 +10969,7 @@
       </c>
       <c r="F288" s="3"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6">
       <c r="A289" s="18" t="s">
         <v>211</v>
       </c>
@@ -10968,7 +10987,7 @@
       </c>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="33">
       <c r="A290" s="18" t="s">
         <v>231</v>
       </c>
@@ -10986,7 +11005,7 @@
       </c>
       <c r="F290" s="3"/>
     </row>
-    <row r="291" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" ht="33">
       <c r="A291" s="18" t="s">
         <v>290</v>
       </c>
@@ -11004,7 +11023,7 @@
       </c>
       <c r="F291" s="3"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6">
       <c r="A292" s="18" t="s">
         <v>158</v>
       </c>
@@ -11022,7 +11041,7 @@
       </c>
       <c r="F292" s="3"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6">
       <c r="A293" s="18" t="s">
         <v>45</v>
       </c>
@@ -11040,7 +11059,7 @@
       </c>
       <c r="F293" s="3"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" ht="33">
       <c r="A294" s="18" t="s">
         <v>490</v>
       </c>
@@ -11058,7 +11077,7 @@
       </c>
       <c r="F294" s="3"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6">
       <c r="A295" s="18" t="s">
         <v>1275</v>
       </c>
@@ -11073,7 +11092,7 @@
       </c>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6">
       <c r="A296" s="18" t="s">
         <v>1364</v>
       </c>
@@ -11091,7 +11110,7 @@
       </c>
       <c r="F296" s="3"/>
     </row>
-    <row r="297" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" ht="33.75">
       <c r="A297" s="18" t="s">
         <v>1365</v>
       </c>
@@ -11109,7 +11128,7 @@
       </c>
       <c r="F297" s="3"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" ht="33.75">
       <c r="A298" s="18" t="s">
         <v>239</v>
       </c>
@@ -11127,7 +11146,7 @@
       </c>
       <c r="F298" s="3"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6">
       <c r="A299" s="18" t="s">
         <v>1022</v>
       </c>
@@ -11142,7 +11161,7 @@
       </c>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6">
       <c r="A300" s="18" t="s">
         <v>466</v>
       </c>
@@ -11160,7 +11179,7 @@
       </c>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" ht="33.75">
       <c r="A301" s="18" t="s">
         <v>1259</v>
       </c>
@@ -11175,7 +11194,7 @@
       </c>
       <c r="F301" s="3"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" ht="33.75">
       <c r="A302" s="18" t="s">
         <v>1252</v>
       </c>
@@ -11190,7 +11209,7 @@
       </c>
       <c r="F302" s="3"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6">
       <c r="A303" s="18" t="s">
         <v>171</v>
       </c>
@@ -11208,7 +11227,7 @@
       </c>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6">
       <c r="A304" s="18" t="s">
         <v>1331</v>
       </c>
@@ -11223,7 +11242,7 @@
       </c>
       <c r="F304" s="3"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6">
       <c r="A305" s="18" t="s">
         <v>292</v>
       </c>
@@ -11234,7 +11253,7 @@
       <c r="D305" s="20"/>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6">
       <c r="A306" s="18" t="s">
         <v>1263</v>
       </c>
@@ -11249,7 +11268,7 @@
       </c>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" ht="33">
       <c r="A307" s="18" t="s">
         <v>385</v>
       </c>
@@ -11269,7 +11288,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6">
       <c r="A308" s="18" t="s">
         <v>489</v>
       </c>
@@ -11287,7 +11306,7 @@
       </c>
       <c r="F308" s="3"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6">
       <c r="A309" s="18" t="s">
         <v>1272</v>
       </c>
@@ -11302,7 +11321,7 @@
       </c>
       <c r="F309" s="3"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" ht="33">
       <c r="A310" s="18" t="s">
         <v>394</v>
       </c>
@@ -11320,7 +11339,7 @@
       </c>
       <c r="F310" s="3"/>
     </row>
-    <row r="311" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" ht="33">
       <c r="A311" s="18" t="s">
         <v>1166</v>
       </c>
@@ -11333,7 +11352,7 @@
       </c>
       <c r="F311" s="3"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6">
       <c r="A312" s="18" t="s">
         <v>487</v>
       </c>
@@ -11351,7 +11370,7 @@
       </c>
       <c r="F312" s="3"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" ht="33">
       <c r="A313" s="18" t="s">
         <v>488</v>
       </c>
@@ -11369,7 +11388,7 @@
       </c>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6">
       <c r="A314" s="18" t="s">
         <v>293</v>
       </c>
@@ -11387,7 +11406,7 @@
       </c>
       <c r="F314" s="3"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" ht="33.75">
       <c r="A315" s="18" t="s">
         <v>1258</v>
       </c>
@@ -11402,7 +11421,7 @@
       </c>
       <c r="F315" s="3"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6">
       <c r="A316" s="18" t="s">
         <v>479</v>
       </c>
@@ -11420,7 +11439,7 @@
       </c>
       <c r="F316" s="3"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6">
       <c r="A317" s="18" t="s">
         <v>1366</v>
       </c>
@@ -11438,7 +11457,7 @@
       </c>
       <c r="F317" s="3"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" ht="33.75">
       <c r="A318" s="18" t="s">
         <v>1149</v>
       </c>
@@ -11453,7 +11472,7 @@
       </c>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" ht="33.75">
       <c r="A319" s="18" t="s">
         <v>1290</v>
       </c>
@@ -11468,7 +11487,7 @@
       </c>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="1:6" ht="96" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" ht="112.5">
       <c r="A320" s="18" t="s">
         <v>417</v>
       </c>
@@ -11486,7 +11505,7 @@
       </c>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="1:6 16384:16384" ht="35" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6 16384:16384" ht="33">
       <c r="A321" s="18" t="s">
         <v>802</v>
       </c>
@@ -11504,7 +11523,7 @@
       </c>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6 16384:16384">
       <c r="A322" s="18" t="s">
         <v>1060</v>
       </c>
@@ -11515,7 +11534,7 @@
       </c>
       <c r="F322" s="3"/>
     </row>
-    <row r="323" spans="1:6 16384:16384" ht="84" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6 16384:16384" ht="78.75">
       <c r="A323" s="18" t="s">
         <v>1059</v>
       </c>
@@ -11528,7 +11547,7 @@
       </c>
       <c r="F323" s="3"/>
     </row>
-    <row r="324" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6 16384:16384">
       <c r="A324" s="18" t="s">
         <v>31</v>
       </c>
@@ -11546,7 +11565,7 @@
       </c>
       <c r="F324" s="3"/>
     </row>
-    <row r="325" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6 16384:16384">
       <c r="A325" s="18" t="s">
         <v>376</v>
       </c>
@@ -11564,7 +11583,7 @@
       </c>
       <c r="F325" s="3"/>
     </row>
-    <row r="326" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6 16384:16384">
       <c r="A326" s="18" t="s">
         <v>213</v>
       </c>
@@ -11582,7 +11601,7 @@
       </c>
       <c r="F326" s="3"/>
     </row>
-    <row r="327" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6 16384:16384">
       <c r="A327" s="18" t="s">
         <v>51</v>
       </c>
@@ -11600,7 +11619,7 @@
       </c>
       <c r="F327" s="3"/>
     </row>
-    <row r="328" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6 16384:16384" ht="33">
       <c r="A328" s="18" t="s">
         <v>446</v>
       </c>
@@ -11618,7 +11637,7 @@
       </c>
       <c r="F328" s="3"/>
     </row>
-    <row r="329" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6 16384:16384" ht="33">
       <c r="A329" s="18" t="s">
         <v>190</v>
       </c>
@@ -11636,7 +11655,7 @@
       </c>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6 16384:16384">
       <c r="A330" s="18" t="s">
         <v>294</v>
       </c>
@@ -11654,7 +11673,7 @@
       </c>
       <c r="F330" s="3"/>
     </row>
-    <row r="331" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6 16384:16384">
       <c r="A331" s="18" t="s">
         <v>1278</v>
       </c>
@@ -11669,7 +11688,7 @@
       </c>
       <c r="F331" s="3"/>
     </row>
-    <row r="332" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6 16384:16384">
       <c r="A332" s="18" t="s">
         <v>1220</v>
       </c>
@@ -11684,7 +11703,7 @@
       </c>
       <c r="F332" s="3"/>
     </row>
-    <row r="333" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6 16384:16384" ht="33.75">
       <c r="A333" s="18" t="s">
         <v>1367</v>
       </c>
@@ -11702,7 +11721,7 @@
       </c>
       <c r="F333" s="3"/>
     </row>
-    <row r="334" spans="1:6 16384:16384" ht="51" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6 16384:16384" ht="48">
       <c r="A334" s="18" t="s">
         <v>399</v>
       </c>
@@ -11720,7 +11739,7 @@
       </c>
       <c r="F334" s="3"/>
     </row>
-    <row r="335" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6 16384:16384">
       <c r="A335" s="18" t="s">
         <v>64</v>
       </c>
@@ -11738,7 +11757,7 @@
       </c>
       <c r="F335" s="3"/>
     </row>
-    <row r="336" spans="1:6 16384:16384" ht="36" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6 16384:16384" ht="33.75">
       <c r="A336" s="18" t="s">
         <v>855</v>
       </c>
@@ -11759,7 +11778,7 @@
       </c>
       <c r="XFD336" s="5"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6">
       <c r="A337" s="18" t="s">
         <v>492</v>
       </c>
@@ -11777,7 +11796,7 @@
       </c>
       <c r="F337" s="3"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6">
       <c r="A338" s="18" t="s">
         <v>882</v>
       </c>
@@ -11797,7 +11816,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6">
       <c r="A339" s="18" t="s">
         <v>494</v>
       </c>
@@ -11815,7 +11834,7 @@
       </c>
       <c r="F339" s="3"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6">
       <c r="A340" s="18" t="s">
         <v>1056</v>
       </c>
@@ -11826,7 +11845,7 @@
       <c r="D340" s="20"/>
       <c r="F340" s="3"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6">
       <c r="A341" s="18" t="s">
         <v>185</v>
       </c>
@@ -11844,7 +11863,7 @@
       </c>
       <c r="F341" s="3"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6">
       <c r="A342" s="18" t="s">
         <v>495</v>
       </c>
@@ -11862,7 +11881,7 @@
       </c>
       <c r="F342" s="3"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" ht="33.75">
       <c r="A343" s="18" t="s">
         <v>1329</v>
       </c>
@@ -11877,7 +11896,7 @@
       </c>
       <c r="F343" s="3"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" ht="33">
       <c r="A344" s="18" t="s">
         <v>111</v>
       </c>
@@ -11895,7 +11914,7 @@
       </c>
       <c r="F344" s="3"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6">
       <c r="A345" s="18" t="s">
         <v>342</v>
       </c>
@@ -11913,7 +11932,7 @@
       </c>
       <c r="F345" s="3"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6">
       <c r="A346" s="18" t="s">
         <v>66</v>
       </c>
@@ -11931,7 +11950,7 @@
       </c>
       <c r="F346" s="3"/>
     </row>
-    <row r="347" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" ht="33">
       <c r="A347" s="18" t="s">
         <v>864</v>
       </c>
@@ -11951,7 +11970,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6">
       <c r="A348" s="18" t="s">
         <v>56</v>
       </c>
@@ -11969,7 +11988,7 @@
       </c>
       <c r="F348" s="3"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6">
       <c r="A349" s="18" t="s">
         <v>815</v>
       </c>
@@ -11985,7 +12004,7 @@
       </c>
       <c r="F349" s="3"/>
     </row>
-    <row r="350" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" ht="33.75">
       <c r="A350" s="18" t="s">
         <v>560</v>
       </c>
@@ -12003,7 +12022,7 @@
       </c>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" ht="33">
       <c r="A351" s="18" t="s">
         <v>1155</v>
       </c>
@@ -12018,7 +12037,7 @@
       </c>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6">
       <c r="A352" s="18" t="s">
         <v>821</v>
       </c>
@@ -12036,7 +12055,7 @@
       </c>
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6">
       <c r="A353" s="18" t="s">
         <v>336</v>
       </c>
@@ -12054,7 +12073,7 @@
       </c>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6">
       <c r="A354" s="18" t="s">
         <v>300</v>
       </c>
@@ -12070,7 +12089,7 @@
       </c>
       <c r="F354" s="3"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6">
       <c r="A355" s="18" t="s">
         <v>573</v>
       </c>
@@ -12088,7 +12107,7 @@
       </c>
       <c r="F355" s="3"/>
     </row>
-    <row r="356" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" ht="33">
       <c r="A356" s="18" t="s">
         <v>468</v>
       </c>
@@ -12106,7 +12125,7 @@
       </c>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6">
       <c r="A357" s="18" t="s">
         <v>1265</v>
       </c>
@@ -12121,7 +12140,7 @@
       </c>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" ht="33.75">
       <c r="A358" s="18" t="s">
         <v>226</v>
       </c>
@@ -12139,7 +12158,7 @@
       </c>
       <c r="F358" s="3"/>
     </row>
-    <row r="359" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" ht="33">
       <c r="A359" s="18" t="s">
         <v>486</v>
       </c>
@@ -12155,7 +12174,7 @@
       </c>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" ht="33">
       <c r="A360" s="18" t="s">
         <v>1369</v>
       </c>
@@ -12173,7 +12192,7 @@
       </c>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" ht="33.75">
       <c r="A361" s="18" t="s">
         <v>301</v>
       </c>
@@ -12191,7 +12210,7 @@
       </c>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6">
       <c r="A362" s="18" t="s">
         <v>314</v>
       </c>
@@ -12209,7 +12228,7 @@
       </c>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6">
       <c r="A363" s="18" t="s">
         <v>203</v>
       </c>
@@ -12227,7 +12246,7 @@
       </c>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6">
       <c r="A364" s="18" t="s">
         <v>1083</v>
       </c>
@@ -12240,7 +12259,7 @@
       </c>
       <c r="F364" s="3"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6">
       <c r="A365" s="18" t="s">
         <v>404</v>
       </c>
@@ -12258,7 +12277,7 @@
       </c>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" ht="33.75">
       <c r="A366" s="18" t="s">
         <v>708</v>
       </c>
@@ -12276,7 +12295,7 @@
       </c>
       <c r="F366" s="3"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6">
       <c r="A367" s="18" t="s">
         <v>477</v>
       </c>
@@ -12294,7 +12313,7 @@
       </c>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6">
       <c r="A368" s="18" t="s">
         <v>139</v>
       </c>
@@ -12312,7 +12331,7 @@
       </c>
       <c r="F368" s="3"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" ht="33.75">
       <c r="A369" s="18" t="s">
         <v>1285</v>
       </c>
@@ -12327,7 +12346,7 @@
       </c>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6">
       <c r="A370" s="18" t="s">
         <v>861</v>
       </c>
@@ -12347,7 +12366,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6">
       <c r="A371" s="18" t="s">
         <v>1209</v>
       </c>
@@ -12362,7 +12381,7 @@
       </c>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" ht="33.75">
       <c r="A372" s="18" t="s">
         <v>898</v>
       </c>
@@ -12382,7 +12401,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" ht="33">
       <c r="A373" s="18" t="s">
         <v>898</v>
       </c>
@@ -12395,7 +12414,7 @@
       </c>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" ht="33.75">
       <c r="A374" s="18" t="s">
         <v>23</v>
       </c>
@@ -12413,7 +12432,7 @@
       </c>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6">
       <c r="A375" s="18" t="s">
         <v>713</v>
       </c>
@@ -12431,7 +12450,7 @@
       </c>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6">
       <c r="A376" s="18" t="s">
         <v>823</v>
       </c>
@@ -12447,7 +12466,7 @@
       </c>
       <c r="F376" s="3"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6">
       <c r="A377" s="18" t="s">
         <v>454</v>
       </c>
@@ -12465,7 +12484,7 @@
       </c>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6">
       <c r="A378" s="18" t="s">
         <v>1041</v>
       </c>
@@ -12478,7 +12497,7 @@
       </c>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6">
       <c r="A379" s="18" t="s">
         <v>453</v>
       </c>
@@ -12496,7 +12515,7 @@
       </c>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6">
       <c r="A380" s="18" t="s">
         <v>29</v>
       </c>
@@ -12514,7 +12533,7 @@
       </c>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" ht="33.75">
       <c r="A381" s="18" t="s">
         <v>315</v>
       </c>
@@ -12532,7 +12551,7 @@
       </c>
       <c r="F381" s="3"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" ht="33">
       <c r="A382" s="18" t="s">
         <v>43</v>
       </c>
@@ -12550,7 +12569,7 @@
       </c>
       <c r="F382" s="3"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6">
       <c r="A383" s="18" t="s">
         <v>733</v>
       </c>
@@ -12568,7 +12587,7 @@
       </c>
       <c r="F383" s="3"/>
     </row>
-    <row r="384" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" ht="33">
       <c r="A384" s="18" t="s">
         <v>484</v>
       </c>
@@ -12586,7 +12605,7 @@
       </c>
       <c r="F384" s="3"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6">
       <c r="A385" s="18" t="s">
         <v>546</v>
       </c>
@@ -12604,7 +12623,7 @@
       </c>
       <c r="F385" s="3"/>
     </row>
-    <row r="386" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" ht="33.75">
       <c r="A386" s="18" t="s">
         <v>442</v>
       </c>
@@ -12622,7 +12641,7 @@
       </c>
       <c r="F386" s="3"/>
     </row>
-    <row r="387" spans="1:6" ht="48" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" ht="45">
       <c r="A387" s="18" t="s">
         <v>88</v>
       </c>
@@ -12640,7 +12659,7 @@
       </c>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" ht="33.75">
       <c r="A388" s="18" t="s">
         <v>1374</v>
       </c>
@@ -12658,7 +12677,7 @@
       </c>
       <c r="F388" s="3"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6">
       <c r="A389" s="18" t="s">
         <v>720</v>
       </c>
@@ -12676,7 +12695,7 @@
       </c>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6">
       <c r="A390" s="18" t="s">
         <v>319</v>
       </c>
@@ -12694,7 +12713,7 @@
       </c>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6">
       <c r="A391" s="18" t="s">
         <v>237</v>
       </c>
@@ -12712,7 +12731,7 @@
       </c>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="1:6" ht="48" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" ht="45">
       <c r="A392" s="18" t="s">
         <v>1051</v>
       </c>
@@ -12727,7 +12746,7 @@
       </c>
       <c r="F392" s="3"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6">
       <c r="A393" s="18" t="s">
         <v>757</v>
       </c>
@@ -12745,7 +12764,7 @@
       </c>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6">
       <c r="A394" s="18" t="s">
         <v>758</v>
       </c>
@@ -12763,7 +12782,7 @@
       </c>
       <c r="F394" s="3"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6">
       <c r="A395" s="18" t="s">
         <v>759</v>
       </c>
@@ -12781,7 +12800,7 @@
       </c>
       <c r="F395" s="3"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6">
       <c r="A396" s="18" t="s">
         <v>761</v>
       </c>
@@ -12799,7 +12818,7 @@
       </c>
       <c r="F396" s="3"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6">
       <c r="A397" s="18" t="s">
         <v>762</v>
       </c>
@@ -12817,7 +12836,7 @@
       </c>
       <c r="F397" s="3"/>
     </row>
-    <row r="398" spans="1:6" ht="48" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" ht="45">
       <c r="A398" s="18" t="s">
         <v>817</v>
       </c>
@@ -12833,7 +12852,7 @@
       </c>
       <c r="F398" s="3"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" ht="33.75">
       <c r="A399" s="18" t="s">
         <v>1308</v>
       </c>
@@ -12848,7 +12867,7 @@
       </c>
       <c r="F399" s="3"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6">
       <c r="A400" s="18" t="s">
         <v>304</v>
       </c>
@@ -12866,7 +12885,7 @@
       </c>
       <c r="F400" s="3"/>
     </row>
-    <row r="401" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" ht="33">
       <c r="A401" s="18" t="s">
         <v>760</v>
       </c>
@@ -12884,7 +12903,7 @@
       </c>
       <c r="F401" s="3"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6">
       <c r="A402" s="18" t="s">
         <v>179</v>
       </c>
@@ -12902,7 +12921,7 @@
       </c>
       <c r="F402" s="3"/>
     </row>
-    <row r="403" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" ht="33.75">
       <c r="A403" s="18" t="s">
         <v>271</v>
       </c>
@@ -12920,7 +12939,7 @@
       </c>
       <c r="F403" s="3"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6">
       <c r="A404" s="18" t="s">
         <v>47</v>
       </c>
@@ -12938,7 +12957,7 @@
       </c>
       <c r="F404" s="3"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6">
       <c r="A405" s="18" t="s">
         <v>437</v>
       </c>
@@ -12956,7 +12975,7 @@
       </c>
       <c r="F405" s="3"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6">
       <c r="A406" s="18" t="s">
         <v>212</v>
       </c>
@@ -12969,7 +12988,7 @@
       <c r="D406" s="20"/>
       <c r="F406" s="3"/>
     </row>
-    <row r="407" spans="1:6" ht="48" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" ht="45">
       <c r="A407" s="18" t="s">
         <v>35</v>
       </c>
@@ -12987,7 +13006,7 @@
       </c>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6">
       <c r="A408" s="18" t="s">
         <v>1326</v>
       </c>
@@ -13002,7 +13021,7 @@
       </c>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6">
       <c r="A409" s="18" t="s">
         <v>36</v>
       </c>
@@ -13020,7 +13039,7 @@
       </c>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6">
       <c r="A410" s="18" t="s">
         <v>247</v>
       </c>
@@ -13035,7 +13054,7 @@
       </c>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6">
       <c r="A411" s="18" t="s">
         <v>325</v>
       </c>
@@ -13053,7 +13072,7 @@
       </c>
       <c r="F411" s="3"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6">
       <c r="A412" s="18" t="s">
         <v>1172</v>
       </c>
@@ -13064,7 +13083,7 @@
       <c r="D412" s="20"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6">
       <c r="A413" s="18" t="s">
         <v>1177</v>
       </c>
@@ -13075,7 +13094,7 @@
       <c r="D413" s="20"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" ht="33.75">
       <c r="A414" s="18" t="s">
         <v>863</v>
       </c>
@@ -13095,7 +13114,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6">
       <c r="A415" s="18" t="s">
         <v>481</v>
       </c>
@@ -13113,7 +13132,7 @@
       </c>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6">
       <c r="A416" s="18" t="s">
         <v>1154</v>
       </c>
@@ -13126,7 +13145,7 @@
       <c r="D416" s="20"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6">
       <c r="A417" s="18" t="s">
         <v>160</v>
       </c>
@@ -13144,7 +13163,7 @@
       </c>
       <c r="F417" s="3"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" ht="33.75">
       <c r="A418" s="18" t="s">
         <v>469</v>
       </c>
@@ -13162,7 +13181,7 @@
       </c>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6">
       <c r="A419" s="18" t="s">
         <v>568</v>
       </c>
@@ -13180,7 +13199,7 @@
       </c>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6">
       <c r="A420" s="18" t="s">
         <v>566</v>
       </c>
@@ -13198,7 +13217,7 @@
       </c>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6">
       <c r="A421" s="18" t="s">
         <v>754</v>
       </c>
@@ -13216,7 +13235,7 @@
       </c>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6">
       <c r="A422" s="18" t="s">
         <v>567</v>
       </c>
@@ -13234,7 +13253,7 @@
       </c>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6">
       <c r="A423" s="18" t="s">
         <v>1150</v>
       </c>
@@ -13249,7 +13268,7 @@
       </c>
       <c r="F423" s="3"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6">
       <c r="A424" s="18" t="s">
         <v>548</v>
       </c>
@@ -13267,7 +13286,7 @@
       </c>
       <c r="F424" s="3"/>
     </row>
-    <row r="425" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" ht="33">
       <c r="A425" s="18" t="s">
         <v>767</v>
       </c>
@@ -13285,7 +13304,7 @@
       </c>
       <c r="F425" s="3"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" ht="33.75">
       <c r="A426" s="18" t="s">
         <v>120</v>
       </c>
@@ -13303,7 +13322,7 @@
       </c>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6">
       <c r="A427" s="18" t="s">
         <v>402</v>
       </c>
@@ -13321,7 +13340,7 @@
       </c>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6">
       <c r="A428" s="18" t="s">
         <v>298</v>
       </c>
@@ -13339,7 +13358,7 @@
       </c>
       <c r="F428" s="3"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6">
       <c r="A429" s="18" t="s">
         <v>1229</v>
       </c>
@@ -13354,7 +13373,7 @@
       </c>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6">
       <c r="A430" s="18" t="s">
         <v>48</v>
       </c>
@@ -13372,7 +13391,7 @@
       </c>
       <c r="F430" s="3"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" ht="33">
       <c r="A431" s="18" t="s">
         <v>169</v>
       </c>
@@ -13390,7 +13409,7 @@
       </c>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6">
       <c r="A432" s="18" t="s">
         <v>1032</v>
       </c>
@@ -13405,7 +13424,7 @@
       </c>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" ht="33">
       <c r="A433" s="18" t="s">
         <v>129</v>
       </c>
@@ -13423,7 +13442,7 @@
       </c>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6">
       <c r="A434" s="18" t="s">
         <v>1035</v>
       </c>
@@ -13438,7 +13457,7 @@
       </c>
       <c r="F434" s="3"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6">
       <c r="A435" s="18" t="s">
         <v>257</v>
       </c>
@@ -13454,7 +13473,7 @@
       </c>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6">
       <c r="A436" s="18" t="s">
         <v>1377</v>
       </c>
@@ -13472,7 +13491,7 @@
       </c>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6">
       <c r="A437" s="18" t="s">
         <v>102</v>
       </c>
@@ -13490,7 +13509,7 @@
       </c>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" ht="33">
       <c r="A438" s="18" t="s">
         <v>155</v>
       </c>
@@ -13508,7 +13527,7 @@
       </c>
       <c r="F438" s="3"/>
     </row>
-    <row r="439" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" ht="45">
       <c r="A439" s="18" t="s">
         <v>775</v>
       </c>
@@ -13526,7 +13545,7 @@
       </c>
       <c r="F439" s="3"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6">
       <c r="A440" s="18" t="s">
         <v>181</v>
       </c>
@@ -13544,7 +13563,7 @@
       </c>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6">
       <c r="A441" s="18" t="s">
         <v>205</v>
       </c>
@@ -13562,7 +13581,7 @@
       </c>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6">
       <c r="A442" s="18" t="s">
         <v>1270</v>
       </c>
@@ -13577,7 +13596,7 @@
       </c>
       <c r="F442" s="3"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6">
       <c r="A443" s="18" t="s">
         <v>1047</v>
       </c>
@@ -13592,7 +13611,7 @@
       </c>
       <c r="F443" s="3"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6">
       <c r="A444" s="18" t="s">
         <v>1255</v>
       </c>
@@ -13607,7 +13626,7 @@
       </c>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" ht="33">
       <c r="A445" s="18" t="s">
         <v>82</v>
       </c>
@@ -13625,7 +13644,7 @@
       </c>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" ht="33">
       <c r="A446" s="18" t="s">
         <v>851</v>
       </c>
@@ -13645,7 +13664,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" ht="33">
       <c r="A447" s="18" t="s">
         <v>1322</v>
       </c>
@@ -13660,7 +13679,7 @@
       </c>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" ht="33">
       <c r="A448" s="18" t="s">
         <v>1318</v>
       </c>
@@ -13675,7 +13694,7 @@
       </c>
       <c r="F448" s="3"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6">
       <c r="A449" s="18" t="s">
         <v>870</v>
       </c>
@@ -13695,7 +13714,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" ht="33">
       <c r="A450" s="18" t="s">
         <v>365</v>
       </c>
@@ -13713,7 +13732,7 @@
       </c>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6">
       <c r="A451" s="18" t="s">
         <v>591</v>
       </c>
@@ -13731,7 +13750,7 @@
       </c>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" ht="33.75">
       <c r="A452" s="18" t="s">
         <v>794</v>
       </c>
@@ -13749,7 +13768,7 @@
       </c>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" ht="33">
       <c r="A453" s="18" t="s">
         <v>1320</v>
       </c>
@@ -13764,7 +13783,7 @@
       </c>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6">
       <c r="A454" s="18" t="s">
         <v>175</v>
       </c>
@@ -13782,7 +13801,7 @@
       </c>
       <c r="F454" s="3"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6">
       <c r="A455" s="18" t="s">
         <v>496</v>
       </c>
@@ -13800,7 +13819,7 @@
       </c>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" ht="33.75">
       <c r="A456" s="18" t="s">
         <v>192</v>
       </c>
@@ -13818,7 +13837,7 @@
       </c>
       <c r="F456" s="3"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" ht="33.75">
       <c r="A457" s="18" t="s">
         <v>860</v>
       </c>
@@ -13838,7 +13857,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" ht="33">
       <c r="A458" s="18" t="s">
         <v>1188</v>
       </c>
@@ -13851,7 +13870,7 @@
       </c>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" ht="78.75">
       <c r="A459" s="18" t="s">
         <v>363</v>
       </c>
@@ -13869,7 +13888,7 @@
       </c>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6">
       <c r="A460" s="18" t="s">
         <v>1200</v>
       </c>
@@ -13884,7 +13903,7 @@
       </c>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6">
       <c r="A461" s="18" t="s">
         <v>7</v>
       </c>
@@ -13902,7 +13921,7 @@
       </c>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6">
       <c r="A462" s="18" t="s">
         <v>306</v>
       </c>
@@ -13920,7 +13939,7 @@
       </c>
       <c r="F462" s="3"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6">
       <c r="A463" s="18" t="s">
         <v>311</v>
       </c>
@@ -13938,7 +13957,7 @@
       </c>
       <c r="F463" s="3"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6">
       <c r="A464" s="18" t="s">
         <v>322</v>
       </c>
@@ -13956,7 +13975,7 @@
       </c>
       <c r="F464" s="3"/>
     </row>
-    <row r="465" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" ht="33">
       <c r="A465" s="18" t="s">
         <v>137</v>
       </c>
@@ -13974,7 +13993,7 @@
       </c>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" ht="48">
       <c r="A466" s="18" t="s">
         <v>341</v>
       </c>
@@ -13992,7 +14011,7 @@
       </c>
       <c r="F466" s="3"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6">
       <c r="A467" s="18" t="s">
         <v>310</v>
       </c>
@@ -14010,7 +14029,7 @@
       </c>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" ht="33.75">
       <c r="A468" s="18" t="s">
         <v>1240</v>
       </c>
@@ -14025,7 +14044,7 @@
       </c>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6">
       <c r="A469" s="18" t="s">
         <v>245</v>
       </c>
@@ -14043,7 +14062,7 @@
       </c>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6">
       <c r="A470" s="18" t="s">
         <v>473</v>
       </c>
@@ -14061,7 +14080,7 @@
       </c>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6">
       <c r="A471" s="18" t="s">
         <v>86</v>
       </c>
@@ -14079,7 +14098,7 @@
       </c>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6">
       <c r="A472" s="18" t="s">
         <v>1074</v>
       </c>
@@ -14092,7 +14111,7 @@
       </c>
       <c r="F472" s="3"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6">
       <c r="A473" s="18" t="s">
         <v>893</v>
       </c>
@@ -14112,7 +14131,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6">
       <c r="A474" s="18" t="s">
         <v>1017</v>
       </c>
@@ -14127,7 +14146,7 @@
       </c>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6">
       <c r="A475" s="18" t="s">
         <v>1305</v>
       </c>
@@ -14142,7 +14161,7 @@
       </c>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" ht="33.75">
       <c r="A476" s="18" t="s">
         <v>1421</v>
       </c>
@@ -14157,7 +14176,7 @@
       </c>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6">
       <c r="A477" s="18" t="s">
         <v>1424</v>
       </c>
@@ -14170,7 +14189,7 @@
       </c>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6">
       <c r="A478" s="18" t="s">
         <v>1491</v>
       </c>
@@ -14185,7 +14204,7 @@
       </c>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6">
       <c r="A479" s="18" t="s">
         <v>1493</v>
       </c>
@@ -14200,7 +14219,7 @@
       </c>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6">
       <c r="A480" s="18" t="s">
         <v>1488</v>
       </c>
@@ -14215,7 +14234,7 @@
       </c>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" ht="33.75">
       <c r="A481" s="18" t="s">
         <v>1496</v>
       </c>
@@ -14230,7 +14249,7 @@
       </c>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" ht="33">
       <c r="A482" s="18" t="s">
         <v>1026</v>
       </c>
@@ -14243,7 +14262,7 @@
       </c>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6">
       <c r="A483" s="18" t="s">
         <v>1502</v>
       </c>
@@ -14256,7 +14275,7 @@
       </c>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6">
       <c r="A484" s="18" t="s">
         <v>1505</v>
       </c>
@@ -14269,7 +14288,7 @@
       </c>
       <c r="F484" s="3"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6">
       <c r="A485" s="18" t="s">
         <v>1508</v>
       </c>
@@ -14282,7 +14301,7 @@
       </c>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" ht="33.75">
       <c r="A486" s="18" t="s">
         <v>1516</v>
       </c>
@@ -14297,7 +14316,7 @@
       </c>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6">
       <c r="A487" s="18" t="s">
         <v>1519</v>
       </c>
@@ -14312,7 +14331,7 @@
       </c>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" ht="30">
       <c r="A488" s="17" t="s">
         <v>1525</v>
       </c>
@@ -14327,7 +14346,7 @@
       </c>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" ht="33.75">
       <c r="A489" s="18" t="s">
         <v>1524</v>
       </c>
@@ -14342,7 +14361,7 @@
       </c>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6">
       <c r="A490" s="18" t="s">
         <v>1528</v>
       </c>
@@ -14357,7 +14376,7 @@
       </c>
       <c r="F490" s="3"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" ht="33.75">
       <c r="A491" s="18" t="s">
         <v>1529</v>
       </c>
@@ -14372,7 +14391,7 @@
       </c>
       <c r="F491" s="3"/>
     </row>
-    <row r="492" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" ht="33.75">
       <c r="A492" s="18" t="s">
         <v>1535</v>
       </c>
@@ -14387,7 +14406,7 @@
       </c>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6">
       <c r="A493" s="18" t="s">
         <v>1539</v>
       </c>
@@ -14402,177 +14421,193 @@
       </c>
       <c r="F493" s="3"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A494" s="24" t="s">
+    <row r="494" spans="1:6">
+      <c r="A494" s="18" t="s">
         <v>1541</v>
       </c>
-      <c r="B494" s="25" t="s">
+      <c r="B494" s="17" t="s">
         <v>1542</v>
       </c>
-      <c r="C494" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D494" s="27"/>
-      <c r="E494" s="26"/>
-      <c r="F494" s="26"/>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A495" s="24" t="s">
+      <c r="C494" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D494" s="20"/>
+      <c r="F494" s="3"/>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495" s="18" t="s">
         <v>1543</v>
       </c>
-      <c r="B495" s="25" t="s">
+      <c r="B495" s="17" t="s">
         <v>1544</v>
       </c>
-      <c r="C495" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D495" s="27"/>
-      <c r="E495" s="26"/>
-      <c r="F495" s="26"/>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A496" s="24" t="s">
+      <c r="C495" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D495" s="20"/>
+      <c r="F495" s="3"/>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496" s="18" t="s">
         <v>1545</v>
       </c>
-      <c r="B496" s="25" t="s">
+      <c r="B496" s="17" t="s">
         <v>1546</v>
       </c>
-      <c r="C496" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D496" s="27"/>
-      <c r="E496" s="26"/>
-      <c r="F496" s="26"/>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A497" s="24" t="s">
+      <c r="C496" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D496" s="20"/>
+      <c r="F496" s="3"/>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497" s="18" t="s">
         <v>1547</v>
       </c>
-      <c r="B497" s="25" t="s">
+      <c r="B497" s="17" t="s">
         <v>1548</v>
       </c>
-      <c r="C497" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D497" s="27"/>
-      <c r="E497" s="26"/>
-      <c r="F497" s="26"/>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A498" s="24" t="s">
+      <c r="C497" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D497" s="20"/>
+      <c r="F497" s="3"/>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" s="18" t="s">
         <v>1564</v>
       </c>
-      <c r="B498" s="25" t="s">
+      <c r="B498" s="17" t="s">
         <v>1565</v>
       </c>
-      <c r="C498" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D498" s="27"/>
-      <c r="E498" s="26"/>
-      <c r="F498" s="26"/>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A499" s="24" t="s">
+      <c r="C498" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D498" s="20"/>
+      <c r="F498" s="3"/>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" s="18" t="s">
         <v>1562</v>
       </c>
-      <c r="B499" s="25" t="s">
+      <c r="B499" s="17" t="s">
         <v>1563</v>
       </c>
-      <c r="C499" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D499" s="27"/>
-      <c r="E499" s="26"/>
-      <c r="F499" s="26"/>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A500" s="24" t="s">
+      <c r="C499" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D499" s="20"/>
+      <c r="F499" s="3"/>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" s="18" t="s">
         <v>1560</v>
       </c>
-      <c r="B500" s="25" t="s">
+      <c r="B500" s="17" t="s">
         <v>1561</v>
       </c>
-      <c r="C500" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D500" s="27"/>
-      <c r="E500" s="26"/>
-      <c r="F500" s="26"/>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A501" s="24" t="s">
+      <c r="C500" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D500" s="20"/>
+      <c r="F500" s="3"/>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" s="18" t="s">
         <v>1558</v>
       </c>
-      <c r="B501" s="25" t="s">
+      <c r="B501" s="17" t="s">
         <v>1559</v>
       </c>
-      <c r="C501" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D501" s="27"/>
-      <c r="E501" s="26"/>
-      <c r="F501" s="26"/>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A502" s="24" t="s">
+      <c r="C501" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D501" s="20"/>
+      <c r="F501" s="3"/>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="B502" s="25" t="s">
+      <c r="B502" s="17" t="s">
         <v>1557</v>
       </c>
-      <c r="C502" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D502" s="27"/>
-      <c r="E502" s="26"/>
-      <c r="F502" s="26"/>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A503" s="24" t="s">
+      <c r="C502" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D502" s="20"/>
+      <c r="F502" s="3"/>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" s="18" t="s">
         <v>1553</v>
       </c>
-      <c r="B503" s="25" t="s">
+      <c r="B503" s="17" t="s">
         <v>1554</v>
       </c>
-      <c r="C503" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D503" s="27" t="s">
+      <c r="C503" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D503" s="20" t="s">
         <v>1554</v>
       </c>
-      <c r="E503" s="26"/>
-      <c r="F503" s="26"/>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A504" s="24" t="s">
+      <c r="F503" s="3"/>
+    </row>
+    <row r="504" spans="1:6" ht="33">
+      <c r="A504" s="18" t="s">
         <v>1551</v>
       </c>
-      <c r="B504" s="25" t="s">
+      <c r="B504" s="17" t="s">
         <v>1552</v>
       </c>
-      <c r="C504" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D504" s="27"/>
-      <c r="E504" s="26"/>
-      <c r="F504" s="26"/>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A505" s="24" t="s">
+      <c r="C504" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D504" s="20"/>
+      <c r="F504" s="3"/>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" s="18" t="s">
         <v>1549</v>
       </c>
-      <c r="B505" s="25" t="s">
+      <c r="B505" s="17" t="s">
         <v>1555</v>
       </c>
-      <c r="C505" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D505" s="27" t="s">
+      <c r="C505" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D505" s="20" t="s">
         <v>1550</v>
       </c>
-      <c r="E505" s="26"/>
-      <c r="F505" s="26"/>
+      <c r="F505" s="3"/>
+    </row>
+    <row r="506" spans="1:6" ht="33">
+      <c r="A506" s="24" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B506" s="25" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C506" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D506" s="27"/>
+      <c r="E506" s="26"/>
+      <c r="F506" s="26"/>
+    </row>
+    <row r="507" spans="1:6" ht="114">
+      <c r="A507" s="28" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B507" s="25" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C507" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D507" s="27"/>
+      <c r="E507" s="26"/>
+      <c r="F507" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D276">

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ストレージ\MarkDown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorio/Sites/markdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBE266E-2ED5-4289-9C7B-C22098AB8FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0EC618-6994-6542-B57F-245C57AF4EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="105" windowWidth="24225" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52280" yWindow="500" windowWidth="29460" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="1589">
   <si>
     <t>NAS</t>
   </si>
@@ -5259,12 +5259,70 @@
   <si>
     <t>port translation protocol</t>
   </si>
+  <si>
+    <t xml:space="preserve">avr </t>
+  </si>
+  <si>
+    <t>Automatic voltage regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if avr immer VI  for usv
+A voltage regulator is a system designed to automatically maintain a constant voltage. A voltage regulator may use a simple feed-forward design or may include negative feedback. </t>
+  </si>
+  <si>
+    <t>CIFS</t>
+  </si>
+  <si>
+    <t>Common Internet File System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX  a protocol that gained popularity around the year 2000, as vendors worked to establish an Internet Protocol-based file-sharing protocol. </t>
+  </si>
+  <si>
+    <t>NFS</t>
+  </si>
+  <si>
+    <t>Network File System</t>
+  </si>
+  <si>
+    <t>***  is a distributed file system protocol originally developed by Sun Microsystems in 1984, allowing a user on a client computer to access files over a computer network much like local storage is accessed.</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Fibre Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs </t>
+  </si>
+  <si>
+    <t>** is a high-speed data transfer protocol providing in-order, lossless delivery of raw block data. Fibre Channel is primarily used to connect computer data storage to servers in storage area networks in commercial data centers.</t>
+  </si>
+  <si>
+    <t>iSCSI</t>
+  </si>
+  <si>
+    <t>Internet Small Computer System Interface</t>
+  </si>
+  <si>
+    <t>***** an Internet Protocol-based storage networking standard for linking data storage facilities. iSCSI provides block-level access to storage devices by carrying SCSI commands over a TCP/IP network.</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> () hard drive is a type of hard disk drive that uses the SAS interface to connect to a computer system. SAS is a high-speed data transfer protocol that is designed for demanding enterprise storage environments.</t>
+  </si>
+  <si>
+    <t>Serial Attached SCSI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5430,6 +5488,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5457,7 +5522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5506,6 +5571,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5514,9 +5582,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5628,8 +5694,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F507" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
-  <autoFilter ref="A1:F507" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F513" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
+  <autoFilter ref="A1:F513" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F475">
     <sortCondition ref="A1:A475"/>
   </sortState>
@@ -5908,23 +5974,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD507"/>
+  <dimension ref="A1:XFD513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D507" sqref="D507"/>
+    <sheetView tabSelected="1" topLeftCell="A498" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D512" sqref="D512"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="78.140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="3"/>
-    <col min="6" max="6" width="58.85546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="78.1640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="3"/>
+    <col min="6" max="6" width="58.83203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27.75">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -5944,7 +6010,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>1099</v>
       </c>
@@ -5958,7 +6024,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>1099</v>
       </c>
@@ -5972,7 +6038,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>1099</v>
       </c>
@@ -5985,7 +6051,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>1098</v>
       </c>
@@ -5999,7 +6065,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>1102</v>
       </c>
@@ -6013,7 +6079,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>1104</v>
       </c>
@@ -6027,7 +6093,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>1105</v>
       </c>
@@ -6041,7 +6107,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>1110</v>
       </c>
@@ -6055,7 +6121,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>1113</v>
       </c>
@@ -6069,7 +6135,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>1117</v>
       </c>
@@ -6083,7 +6149,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>1119</v>
       </c>
@@ -6097,7 +6163,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>1122</v>
       </c>
@@ -6111,7 +6177,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>1123</v>
       </c>
@@ -6125,7 +6191,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>1130</v>
       </c>
@@ -6139,7 +6205,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>1129</v>
       </c>
@@ -6153,7 +6219,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>264</v>
       </c>
@@ -6171,7 +6237,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>265</v>
       </c>
@@ -6187,7 +6253,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>263</v>
       </c>
@@ -6203,7 +6269,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>274</v>
       </c>
@@ -6213,7 +6279,7 @@
       </c>
       <c r="D20" s="20"/>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>1335</v>
       </c>
@@ -6231,7 +6297,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>1277</v>
       </c>
@@ -6247,7 +6313,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>879</v>
       </c>
@@ -6267,7 +6333,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>398</v>
       </c>
@@ -6287,7 +6353,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>80</v>
       </c>
@@ -6305,7 +6371,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>272</v>
       </c>
@@ -6319,7 +6385,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>1243</v>
       </c>
@@ -6339,7 +6405,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>1313</v>
       </c>
@@ -6357,7 +6423,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>853</v>
       </c>
@@ -6377,7 +6443,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>392</v>
       </c>
@@ -6397,7 +6463,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>1192</v>
       </c>
@@ -6415,7 +6481,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>1089</v>
       </c>
@@ -6431,7 +6497,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" s="4" customFormat="1">
+    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>107</v>
       </c>
@@ -6451,7 +6517,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>1344</v>
       </c>
@@ -6471,7 +6537,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>187</v>
       </c>
@@ -6489,7 +6555,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>346</v>
       </c>
@@ -6509,7 +6575,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>255</v>
       </c>
@@ -6529,7 +6595,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="56.25">
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>224</v>
       </c>
@@ -6549,7 +6615,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>1053</v>
       </c>
@@ -6567,7 +6633,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>534</v>
       </c>
@@ -6587,7 +6653,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>482</v>
       </c>
@@ -6607,7 +6673,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>25</v>
       </c>
@@ -6623,7 +6689,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>22</v>
       </c>
@@ -6643,7 +6709,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="33">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>470</v>
       </c>
@@ -6663,7 +6729,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>53</v>
       </c>
@@ -6683,7 +6749,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>552</v>
       </c>
@@ -6703,7 +6769,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>764</v>
       </c>
@@ -6721,7 +6787,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>765</v>
       </c>
@@ -6739,7 +6805,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>393</v>
       </c>
@@ -6759,7 +6825,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>1347</v>
       </c>
@@ -6779,7 +6845,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>1238</v>
       </c>
@@ -6795,7 +6861,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>1179</v>
       </c>
@@ -6811,7 +6877,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>1195</v>
       </c>
@@ -6827,7 +6893,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>549</v>
       </c>
@@ -6847,7 +6913,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>1348</v>
       </c>
@@ -6867,7 +6933,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="56" spans="1:6" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>369</v>
       </c>
@@ -6887,7 +6953,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>1158</v>
       </c>
@@ -6905,7 +6971,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>410</v>
       </c>
@@ -6923,7 +6989,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="59" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>1190</v>
       </c>
@@ -6939,7 +7005,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="48">
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
         <v>1184</v>
       </c>
@@ -6953,7 +7019,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>1072</v>
       </c>
@@ -6969,7 +7035,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1">
+    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>555</v>
       </c>
@@ -6989,7 +7055,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>359</v>
       </c>
@@ -7009,7 +7075,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>539</v>
       </c>
@@ -7029,7 +7095,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="2" customFormat="1">
+    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>1288</v>
       </c>
@@ -7047,7 +7113,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" s="2" customFormat="1">
+    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>1019</v>
       </c>
@@ -7063,7 +7129,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" s="2" customFormat="1">
+    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
         <v>796</v>
       </c>
@@ -7081,7 +7147,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1">
+    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
         <v>246</v>
       </c>
@@ -7101,7 +7167,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>1289</v>
       </c>
@@ -7116,7 +7182,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>109</v>
       </c>
@@ -7136,7 +7202,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="2" customFormat="1">
+    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
         <v>565</v>
       </c>
@@ -7156,7 +7222,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="2" customFormat="1">
+    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
         <v>828</v>
       </c>
@@ -7172,7 +7238,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
         <v>1226</v>
       </c>
@@ -7190,7 +7256,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="74" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>1378</v>
       </c>
@@ -7210,7 +7276,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="75" spans="1:6" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
         <v>1042</v>
       </c>
@@ -7226,7 +7292,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" s="2" customFormat="1">
+    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>456</v>
       </c>
@@ -7246,7 +7312,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
         <v>811</v>
       </c>
@@ -7262,7 +7328,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" s="2" customFormat="1">
+    <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
         <v>441</v>
       </c>
@@ -7280,7 +7346,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
         <v>396</v>
       </c>
@@ -7297,7 +7363,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="80" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
         <v>101</v>
       </c>
@@ -7317,7 +7383,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="33.75">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
         <v>755</v>
       </c>
@@ -7335,7 +7401,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" s="2" customFormat="1">
+    <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
         <v>357</v>
       </c>
@@ -7353,7 +7419,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
         <v>1169</v>
       </c>
@@ -7369,7 +7435,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
         <v>381</v>
       </c>
@@ -7389,7 +7455,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="33">
+    <row r="85" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>1352</v>
       </c>
@@ -7409,7 +7475,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="86" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
         <v>383</v>
       </c>
@@ -7429,7 +7495,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="2" customFormat="1">
+    <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
         <v>105</v>
       </c>
@@ -7449,7 +7515,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="2" customFormat="1">
+    <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>75</v>
       </c>
@@ -7469,7 +7535,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="2" customFormat="1">
+    <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
         <v>881</v>
       </c>
@@ -7489,7 +7555,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
         <v>337</v>
       </c>
@@ -7509,7 +7575,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="2" customFormat="1">
+    <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
         <v>1217</v>
       </c>
@@ -7527,7 +7593,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" s="2" customFormat="1">
+    <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
         <v>210</v>
       </c>
@@ -7545,7 +7611,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="2" customFormat="1">
+    <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
         <v>327</v>
       </c>
@@ -7565,7 +7631,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="2" customFormat="1">
+    <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
         <v>1214</v>
       </c>
@@ -7583,7 +7649,7 @@
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" s="2" customFormat="1">
+    <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>1353</v>
       </c>
@@ -7603,7 +7669,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="2" customFormat="1">
+    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>90</v>
       </c>
@@ -7623,7 +7689,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="2" customFormat="1">
+    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>493</v>
       </c>
@@ -7643,7 +7709,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="98" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>485</v>
       </c>
@@ -7663,7 +7729,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="2" customFormat="1">
+    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>1212</v>
       </c>
@@ -7681,7 +7747,7 @@
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="100" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>232</v>
       </c>
@@ -7701,7 +7767,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="2" customFormat="1" ht="48">
+    <row r="101" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>2</v>
       </c>
@@ -7721,7 +7787,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" ht="48">
+    <row r="102" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>1408</v>
       </c>
@@ -7739,7 +7805,7 @@
       </c>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" ht="33.75">
+    <row r="103" spans="1:6" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A103" s="18" t="s">
         <v>1407</v>
       </c>
@@ -7755,7 +7821,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" s="2" customFormat="1">
+    <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="18" t="s">
         <v>1409</v>
       </c>
@@ -7769,7 +7835,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" s="2" customFormat="1">
+    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="18" t="s">
         <v>476</v>
       </c>
@@ -7789,7 +7855,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="2" customFormat="1">
+    <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="18" t="s">
         <v>543</v>
       </c>
@@ -7809,7 +7875,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="107" spans="1:6" s="2" customFormat="1" ht="35" x14ac:dyDescent="0.35">
       <c r="A107" s="18" t="s">
         <v>1355</v>
       </c>
@@ -7829,7 +7895,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="2" customFormat="1" ht="33">
+    <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="18" t="s">
         <v>340</v>
       </c>
@@ -7849,7 +7915,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="18" t="s">
         <v>1206</v>
       </c>
@@ -7867,7 +7933,7 @@
       </c>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" s="2" customFormat="1">
+    <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="18" t="s">
         <v>275</v>
       </c>
@@ -7885,7 +7951,7 @@
       </c>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" ht="33.75">
+    <row r="111" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A111" s="18" t="s">
         <v>1066</v>
       </c>
@@ -7901,7 +7967,7 @@
       </c>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="18" t="s">
         <v>373</v>
       </c>
@@ -7921,7 +7987,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="18" t="s">
         <v>92</v>
       </c>
@@ -7941,7 +8007,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="18" t="s">
         <v>173</v>
       </c>
@@ -7961,7 +8027,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="33.75">
+    <row r="115" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A115" s="18" t="s">
         <v>807</v>
       </c>
@@ -7979,7 +8045,7 @@
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" ht="45">
+    <row r="116" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A116" s="18" t="s">
         <v>21</v>
       </c>
@@ -7999,7 +8065,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="33">
+    <row r="117" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A117" s="18" t="s">
         <v>249</v>
       </c>
@@ -8019,7 +8085,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="18" t="s">
         <v>475</v>
       </c>
@@ -8039,7 +8105,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="18" t="s">
         <v>94</v>
       </c>
@@ -8059,7 +8125,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="33.75">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="18" t="s">
         <v>379</v>
       </c>
@@ -8079,7 +8145,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="33.75">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
         <v>320</v>
       </c>
@@ -8099,7 +8165,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="18" t="s">
         <v>1028</v>
       </c>
@@ -8117,7 +8183,7 @@
       </c>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="18" t="s">
         <v>54</v>
       </c>
@@ -8137,7 +8203,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="18" t="s">
         <v>78</v>
       </c>
@@ -8157,7 +8223,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="33.75">
+    <row r="125" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A125" s="18" t="s">
         <v>71</v>
       </c>
@@ -8177,7 +8243,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="33.75">
+    <row r="126" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A126" s="18" t="s">
         <v>1231</v>
       </c>
@@ -8192,7 +8258,7 @@
       </c>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="18" t="s">
         <v>871</v>
       </c>
@@ -8212,7 +8278,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="45">
+    <row r="128" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A128" s="18" t="s">
         <v>1050</v>
       </c>
@@ -8225,7 +8291,7 @@
       </c>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="18" t="s">
         <v>209</v>
       </c>
@@ -8238,7 +8304,7 @@
       <c r="D129" s="20"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" ht="33.75">
+    <row r="130" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A130" s="18" t="s">
         <v>153</v>
       </c>
@@ -8258,7 +8324,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="18" t="s">
         <v>1065</v>
       </c>
@@ -8271,7 +8337,7 @@
       </c>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" ht="33.75">
+    <row r="132" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A132" s="18" t="s">
         <v>749</v>
       </c>
@@ -8289,7 +8355,7 @@
       </c>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" ht="33.75">
+    <row r="133" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A133" s="18" t="s">
         <v>491</v>
       </c>
@@ -8309,7 +8375,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="18" t="s">
         <v>68</v>
       </c>
@@ -8329,7 +8395,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="18" t="s">
         <v>62</v>
       </c>
@@ -8349,7 +8415,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="48">
+    <row r="136" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A136" s="18" t="s">
         <v>391</v>
       </c>
@@ -8369,7 +8435,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="33.75">
+    <row r="137" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A137" s="18" t="s">
         <v>600</v>
       </c>
@@ -8389,7 +8455,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="48">
+    <row r="138" spans="1:6" ht="51" x14ac:dyDescent="0.35">
       <c r="A138" s="18" t="s">
         <v>344</v>
       </c>
@@ -8409,7 +8475,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="33">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="18" t="s">
         <v>330</v>
       </c>
@@ -8429,7 +8495,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="18" t="s">
         <v>763</v>
       </c>
@@ -8447,7 +8513,7 @@
       </c>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="18" t="s">
         <v>183</v>
       </c>
@@ -8467,7 +8533,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="33">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="18" t="s">
         <v>349</v>
       </c>
@@ -8487,7 +8553,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="112.5">
+    <row r="143" spans="1:6" ht="108" x14ac:dyDescent="0.35">
       <c r="A143" s="18" t="s">
         <v>418</v>
       </c>
@@ -8507,7 +8573,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="45">
+    <row r="144" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A144" s="18" t="s">
         <v>1049</v>
       </c>
@@ -8522,7 +8588,7 @@
       </c>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" ht="33.75">
+    <row r="145" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A145" s="18" t="s">
         <v>467</v>
       </c>
@@ -8542,7 +8608,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="18" t="s">
         <v>1175</v>
       </c>
@@ -8555,7 +8621,7 @@
       </c>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" ht="33.75">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="18" t="s">
         <v>413</v>
       </c>
@@ -8575,7 +8641,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="33.75">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="18" t="s">
         <v>414</v>
       </c>
@@ -8592,7 +8658,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="45">
+    <row r="149" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A149" s="18" t="s">
         <v>331</v>
       </c>
@@ -8612,7 +8678,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="33.75">
+    <row r="150" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A150" s="18" t="s">
         <v>1040</v>
       </c>
@@ -8625,7 +8691,7 @@
       </c>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="18" t="s">
         <v>426</v>
       </c>
@@ -8645,7 +8711,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="33">
+    <row r="152" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A152" s="18" t="s">
         <v>261</v>
       </c>
@@ -8665,7 +8731,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="33">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="18" t="s">
         <v>98</v>
       </c>
@@ -8685,7 +8751,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="33.75">
+    <row r="154" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A154" s="18" t="s">
         <v>251</v>
       </c>
@@ -8705,7 +8771,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="18" t="s">
         <v>1069</v>
       </c>
@@ -8718,7 +8784,7 @@
       </c>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="18" t="s">
         <v>1070</v>
       </c>
@@ -8731,7 +8797,7 @@
       </c>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" ht="33.75">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="18" t="s">
         <v>1071</v>
       </c>
@@ -8744,7 +8810,7 @@
       </c>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="18" t="s">
         <v>317</v>
       </c>
@@ -8764,7 +8830,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="18" t="s">
         <v>52</v>
       </c>
@@ -8784,7 +8850,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="18" t="s">
         <v>1282</v>
       </c>
@@ -8799,7 +8865,7 @@
       </c>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="18" t="s">
         <v>1091</v>
       </c>
@@ -8812,7 +8878,7 @@
       </c>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="18" t="s">
         <v>478</v>
       </c>
@@ -8832,7 +8898,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="18" t="s">
         <v>483</v>
       </c>
@@ -8850,7 +8916,7 @@
       </c>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6" ht="33">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="18" t="s">
         <v>480</v>
       </c>
@@ -8868,7 +8934,7 @@
       </c>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="18" t="s">
         <v>844</v>
       </c>
@@ -8884,7 +8950,7 @@
       </c>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="18" t="s">
         <v>766</v>
       </c>
@@ -8902,7 +8968,7 @@
       </c>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="1:6" ht="33.75">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="18" t="s">
         <v>822</v>
       </c>
@@ -8915,7 +8981,7 @@
       </c>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="18" t="s">
         <v>433</v>
       </c>
@@ -8933,7 +8999,7 @@
       </c>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="18" t="s">
         <v>1170</v>
       </c>
@@ -8946,7 +9012,7 @@
       </c>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6" ht="37.5">
+    <row r="170" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="s">
         <v>1461</v>
       </c>
@@ -8964,7 +9030,7 @@
       </c>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6" ht="33.75">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="18" t="s">
         <v>435</v>
       </c>
@@ -8982,7 +9048,7 @@
       </c>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6" ht="33.75">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="18" t="s">
         <v>33</v>
       </c>
@@ -9000,7 +9066,7 @@
       </c>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="18" t="s">
         <v>145</v>
       </c>
@@ -9018,7 +9084,7 @@
       </c>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="18" t="s">
         <v>143</v>
       </c>
@@ -9036,7 +9102,7 @@
       </c>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="18" t="s">
         <v>147</v>
       </c>
@@ -9054,7 +9120,7 @@
       </c>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="18" t="s">
         <v>84</v>
       </c>
@@ -9072,7 +9138,7 @@
       </c>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="18" t="s">
         <v>141</v>
       </c>
@@ -9090,7 +9156,7 @@
       </c>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
         <v>8</v>
       </c>
@@ -9108,7 +9174,7 @@
       </c>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="18" t="s">
         <v>278</v>
       </c>
@@ -9123,7 +9189,7 @@
       </c>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="1:6" ht="45">
+    <row r="180" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A180" s="18" t="s">
         <v>814</v>
       </c>
@@ -9139,7 +9205,7 @@
       </c>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="18" t="s">
         <v>497</v>
       </c>
@@ -9157,7 +9223,7 @@
       </c>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
         <v>1168</v>
       </c>
@@ -9168,7 +9234,7 @@
       </c>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="1:6" ht="33.75">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
         <v>1026</v>
       </c>
@@ -9183,7 +9249,7 @@
       </c>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="18" t="s">
         <v>800</v>
       </c>
@@ -9201,7 +9267,7 @@
       </c>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="1:6" ht="33.75">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="18" t="s">
         <v>354</v>
       </c>
@@ -9219,7 +9285,7 @@
       </c>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="1:6" ht="33.75">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
         <v>1139</v>
       </c>
@@ -9234,7 +9300,7 @@
       </c>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6" ht="33">
+    <row r="187" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A187" s="18" t="s">
         <v>1030</v>
       </c>
@@ -9249,7 +9315,7 @@
       </c>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="1:6" ht="33.75">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="18" t="s">
         <v>858</v>
       </c>
@@ -9269,7 +9335,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="18" t="s">
         <v>195</v>
       </c>
@@ -9282,7 +9348,7 @@
       </c>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="1:6" ht="33.75">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="18" t="s">
         <v>167</v>
       </c>
@@ -9300,7 +9366,7 @@
       </c>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="18" t="s">
         <v>472</v>
       </c>
@@ -9318,7 +9384,7 @@
       </c>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="1:6" ht="33.75">
+    <row r="192" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A192" s="18" t="s">
         <v>161</v>
       </c>
@@ -9336,7 +9402,7 @@
       </c>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="18" t="s">
         <v>118</v>
       </c>
@@ -9351,7 +9417,7 @@
       </c>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="18" t="s">
         <v>163</v>
       </c>
@@ -9369,7 +9435,7 @@
       </c>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="18" t="s">
         <v>177</v>
       </c>
@@ -9387,7 +9453,7 @@
       </c>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="1:6" ht="33.75">
+    <row r="196" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
         <v>1137</v>
       </c>
@@ -9402,7 +9468,7 @@
       </c>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="1:6" ht="33.75">
+    <row r="197" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
         <v>20</v>
       </c>
@@ -9417,7 +9483,7 @@
       </c>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
         <v>1379</v>
       </c>
@@ -9435,7 +9501,7 @@
       </c>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="1:6" ht="33">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="18" t="s">
         <v>1234</v>
       </c>
@@ -9450,7 +9516,7 @@
       </c>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="1:6" ht="33.75">
+    <row r="200" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A200" s="18" t="s">
         <v>874</v>
       </c>
@@ -9470,7 +9536,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="18" t="s">
         <v>563</v>
       </c>
@@ -9485,7 +9551,7 @@
       </c>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="1:6" ht="33.75">
+    <row r="202" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A202" s="18" t="s">
         <v>228</v>
       </c>
@@ -9503,7 +9569,7 @@
       </c>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="1:6" ht="33">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="18" t="s">
         <v>132</v>
       </c>
@@ -9521,7 +9587,7 @@
       </c>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="18" t="s">
         <v>136</v>
       </c>
@@ -9539,7 +9605,7 @@
       </c>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="18" t="s">
         <v>134</v>
       </c>
@@ -9557,7 +9623,7 @@
       </c>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="1:6" ht="33.75">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="18" t="s">
         <v>440</v>
       </c>
@@ -9575,7 +9641,7 @@
       </c>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="18" t="s">
         <v>11</v>
       </c>
@@ -9593,7 +9659,7 @@
       </c>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="18" t="s">
         <v>280</v>
       </c>
@@ -9608,7 +9674,7 @@
       </c>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="18" t="s">
         <v>253</v>
       </c>
@@ -9621,7 +9687,7 @@
       <c r="D209" s="20"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="18" t="s">
         <v>540</v>
       </c>
@@ -9639,7 +9705,7 @@
       </c>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="1:6" ht="33.75">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="18" t="s">
         <v>17</v>
       </c>
@@ -9657,7 +9723,7 @@
       </c>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="18" t="s">
         <v>408</v>
       </c>
@@ -9675,7 +9741,7 @@
       </c>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="1:6" ht="33">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="18" t="s">
         <v>428</v>
       </c>
@@ -9693,7 +9759,7 @@
       </c>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="18" t="s">
         <v>26</v>
       </c>
@@ -9711,7 +9777,7 @@
       </c>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="1:6" ht="33">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="18" t="s">
         <v>238</v>
       </c>
@@ -9729,7 +9795,7 @@
       </c>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="1:6" ht="33.75">
+    <row r="216" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A216" s="18" t="s">
         <v>220</v>
       </c>
@@ -9747,7 +9813,7 @@
       </c>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="18" t="s">
         <v>69</v>
       </c>
@@ -9765,7 +9831,7 @@
       </c>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="1:6" ht="45">
+    <row r="218" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A218" s="22" t="s">
         <v>1360</v>
       </c>
@@ -9783,7 +9849,7 @@
       </c>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:6" ht="33">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="18" t="s">
         <v>465</v>
       </c>
@@ -9801,7 +9867,7 @@
       </c>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="18" t="s">
         <v>1488</v>
       </c>
@@ -9816,7 +9882,7 @@
       </c>
       <c r="F220" s="3"/>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="18" t="s">
         <v>1057</v>
       </c>
@@ -9831,7 +9897,7 @@
       </c>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="1:6" ht="45">
+    <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A222" s="18" t="s">
         <v>458</v>
       </c>
@@ -9849,7 +9915,7 @@
       </c>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="1:6" ht="33.75">
+    <row r="223" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A223" s="18" t="s">
         <v>430</v>
       </c>
@@ -9867,7 +9933,7 @@
       </c>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="1:6" ht="33.75">
+    <row r="224" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A224" s="23" t="s">
         <v>194</v>
       </c>
@@ -9885,7 +9951,7 @@
       </c>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="18" t="s">
         <v>188</v>
       </c>
@@ -9903,7 +9969,7 @@
       </c>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="18" t="s">
         <v>12</v>
       </c>
@@ -9918,7 +9984,7 @@
       </c>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="1:6" ht="33.75">
+    <row r="227" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A227" s="18" t="s">
         <v>351</v>
       </c>
@@ -9936,7 +10002,7 @@
       </c>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="18" t="s">
         <v>99</v>
       </c>
@@ -9954,7 +10020,7 @@
       </c>
       <c r="F228" s="3"/>
     </row>
-    <row r="229" spans="1:6" ht="33.75">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="18" t="s">
         <v>151</v>
       </c>
@@ -9972,7 +10038,7 @@
       </c>
       <c r="F229" s="3"/>
     </row>
-    <row r="230" spans="1:6" ht="33.75">
+    <row r="230" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A230" s="18" t="s">
         <v>577</v>
       </c>
@@ -9992,7 +10058,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="33.75">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="18" t="s">
         <v>471</v>
       </c>
@@ -10010,7 +10076,7 @@
       </c>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="1:6" ht="33.75">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="18" t="s">
         <v>1181</v>
       </c>
@@ -10023,7 +10089,7 @@
       </c>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="1:6" ht="33">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="18" t="s">
         <v>55</v>
       </c>
@@ -10041,7 +10107,7 @@
       </c>
       <c r="F233" s="3"/>
     </row>
-    <row r="234" spans="1:6" ht="33.75">
+    <row r="234" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A234" s="18" t="s">
         <v>1186</v>
       </c>
@@ -10054,7 +10120,7 @@
       </c>
       <c r="F234" s="3"/>
     </row>
-    <row r="235" spans="1:6" ht="63">
+    <row r="235" spans="1:6" ht="67" x14ac:dyDescent="0.35">
       <c r="A235" s="18" t="s">
         <v>97</v>
       </c>
@@ -10072,7 +10138,7 @@
       </c>
       <c r="F235" s="3"/>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="18" t="s">
         <v>15</v>
       </c>
@@ -10090,7 +10156,7 @@
       </c>
       <c r="F236" s="3"/>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="18" t="s">
         <v>1182</v>
       </c>
@@ -10101,7 +10167,7 @@
       <c r="D237" s="20"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="1:6" ht="33">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="18" t="s">
         <v>557</v>
       </c>
@@ -10119,7 +10185,7 @@
       </c>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="18" t="s">
         <v>1311</v>
       </c>
@@ -10134,7 +10200,7 @@
       </c>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="1:6" ht="33.75">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="18" t="s">
         <v>127</v>
       </c>
@@ -10152,7 +10218,7 @@
       </c>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="1:6" ht="33">
+    <row r="241" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A241" s="18" t="s">
         <v>770</v>
       </c>
@@ -10170,7 +10236,7 @@
       </c>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="18" t="s">
         <v>1073</v>
       </c>
@@ -10183,7 +10249,7 @@
       </c>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="18" t="s">
         <v>125</v>
       </c>
@@ -10201,7 +10267,7 @@
       </c>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="1:6" ht="33.75">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="18" t="s">
         <v>896</v>
       </c>
@@ -10221,7 +10287,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="33.75">
+    <row r="245" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A245" s="18" t="s">
         <v>1068</v>
       </c>
@@ -10234,7 +10300,7 @@
       </c>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="1:6" ht="45">
+    <row r="246" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A246" s="18" t="s">
         <v>808</v>
       </c>
@@ -10252,7 +10318,7 @@
       </c>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="18" t="s">
         <v>283</v>
       </c>
@@ -10270,7 +10336,7 @@
       </c>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="18" t="s">
         <v>3</v>
       </c>
@@ -10288,7 +10354,7 @@
       </c>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="18" t="s">
         <v>419</v>
       </c>
@@ -10306,7 +10372,7 @@
       </c>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="1:6" ht="33.75">
+    <row r="250" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A250" s="18" t="s">
         <v>370</v>
       </c>
@@ -10324,7 +10390,7 @@
       </c>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="18" t="s">
         <v>286</v>
       </c>
@@ -10342,7 +10408,7 @@
       </c>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="18" t="s">
         <v>207</v>
       </c>
@@ -10360,7 +10426,7 @@
       </c>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="18" t="s">
         <v>73</v>
       </c>
@@ -10378,7 +10444,7 @@
       </c>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="18" t="s">
         <v>1193</v>
       </c>
@@ -10393,7 +10459,7 @@
       </c>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="18" t="s">
         <v>1203</v>
       </c>
@@ -10408,7 +10474,7 @@
       </c>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="18" t="s">
         <v>122</v>
       </c>
@@ -10426,7 +10492,7 @@
       </c>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="18" t="s">
         <v>880</v>
       </c>
@@ -10446,7 +10512,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="33.75">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="18" t="s">
         <v>199</v>
       </c>
@@ -10464,7 +10530,7 @@
       </c>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="1:6" ht="33">
+    <row r="259" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A259" s="18" t="s">
         <v>1138</v>
       </c>
@@ -10479,7 +10545,7 @@
       </c>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="18" t="s">
         <v>6</v>
       </c>
@@ -10493,7 +10559,7 @@
       </c>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="18" t="s">
         <v>165</v>
       </c>
@@ -10511,7 +10577,7 @@
       </c>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="1:6" ht="56.25">
+    <row r="262" spans="1:6" ht="60" x14ac:dyDescent="0.35">
       <c r="A262" s="18" t="s">
         <v>459</v>
       </c>
@@ -10529,7 +10595,7 @@
       </c>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="1:6" ht="56.25">
+    <row r="263" spans="1:6" ht="60" x14ac:dyDescent="0.35">
       <c r="A263" s="18" t="s">
         <v>461</v>
       </c>
@@ -10547,7 +10613,7 @@
       </c>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="18" t="s">
         <v>463</v>
       </c>
@@ -10565,7 +10631,7 @@
       </c>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="18" t="s">
         <v>411</v>
       </c>
@@ -10583,7 +10649,7 @@
       </c>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="1:6" ht="33">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="18" t="s">
         <v>241</v>
       </c>
@@ -10601,7 +10667,7 @@
       </c>
       <c r="F266" s="3"/>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="18" t="s">
         <v>474</v>
       </c>
@@ -10619,7 +10685,7 @@
       </c>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="1:6" s="6" customFormat="1">
+    <row r="268" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A268" s="18" t="s">
         <v>1283</v>
       </c>
@@ -10635,7 +10701,7 @@
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="18" t="s">
         <v>406</v>
       </c>
@@ -10653,7 +10719,7 @@
       </c>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="1:6" ht="48">
+    <row r="270" spans="1:6" ht="51" x14ac:dyDescent="0.35">
       <c r="A270" s="18" t="s">
         <v>756</v>
       </c>
@@ -10671,7 +10737,7 @@
       </c>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="1:6" ht="33.75">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="18" t="s">
         <v>1250</v>
       </c>
@@ -10686,7 +10752,7 @@
       </c>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="1:6" ht="33.75">
+    <row r="272" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A272" s="18" t="s">
         <v>464</v>
       </c>
@@ -10704,7 +10770,7 @@
       </c>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="1:6" ht="33">
+    <row r="273" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A273" s="18" t="s">
         <v>449</v>
       </c>
@@ -10722,7 +10788,7 @@
       </c>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="18" t="s">
         <v>445</v>
       </c>
@@ -10737,7 +10803,7 @@
       </c>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="18" t="s">
         <v>1199</v>
       </c>
@@ -10752,7 +10818,7 @@
       </c>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="18" t="s">
         <v>115</v>
       </c>
@@ -10770,7 +10836,7 @@
       </c>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="18" t="s">
         <v>388</v>
       </c>
@@ -10788,7 +10854,7 @@
       </c>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="18" t="s">
         <v>1152</v>
       </c>
@@ -10801,7 +10867,7 @@
       <c r="D278" s="20"/>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="1:6" ht="33.75">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="18" t="s">
         <v>243</v>
       </c>
@@ -10819,7 +10885,7 @@
       </c>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="18" t="s">
         <v>0</v>
       </c>
@@ -10837,7 +10903,7 @@
       </c>
       <c r="F280" s="3"/>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="18" t="s">
         <v>197</v>
       </c>
@@ -10853,7 +10919,7 @@
       </c>
       <c r="F281" s="3"/>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="18" t="s">
         <v>1145</v>
       </c>
@@ -10864,7 +10930,7 @@
       <c r="D282" s="20"/>
       <c r="F282" s="3"/>
     </row>
-    <row r="283" spans="1:6" ht="56.25">
+    <row r="283" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A283" s="18" t="s">
         <v>1362</v>
       </c>
@@ -10884,7 +10950,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="33">
+    <row r="284" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A284" s="18" t="s">
         <v>235</v>
       </c>
@@ -10902,7 +10968,7 @@
       </c>
       <c r="F284" s="3"/>
     </row>
-    <row r="285" spans="1:6" ht="33.75">
+    <row r="285" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A285" s="18" t="s">
         <v>149</v>
       </c>
@@ -10920,7 +10986,7 @@
       </c>
       <c r="F285" s="3"/>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="18" t="s">
         <v>222</v>
       </c>
@@ -10938,7 +11004,7 @@
       </c>
       <c r="F286" s="3"/>
     </row>
-    <row r="287" spans="1:6" ht="33.75">
+    <row r="287" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A287" s="18" t="s">
         <v>1143</v>
       </c>
@@ -10953,7 +11019,7 @@
       </c>
       <c r="F287" s="3"/>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="18" t="s">
         <v>234</v>
       </c>
@@ -10969,7 +11035,7 @@
       </c>
       <c r="F288" s="3"/>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="18" t="s">
         <v>211</v>
       </c>
@@ -10987,7 +11053,7 @@
       </c>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="1:6" ht="33">
+    <row r="290" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A290" s="18" t="s">
         <v>231</v>
       </c>
@@ -11005,7 +11071,7 @@
       </c>
       <c r="F290" s="3"/>
     </row>
-    <row r="291" spans="1:6" ht="33">
+    <row r="291" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A291" s="18" t="s">
         <v>290</v>
       </c>
@@ -11023,7 +11089,7 @@
       </c>
       <c r="F291" s="3"/>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="18" t="s">
         <v>158</v>
       </c>
@@ -11041,7 +11107,7 @@
       </c>
       <c r="F292" s="3"/>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="18" t="s">
         <v>45</v>
       </c>
@@ -11059,7 +11125,7 @@
       </c>
       <c r="F293" s="3"/>
     </row>
-    <row r="294" spans="1:6" ht="33">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="18" t="s">
         <v>490</v>
       </c>
@@ -11077,7 +11143,7 @@
       </c>
       <c r="F294" s="3"/>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="18" t="s">
         <v>1275</v>
       </c>
@@ -11092,7 +11158,7 @@
       </c>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="18" t="s">
         <v>1364</v>
       </c>
@@ -11110,7 +11176,7 @@
       </c>
       <c r="F296" s="3"/>
     </row>
-    <row r="297" spans="1:6" ht="33.75">
+    <row r="297" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A297" s="18" t="s">
         <v>1365</v>
       </c>
@@ -11128,7 +11194,7 @@
       </c>
       <c r="F297" s="3"/>
     </row>
-    <row r="298" spans="1:6" ht="33.75">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="18" t="s">
         <v>239</v>
       </c>
@@ -11146,7 +11212,7 @@
       </c>
       <c r="F298" s="3"/>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="18" t="s">
         <v>1022</v>
       </c>
@@ -11161,7 +11227,7 @@
       </c>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="18" t="s">
         <v>466</v>
       </c>
@@ -11179,7 +11245,7 @@
       </c>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="1:6" ht="33.75">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="18" t="s">
         <v>1259</v>
       </c>
@@ -11194,7 +11260,7 @@
       </c>
       <c r="F301" s="3"/>
     </row>
-    <row r="302" spans="1:6" ht="33.75">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="18" t="s">
         <v>1252</v>
       </c>
@@ -11209,7 +11275,7 @@
       </c>
       <c r="F302" s="3"/>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="18" t="s">
         <v>171</v>
       </c>
@@ -11227,7 +11293,7 @@
       </c>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="18" t="s">
         <v>1331</v>
       </c>
@@ -11242,7 +11308,7 @@
       </c>
       <c r="F304" s="3"/>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="18" t="s">
         <v>292</v>
       </c>
@@ -11253,7 +11319,7 @@
       <c r="D305" s="20"/>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="18" t="s">
         <v>1263</v>
       </c>
@@ -11268,7 +11334,7 @@
       </c>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="1:6" ht="33">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="18" t="s">
         <v>385</v>
       </c>
@@ -11288,7 +11354,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="18" t="s">
         <v>489</v>
       </c>
@@ -11306,7 +11372,7 @@
       </c>
       <c r="F308" s="3"/>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="18" t="s">
         <v>1272</v>
       </c>
@@ -11321,7 +11387,7 @@
       </c>
       <c r="F309" s="3"/>
     </row>
-    <row r="310" spans="1:6" ht="33">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="18" t="s">
         <v>394</v>
       </c>
@@ -11339,7 +11405,7 @@
       </c>
       <c r="F310" s="3"/>
     </row>
-    <row r="311" spans="1:6" ht="33">
+    <row r="311" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A311" s="18" t="s">
         <v>1166</v>
       </c>
@@ -11352,7 +11418,7 @@
       </c>
       <c r="F311" s="3"/>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="18" t="s">
         <v>487</v>
       </c>
@@ -11370,7 +11436,7 @@
       </c>
       <c r="F312" s="3"/>
     </row>
-    <row r="313" spans="1:6" ht="33">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="18" t="s">
         <v>488</v>
       </c>
@@ -11388,7 +11454,7 @@
       </c>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="18" t="s">
         <v>293</v>
       </c>
@@ -11406,7 +11472,7 @@
       </c>
       <c r="F314" s="3"/>
     </row>
-    <row r="315" spans="1:6" ht="33.75">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="18" t="s">
         <v>1258</v>
       </c>
@@ -11421,7 +11487,7 @@
       </c>
       <c r="F315" s="3"/>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="18" t="s">
         <v>479</v>
       </c>
@@ -11439,7 +11505,7 @@
       </c>
       <c r="F316" s="3"/>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="18" t="s">
         <v>1366</v>
       </c>
@@ -11457,7 +11523,7 @@
       </c>
       <c r="F317" s="3"/>
     </row>
-    <row r="318" spans="1:6" ht="33.75">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="18" t="s">
         <v>1149</v>
       </c>
@@ -11472,7 +11538,7 @@
       </c>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="1:6" ht="33.75">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="18" t="s">
         <v>1290</v>
       </c>
@@ -11487,7 +11553,7 @@
       </c>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="1:6" ht="112.5">
+    <row r="320" spans="1:6" ht="96" x14ac:dyDescent="0.35">
       <c r="A320" s="18" t="s">
         <v>417</v>
       </c>
@@ -11505,7 +11571,7 @@
       </c>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="1:6 16384:16384" ht="33">
+    <row r="321" spans="1:6 16384:16384" ht="35" x14ac:dyDescent="0.35">
       <c r="A321" s="18" t="s">
         <v>802</v>
       </c>
@@ -11523,7 +11589,7 @@
       </c>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="1:6 16384:16384">
+    <row r="322" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A322" s="18" t="s">
         <v>1060</v>
       </c>
@@ -11534,7 +11600,7 @@
       </c>
       <c r="F322" s="3"/>
     </row>
-    <row r="323" spans="1:6 16384:16384" ht="78.75">
+    <row r="323" spans="1:6 16384:16384" ht="84" x14ac:dyDescent="0.35">
       <c r="A323" s="18" t="s">
         <v>1059</v>
       </c>
@@ -11547,7 +11613,7 @@
       </c>
       <c r="F323" s="3"/>
     </row>
-    <row r="324" spans="1:6 16384:16384">
+    <row r="324" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A324" s="18" t="s">
         <v>31</v>
       </c>
@@ -11565,7 +11631,7 @@
       </c>
       <c r="F324" s="3"/>
     </row>
-    <row r="325" spans="1:6 16384:16384">
+    <row r="325" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A325" s="18" t="s">
         <v>376</v>
       </c>
@@ -11583,7 +11649,7 @@
       </c>
       <c r="F325" s="3"/>
     </row>
-    <row r="326" spans="1:6 16384:16384">
+    <row r="326" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A326" s="18" t="s">
         <v>213</v>
       </c>
@@ -11601,7 +11667,7 @@
       </c>
       <c r="F326" s="3"/>
     </row>
-    <row r="327" spans="1:6 16384:16384">
+    <row r="327" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A327" s="18" t="s">
         <v>51</v>
       </c>
@@ -11619,7 +11685,7 @@
       </c>
       <c r="F327" s="3"/>
     </row>
-    <row r="328" spans="1:6 16384:16384" ht="33">
+    <row r="328" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A328" s="18" t="s">
         <v>446</v>
       </c>
@@ -11637,7 +11703,7 @@
       </c>
       <c r="F328" s="3"/>
     </row>
-    <row r="329" spans="1:6 16384:16384" ht="33">
+    <row r="329" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A329" s="18" t="s">
         <v>190</v>
       </c>
@@ -11655,7 +11721,7 @@
       </c>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="1:6 16384:16384">
+    <row r="330" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A330" s="18" t="s">
         <v>294</v>
       </c>
@@ -11673,7 +11739,7 @@
       </c>
       <c r="F330" s="3"/>
     </row>
-    <row r="331" spans="1:6 16384:16384">
+    <row r="331" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A331" s="18" t="s">
         <v>1278</v>
       </c>
@@ -11688,7 +11754,7 @@
       </c>
       <c r="F331" s="3"/>
     </row>
-    <row r="332" spans="1:6 16384:16384">
+    <row r="332" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A332" s="18" t="s">
         <v>1220</v>
       </c>
@@ -11703,7 +11769,7 @@
       </c>
       <c r="F332" s="3"/>
     </row>
-    <row r="333" spans="1:6 16384:16384" ht="33.75">
+    <row r="333" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A333" s="18" t="s">
         <v>1367</v>
       </c>
@@ -11721,7 +11787,7 @@
       </c>
       <c r="F333" s="3"/>
     </row>
-    <row r="334" spans="1:6 16384:16384" ht="48">
+    <row r="334" spans="1:6 16384:16384" ht="51" x14ac:dyDescent="0.35">
       <c r="A334" s="18" t="s">
         <v>399</v>
       </c>
@@ -11739,7 +11805,7 @@
       </c>
       <c r="F334" s="3"/>
     </row>
-    <row r="335" spans="1:6 16384:16384">
+    <row r="335" spans="1:6 16384:16384" x14ac:dyDescent="0.35">
       <c r="A335" s="18" t="s">
         <v>64</v>
       </c>
@@ -11757,7 +11823,7 @@
       </c>
       <c r="F335" s="3"/>
     </row>
-    <row r="336" spans="1:6 16384:16384" ht="33.75">
+    <row r="336" spans="1:6 16384:16384" ht="36" x14ac:dyDescent="0.35">
       <c r="A336" s="18" t="s">
         <v>855</v>
       </c>
@@ -11778,7 +11844,7 @@
       </c>
       <c r="XFD336" s="5"/>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="18" t="s">
         <v>492</v>
       </c>
@@ -11796,7 +11862,7 @@
       </c>
       <c r="F337" s="3"/>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="18" t="s">
         <v>882</v>
       </c>
@@ -11816,7 +11882,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="18" t="s">
         <v>494</v>
       </c>
@@ -11834,7 +11900,7 @@
       </c>
       <c r="F339" s="3"/>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="18" t="s">
         <v>1056</v>
       </c>
@@ -11845,7 +11911,7 @@
       <c r="D340" s="20"/>
       <c r="F340" s="3"/>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="18" t="s">
         <v>185</v>
       </c>
@@ -11863,7 +11929,7 @@
       </c>
       <c r="F341" s="3"/>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="18" t="s">
         <v>495</v>
       </c>
@@ -11881,7 +11947,7 @@
       </c>
       <c r="F342" s="3"/>
     </row>
-    <row r="343" spans="1:6" ht="33.75">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="18" t="s">
         <v>1329</v>
       </c>
@@ -11896,7 +11962,7 @@
       </c>
       <c r="F343" s="3"/>
     </row>
-    <row r="344" spans="1:6" ht="33">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="18" t="s">
         <v>111</v>
       </c>
@@ -11914,7 +11980,7 @@
       </c>
       <c r="F344" s="3"/>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="18" t="s">
         <v>342</v>
       </c>
@@ -11932,7 +11998,7 @@
       </c>
       <c r="F345" s="3"/>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="18" t="s">
         <v>66</v>
       </c>
@@ -11950,7 +12016,7 @@
       </c>
       <c r="F346" s="3"/>
     </row>
-    <row r="347" spans="1:6" ht="33">
+    <row r="347" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A347" s="18" t="s">
         <v>864</v>
       </c>
@@ -11970,7 +12036,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="18" t="s">
         <v>56</v>
       </c>
@@ -11988,7 +12054,7 @@
       </c>
       <c r="F348" s="3"/>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="18" t="s">
         <v>815</v>
       </c>
@@ -12004,7 +12070,7 @@
       </c>
       <c r="F349" s="3"/>
     </row>
-    <row r="350" spans="1:6" ht="33.75">
+    <row r="350" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A350" s="18" t="s">
         <v>560</v>
       </c>
@@ -12022,7 +12088,7 @@
       </c>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="1:6" ht="33">
+    <row r="351" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A351" s="18" t="s">
         <v>1155</v>
       </c>
@@ -12037,7 +12103,7 @@
       </c>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="18" t="s">
         <v>821</v>
       </c>
@@ -12055,7 +12121,7 @@
       </c>
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="18" t="s">
         <v>336</v>
       </c>
@@ -12073,7 +12139,7 @@
       </c>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="18" t="s">
         <v>300</v>
       </c>
@@ -12089,7 +12155,7 @@
       </c>
       <c r="F354" s="3"/>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="18" t="s">
         <v>573</v>
       </c>
@@ -12107,7 +12173,7 @@
       </c>
       <c r="F355" s="3"/>
     </row>
-    <row r="356" spans="1:6" ht="33">
+    <row r="356" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A356" s="18" t="s">
         <v>468</v>
       </c>
@@ -12125,7 +12191,7 @@
       </c>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="18" t="s">
         <v>1265</v>
       </c>
@@ -12140,7 +12206,7 @@
       </c>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="1:6" ht="33.75">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="18" t="s">
         <v>226</v>
       </c>
@@ -12158,7 +12224,7 @@
       </c>
       <c r="F358" s="3"/>
     </row>
-    <row r="359" spans="1:6" ht="33">
+    <row r="359" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A359" s="18" t="s">
         <v>486</v>
       </c>
@@ -12174,7 +12240,7 @@
       </c>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="1:6" ht="33">
+    <row r="360" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A360" s="18" t="s">
         <v>1369</v>
       </c>
@@ -12192,7 +12258,7 @@
       </c>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="1:6" ht="33.75">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="18" t="s">
         <v>301</v>
       </c>
@@ -12210,7 +12276,7 @@
       </c>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="18" t="s">
         <v>314</v>
       </c>
@@ -12228,7 +12294,7 @@
       </c>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="18" t="s">
         <v>203</v>
       </c>
@@ -12246,7 +12312,7 @@
       </c>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="18" t="s">
         <v>1083</v>
       </c>
@@ -12259,7 +12325,7 @@
       </c>
       <c r="F364" s="3"/>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="18" t="s">
         <v>404</v>
       </c>
@@ -12277,7 +12343,7 @@
       </c>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="1:6" ht="33.75">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="18" t="s">
         <v>708</v>
       </c>
@@ -12295,7 +12361,7 @@
       </c>
       <c r="F366" s="3"/>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="18" t="s">
         <v>477</v>
       </c>
@@ -12313,7 +12379,7 @@
       </c>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="18" t="s">
         <v>139</v>
       </c>
@@ -12331,7 +12397,7 @@
       </c>
       <c r="F368" s="3"/>
     </row>
-    <row r="369" spans="1:6" ht="33.75">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="18" t="s">
         <v>1285</v>
       </c>
@@ -12346,7 +12412,7 @@
       </c>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="18" t="s">
         <v>861</v>
       </c>
@@ -12366,7 +12432,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="18" t="s">
         <v>1209</v>
       </c>
@@ -12381,7 +12447,7 @@
       </c>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="1:6" ht="33.75">
+    <row r="372" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A372" s="18" t="s">
         <v>898</v>
       </c>
@@ -12401,7 +12467,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="33">
+    <row r="373" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A373" s="18" t="s">
         <v>898</v>
       </c>
@@ -12414,7 +12480,7 @@
       </c>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="1:6" ht="33.75">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="18" t="s">
         <v>23</v>
       </c>
@@ -12432,7 +12498,7 @@
       </c>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="18" t="s">
         <v>713</v>
       </c>
@@ -12450,7 +12516,7 @@
       </c>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="18" t="s">
         <v>823</v>
       </c>
@@ -12466,7 +12532,7 @@
       </c>
       <c r="F376" s="3"/>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="18" t="s">
         <v>454</v>
       </c>
@@ -12484,7 +12550,7 @@
       </c>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="18" t="s">
         <v>1041</v>
       </c>
@@ -12497,7 +12563,7 @@
       </c>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="18" t="s">
         <v>453</v>
       </c>
@@ -12515,7 +12581,7 @@
       </c>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="18" t="s">
         <v>29</v>
       </c>
@@ -12533,7 +12599,7 @@
       </c>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="1:6" ht="33.75">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="18" t="s">
         <v>315</v>
       </c>
@@ -12551,7 +12617,7 @@
       </c>
       <c r="F381" s="3"/>
     </row>
-    <row r="382" spans="1:6" ht="33">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="18" t="s">
         <v>43</v>
       </c>
@@ -12569,7 +12635,7 @@
       </c>
       <c r="F382" s="3"/>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="18" t="s">
         <v>733</v>
       </c>
@@ -12587,7 +12653,7 @@
       </c>
       <c r="F383" s="3"/>
     </row>
-    <row r="384" spans="1:6" ht="33">
+    <row r="384" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A384" s="18" t="s">
         <v>484</v>
       </c>
@@ -12605,7 +12671,7 @@
       </c>
       <c r="F384" s="3"/>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="18" t="s">
         <v>546</v>
       </c>
@@ -12623,7 +12689,7 @@
       </c>
       <c r="F385" s="3"/>
     </row>
-    <row r="386" spans="1:6" ht="33.75">
+    <row r="386" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A386" s="18" t="s">
         <v>442</v>
       </c>
@@ -12641,7 +12707,7 @@
       </c>
       <c r="F386" s="3"/>
     </row>
-    <row r="387" spans="1:6" ht="45">
+    <row r="387" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A387" s="18" t="s">
         <v>88</v>
       </c>
@@ -12659,7 +12725,7 @@
       </c>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="1:6" ht="33.75">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="18" t="s">
         <v>1374</v>
       </c>
@@ -12677,7 +12743,7 @@
       </c>
       <c r="F388" s="3"/>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="18" t="s">
         <v>720</v>
       </c>
@@ -12695,7 +12761,7 @@
       </c>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="18" t="s">
         <v>319</v>
       </c>
@@ -12713,7 +12779,7 @@
       </c>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="18" t="s">
         <v>237</v>
       </c>
@@ -12731,7 +12797,7 @@
       </c>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="1:6" ht="45">
+    <row r="392" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A392" s="18" t="s">
         <v>1051</v>
       </c>
@@ -12746,7 +12812,7 @@
       </c>
       <c r="F392" s="3"/>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="18" t="s">
         <v>757</v>
       </c>
@@ -12764,7 +12830,7 @@
       </c>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="18" t="s">
         <v>758</v>
       </c>
@@ -12782,7 +12848,7 @@
       </c>
       <c r="F394" s="3"/>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="18" t="s">
         <v>759</v>
       </c>
@@ -12800,7 +12866,7 @@
       </c>
       <c r="F395" s="3"/>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="18" t="s">
         <v>761</v>
       </c>
@@ -12818,7 +12884,7 @@
       </c>
       <c r="F396" s="3"/>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="18" t="s">
         <v>762</v>
       </c>
@@ -12836,7 +12902,7 @@
       </c>
       <c r="F397" s="3"/>
     </row>
-    <row r="398" spans="1:6" ht="45">
+    <row r="398" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A398" s="18" t="s">
         <v>817</v>
       </c>
@@ -12852,7 +12918,7 @@
       </c>
       <c r="F398" s="3"/>
     </row>
-    <row r="399" spans="1:6" ht="33.75">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="18" t="s">
         <v>1308</v>
       </c>
@@ -12867,7 +12933,7 @@
       </c>
       <c r="F399" s="3"/>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="18" t="s">
         <v>304</v>
       </c>
@@ -12885,7 +12951,7 @@
       </c>
       <c r="F400" s="3"/>
     </row>
-    <row r="401" spans="1:6" ht="33">
+    <row r="401" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A401" s="18" t="s">
         <v>760</v>
       </c>
@@ -12903,7 +12969,7 @@
       </c>
       <c r="F401" s="3"/>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="18" t="s">
         <v>179</v>
       </c>
@@ -12921,7 +12987,7 @@
       </c>
       <c r="F402" s="3"/>
     </row>
-    <row r="403" spans="1:6" ht="33.75">
+    <row r="403" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A403" s="18" t="s">
         <v>271</v>
       </c>
@@ -12939,7 +13005,7 @@
       </c>
       <c r="F403" s="3"/>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="18" t="s">
         <v>47</v>
       </c>
@@ -12957,7 +13023,7 @@
       </c>
       <c r="F404" s="3"/>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="18" t="s">
         <v>437</v>
       </c>
@@ -12975,7 +13041,7 @@
       </c>
       <c r="F405" s="3"/>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="18" t="s">
         <v>212</v>
       </c>
@@ -12988,7 +13054,7 @@
       <c r="D406" s="20"/>
       <c r="F406" s="3"/>
     </row>
-    <row r="407" spans="1:6" ht="45">
+    <row r="407" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A407" s="18" t="s">
         <v>35</v>
       </c>
@@ -13006,7 +13072,7 @@
       </c>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="18" t="s">
         <v>1326</v>
       </c>
@@ -13021,7 +13087,7 @@
       </c>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="18" t="s">
         <v>36</v>
       </c>
@@ -13039,7 +13105,7 @@
       </c>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="18" t="s">
         <v>247</v>
       </c>
@@ -13054,7 +13120,7 @@
       </c>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="18" t="s">
         <v>325</v>
       </c>
@@ -13072,7 +13138,7 @@
       </c>
       <c r="F411" s="3"/>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="18" t="s">
         <v>1172</v>
       </c>
@@ -13083,7 +13149,7 @@
       <c r="D412" s="20"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="18" t="s">
         <v>1177</v>
       </c>
@@ -13094,7 +13160,7 @@
       <c r="D413" s="20"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="1:6" ht="33.75">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="18" t="s">
         <v>863</v>
       </c>
@@ -13114,7 +13180,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="18" t="s">
         <v>481</v>
       </c>
@@ -13132,7 +13198,7 @@
       </c>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="18" t="s">
         <v>1154</v>
       </c>
@@ -13145,7 +13211,7 @@
       <c r="D416" s="20"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="18" t="s">
         <v>160</v>
       </c>
@@ -13163,7 +13229,7 @@
       </c>
       <c r="F417" s="3"/>
     </row>
-    <row r="418" spans="1:6" ht="33.75">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="18" t="s">
         <v>469</v>
       </c>
@@ -13181,7 +13247,7 @@
       </c>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="18" t="s">
         <v>568</v>
       </c>
@@ -13199,7 +13265,7 @@
       </c>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="18" t="s">
         <v>566</v>
       </c>
@@ -13217,7 +13283,7 @@
       </c>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="18" t="s">
         <v>754</v>
       </c>
@@ -13235,7 +13301,7 @@
       </c>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="18" t="s">
         <v>567</v>
       </c>
@@ -13253,7 +13319,7 @@
       </c>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="18" t="s">
         <v>1150</v>
       </c>
@@ -13268,7 +13334,7 @@
       </c>
       <c r="F423" s="3"/>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="18" t="s">
         <v>548</v>
       </c>
@@ -13286,7 +13352,7 @@
       </c>
       <c r="F424" s="3"/>
     </row>
-    <row r="425" spans="1:6" ht="33">
+    <row r="425" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A425" s="18" t="s">
         <v>767</v>
       </c>
@@ -13304,7 +13370,7 @@
       </c>
       <c r="F425" s="3"/>
     </row>
-    <row r="426" spans="1:6" ht="33.75">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="18" t="s">
         <v>120</v>
       </c>
@@ -13322,7 +13388,7 @@
       </c>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="18" t="s">
         <v>402</v>
       </c>
@@ -13340,7 +13406,7 @@
       </c>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="18" t="s">
         <v>298</v>
       </c>
@@ -13358,7 +13424,7 @@
       </c>
       <c r="F428" s="3"/>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="18" t="s">
         <v>1229</v>
       </c>
@@ -13373,7 +13439,7 @@
       </c>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="18" t="s">
         <v>48</v>
       </c>
@@ -13391,7 +13457,7 @@
       </c>
       <c r="F430" s="3"/>
     </row>
-    <row r="431" spans="1:6" ht="33">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="18" t="s">
         <v>169</v>
       </c>
@@ -13409,7 +13475,7 @@
       </c>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="18" t="s">
         <v>1032</v>
       </c>
@@ -13424,7 +13490,7 @@
       </c>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="1:6" ht="33">
+    <row r="433" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A433" s="18" t="s">
         <v>129</v>
       </c>
@@ -13442,7 +13508,7 @@
       </c>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="18" t="s">
         <v>1035</v>
       </c>
@@ -13457,7 +13523,7 @@
       </c>
       <c r="F434" s="3"/>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="18" t="s">
         <v>257</v>
       </c>
@@ -13473,7 +13539,7 @@
       </c>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="18" t="s">
         <v>1377</v>
       </c>
@@ -13491,7 +13557,7 @@
       </c>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="18" t="s">
         <v>102</v>
       </c>
@@ -13509,7 +13575,7 @@
       </c>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="1:6" ht="33">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="18" t="s">
         <v>155</v>
       </c>
@@ -13527,7 +13593,7 @@
       </c>
       <c r="F438" s="3"/>
     </row>
-    <row r="439" spans="1:6" ht="45">
+    <row r="439" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A439" s="18" t="s">
         <v>775</v>
       </c>
@@ -13545,7 +13611,7 @@
       </c>
       <c r="F439" s="3"/>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="18" t="s">
         <v>181</v>
       </c>
@@ -13563,7 +13629,7 @@
       </c>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="18" t="s">
         <v>205</v>
       </c>
@@ -13581,7 +13647,7 @@
       </c>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="18" t="s">
         <v>1270</v>
       </c>
@@ -13596,7 +13662,7 @@
       </c>
       <c r="F442" s="3"/>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="18" t="s">
         <v>1047</v>
       </c>
@@ -13611,7 +13677,7 @@
       </c>
       <c r="F443" s="3"/>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="18" t="s">
         <v>1255</v>
       </c>
@@ -13626,7 +13692,7 @@
       </c>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="1:6" ht="33">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="18" t="s">
         <v>82</v>
       </c>
@@ -13644,7 +13710,7 @@
       </c>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="1:6" ht="33">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="18" t="s">
         <v>851</v>
       </c>
@@ -13664,7 +13730,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="33">
+    <row r="447" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A447" s="18" t="s">
         <v>1322</v>
       </c>
@@ -13679,7 +13745,7 @@
       </c>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="1:6" ht="33">
+    <row r="448" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A448" s="18" t="s">
         <v>1318</v>
       </c>
@@ -13694,7 +13760,7 @@
       </c>
       <c r="F448" s="3"/>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="18" t="s">
         <v>870</v>
       </c>
@@ -13714,7 +13780,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="33">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="18" t="s">
         <v>365</v>
       </c>
@@ -13732,7 +13798,7 @@
       </c>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="18" t="s">
         <v>591</v>
       </c>
@@ -13750,7 +13816,7 @@
       </c>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="1:6" ht="33.75">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="18" t="s">
         <v>794</v>
       </c>
@@ -13768,7 +13834,7 @@
       </c>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="1:6" ht="33">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="18" t="s">
         <v>1320</v>
       </c>
@@ -13783,7 +13849,7 @@
       </c>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="18" t="s">
         <v>175</v>
       </c>
@@ -13801,7 +13867,7 @@
       </c>
       <c r="F454" s="3"/>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="18" t="s">
         <v>496</v>
       </c>
@@ -13819,7 +13885,7 @@
       </c>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="1:6" ht="33.75">
+    <row r="456" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A456" s="18" t="s">
         <v>192</v>
       </c>
@@ -13837,7 +13903,7 @@
       </c>
       <c r="F456" s="3"/>
     </row>
-    <row r="457" spans="1:6" ht="33.75">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="18" t="s">
         <v>860</v>
       </c>
@@ -13857,7 +13923,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="33">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="18" t="s">
         <v>1188</v>
       </c>
@@ -13870,7 +13936,7 @@
       </c>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="1:6" ht="78.75">
+    <row r="459" spans="1:6" ht="72" x14ac:dyDescent="0.35">
       <c r="A459" s="18" t="s">
         <v>363</v>
       </c>
@@ -13888,7 +13954,7 @@
       </c>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="18" t="s">
         <v>1200</v>
       </c>
@@ -13903,7 +13969,7 @@
       </c>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="18" t="s">
         <v>7</v>
       </c>
@@ -13921,7 +13987,7 @@
       </c>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="18" t="s">
         <v>306</v>
       </c>
@@ -13939,7 +14005,7 @@
       </c>
       <c r="F462" s="3"/>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="18" t="s">
         <v>311</v>
       </c>
@@ -13957,7 +14023,7 @@
       </c>
       <c r="F463" s="3"/>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="18" t="s">
         <v>322</v>
       </c>
@@ -13975,7 +14041,7 @@
       </c>
       <c r="F464" s="3"/>
     </row>
-    <row r="465" spans="1:6" ht="33">
+    <row r="465" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A465" s="18" t="s">
         <v>137</v>
       </c>
@@ -13993,7 +14059,7 @@
       </c>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="1:6" ht="48">
+    <row r="466" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A466" s="18" t="s">
         <v>341</v>
       </c>
@@ -14011,7 +14077,7 @@
       </c>
       <c r="F466" s="3"/>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="18" t="s">
         <v>310</v>
       </c>
@@ -14029,7 +14095,7 @@
       </c>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="1:6" ht="33.75">
+    <row r="468" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A468" s="18" t="s">
         <v>1240</v>
       </c>
@@ -14044,7 +14110,7 @@
       </c>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="18" t="s">
         <v>245</v>
       </c>
@@ -14062,7 +14128,7 @@
       </c>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="18" t="s">
         <v>473</v>
       </c>
@@ -14080,7 +14146,7 @@
       </c>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="18" t="s">
         <v>86</v>
       </c>
@@ -14098,7 +14164,7 @@
       </c>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="18" t="s">
         <v>1074</v>
       </c>
@@ -14111,7 +14177,7 @@
       </c>
       <c r="F472" s="3"/>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="18" t="s">
         <v>893</v>
       </c>
@@ -14131,7 +14197,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="18" t="s">
         <v>1017</v>
       </c>
@@ -14146,7 +14212,7 @@
       </c>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="18" t="s">
         <v>1305</v>
       </c>
@@ -14161,7 +14227,7 @@
       </c>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="1:6" ht="33.75">
+    <row r="476" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A476" s="18" t="s">
         <v>1421</v>
       </c>
@@ -14176,7 +14242,7 @@
       </c>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="18" t="s">
         <v>1424</v>
       </c>
@@ -14189,7 +14255,7 @@
       </c>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="18" t="s">
         <v>1491</v>
       </c>
@@ -14204,7 +14270,7 @@
       </c>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="18" t="s">
         <v>1493</v>
       </c>
@@ -14219,7 +14285,7 @@
       </c>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="18" t="s">
         <v>1488</v>
       </c>
@@ -14234,7 +14300,7 @@
       </c>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="1:6" ht="33.75">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="18" t="s">
         <v>1496</v>
       </c>
@@ -14249,7 +14315,7 @@
       </c>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="1:6" ht="33">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="18" t="s">
         <v>1026</v>
       </c>
@@ -14262,7 +14328,7 @@
       </c>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="18" t="s">
         <v>1502</v>
       </c>
@@ -14275,7 +14341,7 @@
       </c>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="18" t="s">
         <v>1505</v>
       </c>
@@ -14288,7 +14354,7 @@
       </c>
       <c r="F484" s="3"/>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="18" t="s">
         <v>1508</v>
       </c>
@@ -14301,7 +14367,7 @@
       </c>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="1:6" ht="33.75">
+    <row r="486" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A486" s="18" t="s">
         <v>1516</v>
       </c>
@@ -14316,7 +14382,7 @@
       </c>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="18" t="s">
         <v>1519</v>
       </c>
@@ -14331,7 +14397,7 @@
       </c>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="1:6" ht="30">
+    <row r="488" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A488" s="17" t="s">
         <v>1525</v>
       </c>
@@ -14346,7 +14412,7 @@
       </c>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="1:6" ht="33.75">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="18" t="s">
         <v>1524</v>
       </c>
@@ -14361,7 +14427,7 @@
       </c>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="18" t="s">
         <v>1528</v>
       </c>
@@ -14376,7 +14442,7 @@
       </c>
       <c r="F490" s="3"/>
     </row>
-    <row r="491" spans="1:6" ht="33.75">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="18" t="s">
         <v>1529</v>
       </c>
@@ -14391,7 +14457,7 @@
       </c>
       <c r="F491" s="3"/>
     </row>
-    <row r="492" spans="1:6" ht="33.75">
+    <row r="492" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A492" s="18" t="s">
         <v>1535</v>
       </c>
@@ -14406,7 +14472,7 @@
       </c>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="18" t="s">
         <v>1539</v>
       </c>
@@ -14421,7 +14487,7 @@
       </c>
       <c r="F493" s="3"/>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="18" t="s">
         <v>1541</v>
       </c>
@@ -14434,7 +14500,7 @@
       <c r="D494" s="20"/>
       <c r="F494" s="3"/>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="18" t="s">
         <v>1543</v>
       </c>
@@ -14447,7 +14513,7 @@
       <c r="D495" s="20"/>
       <c r="F495" s="3"/>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="18" t="s">
         <v>1545</v>
       </c>
@@ -14460,7 +14526,7 @@
       <c r="D496" s="20"/>
       <c r="F496" s="3"/>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="18" t="s">
         <v>1547</v>
       </c>
@@ -14473,7 +14539,7 @@
       <c r="D497" s="20"/>
       <c r="F497" s="3"/>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="18" t="s">
         <v>1564</v>
       </c>
@@ -14486,7 +14552,7 @@
       <c r="D498" s="20"/>
       <c r="F498" s="3"/>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="18" t="s">
         <v>1562</v>
       </c>
@@ -14499,7 +14565,7 @@
       <c r="D499" s="20"/>
       <c r="F499" s="3"/>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="18" t="s">
         <v>1560</v>
       </c>
@@ -14512,7 +14578,7 @@
       <c r="D500" s="20"/>
       <c r="F500" s="3"/>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="18" t="s">
         <v>1558</v>
       </c>
@@ -14525,7 +14591,7 @@
       <c r="D501" s="20"/>
       <c r="F501" s="3"/>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="18" t="s">
         <v>1556</v>
       </c>
@@ -14538,7 +14604,7 @@
       <c r="D502" s="20"/>
       <c r="F502" s="3"/>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="18" t="s">
         <v>1553</v>
       </c>
@@ -14553,7 +14619,7 @@
       </c>
       <c r="F503" s="3"/>
     </row>
-    <row r="504" spans="1:6" ht="33">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="18" t="s">
         <v>1551</v>
       </c>
@@ -14566,7 +14632,7 @@
       <c r="D504" s="20"/>
       <c r="F504" s="3"/>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="18" t="s">
         <v>1549</v>
       </c>
@@ -14581,33 +14647,125 @@
       </c>
       <c r="F505" s="3"/>
     </row>
-    <row r="506" spans="1:6" ht="33">
-      <c r="A506" s="24" t="s">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A506" s="18" t="s">
         <v>1566</v>
       </c>
-      <c r="B506" s="25" t="s">
+      <c r="B506" s="17" t="s">
         <v>1567</v>
       </c>
-      <c r="C506" s="26" t="s">
+      <c r="C506" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D506" s="27"/>
-      <c r="E506" s="26"/>
-      <c r="F506" s="26"/>
-    </row>
-    <row r="507" spans="1:6" ht="114">
-      <c r="A507" s="28" t="s">
+      <c r="D506" s="20"/>
+      <c r="F506" s="3"/>
+    </row>
+    <row r="507" spans="1:6" ht="120" x14ac:dyDescent="0.35">
+      <c r="A507" s="24" t="s">
         <v>1568</v>
       </c>
-      <c r="B507" s="25" t="s">
+      <c r="B507" s="17" t="s">
         <v>1569</v>
       </c>
-      <c r="C507" s="26" t="s">
+      <c r="C507" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D507" s="27"/>
-      <c r="E507" s="26"/>
-      <c r="F507" s="26"/>
+      <c r="D507" s="20"/>
+      <c r="F507" s="3"/>
+    </row>
+    <row r="508" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A508" s="25" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B508" s="26" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C508" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D508" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E508" s="27"/>
+      <c r="F508" s="27"/>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A509" s="25" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B509" s="26" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C509" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D509" s="28" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E509" s="27"/>
+      <c r="F509" s="27"/>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A510" s="25" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B510" s="26" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C510" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D510" s="28" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E510" s="27"/>
+      <c r="F510" s="27"/>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A511" s="25" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B511" s="26" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C511" s="27" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D511" s="28" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E511" s="27"/>
+      <c r="F511" s="27"/>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A512" s="25" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B512" s="29" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C512" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D512" s="28" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E512" s="27"/>
+      <c r="F512" s="27"/>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A513" s="25" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B513" s="26" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C513" s="27"/>
+      <c r="D513" s="28" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E513" s="27"/>
+      <c r="F513" s="27"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D276">

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338CC4E8-CB69-4488-9898-7E68592C9C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680D1576-A6B8-423A-A45D-26E999BA4698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="1692">
   <si>
     <t>NAS</t>
   </si>
@@ -5514,12 +5514,132 @@
   <si>
     <t>ist ein Ablaufdiagramm für ein Computerprogramm, das auch als Flussdiagramm (engl. flowchart) oder Programmstrukturplan bezeichnet wird. Es ist eine grafische Darstellung zur Umsetzung eines Algorithmus in einem Programm und beschreibt die Folge von Operationen zur Lösung einer Aufgabe.</t>
   </si>
+  <si>
+    <t xml:space="preserve">CRT  </t>
+  </si>
+  <si>
+    <t>cathode-ray tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD </t>
+  </si>
+  <si>
+    <t>liquid crystal display </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a special type of field-effect transistor where the transistor is made by thin film deposition. TFTs are grown on a supporting substrate. A common substrate is glass, because the traditional application of TFTs is in liquid-crystal displays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFT  </t>
+  </si>
+  <si>
+    <t>thin-film transistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisted Nematic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">was a main technology breakthrough that made LCDs practical. Unlike earlier displays, TN-cells did not require a current to flow for operation and used low operating voltages suitable for use with batteries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">multidomain vertical alignment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">technology is a type of VA technology. It was developed in 1996 by the Fujitsu company. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patterned Vertical Alignment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is a type of thin-film transistor (TFT) liquid crystal display. It is a wide viewing angle technology best known for use in Samsung TVs for improving front screen performance at different angles.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  is a screen technology for liquid-crystal displays. In IPS, a layer of liquid crystals is sandwiched between two glass surfaces. The liquid crystal molecules are aligned parallel to those surfaces in predetermined directions.   </t>
+  </si>
+  <si>
+    <t>in-plane switching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elektrolumineszenz-Folie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ist eine technische Anwendung der Elektrolumineszenz zur Umwandlung elektrischer Energie in Licht   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCFL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cold cathode fluorescent lighting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is lighting used in a flat-panel LCD monitors, neon signs, and computer case lighting.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">light-emitting diode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a semiconductor device that emits light when current flows through it. Electrons in the semiconductor recombine with electron holes, releasing energy in the form of photons. The color of the light is determined by the energy required for electrons to cross the band gap of the semiconductor.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QLED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantum Dot Light Emitting Diode   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic Light-Emitting Diode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a technology that uses LEDs in which the light is produced by organic molecules. These organic LEDs are used to create what are considered to be the world's best display panels.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Aided Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Aided Manufacturing </t>
+  </si>
+  <si>
+    <t>is the use of software and computer-controlled machinery to automate a manufacturing process</t>
+  </si>
+  <si>
+    <t>DTP</t>
+  </si>
+  <si>
+    <t>desktop publishing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5704,6 +5824,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5731,7 +5858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5794,6 +5921,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5905,8 +6033,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F540" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
-  <autoFilter ref="A1:F540" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00096219-7411-470E-8817-26E819582D2F}" name="Table1" displayName="Table1" ref="A1:F555" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Normal">
+  <autoFilter ref="A1:F555" xr:uid="{00096219-7411-470E-8817-26E819582D2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F474">
     <sortCondition ref="A1:A474"/>
   </sortState>
@@ -6185,10 +6313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD540"/>
+  <dimension ref="A1:XFD555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B520" sqref="B520"/>
+    <sheetView tabSelected="1" topLeftCell="A549" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B554" sqref="B554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
@@ -15240,102 +15368,294 @@
       <c r="F532" s="3"/>
     </row>
     <row r="533" spans="1:6" ht="33">
-      <c r="A533" s="28" t="s">
+      <c r="A533" s="18" t="s">
         <v>1636</v>
       </c>
-      <c r="B533" s="29" t="s">
+      <c r="B533" s="17" t="s">
         <v>1635</v>
       </c>
-      <c r="C533" s="30"/>
-      <c r="D533" s="31"/>
-      <c r="E533" s="30"/>
-      <c r="F533" s="30"/>
+      <c r="C533" s="3"/>
+      <c r="D533" s="20"/>
+      <c r="F533" s="3"/>
     </row>
     <row r="534" spans="1:6">
-      <c r="A534" s="28" t="s">
+      <c r="A534" s="18" t="s">
         <v>1637</v>
       </c>
-      <c r="B534" s="29" t="s">
+      <c r="B534" s="17" t="s">
         <v>1638</v>
       </c>
-      <c r="C534" s="30"/>
-      <c r="D534" s="31"/>
-      <c r="E534" s="30"/>
-      <c r="F534" s="30"/>
+      <c r="C534" s="3"/>
+      <c r="D534" s="20"/>
+      <c r="F534" s="3"/>
     </row>
     <row r="535" spans="1:6">
-      <c r="A535" s="28" t="s">
+      <c r="A535" s="18" t="s">
         <v>1639</v>
       </c>
-      <c r="B535" s="29" t="s">
+      <c r="B535" s="17" t="s">
         <v>1640</v>
       </c>
-      <c r="C535" s="30"/>
-      <c r="D535" s="31"/>
-      <c r="E535" s="30"/>
-      <c r="F535" s="30"/>
+      <c r="C535" s="3"/>
+      <c r="D535" s="20"/>
+      <c r="F535" s="3"/>
     </row>
     <row r="536" spans="1:6">
-      <c r="A536" s="28" t="s">
+      <c r="A536" s="18" t="s">
         <v>1642</v>
       </c>
-      <c r="B536" s="29" t="s">
+      <c r="B536" s="17" t="s">
         <v>1641</v>
       </c>
-      <c r="C536" s="30"/>
-      <c r="D536" s="31"/>
-      <c r="E536" s="30"/>
-      <c r="F536" s="30"/>
+      <c r="C536" s="3"/>
+      <c r="D536" s="20"/>
+      <c r="F536" s="3"/>
     </row>
     <row r="537" spans="1:6">
-      <c r="A537" s="28" t="s">
+      <c r="A537" s="18" t="s">
         <v>1644</v>
       </c>
-      <c r="B537" s="29" t="s">
+      <c r="B537" s="17" t="s">
         <v>1643</v>
       </c>
-      <c r="C537" s="30"/>
-      <c r="D537" s="31"/>
-      <c r="E537" s="30"/>
-      <c r="F537" s="30"/>
+      <c r="C537" s="3"/>
+      <c r="D537" s="20"/>
+      <c r="F537" s="3"/>
     </row>
     <row r="538" spans="1:6">
-      <c r="A538" s="28" t="s">
+      <c r="A538" s="18" t="s">
         <v>1645</v>
       </c>
-      <c r="B538" s="29" t="s">
+      <c r="B538" s="17" t="s">
         <v>1646</v>
       </c>
-      <c r="C538" s="30"/>
-      <c r="D538" s="31"/>
-      <c r="E538" s="30"/>
-      <c r="F538" s="30"/>
+      <c r="C538" s="3"/>
+      <c r="D538" s="20"/>
+      <c r="F538" s="3"/>
     </row>
     <row r="539" spans="1:6">
-      <c r="A539" s="28" t="s">
+      <c r="A539" s="18" t="s">
         <v>1647</v>
       </c>
-      <c r="B539" s="29" t="s">
+      <c r="B539" s="17" t="s">
         <v>1648</v>
       </c>
-      <c r="C539" s="30"/>
-      <c r="D539" s="31"/>
-      <c r="E539" s="30"/>
-      <c r="F539" s="30"/>
+      <c r="C539" s="3"/>
+      <c r="D539" s="20"/>
+      <c r="F539" s="3"/>
     </row>
     <row r="540" spans="1:6" ht="33.75">
-      <c r="A540" s="28" t="s">
+      <c r="A540" s="18" t="s">
         <v>1649</v>
       </c>
-      <c r="B540" s="29" t="s">
+      <c r="B540" s="17" t="s">
         <v>1650</v>
       </c>
-      <c r="C540" s="30"/>
-      <c r="D540" s="31" t="s">
+      <c r="C540" s="3"/>
+      <c r="D540" s="20" t="s">
         <v>1651</v>
       </c>
-      <c r="E540" s="30"/>
-      <c r="F540" s="30"/>
+      <c r="F540" s="3"/>
+    </row>
+    <row r="541" spans="1:6">
+      <c r="A541" s="28" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B541" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C541" s="30"/>
+      <c r="D541" s="31"/>
+      <c r="E541" s="30"/>
+      <c r="F541" s="30"/>
+    </row>
+    <row r="542" spans="1:6">
+      <c r="A542" s="28" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B542" s="29" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C542" s="30"/>
+      <c r="D542" s="31"/>
+      <c r="E542" s="30"/>
+      <c r="F542" s="30"/>
+    </row>
+    <row r="543" spans="1:6" ht="33.75">
+      <c r="A543" s="28" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B543" s="29" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C543" s="30"/>
+      <c r="D543" s="31" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E543" s="30"/>
+      <c r="F543" s="30"/>
+    </row>
+    <row r="544" spans="1:6">
+      <c r="A544" s="28" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B544" s="29" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C544" s="30"/>
+      <c r="D544" s="31" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E544" s="30"/>
+      <c r="F544" s="30"/>
+    </row>
+    <row r="545" spans="1:6">
+      <c r="A545" s="28" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B545" s="29" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C545" s="30"/>
+      <c r="D545" s="31" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E545" s="30"/>
+      <c r="F545" s="30"/>
+    </row>
+    <row r="546" spans="1:6">
+      <c r="A546" s="28" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B546" s="29" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C546" s="30"/>
+      <c r="D546" s="31" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E546" s="30"/>
+      <c r="F546" s="30"/>
+    </row>
+    <row r="547" spans="1:6">
+      <c r="A547" s="28" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B547" s="32" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C547" s="30"/>
+      <c r="D547" s="31" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E547" s="30"/>
+      <c r="F547" s="30"/>
+    </row>
+    <row r="548" spans="1:6">
+      <c r="A548" s="28" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B548" s="29" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C548" s="30"/>
+      <c r="D548" s="31" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E548" s="30"/>
+      <c r="F548" s="30"/>
+    </row>
+    <row r="549" spans="1:6">
+      <c r="A549" s="28" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B549" s="29" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C549" s="30"/>
+      <c r="D549" s="31" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E549" s="30"/>
+      <c r="F549" s="30"/>
+    </row>
+    <row r="550" spans="1:6" ht="33.75">
+      <c r="A550" s="28" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B550" s="29" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C550" s="30"/>
+      <c r="D550" s="31" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E550" s="30"/>
+      <c r="F550" s="30"/>
+    </row>
+    <row r="551" spans="1:6" ht="33">
+      <c r="A551" s="28" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B551" s="29" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C551" s="30"/>
+      <c r="D551" s="31"/>
+      <c r="E551" s="30"/>
+      <c r="F551" s="30"/>
+    </row>
+    <row r="552" spans="1:6">
+      <c r="A552" s="28" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B552" s="29" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C552" s="30"/>
+      <c r="D552" s="31" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E552" s="30"/>
+      <c r="F552" s="30"/>
+    </row>
+    <row r="553" spans="1:6">
+      <c r="A553" s="28" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B553" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C553" s="30"/>
+      <c r="D553" s="31"/>
+      <c r="E553" s="30"/>
+      <c r="F553" s="30"/>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="A554" s="28" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B554" s="29" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C554" s="30"/>
+      <c r="D554" s="31" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E554" s="30"/>
+      <c r="F554" s="30"/>
+    </row>
+    <row r="555" spans="1:6">
+      <c r="A555" s="28" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B555" s="29" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C555" s="30"/>
+      <c r="D555" s="31"/>
+      <c r="E555" s="30"/>
+      <c r="F555" s="30"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D275">

--- a/abkuerzungen.xlsx
+++ b/abkuerzungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F62823-6E3E-4257-B02E-4F88CDB4C70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C48A1-E5FD-49DA-9BF3-3C3090663E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="660" windowWidth="16365" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -6793,10 +6793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD579"/>
+  <dimension ref="A1:XFD577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A289" sqref="A289"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.5"/>
@@ -12314,7 +12314,7 @@
       <c r="F271" s="25"/>
       <c r="G271" s="25"/>
     </row>
-    <row r="272" spans="1:7" customFormat="1" ht="90">
+    <row r="272" spans="1:7" ht="90">
       <c r="A272" s="23" t="s">
         <v>96</v>
       </c>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="G272" s="25"/>
     </row>
-    <row r="273" spans="1:7" customFormat="1" ht="30">
+    <row r="273" spans="1:7" ht="30">
       <c r="A273" s="23" t="s">
         <v>15</v>
       </c>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="G273" s="25"/>
     </row>
-    <row r="274" spans="1:7" customFormat="1">
+    <row r="274" spans="1:7">
       <c r="A274" s="23" t="s">
         <v>1175</v>
       </c>
@@ -12373,7 +12373,7 @@
       <c r="F274" s="25"/>
       <c r="G274" s="25"/>
     </row>
-    <row r="275" spans="1:7" customFormat="1" ht="30">
+    <row r="275" spans="1:7" ht="30">
       <c r="A275" s="23" t="s">
         <v>553</v>
       </c>
@@ -12392,7 +12392,7 @@
       </c>
       <c r="G275" s="25"/>
     </row>
-    <row r="276" spans="1:7" customFormat="1">
+    <row r="276" spans="1:7">
       <c r="A276" s="23" t="s">
         <v>1304</v>
       </c>
@@ -12411,7 +12411,7 @@
       <c r="F276" s="25"/>
       <c r="G276" s="25"/>
     </row>
-    <row r="277" spans="1:7" customFormat="1">
+    <row r="277" spans="1:7">
       <c r="A277" s="23" t="s">
         <v>126</v>
       </c>
@@ -12432,7 +12432,7 @@
       </c>
       <c r="G277" s="25"/>
     </row>
-    <row r="278" spans="1:7" customFormat="1" ht="30">
+    <row r="278" spans="1:7" ht="30">
       <c r="A278" s="23" t="s">
         <v>765</v>
       </c>
@@ -12451,7 +12451,7 @@
       </c>
       <c r="G278" s="25"/>
     </row>
-    <row r="279" spans="1:7" customFormat="1">
+    <row r="279" spans="1:7">
       <c r="A279" s="23" t="s">
         <v>1067</v>
       </c>
@@ -12470,7 +12470,7 @@
       <c r="F279" s="25"/>
       <c r="G279" s="25"/>
     </row>
-    <row r="280" spans="1:7" customFormat="1" ht="30">
+    <row r="280" spans="1:7" ht="30">
       <c r="A280" s="23" t="s">
         <v>124</v>
       </c>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="G280" s="25"/>
     </row>
-    <row r="281" spans="1:7" customFormat="1" ht="30">
+    <row r="281" spans="1:7" ht="30">
       <c r="A281" s="23" t="s">
         <v>890</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="282" spans="1:7" customFormat="1" ht="45">
+    <row r="282" spans="1:7" ht="45">
       <c r="A282" s="23" t="s">
         <v>1543</v>
       </c>
@@ -12533,7 +12533,7 @@
       <c r="F282" s="25"/>
       <c r="G282" s="25"/>
     </row>
-    <row r="283" spans="1:7" customFormat="1" ht="45">
+    <row r="283" spans="1:7" ht="45">
       <c r="A283" s="23" t="s">
         <v>1062</v>
       </c>
@@ -12550,7 +12550,7 @@
       <c r="F283" s="25"/>
       <c r="G283" s="25"/>
     </row>
-    <row r="284" spans="1:7" customFormat="1" ht="45">
+    <row r="284" spans="1:7" ht="45">
       <c r="A284" s="23" t="s">
         <v>802</v>
       </c>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="G284" s="25"/>
     </row>
-    <row r="285" spans="1:7" customFormat="1">
+    <row r="285" spans="1:7">
       <c r="A285" s="23" t="s">
         <v>282</v>
       </c>
@@ -12592,7 +12592,7 @@
       </c>
       <c r="G285" s="25"/>
     </row>
-    <row r="286" spans="1:7" customFormat="1">
+    <row r="286" spans="1:7">
       <c r="A286" s="23" t="s">
         <v>3</v>
       </c>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="G286" s="25"/>
     </row>
-    <row r="287" spans="1:7" customFormat="1" ht="45">
+    <row r="287" spans="1:7" ht="45">
       <c r="A287" s="23" t="s">
         <v>416</v>
       </c>
@@ -12634,7 +12634,7 @@
       </c>
       <c r="G287" s="25"/>
     </row>
-    <row r="288" spans="1:7" customFormat="1" ht="33.75">
+    <row r="288" spans="1:7" ht="33.75">
       <c r="A288" s="23" t="s">
         <v>1626</v>
       </c>
@@ -12653,7 +12653,7 @@
       <c r="F288" s="25"/>
       <c r="G288" s="25"/>
     </row>
-    <row r="289" spans="1:7" customFormat="1" ht="33.75">
+    <row r="289" spans="1:7" ht="33.75">
       <c r="A289" s="23" t="s">
         <v>1642</v>
       </c>
@@ -12672,7 +12672,7 @@
       <c r="F289" s="25"/>
       <c r="G289" s="25"/>
     </row>
-    <row r="290" spans="1:7" customFormat="1" ht="33.75">
+    <row r="290" spans="1:7" ht="33.75">
       <c r="A290" s="23" t="s">
         <v>367</v>
       </c>
@@ -12691,7 +12691,7 @@
       </c>
       <c r="G290" s="25"/>
     </row>
-    <row r="291" spans="1:7" customFormat="1">
+    <row r="291" spans="1:7">
       <c r="A291" s="23" t="s">
         <v>285</v>
       </c>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="G291" s="25"/>
     </row>
-    <row r="292" spans="1:7" customFormat="1" ht="30">
+    <row r="292" spans="1:7" ht="30">
       <c r="A292" s="23" t="s">
         <v>206</v>
       </c>
@@ -12733,7 +12733,7 @@
       </c>
       <c r="G292" s="25"/>
     </row>
-    <row r="293" spans="1:7" customFormat="1">
+    <row r="293" spans="1:7">
       <c r="A293" s="23" t="s">
         <v>72</v>
       </c>
@@ -12754,7 +12754,7 @@
       </c>
       <c r="G293" s="25"/>
     </row>
-    <row r="294" spans="1:7" customFormat="1" ht="45">
+    <row r="294" spans="1:7" ht="45">
       <c r="A294" s="23" t="s">
         <v>1186</v>
       </c>
@@ -12773,7 +12773,7 @@
       <c r="F294" s="25"/>
       <c r="G294" s="25"/>
     </row>
-    <row r="295" spans="1:7" customFormat="1" ht="45">
+    <row r="295" spans="1:7" ht="45">
       <c r="A295" s="23" t="s">
         <v>1196</v>
       </c>
@@ -12792,7 +12792,7 @@
       <c r="F295" s="25"/>
       <c r="G295" s="25"/>
     </row>
-    <row r="296" spans="1:7" customFormat="1" ht="30">
+    <row r="296" spans="1:7" ht="30">
       <c r="A296" s="23" t="s">
         <v>121</v>
       </c>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="G296" s="25"/>
     </row>
-    <row r="297" spans="1:7" customFormat="1" ht="30">
+    <row r="297" spans="1:7" ht="30">
       <c r="A297" s="23" t="s">
         <v>874</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="298" spans="1:7" customFormat="1" ht="33.75">
+    <row r="298" spans="1:7" ht="33.75">
       <c r="A298" s="23" t="s">
         <v>198</v>
       </c>
@@ -12857,7 +12857,7 @@
       </c>
       <c r="G298" s="25"/>
     </row>
-    <row r="299" spans="1:7" customFormat="1" ht="45">
+    <row r="299" spans="1:7" ht="45">
       <c r="A299" s="23" t="s">
         <v>1132</v>
       </c>
@@ -12876,7 +12876,7 @@
       <c r="F299" s="25"/>
       <c r="G299" s="25"/>
     </row>
-    <row r="300" spans="1:7" customFormat="1" ht="30">
+    <row r="300" spans="1:7" ht="30">
       <c r="A300" s="23" t="s">
         <v>6</v>
       </c>
@@ -12895,7 +12895,7 @@
       </c>
       <c r="G300" s="25"/>
     </row>
-    <row r="301" spans="1:7" customFormat="1" ht="45">
+    <row r="301" spans="1:7" ht="45">
       <c r="A301" s="23" t="s">
         <v>164</v>
       </c>
@@ -12916,7 +12916,7 @@
       </c>
       <c r="G301" s="25"/>
     </row>
-    <row r="302" spans="1:7" customFormat="1" ht="56.25">
+    <row r="302" spans="1:7" ht="56.25">
       <c r="A302" s="23" t="s">
         <v>456</v>
       </c>
@@ -12935,7 +12935,7 @@
       </c>
       <c r="G302" s="25"/>
     </row>
-    <row r="303" spans="1:7" customFormat="1" ht="56.25">
+    <row r="303" spans="1:7" ht="56.25">
       <c r="A303" s="23" t="s">
         <v>458</v>
       </c>
@@ -12954,7 +12954,7 @@
       </c>
       <c r="G303" s="25"/>
     </row>
-    <row r="304" spans="1:7" customFormat="1" ht="30">
+    <row r="304" spans="1:7" ht="30">
       <c r="A304" s="23" t="s">
         <v>1697</v>
       </c>
@@ -12973,7 +12973,7 @@
       <c r="F304" s="25"/>
       <c r="G304" s="25"/>
     </row>
-    <row r="305" spans="1:7" customFormat="1" ht="30">
+    <row r="305" spans="1:7" ht="30">
       <c r="A305" s="23" t="s">
         <v>460</v>
       </c>
@@ -12992,7 +12992,7 @@
       </c>
       <c r="G305" s="25"/>
     </row>
-    <row r="306" spans="1:7" customFormat="1" ht="30">
+    <row r="306" spans="1:7" ht="30">
       <c r="A306" s="23" t="s">
         <v>408</v>
       </c>
@@ -13011,7 +13011,7 @@
       </c>
       <c r="G306" s="25"/>
     </row>
-    <row r="307" spans="1:7" customFormat="1" ht="30">
+    <row r="307" spans="1:7" ht="30">
       <c r="A307" s="23" t="s">
         <v>240</v>
       </c>
@@ -13032,7 +13032,7 @@
       </c>
       <c r="G307" s="25"/>
     </row>
-    <row r="308" spans="1:7" customFormat="1">
+    <row r="308" spans="1:7">
       <c r="A308" s="23" t="s">
         <v>1495</v>
       </c>
@@ -13051,7 +13051,7 @@
       <c r="F308" s="25"/>
       <c r="G308" s="25"/>
     </row>
-    <row r="309" spans="1:7" customFormat="1">
+    <row r="309" spans="1:7">
       <c r="A309" s="23" t="s">
         <v>471</v>
       </c>
@@ -13070,7 +13070,7 @@
       </c>
       <c r="G309" s="25"/>
     </row>
-    <row r="310" spans="1:7" customFormat="1">
+    <row r="310" spans="1:7">
       <c r="A310" s="23" t="s">
         <v>1276</v>
       </c>
@@ -13089,7 +13089,7 @@
       <c r="F310" s="25"/>
       <c r="G310" s="25"/>
     </row>
-    <row r="311" spans="1:7" customFormat="1" ht="30">
+    <row r="311" spans="1:7" ht="30">
       <c r="A311" s="23" t="s">
         <v>403</v>
       </c>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="G311" s="25"/>
     </row>
-    <row r="312" spans="1:7" customFormat="1" ht="90">
+    <row r="312" spans="1:7" ht="90">
       <c r="A312" s="23" t="s">
         <v>751</v>
       </c>
@@ -13127,7 +13127,7 @@
       </c>
       <c r="G312" s="25"/>
     </row>
-    <row r="313" spans="1:7" customFormat="1" ht="33.75">
+    <row r="313" spans="1:7" ht="33.75">
       <c r="A313" s="23" t="s">
         <v>1243</v>
       </c>
@@ -13146,7 +13146,7 @@
       <c r="F313" s="25"/>
       <c r="G313" s="25"/>
     </row>
-    <row r="314" spans="1:7" customFormat="1" ht="45">
+    <row r="314" spans="1:7" ht="45">
       <c r="A314" s="23" t="s">
         <v>461</v>
       </c>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="G314" s="25"/>
     </row>
-    <row r="315" spans="1:7" customFormat="1" ht="45">
+    <row r="315" spans="1:7" ht="45">
       <c r="A315" s="23" t="s">
         <v>446</v>
       </c>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="G315" s="25"/>
     </row>
-    <row r="316" spans="1:7" customFormat="1" ht="45">
+    <row r="316" spans="1:7" ht="45">
       <c r="A316" s="23" t="s">
         <v>442</v>
       </c>
@@ -13205,7 +13205,7 @@
       <c r="F316" s="25"/>
       <c r="G316" s="25"/>
     </row>
-    <row r="317" spans="1:7" customFormat="1" ht="45">
+    <row r="317" spans="1:7" ht="45">
       <c r="A317" s="23" t="s">
         <v>1192</v>
       </c>
@@ -13224,7 +13224,7 @@
       <c r="F317" s="25"/>
       <c r="G317" s="25"/>
     </row>
-    <row r="318" spans="1:7" customFormat="1" ht="30">
+    <row r="318" spans="1:7" ht="30">
       <c r="A318" s="23" t="s">
         <v>114</v>
       </c>
@@ -13245,7 +13245,7 @@
       </c>
       <c r="G318" s="25"/>
     </row>
-    <row r="319" spans="1:7" customFormat="1" ht="30">
+    <row r="319" spans="1:7" ht="30">
       <c r="A319" s="23" t="s">
         <v>385</v>
       </c>
@@ -13266,7 +13266,7 @@
       </c>
       <c r="G319" s="25"/>
     </row>
-    <row r="320" spans="1:7" customFormat="1" ht="45">
+    <row r="320" spans="1:7" ht="45">
       <c r="A320" s="29" t="s">
         <v>1539</v>
       </c>
@@ -13285,7 +13285,7 @@
       <c r="F320" s="25"/>
       <c r="G320" s="25"/>
     </row>
-    <row r="321" spans="1:7" customFormat="1" ht="30">
+    <row r="321" spans="1:7" ht="30">
       <c r="A321" s="23" t="s">
         <v>1146</v>
       </c>
@@ -13300,7 +13300,7 @@
       <c r="F321" s="25"/>
       <c r="G321" s="25"/>
     </row>
-    <row r="322" spans="1:7" customFormat="1" ht="33.75">
+    <row r="322" spans="1:7" ht="33.75">
       <c r="A322" s="23" t="s">
         <v>1604</v>
       </c>
@@ -13319,7 +13319,7 @@
       <c r="F322" s="25"/>
       <c r="G322" s="25"/>
     </row>
-    <row r="323" spans="1:7" customFormat="1">
+    <row r="323" spans="1:7">
       <c r="A323" s="23" t="s">
         <v>242</v>
       </c>
@@ -13340,7 +13340,7 @@
       </c>
       <c r="G323" s="25"/>
     </row>
-    <row r="324" spans="1:7" customFormat="1" ht="30">
+    <row r="324" spans="1:7" ht="30">
       <c r="A324" s="23" t="s">
         <v>1632</v>
       </c>
@@ -13359,7 +13359,7 @@
       <c r="F324" s="25"/>
       <c r="G324" s="25"/>
     </row>
-    <row r="325" spans="1:7" customFormat="1" ht="30">
+    <row r="325" spans="1:7" ht="30">
       <c r="A325" s="23" t="s">
         <v>0</v>
       </c>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="G325" s="25"/>
     </row>
-    <row r="326" spans="1:7" customFormat="1" ht="30">
+    <row r="326" spans="1:7" ht="30">
       <c r="A326" s="23" t="s">
         <v>196</v>
       </c>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="G326" s="25"/>
     </row>
-    <row r="327" spans="1:7" customFormat="1" ht="69.75">
+    <row r="327" spans="1:7" ht="69.75">
       <c r="A327" s="30" t="s">
         <v>1743</v>
       </c>
@@ -13420,7 +13420,7 @@
       <c r="F327" s="25"/>
       <c r="G327" s="25"/>
     </row>
-    <row r="328" spans="1:7" customFormat="1">
+    <row r="328" spans="1:7">
       <c r="A328" s="23" t="s">
         <v>1139</v>
       </c>
@@ -13433,7 +13433,7 @@
       <c r="F328" s="25"/>
       <c r="G328" s="25"/>
     </row>
-    <row r="329" spans="1:7" customFormat="1" ht="30">
+    <row r="329" spans="1:7" ht="30">
       <c r="A329" s="23" t="s">
         <v>1599</v>
       </c>
@@ -13452,7 +13452,7 @@
       <c r="F329" s="25"/>
       <c r="G329" s="25"/>
     </row>
-    <row r="330" spans="1:7" customFormat="1" ht="33.75">
+    <row r="330" spans="1:7" ht="33.75">
       <c r="A330" s="23" t="s">
         <v>1411</v>
       </c>
@@ -13471,7 +13471,7 @@
       <c r="F330" s="25"/>
       <c r="G330" s="25"/>
     </row>
-    <row r="331" spans="1:7" customFormat="1" ht="56.25">
+    <row r="331" spans="1:7" ht="56.25">
       <c r="A331" s="23" t="s">
         <v>1352</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="332" spans="1:7" customFormat="1" ht="45">
+    <row r="332" spans="1:7" ht="45">
       <c r="A332" s="23" t="s">
         <v>234</v>
       </c>
@@ -13515,7 +13515,7 @@
       </c>
       <c r="G332" s="25"/>
     </row>
-    <row r="333" spans="1:7" customFormat="1">
+    <row r="333" spans="1:7">
       <c r="A333" s="23" t="s">
         <v>1565</v>
       </c>
@@ -13534,7 +13534,7 @@
       <c r="F333" s="25"/>
       <c r="G333" s="25"/>
     </row>
-    <row r="334" spans="1:7" customFormat="1">
+    <row r="334" spans="1:7">
       <c r="A334" s="23" t="s">
         <v>1565</v>
       </c>
@@ -13551,7 +13551,7 @@
       <c r="F334" s="25"/>
       <c r="G334" s="25"/>
     </row>
-    <row r="335" spans="1:7" customFormat="1" ht="33.75">
+    <row r="335" spans="1:7" ht="33.75">
       <c r="A335" s="23" t="s">
         <v>148</v>
       </c>
@@ -13572,7 +13572,7 @@
       </c>
       <c r="G335" s="25"/>
     </row>
-    <row r="336" spans="1:7" customFormat="1" ht="30">
+    <row r="336" spans="1:7" ht="30">
       <c r="A336" s="23" t="s">
         <v>221</v>
       </c>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="G336" s="25"/>
     </row>
-    <row r="337" spans="1:7" customFormat="1" ht="33.75">
+    <row r="337" spans="1:7" ht="33.75">
       <c r="A337" s="23" t="s">
         <v>1137</v>
       </c>
@@ -13612,7 +13612,7 @@
       <c r="F337" s="25"/>
       <c r="G337" s="25"/>
     </row>
-    <row r="338" spans="1:7" customFormat="1" ht="30">
+    <row r="338" spans="1:7" ht="30">
       <c r="A338" s="23" t="s">
         <v>1519</v>
       </c>
@@ -13631,7 +13631,7 @@
       <c r="F338" s="25"/>
       <c r="G338" s="25"/>
     </row>
-    <row r="339" spans="1:7" customFormat="1">
+    <row r="339" spans="1:7">
       <c r="A339" s="23" t="s">
         <v>233</v>
       </c>
@@ -13650,7 +13650,7 @@
       </c>
       <c r="G339" s="25"/>
     </row>
-    <row r="340" spans="1:7" customFormat="1" ht="30">
+    <row r="340" spans="1:7" ht="30">
       <c r="A340" s="23" t="s">
         <v>210</v>
       </c>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="G340" s="25"/>
     </row>
-    <row r="341" spans="1:7" customFormat="1" ht="45">
+    <row r="341" spans="1:7" ht="45">
       <c r="A341" s="23" t="s">
         <v>230</v>
       </c>
@@ -13692,7 +13692,7 @@
       </c>
       <c r="G341" s="25"/>
     </row>
-    <row r="342" spans="1:7" customFormat="1" ht="30">
+    <row r="342" spans="1:7" ht="30">
       <c r="A342" s="23" t="s">
         <v>289</v>
       </c>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="G342" s="25"/>
     </row>
-    <row r="343" spans="1:7" customFormat="1" ht="30">
+    <row r="343" spans="1:7" ht="30">
       <c r="A343" s="23" t="s">
         <v>157</v>
       </c>
@@ -13734,7 +13734,7 @@
       </c>
       <c r="G343" s="25"/>
     </row>
-    <row r="344" spans="1:7" customFormat="1" ht="30">
+    <row r="344" spans="1:7" ht="30">
       <c r="A344" s="23" t="s">
         <v>1531</v>
       </c>
@@ -13751,7 +13751,7 @@
       <c r="F344" s="25"/>
       <c r="G344" s="25"/>
     </row>
-    <row r="345" spans="1:7" customFormat="1">
+    <row r="345" spans="1:7">
       <c r="A345" s="23" t="s">
         <v>44</v>
       </c>
@@ -13772,7 +13772,7 @@
       </c>
       <c r="G345" s="25"/>
     </row>
-    <row r="346" spans="1:7" customFormat="1" ht="45">
+    <row r="346" spans="1:7" ht="45">
       <c r="A346" s="23" t="s">
         <v>487</v>
       </c>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="G346" s="25"/>
     </row>
-    <row r="347" spans="1:7" customFormat="1" ht="30">
+    <row r="347" spans="1:7" ht="30">
       <c r="A347" s="23" t="s">
         <v>1268</v>
       </c>
@@ -13812,7 +13812,7 @@
       <c r="F347" s="25"/>
       <c r="G347" s="25"/>
     </row>
-    <row r="348" spans="1:7" customFormat="1" ht="30">
+    <row r="348" spans="1:7" ht="30">
       <c r="A348" s="23" t="s">
         <v>1354</v>
       </c>
@@ -13833,7 +13833,7 @@
       </c>
       <c r="G348" s="25"/>
     </row>
-    <row r="349" spans="1:7" customFormat="1" ht="30">
+    <row r="349" spans="1:7" ht="30">
       <c r="A349" s="23" t="s">
         <v>1646</v>
       </c>
@@ -13852,7 +13852,7 @@
       <c r="F349" s="25"/>
       <c r="G349" s="25"/>
     </row>
-    <row r="350" spans="1:7" customFormat="1" ht="33.75">
+    <row r="350" spans="1:7" ht="33.75">
       <c r="A350" s="23" t="s">
         <v>1355</v>
       </c>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="G350" s="25"/>
     </row>
-    <row r="351" spans="1:7" customFormat="1" ht="33.75">
+    <row r="351" spans="1:7" ht="33.75">
       <c r="A351" s="23" t="s">
         <v>238</v>
       </c>
@@ -13894,7 +13894,7 @@
       </c>
       <c r="G351" s="25"/>
     </row>
-    <row r="352" spans="1:7" customFormat="1" ht="30">
+    <row r="352" spans="1:7" ht="30">
       <c r="A352" s="23" t="s">
         <v>1016</v>
       </c>
@@ -13913,7 +13913,7 @@
       <c r="F352" s="25"/>
       <c r="G352" s="25"/>
     </row>
-    <row r="353" spans="1:7" customFormat="1" ht="30">
+    <row r="353" spans="1:7" ht="30">
       <c r="A353" s="23" t="s">
         <v>463</v>
       </c>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="G353" s="25"/>
     </row>
-    <row r="354" spans="1:7" customFormat="1" ht="33.75">
+    <row r="354" spans="1:7" ht="33.75">
       <c r="A354" s="23" t="s">
         <v>1252</v>
       </c>
@@ -13953,7 +13953,7 @@
       <c r="F354" s="25"/>
       <c r="G354" s="25"/>
     </row>
-    <row r="355" spans="1:7" customFormat="1">
+    <row r="355" spans="1:7">
       <c r="A355" s="23" t="s">
         <v>1245</v>
       </c>
@@ -13972,7 +13972,7 @@
       <c r="F355" s="25"/>
       <c r="G355" s="25"/>
     </row>
-    <row r="356" spans="1:7" customFormat="1">
+    <row r="356" spans="1:7">
       <c r="A356" s="23" t="s">
         <v>1583</v>
       </c>
@@ -13991,7 +13991,7 @@
       <c r="F356" s="25"/>
       <c r="G356" s="25"/>
     </row>
-    <row r="357" spans="1:7" customFormat="1" ht="30">
+    <row r="357" spans="1:7" ht="30">
       <c r="A357" s="23" t="s">
         <v>170</v>
       </c>
@@ -14012,7 +14012,7 @@
       </c>
       <c r="G357" s="25"/>
     </row>
-    <row r="358" spans="1:7" customFormat="1" ht="30">
+    <row r="358" spans="1:7" ht="30">
       <c r="A358" s="23" t="s">
         <v>1481</v>
       </c>
@@ -14031,7 +14031,7 @@
       <c r="F358" s="25"/>
       <c r="G358" s="25"/>
     </row>
-    <row r="359" spans="1:7" customFormat="1" ht="30">
+    <row r="359" spans="1:7" ht="30">
       <c r="A359" s="23" t="s">
         <v>1321</v>
       </c>
@@ -14050,11 +14050,10 @@
       <c r="F359" s="25"/>
       <c r="G359" s="25"/>
     </row>
-    <row r="360" spans="1:7" customFormat="1">
+    <row r="360" spans="1:7">
       <c r="A360" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="B360" s="12"/>
       <c r="C360" s="24" t="s">
         <v>218</v>
       </c>
@@ -14063,7 +14062,7 @@
       <c r="F360" s="25"/>
       <c r="G360" s="25"/>
     </row>
-    <row r="361" spans="1:7" customFormat="1" ht="30">
+    <row r="361" spans="1:7" ht="30">
       <c r="A361" s="23" t="s">
         <v>1256</v>
       </c>
@@ -14082,7 +14081,7 @@
       <c r="F361" s="25"/>
       <c r="G361" s="25"/>
     </row>
-    <row r="362" spans="1:7" customFormat="1" ht="30">
+    <row r="362" spans="1:7" ht="30">
       <c r="A362" s="23" t="s">
         <v>382</v>
       </c>
@@ -14103,7 +14102,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="363" spans="1:7" customFormat="1" ht="45">
+    <row r="363" spans="1:7" ht="45">
       <c r="A363" s="23" t="s">
         <v>486</v>
       </c>
@@ -14124,7 +14123,7 @@
       </c>
       <c r="G363" s="25"/>
     </row>
-    <row r="364" spans="1:7" customFormat="1" ht="30">
+    <row r="364" spans="1:7" ht="30">
       <c r="A364" s="23" t="s">
         <v>1265</v>
       </c>
@@ -14143,7 +14142,7 @@
       <c r="F364" s="25"/>
       <c r="G364" s="25"/>
     </row>
-    <row r="365" spans="1:7" customFormat="1" ht="33.75">
+    <row r="365" spans="1:7" ht="33.75">
       <c r="A365" s="23" t="s">
         <v>1622</v>
       </c>
@@ -14162,7 +14161,7 @@
       <c r="F365" s="25"/>
       <c r="G365" s="25"/>
     </row>
-    <row r="366" spans="1:7" customFormat="1" ht="45">
+    <row r="366" spans="1:7" ht="45">
       <c r="A366" s="23" t="s">
         <v>391</v>
       </c>
@@ -14183,7 +14182,7 @@
       </c>
       <c r="G366" s="25"/>
     </row>
-    <row r="367" spans="1:7" customFormat="1" ht="45">
+    <row r="367" spans="1:7" ht="45">
       <c r="A367" s="23" t="s">
         <v>1159</v>
       </c>
@@ -14200,7 +14199,7 @@
       <c r="F367" s="25"/>
       <c r="G367" s="25"/>
     </row>
-    <row r="368" spans="1:7" customFormat="1" ht="45">
+    <row r="368" spans="1:7" ht="45">
       <c r="A368" s="23" t="s">
         <v>484</v>
       </c>
@@ -14221,7 +14220,7 @@
       </c>
       <c r="G368" s="25"/>
     </row>
-    <row r="369" spans="1:7" customFormat="1" ht="45">
+    <row r="369" spans="1:7" ht="45">
       <c r="A369" s="23" t="s">
         <v>485</v>
       </c>
@@ -14242,7 +14241,7 @@
       </c>
       <c r="G369" s="25"/>
     </row>
-    <row r="370" spans="1:7" customFormat="1">
+    <row r="370" spans="1:7">
       <c r="A370" s="23" t="s">
         <v>1594</v>
       </c>
@@ -14261,7 +14260,7 @@
       <c r="F370" s="25"/>
       <c r="G370" s="25"/>
     </row>
-    <row r="371" spans="1:7" customFormat="1">
+    <row r="371" spans="1:7">
       <c r="A371" s="23" t="s">
         <v>292</v>
       </c>
@@ -14282,7 +14281,7 @@
       </c>
       <c r="G371" s="25"/>
     </row>
-    <row r="372" spans="1:7" customFormat="1" ht="45">
+    <row r="372" spans="1:7" ht="45">
       <c r="A372" s="23" t="s">
         <v>1535</v>
       </c>
@@ -14299,7 +14298,7 @@
       <c r="F372" s="25"/>
       <c r="G372" s="25"/>
     </row>
-    <row r="373" spans="1:7" customFormat="1" ht="30">
+    <row r="373" spans="1:7" ht="30">
       <c r="A373" s="23" t="s">
         <v>1251</v>
       </c>
@@ -14318,7 +14317,7 @@
       <c r="F373" s="25"/>
       <c r="G373" s="25"/>
     </row>
-    <row r="374" spans="1:7" customFormat="1">
+    <row r="374" spans="1:7">
       <c r="A374" s="23" t="s">
         <v>1579</v>
       </c>
@@ -14337,7 +14336,7 @@
       <c r="F374" s="25"/>
       <c r="G374" s="25"/>
     </row>
-    <row r="375" spans="1:7" customFormat="1">
+    <row r="375" spans="1:7">
       <c r="A375" s="23" t="s">
         <v>476</v>
       </c>
@@ -14356,7 +14355,7 @@
       </c>
       <c r="G375" s="25"/>
     </row>
-    <row r="376" spans="1:7" customFormat="1">
+    <row r="376" spans="1:7">
       <c r="A376" s="23" t="s">
         <v>1356</v>
       </c>
@@ -14377,7 +14376,7 @@
       </c>
       <c r="G376" s="25"/>
     </row>
-    <row r="377" spans="1:7" customFormat="1" ht="45">
+    <row r="377" spans="1:7" ht="45">
       <c r="A377" s="23" t="s">
         <v>1546</v>
       </c>
@@ -14394,7 +14393,7 @@
       <c r="F377" s="25"/>
       <c r="G377" s="25"/>
     </row>
-    <row r="378" spans="1:7" customFormat="1" ht="33.75">
+    <row r="378" spans="1:7" ht="33.75">
       <c r="A378" s="23" t="s">
         <v>1143</v>
       </c>
@@ -14413,7 +14412,7 @@
       <c r="F378" s="25"/>
       <c r="G378" s="25"/>
     </row>
-    <row r="379" spans="1:7" customFormat="1">
+    <row r="379" spans="1:7">
       <c r="A379" s="23" t="s">
         <v>1283</v>
       </c>
@@ -14432,7 +14431,7 @@
       <c r="F379" s="25"/>
       <c r="G379" s="25"/>
     </row>
-    <row r="380" spans="1:7" customFormat="1">
+    <row r="380" spans="1:7">
       <c r="A380" s="23" t="s">
         <v>1618</v>
       </c>
@@ -14451,7 +14450,7 @@
       <c r="F380" s="25"/>
       <c r="G380" s="25"/>
     </row>
-    <row r="381" spans="1:7" customFormat="1" ht="101.25">
+    <row r="381" spans="1:7" ht="101.25">
       <c r="A381" s="23" t="s">
         <v>414</v>
       </c>
@@ -14472,7 +14471,7 @@
       </c>
       <c r="G381" s="25"/>
     </row>
-    <row r="382" spans="1:7" customFormat="1" ht="45">
+    <row r="382" spans="1:7" ht="45">
       <c r="A382" s="23" t="s">
         <v>796</v>
       </c>
@@ -14493,11 +14492,10 @@
       </c>
       <c r="G382" s="25"/>
     </row>
-    <row r="383" spans="1:7" customFormat="1">
+    <row r="383" spans="1:7">
       <c r="A383" s="23" t="s">
         <v>1054</v>
       </c>
-      <c r="B383" s="12"/>
       <c r="C383" s="24"/>
       <c r="D383" s="42"/>
       <c r="E383" s="15" t="s">
@@ -14506,7 +14504,7 @@
       <c r="F383" s="25"/>
       <c r="G383" s="25"/>
     </row>
-    <row r="384" spans="1:7" customFormat="1" ht="78.75">
+    <row r="384" spans="1:7" ht="78.75">
       <c r="A384" s="23" t="s">
         <v>1053</v>
       </c>
@@ -14525,7 +14523,7 @@
       <c r="F384" s="25"/>
       <c r="G384" s="25"/>
     </row>
-    <row r="385" spans="1:7" customFormat="1">
+    <row r="385" spans="1:7">
       <c r="A385" s="23" t="s">
         <v>31</v>
       </c>
@@ -14546,7 +14544,7 @@
       </c>
       <c r="G385" s="25"/>
     </row>
-    <row r="386" spans="1:7" customFormat="1" ht="45">
+    <row r="386" spans="1:7" ht="45">
       <c r="A386" s="23" t="s">
         <v>373</v>
       </c>
@@ -14567,7 +14565,7 @@
       </c>
       <c r="G386" s="25"/>
     </row>
-    <row r="387" spans="1:7" customFormat="1" ht="30">
+    <row r="387" spans="1:7" ht="30">
       <c r="A387" s="23" t="s">
         <v>212</v>
       </c>
@@ -14588,7 +14586,7 @@
       </c>
       <c r="G387" s="25"/>
     </row>
-    <row r="388" spans="1:7" customFormat="1" ht="30">
+    <row r="388" spans="1:7" ht="30">
       <c r="A388" s="23" t="s">
         <v>50</v>
       </c>
@@ -14609,7 +14607,7 @@
       </c>
       <c r="G388" s="25"/>
     </row>
-    <row r="389" spans="1:7" customFormat="1" ht="45">
+    <row r="389" spans="1:7" ht="45">
       <c r="A389" s="23" t="s">
         <v>443</v>
       </c>
@@ -14630,7 +14628,7 @@
       </c>
       <c r="G389" s="25"/>
     </row>
-    <row r="390" spans="1:7" customFormat="1" ht="30">
+    <row r="390" spans="1:7" ht="30">
       <c r="A390" s="23" t="s">
         <v>1612</v>
       </c>
@@ -14649,7 +14647,7 @@
       <c r="F390" s="25"/>
       <c r="G390" s="25"/>
     </row>
-    <row r="391" spans="1:7" customFormat="1" ht="30">
+    <row r="391" spans="1:7" ht="30">
       <c r="A391" s="23" t="s">
         <v>189</v>
       </c>
@@ -14670,7 +14668,7 @@
       </c>
       <c r="G391" s="25"/>
     </row>
-    <row r="392" spans="1:7" customFormat="1" ht="30">
+    <row r="392" spans="1:7" ht="30">
       <c r="A392" s="23" t="s">
         <v>1634</v>
       </c>
@@ -14689,7 +14687,7 @@
       <c r="F392" s="25"/>
       <c r="G392" s="25"/>
     </row>
-    <row r="393" spans="1:7" customFormat="1">
+    <row r="393" spans="1:7">
       <c r="A393" s="23" t="s">
         <v>293</v>
       </c>
@@ -14710,7 +14708,7 @@
       </c>
       <c r="G393" s="25"/>
     </row>
-    <row r="394" spans="1:7" customFormat="1" ht="30">
+    <row r="394" spans="1:7" ht="30">
       <c r="A394" s="23" t="s">
         <v>1271</v>
       </c>
@@ -14729,7 +14727,7 @@
       <c r="F394" s="25"/>
       <c r="G394" s="25"/>
     </row>
-    <row r="395" spans="1:7" customFormat="1" ht="45">
+    <row r="395" spans="1:7" ht="45">
       <c r="A395" s="23" t="s">
         <v>1213</v>
       </c>
@@ -14748,7 +14746,7 @@
       <c r="F395" s="25"/>
       <c r="G395" s="25"/>
     </row>
-    <row r="396" spans="1:7" customFormat="1" ht="30">
+    <row r="396" spans="1:7" ht="30">
       <c r="A396" s="23" t="s">
         <v>1644</v>
       </c>
@@ -14767,7 +14765,7 @@
       <c r="F396" s="25"/>
       <c r="G396" s="25"/>
     </row>
-    <row r="397" spans="1:7" customFormat="1" ht="30">
+    <row r="397" spans="1:7" ht="30">
       <c r="A397" s="23" t="s">
         <v>1589</v>
       </c>
@@ -14786,7 +14784,7 @@
       <c r="F397" s="25"/>
       <c r="G397" s="25"/>
     </row>
-    <row r="398" spans="1:7" customFormat="1">
+    <row r="398" spans="1:7">
       <c r="A398" s="23" t="s">
         <v>1357</v>
       </c>
@@ -14807,7 +14805,7 @@
       </c>
       <c r="G398" s="25"/>
     </row>
-    <row r="399" spans="1:7" customFormat="1" ht="60">
+    <row r="399" spans="1:7" ht="60">
       <c r="A399" s="23" t="s">
         <v>396</v>
       </c>
@@ -14828,7 +14826,7 @@
       </c>
       <c r="G399" s="25"/>
     </row>
-    <row r="400" spans="1:7" customFormat="1" ht="30">
+    <row r="400" spans="1:7" ht="30">
       <c r="A400" s="23" t="s">
         <v>63</v>
       </c>
@@ -14847,7 +14845,7 @@
       </c>
       <c r="G400" s="25"/>
     </row>
-    <row r="401" spans="1:7" customFormat="1" ht="45">
+    <row r="401" spans="1:7" ht="45">
       <c r="A401" s="23" t="s">
         <v>849</v>
       </c>
@@ -14870,7 +14868,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="402" spans="1:7" customFormat="1" ht="45">
+    <row r="402" spans="1:7" ht="45">
       <c r="A402" s="23" t="s">
         <v>489</v>
       </c>
@@ -14891,7 +14889,7 @@
       </c>
       <c r="G402" s="25"/>
     </row>
-    <row r="403" spans="1:7" customFormat="1" ht="30">
+    <row r="403" spans="1:7" ht="30">
       <c r="A403" s="23" t="s">
         <v>876</v>
       </c>
@@ -14914,7 +14912,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="404" spans="1:7" customFormat="1" ht="45">
+    <row r="404" spans="1:7" ht="45">
       <c r="A404" s="23" t="s">
         <v>491</v>
       </c>
@@ -14935,7 +14933,7 @@
       </c>
       <c r="G404" s="25"/>
     </row>
-    <row r="405" spans="1:7" customFormat="1" ht="30">
+    <row r="405" spans="1:7" ht="30">
       <c r="A405" s="23" t="s">
         <v>1050</v>
       </c>
@@ -14952,7 +14950,7 @@
       <c r="F405" s="25"/>
       <c r="G405" s="25"/>
     </row>
-    <row r="406" spans="1:7" customFormat="1" ht="30">
+    <row r="406" spans="1:7" ht="30">
       <c r="A406" s="23" t="s">
         <v>184</v>
       </c>
@@ -14973,7 +14971,7 @@
       </c>
       <c r="G406" s="25"/>
     </row>
-    <row r="407" spans="1:7" customFormat="1" ht="45">
+    <row r="407" spans="1:7" ht="45">
       <c r="A407" s="23" t="s">
         <v>492</v>
       </c>
@@ -14994,7 +14992,7 @@
       </c>
       <c r="G407" s="25"/>
     </row>
-    <row r="408" spans="1:7" customFormat="1" ht="30">
+    <row r="408" spans="1:7" ht="30">
       <c r="A408" s="23" t="s">
         <v>1319</v>
       </c>
@@ -15013,7 +15011,7 @@
       <c r="F408" s="25"/>
       <c r="G408" s="25"/>
     </row>
-    <row r="409" spans="1:7" customFormat="1" ht="30">
+    <row r="409" spans="1:7" ht="30">
       <c r="A409" s="23" t="s">
         <v>110</v>
       </c>
@@ -15034,7 +15032,7 @@
       </c>
       <c r="G409" s="25"/>
     </row>
-    <row r="410" spans="1:7" customFormat="1">
+    <row r="410" spans="1:7">
       <c r="A410" s="23" t="s">
         <v>340</v>
       </c>
@@ -15055,7 +15053,7 @@
       </c>
       <c r="G410" s="25"/>
     </row>
-    <row r="411" spans="1:7" customFormat="1" ht="45">
+    <row r="411" spans="1:7" ht="45">
       <c r="A411" s="23" t="s">
         <v>65</v>
       </c>
@@ -15076,7 +15074,7 @@
       </c>
       <c r="G411" s="25"/>
     </row>
-    <row r="412" spans="1:7" customFormat="1" ht="45">
+    <row r="412" spans="1:7" ht="45">
       <c r="A412" s="23" t="s">
         <v>858</v>
       </c>
@@ -15099,7 +15097,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="413" spans="1:7" customFormat="1" ht="30">
+    <row r="413" spans="1:7" ht="30">
       <c r="A413" s="23" t="s">
         <v>55</v>
       </c>
@@ -15120,7 +15118,7 @@
       </c>
       <c r="G413" s="25"/>
     </row>
-    <row r="414" spans="1:7" customFormat="1" ht="30">
+    <row r="414" spans="1:7" ht="30">
       <c r="A414" s="23" t="s">
         <v>809</v>
       </c>
@@ -15141,7 +15139,7 @@
       </c>
       <c r="G414" s="25"/>
     </row>
-    <row r="415" spans="1:7" customFormat="1" ht="45">
+    <row r="415" spans="1:7" ht="45">
       <c r="A415" s="23" t="s">
         <v>1550</v>
       </c>
@@ -15158,7 +15156,7 @@
       <c r="F415" s="25"/>
       <c r="G415" s="25"/>
     </row>
-    <row r="416" spans="1:7" customFormat="1" ht="33.75">
+    <row r="416" spans="1:7" ht="33.75">
       <c r="A416" s="23" t="s">
         <v>556</v>
       </c>
@@ -15179,7 +15177,7 @@
       </c>
       <c r="G416" s="25"/>
     </row>
-    <row r="417" spans="1:7" customFormat="1" ht="45">
+    <row r="417" spans="1:7" ht="45">
       <c r="A417" s="23" t="s">
         <v>1149</v>
       </c>
@@ -15198,7 +15196,7 @@
       <c r="F417" s="25"/>
       <c r="G417" s="25"/>
     </row>
-    <row r="418" spans="1:7" customFormat="1" ht="30">
+    <row r="418" spans="1:7" ht="30">
       <c r="A418" s="23" t="s">
         <v>815</v>
       </c>
@@ -15219,7 +15217,7 @@
       </c>
       <c r="G418" s="25"/>
     </row>
-    <row r="419" spans="1:7" customFormat="1">
+    <row r="419" spans="1:7">
       <c r="A419" s="23" t="s">
         <v>335</v>
       </c>
@@ -15240,7 +15238,7 @@
       </c>
       <c r="G419" s="25"/>
     </row>
-    <row r="420" spans="1:7" customFormat="1" ht="30">
+    <row r="420" spans="1:7" ht="30">
       <c r="A420" s="23" t="s">
         <v>299</v>
       </c>
@@ -15259,7 +15257,7 @@
       </c>
       <c r="G420" s="25"/>
     </row>
-    <row r="421" spans="1:7" customFormat="1" ht="60">
+    <row r="421" spans="1:7" ht="60">
       <c r="A421" s="23" t="s">
         <v>569</v>
       </c>
@@ -15280,7 +15278,7 @@
       </c>
       <c r="G421" s="25"/>
     </row>
-    <row r="422" spans="1:7" customFormat="1" ht="60">
+    <row r="422" spans="1:7" ht="60">
       <c r="A422" s="23" t="s">
         <v>1575</v>
       </c>
@@ -15299,7 +15297,7 @@
       <c r="F422" s="25"/>
       <c r="G422" s="25"/>
     </row>
-    <row r="423" spans="1:7" customFormat="1" ht="75">
+    <row r="423" spans="1:7" ht="75">
       <c r="A423" s="23" t="s">
         <v>465</v>
       </c>
@@ -15320,7 +15318,7 @@
       </c>
       <c r="G423" s="25"/>
     </row>
-    <row r="424" spans="1:7" customFormat="1" ht="30">
+    <row r="424" spans="1:7" ht="30">
       <c r="A424" s="23" t="s">
         <v>1258</v>
       </c>
@@ -15339,7 +15337,7 @@
       <c r="F424" s="25"/>
       <c r="G424" s="25"/>
     </row>
-    <row r="425" spans="1:7" customFormat="1" ht="60">
+    <row r="425" spans="1:7" ht="60">
       <c r="A425" s="23" t="s">
         <v>225</v>
       </c>
@@ -15360,7 +15358,7 @@
       </c>
       <c r="G425" s="25"/>
     </row>
-    <row r="426" spans="1:7" customFormat="1" ht="33.75">
+    <row r="426" spans="1:7" ht="33.75">
       <c r="A426" s="23" t="s">
         <v>1506</v>
       </c>
@@ -15379,7 +15377,7 @@
       <c r="F426" s="25"/>
       <c r="G426" s="25"/>
     </row>
-    <row r="427" spans="1:7" customFormat="1" ht="60">
+    <row r="427" spans="1:7" ht="60">
       <c r="A427" s="29" t="s">
         <v>483</v>
       </c>
@@ -15398,7 +15396,7 @@
       </c>
       <c r="G427" s="25"/>
     </row>
-    <row r="428" spans="1:7" customFormat="1" ht="45">
+    <row r="428" spans="1:7" ht="45">
       <c r="A428" s="23" t="s">
         <v>1359</v>
       </c>
@@ -15419,7 +15417,7 @@
       </c>
       <c r="G428" s="25"/>
     </row>
-    <row r="429" spans="1:7" customFormat="1" ht="33.75">
+    <row r="429" spans="1:7" ht="33.75">
       <c r="A429" s="23" t="s">
         <v>300</v>
       </c>
@@ -15440,7 +15438,7 @@
       </c>
       <c r="G429" s="25"/>
     </row>
-    <row r="430" spans="1:7" customFormat="1">
+    <row r="430" spans="1:7">
       <c r="A430" s="23" t="s">
         <v>313</v>
       </c>
@@ -15461,7 +15459,7 @@
       </c>
       <c r="G430" s="25"/>
     </row>
-    <row r="431" spans="1:7" customFormat="1" ht="30">
+    <row r="431" spans="1:7" ht="30">
       <c r="A431" s="23" t="s">
         <v>202</v>
       </c>
@@ -15482,7 +15480,7 @@
       </c>
       <c r="G431" s="25"/>
     </row>
-    <row r="432" spans="1:7" customFormat="1">
+    <row r="432" spans="1:7">
       <c r="A432" s="23" t="s">
         <v>1077</v>
       </c>
@@ -15497,7 +15495,7 @@
       <c r="F432" s="25"/>
       <c r="G432" s="25"/>
     </row>
-    <row r="433" spans="1:7" customFormat="1" ht="30">
+    <row r="433" spans="1:7" ht="30">
       <c r="A433" s="23" t="s">
         <v>1700</v>
       </c>
@@ -15516,7 +15514,7 @@
       <c r="F433" s="25"/>
       <c r="G433" s="25"/>
     </row>
-    <row r="434" spans="1:7" customFormat="1">
+    <row r="434" spans="1:7">
       <c r="A434" s="23" t="s">
         <v>401</v>
       </c>
@@ -15535,7 +15533,7 @@
       </c>
       <c r="G434" s="25"/>
     </row>
-    <row r="435" spans="1:7" customFormat="1" ht="30">
+    <row r="435" spans="1:7" ht="30">
       <c r="A435" s="23" t="s">
         <v>703</v>
       </c>
@@ -15554,7 +15552,7 @@
       </c>
       <c r="G435" s="25"/>
     </row>
-    <row r="436" spans="1:7" customFormat="1" ht="30">
+    <row r="436" spans="1:7" ht="30">
       <c r="A436" s="23" t="s">
         <v>474</v>
       </c>
@@ -15573,7 +15571,7 @@
       </c>
       <c r="G436" s="25"/>
     </row>
-    <row r="437" spans="1:7" customFormat="1" ht="30">
+    <row r="437" spans="1:7" ht="30">
       <c r="A437" s="23" t="s">
         <v>138</v>
       </c>
@@ -15594,7 +15592,7 @@
       </c>
       <c r="G437" s="25"/>
     </row>
-    <row r="438" spans="1:7" customFormat="1">
+    <row r="438" spans="1:7">
       <c r="A438" s="23" t="s">
         <v>1278</v>
       </c>
@@ -15613,7 +15611,7 @@
       <c r="F438" s="25"/>
       <c r="G438" s="25"/>
     </row>
-    <row r="439" spans="1:7" customFormat="1" ht="30">
+    <row r="439" spans="1:7" ht="30">
       <c r="A439" s="23" t="s">
         <v>855</v>
       </c>
@@ -15636,7 +15634,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="440" spans="1:7" customFormat="1" ht="45">
+    <row r="440" spans="1:7" ht="45">
       <c r="A440" s="23" t="s">
         <v>1202</v>
       </c>
@@ -15655,7 +15653,7 @@
       <c r="F440" s="25"/>
       <c r="G440" s="25"/>
     </row>
-    <row r="441" spans="1:7" customFormat="1" ht="45">
+    <row r="441" spans="1:7" ht="45">
       <c r="A441" s="23" t="s">
         <v>892</v>
       </c>
@@ -15674,7 +15672,7 @@
       <c r="F441" s="25"/>
       <c r="G441" s="25"/>
     </row>
-    <row r="442" spans="1:7" customFormat="1" ht="45">
+    <row r="442" spans="1:7" ht="45">
       <c r="A442" s="23" t="s">
         <v>892</v>
       </c>
@@ -15697,7 +15695,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="443" spans="1:7" customFormat="1" ht="33.75">
+    <row r="443" spans="1:7" ht="33.75">
       <c r="A443" s="23" t="s">
         <v>23</v>
       </c>
@@ -15718,7 +15716,7 @@
       </c>
       <c r="G443" s="25"/>
     </row>
-    <row r="444" spans="1:7" customFormat="1" ht="30">
+    <row r="444" spans="1:7" ht="30">
       <c r="A444" s="23" t="s">
         <v>1518</v>
       </c>
@@ -15737,7 +15735,7 @@
       <c r="F444" s="25"/>
       <c r="G444" s="25"/>
     </row>
-    <row r="445" spans="1:7" customFormat="1" ht="45">
+    <row r="445" spans="1:7" ht="45">
       <c r="A445" s="23" t="s">
         <v>708</v>
       </c>
@@ -15758,7 +15756,7 @@
       </c>
       <c r="G445" s="25"/>
     </row>
-    <row r="446" spans="1:7" customFormat="1" ht="30">
+    <row r="446" spans="1:7" ht="30">
       <c r="A446" s="23" t="s">
         <v>817</v>
       </c>
@@ -15775,7 +15773,7 @@
       </c>
       <c r="G446" s="25"/>
     </row>
-    <row r="447" spans="1:7" customFormat="1" ht="30">
+    <row r="447" spans="1:7" ht="30">
       <c r="A447" s="23" t="s">
         <v>451</v>
       </c>
@@ -15796,7 +15794,7 @@
       </c>
       <c r="G447" s="25"/>
     </row>
-    <row r="448" spans="1:7" customFormat="1" ht="30">
+    <row r="448" spans="1:7" ht="30">
       <c r="A448" s="23" t="s">
         <v>1035</v>
       </c>
@@ -15813,7 +15811,7 @@
       <c r="F448" s="25"/>
       <c r="G448" s="25"/>
     </row>
-    <row r="449" spans="1:7" customFormat="1" ht="30">
+    <row r="449" spans="1:7" ht="30">
       <c r="A449" s="23" t="s">
         <v>450</v>
       </c>
@@ -15832,7 +15830,7 @@
       </c>
       <c r="G449" s="25"/>
     </row>
-    <row r="450" spans="1:7" customFormat="1" ht="30">
+    <row r="450" spans="1:7" ht="30">
       <c r="A450" s="23" t="s">
         <v>29</v>
       </c>
@@ -15853,7 +15851,7 @@
       </c>
       <c r="G450" s="25"/>
     </row>
-    <row r="451" spans="1:7" customFormat="1" ht="33.75">
+    <row r="451" spans="1:7" ht="33.75">
       <c r="A451" s="23" t="s">
         <v>314</v>
       </c>
@@ -15874,7 +15872,7 @@
       </c>
       <c r="G451" s="25"/>
     </row>
-    <row r="452" spans="1:7" customFormat="1" ht="30">
+    <row r="452" spans="1:7" ht="30">
       <c r="A452" s="23" t="s">
         <v>42</v>
       </c>
@@ -15895,7 +15893,7 @@
       </c>
       <c r="G452" s="25"/>
     </row>
-    <row r="453" spans="1:7" customFormat="1">
+    <row r="453" spans="1:7">
       <c r="A453" s="23" t="s">
         <v>728</v>
       </c>
@@ -15914,7 +15912,7 @@
       </c>
       <c r="G453" s="25"/>
     </row>
-    <row r="454" spans="1:7" customFormat="1" ht="45">
+    <row r="454" spans="1:7" ht="45">
       <c r="A454" s="23" t="s">
         <v>481</v>
       </c>
@@ -15935,7 +15933,7 @@
       </c>
       <c r="G454" s="25"/>
     </row>
-    <row r="455" spans="1:7" customFormat="1" ht="30">
+    <row r="455" spans="1:7" ht="30">
       <c r="A455" s="23" t="s">
         <v>1610</v>
       </c>
@@ -15952,7 +15950,7 @@
       <c r="F455" s="25"/>
       <c r="G455" s="25"/>
     </row>
-    <row r="456" spans="1:7" customFormat="1">
+    <row r="456" spans="1:7">
       <c r="A456" s="23" t="s">
         <v>542</v>
       </c>
@@ -15971,7 +15969,7 @@
       </c>
       <c r="G456" s="25"/>
     </row>
-    <row r="457" spans="1:7" customFormat="1" ht="45">
+    <row r="457" spans="1:7" ht="45">
       <c r="A457" s="23" t="s">
         <v>439</v>
       </c>
@@ -15992,7 +15990,7 @@
       </c>
       <c r="G457" s="25"/>
     </row>
-    <row r="458" spans="1:7" customFormat="1" ht="30">
+    <row r="458" spans="1:7" ht="30">
       <c r="A458" s="23" t="s">
         <v>1556</v>
       </c>
@@ -16009,7 +16007,7 @@
       <c r="F458" s="25"/>
       <c r="G458" s="25"/>
     </row>
-    <row r="459" spans="1:7" customFormat="1" ht="45">
+    <row r="459" spans="1:7" ht="45">
       <c r="A459" s="23" t="s">
         <v>87</v>
       </c>
@@ -16030,7 +16028,7 @@
       </c>
       <c r="G459" s="25"/>
     </row>
-    <row r="460" spans="1:7" customFormat="1" ht="45">
+    <row r="460" spans="1:7" ht="45">
       <c r="A460" s="23" t="s">
         <v>1364</v>
       </c>
@@ -16051,7 +16049,7 @@
       </c>
       <c r="G460" s="25"/>
     </row>
-    <row r="461" spans="1:7" customFormat="1">
+    <row r="461" spans="1:7">
       <c r="A461" s="23" t="s">
         <v>715</v>
       </c>
@@ -16070,7 +16068,7 @@
       </c>
       <c r="G461" s="25"/>
     </row>
-    <row r="462" spans="1:7" customFormat="1" ht="30">
+    <row r="462" spans="1:7" ht="30">
       <c r="A462" s="23" t="s">
         <v>318</v>
       </c>
@@ -16091,7 +16089,7 @@
       </c>
       <c r="G462" s="25"/>
     </row>
-    <row r="463" spans="1:7" customFormat="1">
+    <row r="463" spans="1:7">
       <c r="A463" s="23" t="s">
         <v>236</v>
       </c>
@@ -16112,7 +16110,7 @@
       </c>
       <c r="G463" s="25"/>
     </row>
-    <row r="464" spans="1:7" customFormat="1" ht="45">
+    <row r="464" spans="1:7" ht="45">
       <c r="A464" s="23" t="s">
         <v>1045</v>
       </c>
@@ -16131,7 +16129,7 @@
       <c r="F464" s="25"/>
       <c r="G464" s="25"/>
     </row>
-    <row r="465" spans="1:7" customFormat="1" ht="30">
+    <row r="465" spans="1:7" ht="30">
       <c r="A465" s="23" t="s">
         <v>752</v>
       </c>
@@ -16150,7 +16148,7 @@
       </c>
       <c r="G465" s="25"/>
     </row>
-    <row r="466" spans="1:7" customFormat="1" ht="30">
+    <row r="466" spans="1:7" ht="30">
       <c r="A466" s="23" t="s">
         <v>753</v>
       </c>
@@ -16169,7 +16167,7 @@
       </c>
       <c r="G466" s="25"/>
     </row>
-    <row r="467" spans="1:7" customFormat="1" ht="30">
+    <row r="467" spans="1:7" ht="30">
       <c r="A467" s="23" t="s">
         <v>754</v>
       </c>
@@ -16188,7 +16186,7 @@
       </c>
       <c r="G467" s="25"/>
     </row>
-    <row r="468" spans="1:7" customFormat="1" ht="30">
+    <row r="468" spans="1:7" ht="30">
       <c r="A468" s="23" t="s">
         <v>756</v>
       </c>
@@ -16207,7 +16205,7 @@
       </c>
       <c r="G468" s="25"/>
     </row>
-    <row r="469" spans="1:7" customFormat="1" ht="30">
+    <row r="469" spans="1:7" ht="30">
       <c r="A469" s="23" t="s">
         <v>757</v>
       </c>
@@ -16226,7 +16224,7 @@
       </c>
       <c r="G469" s="25"/>
     </row>
-    <row r="470" spans="1:7" customFormat="1" ht="45">
+    <row r="470" spans="1:7" ht="45">
       <c r="A470" s="23" t="s">
         <v>811</v>
       </c>
@@ -16243,7 +16241,7 @@
       </c>
       <c r="G470" s="25"/>
     </row>
-    <row r="471" spans="1:7" customFormat="1" ht="33.75">
+    <row r="471" spans="1:7" ht="33.75">
       <c r="A471" s="23" t="s">
         <v>1301</v>
       </c>
@@ -16262,7 +16260,7 @@
       <c r="F471" s="25"/>
       <c r="G471" s="25"/>
     </row>
-    <row r="472" spans="1:7" customFormat="1">
+    <row r="472" spans="1:7">
       <c r="A472" s="23" t="s">
         <v>303</v>
       </c>
@@ -16283,7 +16281,7 @@
       </c>
       <c r="G472" s="25"/>
     </row>
-    <row r="473" spans="1:7" customFormat="1">
+    <row r="473" spans="1:7">
       <c r="A473" s="23" t="s">
         <v>1529</v>
       </c>
@@ -16302,7 +16300,7 @@
       <c r="F473" s="25"/>
       <c r="G473" s="25"/>
     </row>
-    <row r="474" spans="1:7" customFormat="1" ht="45">
+    <row r="474" spans="1:7" ht="45">
       <c r="A474" s="23" t="s">
         <v>755</v>
       </c>
@@ -16321,7 +16319,7 @@
       </c>
       <c r="G474" s="25"/>
     </row>
-    <row r="475" spans="1:7" customFormat="1">
+    <row r="475" spans="1:7">
       <c r="A475" s="23" t="s">
         <v>178</v>
       </c>
@@ -16342,7 +16340,7 @@
       </c>
       <c r="G475" s="25"/>
     </row>
-    <row r="476" spans="1:7" customFormat="1">
+    <row r="476" spans="1:7">
       <c r="A476" s="23" t="s">
         <v>1585</v>
       </c>
@@ -16361,7 +16359,7 @@
       <c r="F476" s="25"/>
       <c r="G476" s="25"/>
     </row>
-    <row r="477" spans="1:7" customFormat="1" ht="33.75">
+    <row r="477" spans="1:7" ht="33.75">
       <c r="A477" s="23" t="s">
         <v>270</v>
       </c>
@@ -16382,7 +16380,7 @@
       </c>
       <c r="G477" s="25"/>
     </row>
-    <row r="478" spans="1:7" customFormat="1" ht="30">
+    <row r="478" spans="1:7" ht="30">
       <c r="A478" s="23" t="s">
         <v>46</v>
       </c>
@@ -16403,7 +16401,7 @@
       </c>
       <c r="G478" s="25"/>
     </row>
-    <row r="479" spans="1:7" customFormat="1">
+    <row r="479" spans="1:7">
       <c r="A479" s="23" t="s">
         <v>434</v>
       </c>
@@ -16424,7 +16422,7 @@
       </c>
       <c r="G479" s="25"/>
     </row>
-    <row r="480" spans="1:7" customFormat="1">
+    <row r="480" spans="1:7">
       <c r="A480" s="23" t="s">
         <v>211</v>
       </c>
@@ -16441,7 +16439,7 @@
       <c r="F480" s="25"/>
       <c r="G480" s="25"/>
     </row>
-    <row r="481" spans="1:7" customFormat="1" ht="45">
+    <row r="481" spans="1:7" ht="45">
       <c r="A481" s="23" t="s">
         <v>35</v>
       </c>
@@ -16462,7 +16460,7 @@
       </c>
       <c r="G481" s="25"/>
     </row>
-    <row r="482" spans="1:7" customFormat="1" ht="30">
+    <row r="482" spans="1:7" ht="30">
       <c r="A482" s="23" t="s">
         <v>1316</v>
       </c>
@@ -16481,7 +16479,7 @@
       <c r="F482" s="25"/>
       <c r="G482" s="25"/>
     </row>
-    <row r="483" spans="1:7" customFormat="1" ht="30">
+    <row r="483" spans="1:7" ht="30">
       <c r="A483" s="23" t="s">
         <v>1628</v>
       </c>
@@ -16500,7 +16498,7 @@
       <c r="F483" s="25"/>
       <c r="G483" s="25"/>
     </row>
-    <row r="484" spans="1:7" customFormat="1" ht="30">
+    <row r="484" spans="1:7" ht="30">
       <c r="A484" s="23" t="s">
         <v>36</v>
       </c>
@@ -16521,7 +16519,7 @@
       </c>
       <c r="G484" s="25"/>
     </row>
-    <row r="485" spans="1:7" customFormat="1" ht="30">
+    <row r="485" spans="1:7" ht="30">
       <c r="A485" s="23" t="s">
         <v>246</v>
       </c>
@@ -16540,7 +16538,7 @@
       <c r="F485" s="25"/>
       <c r="G485" s="25"/>
     </row>
-    <row r="486" spans="1:7" customFormat="1" ht="30">
+    <row r="486" spans="1:7" ht="30">
       <c r="A486" s="23" t="s">
         <v>324</v>
       </c>
@@ -16561,7 +16559,7 @@
       </c>
       <c r="G486" s="25"/>
     </row>
-    <row r="487" spans="1:7" customFormat="1">
+    <row r="487" spans="1:7">
       <c r="A487" s="23" t="s">
         <v>1165</v>
       </c>
@@ -16578,7 +16576,7 @@
       <c r="F487" s="25"/>
       <c r="G487" s="25"/>
     </row>
-    <row r="488" spans="1:7" customFormat="1" ht="33.75">
+    <row r="488" spans="1:7" ht="33.75">
       <c r="A488" s="23" t="s">
         <v>1525</v>
       </c>
@@ -16597,7 +16595,7 @@
       <c r="F488" s="25"/>
       <c r="G488" s="25"/>
     </row>
-    <row r="489" spans="1:7" customFormat="1">
+    <row r="489" spans="1:7">
       <c r="A489" s="23" t="s">
         <v>1170</v>
       </c>
@@ -16614,7 +16612,7 @@
       <c r="F489" s="25"/>
       <c r="G489" s="25"/>
     </row>
-    <row r="490" spans="1:7" customFormat="1" ht="30">
+    <row r="490" spans="1:7" ht="30">
       <c r="A490" s="23" t="s">
         <v>857</v>
       </c>
@@ -16637,7 +16635,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="491" spans="1:7" customFormat="1">
+    <row r="491" spans="1:7">
       <c r="A491" s="23" t="s">
         <v>1630</v>
       </c>
@@ -16656,7 +16654,7 @@
       <c r="F491" s="25"/>
       <c r="G491" s="25"/>
     </row>
-    <row r="492" spans="1:7" customFormat="1" ht="45">
+    <row r="492" spans="1:7" ht="45">
       <c r="A492" s="23" t="s">
         <v>1581</v>
       </c>
@@ -16675,7 +16673,7 @@
       <c r="F492" s="25"/>
       <c r="G492" s="25"/>
     </row>
-    <row r="493" spans="1:7" customFormat="1" ht="30">
+    <row r="493" spans="1:7" ht="30">
       <c r="A493" s="23" t="s">
         <v>478</v>
       </c>
@@ -16694,7 +16692,7 @@
       </c>
       <c r="G493" s="25"/>
     </row>
-    <row r="494" spans="1:7" customFormat="1" ht="30">
+    <row r="494" spans="1:7" ht="30">
       <c r="A494" s="23" t="s">
         <v>1148</v>
       </c>
@@ -16711,7 +16709,7 @@
       <c r="F494" s="25"/>
       <c r="G494" s="25"/>
     </row>
-    <row r="495" spans="1:7" customFormat="1" ht="30">
+    <row r="495" spans="1:7" ht="30">
       <c r="A495" s="23" t="s">
         <v>159</v>
       </c>
@@ -16730,7 +16728,7 @@
       </c>
       <c r="G495" s="25"/>
     </row>
-    <row r="496" spans="1:7" customFormat="1">
+    <row r="496" spans="1:7">
       <c r="A496" s="23" t="s">
         <v>466</v>
       </c>
@@ -16749,7 +16747,7 @@
       </c>
       <c r="G496" s="25"/>
     </row>
-    <row r="497" spans="1:7" customFormat="1">
+    <row r="497" spans="1:7">
       <c r="A497" s="23" t="s">
         <v>564</v>
       </c>
@@ -16768,7 +16766,7 @@
       </c>
       <c r="G497" s="25"/>
     </row>
-    <row r="498" spans="1:7" customFormat="1">
+    <row r="498" spans="1:7">
       <c r="A498" s="23" t="s">
         <v>562</v>
       </c>
@@ -16787,7 +16785,7 @@
       </c>
       <c r="G498" s="25"/>
     </row>
-    <row r="499" spans="1:7" customFormat="1">
+    <row r="499" spans="1:7">
       <c r="A499" s="23" t="s">
         <v>749</v>
       </c>
@@ -16806,7 +16804,7 @@
       </c>
       <c r="G499" s="25"/>
     </row>
-    <row r="500" spans="1:7" customFormat="1">
+    <row r="500" spans="1:7">
       <c r="A500" s="23" t="s">
         <v>563</v>
       </c>
@@ -16825,7 +16823,7 @@
       </c>
       <c r="G500" s="25"/>
     </row>
-    <row r="501" spans="1:7" customFormat="1" ht="30">
+    <row r="501" spans="1:7" ht="30">
       <c r="A501" s="23" t="s">
         <v>1144</v>
       </c>
@@ -16844,7 +16842,7 @@
       <c r="F501" s="25"/>
       <c r="G501" s="25"/>
     </row>
-    <row r="502" spans="1:7" customFormat="1" ht="45">
+    <row r="502" spans="1:7" ht="45">
       <c r="A502" s="23" t="s">
         <v>1552</v>
       </c>
@@ -16861,7 +16859,7 @@
       <c r="F502" s="25"/>
       <c r="G502" s="25"/>
     </row>
-    <row r="503" spans="1:7" customFormat="1" ht="30">
+    <row r="503" spans="1:7" ht="30">
       <c r="A503" s="23" t="s">
         <v>544</v>
       </c>
@@ -16880,7 +16878,7 @@
       </c>
       <c r="G503" s="25"/>
     </row>
-    <row r="504" spans="1:7" customFormat="1" ht="45">
+    <row r="504" spans="1:7" ht="45">
       <c r="A504" s="23" t="s">
         <v>762</v>
       </c>
@@ -16899,7 +16897,7 @@
       </c>
       <c r="G504" s="25"/>
     </row>
-    <row r="505" spans="1:7" customFormat="1" ht="33.75">
+    <row r="505" spans="1:7" ht="33.75">
       <c r="A505" s="23" t="s">
         <v>119</v>
       </c>
@@ -16920,7 +16918,7 @@
       </c>
       <c r="G505" s="25"/>
     </row>
-    <row r="506" spans="1:7" customFormat="1">
+    <row r="506" spans="1:7">
       <c r="A506" s="23" t="s">
         <v>399</v>
       </c>
@@ -16941,7 +16939,7 @@
       </c>
       <c r="G506" s="25"/>
     </row>
-    <row r="507" spans="1:7" customFormat="1" ht="30">
+    <row r="507" spans="1:7" ht="30">
       <c r="A507" s="23" t="s">
         <v>297</v>
       </c>
@@ -16962,7 +16960,7 @@
       </c>
       <c r="G507" s="25"/>
     </row>
-    <row r="508" spans="1:7" customFormat="1">
+    <row r="508" spans="1:7">
       <c r="A508" s="23" t="s">
         <v>1222</v>
       </c>
@@ -16981,7 +16979,7 @@
       <c r="F508" s="25"/>
       <c r="G508" s="25"/>
     </row>
-    <row r="509" spans="1:7" customFormat="1" ht="30">
+    <row r="509" spans="1:7" ht="30">
       <c r="A509" s="23" t="s">
         <v>47</v>
       </c>
@@ -17002,7 +17000,7 @@
       </c>
       <c r="G509" s="25"/>
     </row>
-    <row r="510" spans="1:7" customFormat="1" ht="30">
+    <row r="510" spans="1:7" ht="30">
       <c r="A510" s="23" t="s">
         <v>168</v>
       </c>
@@ -17023,7 +17021,7 @@
       </c>
       <c r="G510" s="25"/>
     </row>
-    <row r="511" spans="1:7" customFormat="1" ht="30">
+    <row r="511" spans="1:7" ht="30">
       <c r="A511" s="23" t="s">
         <v>1026</v>
       </c>
@@ -17042,7 +17040,7 @@
       <c r="F511" s="25"/>
       <c r="G511" s="25"/>
     </row>
-    <row r="512" spans="1:7" customFormat="1" ht="45">
+    <row r="512" spans="1:7" ht="45">
       <c r="A512" s="23" t="s">
         <v>128</v>
       </c>
@@ -17063,7 +17061,7 @@
       </c>
       <c r="G512" s="25"/>
     </row>
-    <row r="513" spans="1:7" customFormat="1" ht="30">
+    <row r="513" spans="1:7" ht="30">
       <c r="A513" s="23" t="s">
         <v>1029</v>
       </c>
@@ -17082,7 +17080,7 @@
       <c r="F513" s="25"/>
       <c r="G513" s="25"/>
     </row>
-    <row r="514" spans="1:7" customFormat="1">
+    <row r="514" spans="1:7">
       <c r="A514" s="23" t="s">
         <v>256</v>
       </c>
@@ -17101,7 +17099,7 @@
       </c>
       <c r="G514" s="25"/>
     </row>
-    <row r="515" spans="1:7" customFormat="1" ht="30">
+    <row r="515" spans="1:7" ht="30">
       <c r="A515" s="23" t="s">
         <v>1414</v>
       </c>
@@ -17120,7 +17118,7 @@
       <c r="F515" s="25"/>
       <c r="G515" s="25"/>
     </row>
-    <row r="516" spans="1:7" customFormat="1" ht="30">
+    <row r="516" spans="1:7" ht="30">
       <c r="A516" s="23" t="s">
         <v>1367</v>
       </c>
@@ -17141,7 +17139,7 @@
       </c>
       <c r="G516" s="25"/>
     </row>
-    <row r="517" spans="1:7" customFormat="1">
+    <row r="517" spans="1:7">
       <c r="A517" s="23" t="s">
         <v>1592</v>
       </c>
@@ -17160,7 +17158,7 @@
       <c r="F517" s="25"/>
       <c r="G517" s="25"/>
     </row>
-    <row r="518" spans="1:7" customFormat="1">
+    <row r="518" spans="1:7">
       <c r="A518" s="23" t="s">
         <v>101</v>
       </c>
@@ -17179,7 +17177,7 @@
       </c>
       <c r="G518" s="25"/>
     </row>
-    <row r="519" spans="1:7" customFormat="1" ht="30">
+    <row r="519" spans="1:7" ht="30">
       <c r="A519" s="23" t="s">
         <v>154</v>
       </c>
@@ -17200,7 +17198,7 @@
       </c>
       <c r="G519" s="25"/>
     </row>
-    <row r="520" spans="1:7" customFormat="1" ht="33.75">
+    <row r="520" spans="1:7" ht="33.75">
       <c r="A520" s="23" t="s">
         <v>770</v>
       </c>
@@ -17240,7 +17238,7 @@
       </c>
       <c r="G521" s="25"/>
     </row>
-    <row r="522" spans="1:7" customFormat="1" ht="30">
+    <row r="522" spans="1:7" ht="30">
       <c r="A522" s="23" t="s">
         <v>204</v>
       </c>
@@ -17261,7 +17259,7 @@
       </c>
       <c r="G522" s="25"/>
     </row>
-    <row r="523" spans="1:7" customFormat="1" ht="30">
+    <row r="523" spans="1:7" ht="30">
       <c r="A523" s="23" t="s">
         <v>1263</v>
       </c>
@@ -17280,7 +17278,7 @@
       <c r="F523" s="25"/>
       <c r="G523" s="25"/>
     </row>
-    <row r="524" spans="1:7" customFormat="1" ht="30">
+    <row r="524" spans="1:7" ht="30">
       <c r="A524" s="23" t="s">
         <v>1041</v>
       </c>
@@ -17299,7 +17297,7 @@
       <c r="F524" s="25"/>
       <c r="G524" s="25"/>
     </row>
-    <row r="525" spans="1:7" customFormat="1" ht="30">
+    <row r="525" spans="1:7" ht="30">
       <c r="A525" s="23" t="s">
         <v>1248</v>
       </c>
@@ -17318,7 +17316,7 @@
       <c r="F525" s="25"/>
       <c r="G525" s="25"/>
     </row>
-    <row r="526" spans="1:7" customFormat="1" ht="30">
+    <row r="526" spans="1:7" ht="30">
       <c r="A526" s="23" t="s">
         <v>81</v>
       </c>
@@ -17339,7 +17337,7 @@
       </c>
       <c r="G526" s="25"/>
     </row>
-    <row r="527" spans="1:7" customFormat="1" ht="30">
+    <row r="527" spans="1:7" ht="30">
       <c r="A527" s="23" t="s">
         <v>845</v>
       </c>
@@ -17362,7 +17360,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="528" spans="1:7" customFormat="1" ht="45">
+    <row r="528" spans="1:7" ht="45">
       <c r="A528" s="23" t="s">
         <v>1315</v>
       </c>
@@ -17381,7 +17379,7 @@
       <c r="F528" s="25"/>
       <c r="G528" s="25"/>
     </row>
-    <row r="529" spans="1:7" customFormat="1" ht="60">
+    <row r="529" spans="1:7" ht="60">
       <c r="A529" s="23" t="s">
         <v>1311</v>
       </c>
@@ -17400,7 +17398,7 @@
       <c r="F529" s="25"/>
       <c r="G529" s="25"/>
     </row>
-    <row r="530" spans="1:7" customFormat="1" ht="30">
+    <row r="530" spans="1:7" ht="30">
       <c r="A530" s="23" t="s">
         <v>864</v>
       </c>
@@ -17423,7 +17421,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="531" spans="1:7" customFormat="1" ht="30">
+    <row r="531" spans="1:7" ht="30">
       <c r="A531" s="23" t="s">
         <v>363</v>
       </c>
@@ -17444,7 +17442,7 @@
       </c>
       <c r="G531" s="25"/>
     </row>
-    <row r="532" spans="1:7" customFormat="1">
+    <row r="532" spans="1:7">
       <c r="A532" s="23" t="s">
         <v>586</v>
       </c>
@@ -17465,7 +17463,7 @@
       </c>
       <c r="G532" s="25"/>
     </row>
-    <row r="533" spans="1:7" customFormat="1">
+    <row r="533" spans="1:7">
       <c r="A533" s="23" t="s">
         <v>789</v>
       </c>
@@ -17486,7 +17484,7 @@
       </c>
       <c r="G533" s="25"/>
     </row>
-    <row r="534" spans="1:7" customFormat="1" ht="30">
+    <row r="534" spans="1:7" ht="30">
       <c r="A534" s="23" t="s">
         <v>1313</v>
       </c>
@@ -17505,7 +17503,7 @@
       <c r="F534" s="25"/>
       <c r="G534" s="25"/>
     </row>
-    <row r="535" spans="1:7" customFormat="1" ht="30">
+    <row r="535" spans="1:7" ht="30">
       <c r="A535" s="23" t="s">
         <v>174</v>
       </c>
@@ -17526,7 +17524,7 @@
       </c>
       <c r="G535" s="25"/>
     </row>
-    <row r="536" spans="1:7" customFormat="1" ht="45">
+    <row r="536" spans="1:7" ht="45">
       <c r="A536" s="23" t="s">
         <v>493</v>
       </c>
@@ -17547,7 +17545,7 @@
       </c>
       <c r="G536" s="25"/>
     </row>
-    <row r="537" spans="1:7" customFormat="1" ht="33.75">
+    <row r="537" spans="1:7" ht="33.75">
       <c r="A537" s="23" t="s">
         <v>191</v>
       </c>
@@ -17568,7 +17566,7 @@
       </c>
       <c r="G537" s="25"/>
     </row>
-    <row r="538" spans="1:7" customFormat="1" ht="33.75">
+    <row r="538" spans="1:7" ht="33.75">
       <c r="A538" s="23" t="s">
         <v>854</v>
       </c>
@@ -17591,7 +17589,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="539" spans="1:7" customFormat="1" ht="30">
+    <row r="539" spans="1:7" ht="30">
       <c r="A539" s="23" t="s">
         <v>1181</v>
       </c>
@@ -17610,7 +17608,7 @@
       <c r="F539" s="25"/>
       <c r="G539" s="25"/>
     </row>
-    <row r="540" spans="1:7" customFormat="1" ht="67.5">
+    <row r="540" spans="1:7" ht="67.5">
       <c r="A540" s="23" t="s">
         <v>361</v>
       </c>
@@ -17631,7 +17629,7 @@
       </c>
       <c r="G540" s="25"/>
     </row>
-    <row r="541" spans="1:7" customFormat="1">
+    <row r="541" spans="1:7">
       <c r="A541" s="23" t="s">
         <v>1193</v>
       </c>
@@ -17650,7 +17648,7 @@
       <c r="F541" s="25"/>
       <c r="G541" s="25"/>
     </row>
-    <row r="542" spans="1:7" customFormat="1">
+    <row r="542" spans="1:7">
       <c r="A542" s="23" t="s">
         <v>7</v>
       </c>
@@ -17671,7 +17669,7 @@
       </c>
       <c r="G542" s="25"/>
     </row>
-    <row r="543" spans="1:7" customFormat="1" ht="30">
+    <row r="543" spans="1:7" ht="30">
       <c r="A543" s="23" t="s">
         <v>305</v>
       </c>
@@ -17692,7 +17690,7 @@
       </c>
       <c r="G543" s="25"/>
     </row>
-    <row r="544" spans="1:7" customFormat="1">
+    <row r="544" spans="1:7">
       <c r="A544" s="23" t="s">
         <v>310</v>
       </c>
@@ -17713,7 +17711,7 @@
       </c>
       <c r="G544" s="25"/>
     </row>
-    <row r="545" spans="1:16384" customFormat="1">
+    <row r="545" spans="1:16384">
       <c r="A545" s="23" t="s">
         <v>321</v>
       </c>
@@ -17734,7 +17732,7 @@
       </c>
       <c r="G545" s="25"/>
     </row>
-    <row r="546" spans="1:16384" customFormat="1" ht="45">
+    <row r="546" spans="1:16384" ht="45">
       <c r="A546" s="23" t="s">
         <v>136</v>
       </c>
@@ -17755,7 +17753,7 @@
       </c>
       <c r="G546" s="25"/>
     </row>
-    <row r="547" spans="1:16384" customFormat="1" ht="69.75">
+    <row r="547" spans="1:16384" ht="69.75">
       <c r="A547" s="30" t="s">
         <v>1786</v>
       </c>
@@ -17776,7 +17774,7 @@
       </c>
       <c r="G547" s="25"/>
     </row>
-    <row r="548" spans="1:16384" customFormat="1">
+    <row r="548" spans="1:16384">
       <c r="A548" s="23" t="s">
         <v>309</v>
       </c>
@@ -17797,7 +17795,7 @@
       </c>
       <c r="G548" s="25"/>
     </row>
-    <row r="549" spans="1:16384" customFormat="1" ht="60">
+    <row r="549" spans="1:16384" ht="60">
       <c r="A549" s="23" t="s">
         <v>1233</v>
       </c>
@@ -17816,7 +17814,7 @@
       <c r="F549" s="25"/>
       <c r="G549" s="25"/>
     </row>
-    <row r="550" spans="1:16384" customFormat="1" ht="30">
+    <row r="550" spans="1:16384" ht="30">
       <c r="A550" s="23" t="s">
         <v>244</v>
       </c>
@@ -17837,7 +17835,7 @@
       </c>
       <c r="G550" s="25"/>
     </row>
-    <row r="551" spans="1:16384" customFormat="1">
+    <row r="551" spans="1:16384">
       <c r="A551" s="23" t="s">
         <v>470</v>
       </c>
@@ -17856,7 +17854,7 @@
       </c>
       <c r="G551" s="25"/>
     </row>
-    <row r="552" spans="1:16384" customFormat="1" ht="30">
+    <row r="552" spans="1:16384" ht="30">
       <c r="A552" s="23" t="s">
         <v>85</v>
       </c>
@@ -17875,7 +17873,7 @@
       </c>
       <c r="G552" s="25"/>
     </row>
-    <row r="553" spans="1:16384" customFormat="1">
+    <row r="553" spans="1:16384">
       <c r="A553" s="23" t="s">
         <v>1068</v>
       </c>
@@ -17890,7 +17888,7 @@
       <c r="F553" s="25"/>
       <c r="G553" s="25"/>
     </row>
-    <row r="554" spans="1:16384" customFormat="1" ht="30">
+    <row r="554" spans="1:16384" ht="30">
       <c r="A554" s="23" t="s">
         <v>887</v>
       </c>
@@ -17913,7 +17911,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="555" spans="1:16384" customFormat="1">
+    <row r="555" spans="1:16384">
       <c r="A555" s="23" t="s">
         <v>1498</v>
       </c>
@@ -17932,7 +17930,7 @@
       <c r="F555" s="25"/>
       <c r="G555" s="25"/>
     </row>
-    <row r="556" spans="1:16384" customFormat="1">
+    <row r="556" spans="1:16384">
       <c r="A556" s="23" t="s">
         <v>1011</v>
       </c>
@@ -17951,7 +17949,7 @@
       <c r="F556" s="25"/>
       <c r="G556" s="25"/>
     </row>
-    <row r="557" spans="1:16384" customFormat="1" ht="45">
+    <row r="557" spans="1:16384" ht="45">
       <c r="A557" s="23" t="s">
         <v>1298</v>
       </c>
@@ -17970,7 +17968,7 @@
       <c r="F557" s="25"/>
       <c r="G557" s="25"/>
     </row>
-    <row r="558" spans="1:16384" customFormat="1" ht="30">
+    <row r="558" spans="1:16384" ht="30">
       <c r="A558" s="34" t="s">
         <v>1703</v>
       </c>
@@ -17989,7 +17987,7 @@
       <c r="F558" s="35"/>
       <c r="G558" s="37"/>
     </row>
-    <row r="559" spans="1:16384" customFormat="1" ht="38.25">
+    <row r="559" spans="1:16384" ht="38.25">
       <c r="A559" s="38" t="s">
         <v>1706</v>
       </c>
@@ -34385,7 +34383,7 @@
       <c r="XFC559" s="18"/>
       <c r="XFD559" s="19"/>
     </row>
-    <row r="560" spans="1:16384" customFormat="1">
+    <row r="560" spans="1:16384">
       <c r="A560" s="34" t="s">
         <v>1707</v>
       </c>
@@ -34404,7 +34402,7 @@
       <c r="F560" s="35"/>
       <c r="G560" s="37"/>
     </row>
-    <row r="561" spans="1:16384" customFormat="1" ht="51">
+    <row r="561" spans="1:16384" ht="51">
       <c r="A561" s="38" t="s">
         <v>1722</v>
       </c>
@@ -50800,7 +50798,7 @@
       <c r="XFC561" s="18"/>
       <c r="XFD561" s="19"/>
     </row>
-    <row r="562" spans="1:16384" customFormat="1" ht="56.25">
+    <row r="562" spans="1:16384" ht="56.25">
       <c r="A562" s="34" t="s">
         <v>1723</v>
       </c>
@@ -50819,7 +50817,7 @@
       <c r="F562" s="40"/>
       <c r="G562" s="41"/>
     </row>
-    <row r="563" spans="1:16384" customFormat="1" ht="30">
+    <row r="563" spans="1:16384" ht="30">
       <c r="A563" s="38" t="s">
         <v>1724</v>
       </c>
@@ -50836,7 +50834,7 @@
       <c r="F563" s="40"/>
       <c r="G563" s="41"/>
     </row>
-    <row r="564" spans="1:16384" customFormat="1">
+    <row r="564" spans="1:16384">
       <c r="A564" s="34" t="s">
         <v>1725</v>
       </c>
@@ -50853,7 +50851,7 @@
       <c r="F564" s="40"/>
       <c r="G564" s="41"/>
     </row>
-    <row r="565" spans="1:16384" customFormat="1" ht="30">
+    <row r="565" spans="1:16384" ht="30">
       <c r="A565" s="38" t="s">
         <v>1726</v>
       </c>
@@ -50870,7 +50868,7 @@
       <c r="F565" s="40"/>
       <c r="G565" s="41"/>
     </row>
-    <row r="566" spans="1:16384" customFormat="1">
+    <row r="566" spans="1:16384">
       <c r="A566" s="34" t="s">
         <v>1727</v>
       </c>
@@ -50887,7 +50885,7 @@
       <c r="F566" s="40"/>
       <c r="G566" s="41"/>
     </row>
-    <row r="567" spans="1:16384" customFormat="1">
+    <row r="567" spans="1:16384">
       <c r="A567" s="38" t="s">
         <v>1728</v>
       </c>
@@ -50904,7 +50902,7 @@
       <c r="F567" s="40"/>
       <c r="G567" s="41"/>
     </row>
-    <row r="568" spans="1:16384" customFormat="1">
+    <row r="568" spans="1:16384">
       <c r="A568" s="34" t="s">
         <v>1729</v>
       </c>
@@ -50921,7 +50919,7 @@
       <c r="F568" s="40"/>
       <c r="G568" s="41"/>
     </row>
-    <row r="569" spans="1:16384" customFormat="1" ht="30">
+    <row r="569" spans="1:16384" ht="30">
       <c r="A569" s="38" t="s">
         <v>1730</v>
       </c>
@@ -50938,7 +50936,7 @@
       <c r="F569" s="40"/>
       <c r="G569" s="41"/>
     </row>
-    <row r="570" spans="1:16384" customFormat="1">
+    <row r="570" spans="1:16384">
       <c r="A570" s="34" t="s">
         <v>1731</v>
       </c>
@@ -50955,7 +50953,7 @@
       <c r="F570" s="40"/>
       <c r="G570" s="41"/>
     </row>
-    <row r="571" spans="1:16384" customFormat="1" ht="45">
+    <row r="571" spans="1:16384" ht="45">
       <c r="A571" s="38" t="s">
         <v>1734</v>
       </c>
@@ -50974,7 +50972,7 @@
       <c r="F571" s="40"/>
       <c r="G571" s="41"/>
     </row>
-    <row r="572" spans="1:16384" customFormat="1" ht="30">
+    <row r="572" spans="1:16384" ht="30">
       <c r="A572" s="34" t="s">
         <v>1737</v>
       </c>
@@ -50991,7 +50989,7 @@
       <c r="F572" s="40"/>
       <c r="G572" s="41"/>
     </row>
-    <row r="573" spans="1:16384" customFormat="1" ht="38.25">
+    <row r="573" spans="1:16384" ht="38.25">
       <c r="A573" s="38" t="s">
         <v>1740</v>
       </c>
@@ -51010,7 +51008,7 @@
       <c r="F573" s="40"/>
       <c r="G573" s="41"/>
     </row>
-    <row r="574" spans="1:16384" customFormat="1" ht="30">
+    <row r="574" spans="1:16384" ht="30">
       <c r="A574" s="34" t="s">
         <v>1742</v>
       </c>
@@ -51027,7 +51025,7 @@
       <c r="F574" s="40"/>
       <c r="G574" s="41"/>
     </row>
-    <row r="575" spans="1:16384" customFormat="1" ht="60">
+    <row r="575" spans="1:16384" ht="60">
       <c r="A575" s="38" t="s">
         <v>1745</v>
       </c>
@@ -51044,7 +51042,7 @@
       <c r="F575" s="40"/>
       <c r="G575" s="41"/>
     </row>
-    <row r="576" spans="1:16384" customFormat="1" ht="85.5">
+    <row r="576" spans="1:16384" ht="85.5">
       <c r="A576" s="34" t="s">
         <v>1792</v>
       </c>
@@ -51079,22 +51077,6 @@
       </c>
       <c r="F577" s="10"/>
       <c r="G577"/>
-    </row>
-    <row r="578" spans="1:7" customFormat="1">
-      <c r="A578" s="11"/>
-      <c r="B578" s="12"/>
-      <c r="C578" s="13"/>
-      <c r="D578" s="14"/>
-      <c r="E578" s="3"/>
-      <c r="F578" s="10"/>
-    </row>
-    <row r="579" spans="1:7" customFormat="1">
-      <c r="A579" s="11"/>
-      <c r="B579" s="12"/>
-      <c r="C579" s="13"/>
-      <c r="D579" s="14"/>
-      <c r="E579" s="3"/>
-      <c r="F579" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E273">
